--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>140.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1385.4156</v>
+        <v>1212.3636</v>
       </c>
       <c r="G2" t="n">
-        <v>139.8283333333331</v>
+        <v>139.7966666666665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,23 +480,19 @@
         <v>140.9</v>
       </c>
       <c r="F3" t="n">
-        <v>439.1317</v>
+        <v>1385.4156</v>
       </c>
       <c r="G3" t="n">
-        <v>139.8599999999998</v>
+        <v>139.8283333333331</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>140.9</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -519,28 +515,20 @@
         <v>140.9</v>
       </c>
       <c r="F4" t="n">
-        <v>3381.6771</v>
+        <v>439.1317</v>
       </c>
       <c r="G4" t="n">
-        <v>139.8916666666665</v>
+        <v>139.8599999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -562,28 +550,20 @@
         <v>140.9</v>
       </c>
       <c r="F5" t="n">
-        <v>5174.5519</v>
+        <v>3381.6771</v>
       </c>
       <c r="G5" t="n">
-        <v>139.9233333333331</v>
+        <v>139.8916666666665</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -605,23 +585,19 @@
         <v>140.9</v>
       </c>
       <c r="F6" t="n">
-        <v>793.2379</v>
+        <v>5174.5519</v>
       </c>
       <c r="G6" t="n">
-        <v>139.9549999999998</v>
+        <v>139.9233333333331</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>140.9</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -644,28 +620,20 @@
         <v>140.9</v>
       </c>
       <c r="F7" t="n">
-        <v>20883.2567</v>
+        <v>793.2379</v>
       </c>
       <c r="G7" t="n">
-        <v>139.9866666666664</v>
+        <v>139.9549999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -678,19 +646,19 @@
         <v>140.9</v>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="D8" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="E8" t="n">
         <v>140.9</v>
       </c>
       <c r="F8" t="n">
-        <v>2060</v>
+        <v>20883.2567</v>
       </c>
       <c r="G8" t="n">
-        <v>140.0116666666664</v>
+        <v>139.9866666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -699,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -716,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="C9" t="n">
         <v>141</v>
@@ -725,13 +687,13 @@
         <v>141</v>
       </c>
       <c r="E9" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="F9" t="n">
-        <v>4274</v>
+        <v>2060</v>
       </c>
       <c r="G9" t="n">
-        <v>140.0366666666664</v>
+        <v>140.0116666666664</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -740,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -769,10 +725,10 @@
         <v>141</v>
       </c>
       <c r="F10" t="n">
-        <v>2740</v>
+        <v>4274</v>
       </c>
       <c r="G10" t="n">
-        <v>140.0616666666664</v>
+        <v>140.0366666666664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -781,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -810,10 +760,10 @@
         <v>141</v>
       </c>
       <c r="F11" t="n">
-        <v>4394.3514</v>
+        <v>2740</v>
       </c>
       <c r="G11" t="n">
-        <v>140.0866666666664</v>
+        <v>140.0616666666664</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -822,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -851,10 +795,10 @@
         <v>141</v>
       </c>
       <c r="F12" t="n">
-        <v>972.7784</v>
+        <v>4394.3514</v>
       </c>
       <c r="G12" t="n">
-        <v>140.1116666666664</v>
+        <v>140.0866666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -863,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -892,10 +830,10 @@
         <v>141</v>
       </c>
       <c r="F13" t="n">
-        <v>2403.45</v>
+        <v>972.7784</v>
       </c>
       <c r="G13" t="n">
-        <v>140.1316666666665</v>
+        <v>140.1116666666664</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -904,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -933,10 +865,10 @@
         <v>141</v>
       </c>
       <c r="F14" t="n">
-        <v>576.0251</v>
+        <v>2403.45</v>
       </c>
       <c r="G14" t="n">
-        <v>140.1516666666665</v>
+        <v>140.1316666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -945,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -974,10 +900,10 @@
         <v>141</v>
       </c>
       <c r="F15" t="n">
-        <v>2382</v>
+        <v>576.0251</v>
       </c>
       <c r="G15" t="n">
-        <v>140.1716666666665</v>
+        <v>140.1516666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -986,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1006,19 +926,19 @@
         <v>141</v>
       </c>
       <c r="C16" t="n">
-        <v>141.3</v>
+        <v>141</v>
       </c>
       <c r="D16" t="n">
-        <v>141.3</v>
+        <v>141</v>
       </c>
       <c r="E16" t="n">
         <v>141</v>
       </c>
       <c r="F16" t="n">
-        <v>5482.4302</v>
+        <v>2382</v>
       </c>
       <c r="G16" t="n">
-        <v>140.2016666666665</v>
+        <v>140.1716666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1027,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1044,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>141</v>
+      </c>
+      <c r="C17" t="n">
         <v>141.3</v>
       </c>
-      <c r="C17" t="n">
-        <v>142</v>
-      </c>
       <c r="D17" t="n">
-        <v>142</v>
+        <v>141.3</v>
       </c>
       <c r="E17" t="n">
-        <v>141.3</v>
+        <v>141</v>
       </c>
       <c r="F17" t="n">
-        <v>591.4059999999999</v>
+        <v>5482.4302</v>
       </c>
       <c r="G17" t="n">
-        <v>140.2383333333331</v>
+        <v>140.2016666666665</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1068,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1085,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>142</v>
+        <v>141.3</v>
       </c>
       <c r="C18" t="n">
         <v>142</v>
@@ -1094,13 +1002,13 @@
         <v>142</v>
       </c>
       <c r="E18" t="n">
-        <v>142</v>
+        <v>141.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1863.9359</v>
+        <v>591.4059999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>140.2749999999998</v>
+        <v>140.2383333333331</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1109,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1138,10 +1040,10 @@
         <v>142</v>
       </c>
       <c r="F19" t="n">
-        <v>1446.9275</v>
+        <v>1863.9359</v>
       </c>
       <c r="G19" t="n">
-        <v>140.3116666666665</v>
+        <v>140.2749999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1150,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1179,10 +1075,10 @@
         <v>142</v>
       </c>
       <c r="F20" t="n">
-        <v>1247.61</v>
+        <v>1446.9275</v>
       </c>
       <c r="G20" t="n">
-        <v>140.3483333333332</v>
+        <v>140.3116666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1191,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1211,19 +1101,19 @@
         <v>142</v>
       </c>
       <c r="C21" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="D21" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="E21" t="n">
         <v>142</v>
       </c>
       <c r="F21" t="n">
-        <v>9008.7863</v>
+        <v>1247.61</v>
       </c>
       <c r="G21" t="n">
-        <v>140.3916666666665</v>
+        <v>140.3483333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1232,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1249,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>142.5</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n">
-        <v>144</v>
+        <v>142.4</v>
       </c>
       <c r="D22" t="n">
-        <v>144</v>
+        <v>142.4</v>
       </c>
       <c r="E22" t="n">
-        <v>142.5</v>
+        <v>142</v>
       </c>
       <c r="F22" t="n">
-        <v>6000</v>
+        <v>9008.7863</v>
       </c>
       <c r="G22" t="n">
-        <v>140.4616666666665</v>
+        <v>140.3916666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1273,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1290,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>144</v>
+        <v>142.5</v>
       </c>
       <c r="C23" t="n">
         <v>144</v>
@@ -1299,13 +1177,13 @@
         <v>144</v>
       </c>
       <c r="E23" t="n">
-        <v>144</v>
+        <v>142.5</v>
       </c>
       <c r="F23" t="n">
-        <v>3331.5408</v>
+        <v>6000</v>
       </c>
       <c r="G23" t="n">
-        <v>140.5283333333332</v>
+        <v>140.4616666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1314,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1334,19 +1206,19 @@
         <v>144</v>
       </c>
       <c r="C24" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="D24" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="E24" t="n">
         <v>144</v>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>3331.5408</v>
       </c>
       <c r="G24" t="n">
-        <v>140.6033333333332</v>
+        <v>140.5283333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1355,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1375,19 +1241,19 @@
         <v>144</v>
       </c>
       <c r="C25" t="n">
-        <v>142.3</v>
+        <v>144.5</v>
       </c>
       <c r="D25" t="n">
         <v>144.5</v>
       </c>
       <c r="E25" t="n">
-        <v>142.3</v>
+        <v>144</v>
       </c>
       <c r="F25" t="n">
-        <v>10425.7247</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="n">
-        <v>140.6733333333332</v>
+        <v>140.6033333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1396,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1416,19 +1276,19 @@
         <v>144</v>
       </c>
       <c r="C26" t="n">
-        <v>142.5</v>
+        <v>142.3</v>
       </c>
       <c r="D26" t="n">
-        <v>144</v>
+        <v>144.5</v>
       </c>
       <c r="E26" t="n">
-        <v>142.5</v>
+        <v>142.3</v>
       </c>
       <c r="F26" t="n">
-        <v>10016.3942</v>
+        <v>10425.7247</v>
       </c>
       <c r="G26" t="n">
-        <v>140.7316666666665</v>
+        <v>140.6733333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1437,16 +1297,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>1.006355571327183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1454,28 +1308,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>144.6</v>
+        <v>144</v>
       </c>
       <c r="C27" t="n">
-        <v>144.6</v>
+        <v>142.5</v>
       </c>
       <c r="D27" t="n">
-        <v>144.6</v>
+        <v>144</v>
       </c>
       <c r="E27" t="n">
-        <v>144.6</v>
+        <v>142.5</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>10016.3942</v>
       </c>
       <c r="G27" t="n">
-        <v>140.8099999999999</v>
+        <v>140.7316666666665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1489,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>144</v>
+        <v>144.6</v>
       </c>
       <c r="C28" t="n">
-        <v>142.5</v>
+        <v>144.6</v>
       </c>
       <c r="D28" t="n">
-        <v>144</v>
+        <v>144.6</v>
       </c>
       <c r="E28" t="n">
-        <v>142.5</v>
+        <v>144.6</v>
       </c>
       <c r="F28" t="n">
-        <v>3331.5408</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>140.8816666666665</v>
+        <v>140.8099999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1524,28 +1378,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>142.9</v>
+        <v>144</v>
       </c>
       <c r="C29" t="n">
-        <v>144.3</v>
+        <v>142.5</v>
       </c>
       <c r="D29" t="n">
-        <v>144.3</v>
+        <v>144</v>
       </c>
       <c r="E29" t="n">
-        <v>142.8</v>
+        <v>142.5</v>
       </c>
       <c r="F29" t="n">
-        <v>5239.2242</v>
+        <v>3331.5408</v>
       </c>
       <c r="G29" t="n">
-        <v>140.9833333333331</v>
+        <v>140.8816666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1559,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>142.4</v>
+        <v>142.9</v>
       </c>
       <c r="C30" t="n">
-        <v>142.4</v>
+        <v>144.3</v>
       </c>
       <c r="D30" t="n">
-        <v>142.4</v>
+        <v>144.3</v>
       </c>
       <c r="E30" t="n">
-        <v>142.4</v>
+        <v>142.8</v>
       </c>
       <c r="F30" t="n">
-        <v>2279.8327</v>
+        <v>5239.2242</v>
       </c>
       <c r="G30" t="n">
-        <v>141.0533333333331</v>
+        <v>140.9833333333331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1594,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>142.6</v>
+        <v>142.4</v>
       </c>
       <c r="C31" t="n">
-        <v>142.6</v>
+        <v>142.4</v>
       </c>
       <c r="D31" t="n">
-        <v>142.6</v>
+        <v>142.4</v>
       </c>
       <c r="E31" t="n">
-        <v>142.6</v>
+        <v>142.4</v>
       </c>
       <c r="F31" t="n">
-        <v>325.752</v>
+        <v>2279.8327</v>
       </c>
       <c r="G31" t="n">
-        <v>141.1133333333331</v>
+        <v>141.0533333333331</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1629,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>143</v>
+        <v>142.6</v>
       </c>
       <c r="C32" t="n">
-        <v>143</v>
+        <v>142.6</v>
       </c>
       <c r="D32" t="n">
-        <v>143</v>
+        <v>142.6</v>
       </c>
       <c r="E32" t="n">
-        <v>143</v>
+        <v>142.6</v>
       </c>
       <c r="F32" t="n">
-        <v>469.2985</v>
+        <v>325.752</v>
       </c>
       <c r="G32" t="n">
-        <v>141.1799999999998</v>
+        <v>141.1133333333331</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1664,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>142.5</v>
+        <v>143</v>
       </c>
       <c r="C33" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="D33" t="n">
-        <v>142.5</v>
+        <v>143</v>
       </c>
       <c r="E33" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="F33" t="n">
-        <v>2000</v>
+        <v>469.2985</v>
       </c>
       <c r="G33" t="n">
-        <v>141.2366666666665</v>
+        <v>141.1799999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1699,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="C34" t="n">
         <v>142.4</v>
       </c>
-      <c r="C34" t="n">
-        <v>141.7</v>
-      </c>
       <c r="D34" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="E34" t="n">
         <v>142.4</v>
       </c>
-      <c r="E34" t="n">
-        <v>141.7</v>
-      </c>
       <c r="F34" t="n">
-        <v>33601.4375</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2816666666665</v>
+        <v>141.2366666666665</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1734,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>142</v>
+        <v>142.4</v>
       </c>
       <c r="C35" t="n">
-        <v>142</v>
+        <v>141.7</v>
       </c>
       <c r="D35" t="n">
-        <v>142</v>
+        <v>142.4</v>
       </c>
       <c r="E35" t="n">
-        <v>142</v>
+        <v>141.7</v>
       </c>
       <c r="F35" t="n">
-        <v>478.1971</v>
+        <v>33601.4375</v>
       </c>
       <c r="G35" t="n">
-        <v>141.3316666666665</v>
+        <v>141.2816666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1772,19 +1626,19 @@
         <v>142</v>
       </c>
       <c r="C36" t="n">
-        <v>142.6</v>
+        <v>142</v>
       </c>
       <c r="D36" t="n">
-        <v>142.7</v>
+        <v>142</v>
       </c>
       <c r="E36" t="n">
         <v>142</v>
       </c>
       <c r="F36" t="n">
-        <v>2558.7255</v>
+        <v>478.1971</v>
       </c>
       <c r="G36" t="n">
-        <v>141.3766666666665</v>
+        <v>141.3316666666665</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1804,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>142.5</v>
+        <v>142</v>
       </c>
       <c r="C37" t="n">
-        <v>142.5</v>
+        <v>142.6</v>
       </c>
       <c r="D37" t="n">
-        <v>142.5</v>
+        <v>142.7</v>
       </c>
       <c r="E37" t="n">
-        <v>142.5</v>
+        <v>142</v>
       </c>
       <c r="F37" t="n">
-        <v>988.8075</v>
+        <v>2558.7255</v>
       </c>
       <c r="G37" t="n">
-        <v>141.4333333333331</v>
+        <v>141.3766666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1839,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>141.6</v>
+        <v>142.5</v>
       </c>
       <c r="C38" t="n">
-        <v>142</v>
+        <v>142.5</v>
       </c>
       <c r="D38" t="n">
-        <v>142</v>
+        <v>142.5</v>
       </c>
       <c r="E38" t="n">
-        <v>141.6</v>
+        <v>142.5</v>
       </c>
       <c r="F38" t="n">
-        <v>765.6767</v>
+        <v>988.8075</v>
       </c>
       <c r="G38" t="n">
-        <v>141.4683333333332</v>
+        <v>141.4333333333331</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1874,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="C39" t="n">
         <v>142</v>
-      </c>
-      <c r="C39" t="n">
-        <v>141.9</v>
       </c>
       <c r="D39" t="n">
         <v>142</v>
       </c>
       <c r="E39" t="n">
-        <v>141.2</v>
+        <v>141.6</v>
       </c>
       <c r="F39" t="n">
-        <v>1661.0048</v>
+        <v>765.6767</v>
       </c>
       <c r="G39" t="n">
-        <v>141.5049999999998</v>
+        <v>141.4683333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1909,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>141.8</v>
+        <v>142</v>
       </c>
       <c r="C40" t="n">
         <v>141.9</v>
       </c>
       <c r="D40" t="n">
-        <v>141.9</v>
+        <v>142</v>
       </c>
       <c r="E40" t="n">
-        <v>141.8</v>
+        <v>141.2</v>
       </c>
       <c r="F40" t="n">
-        <v>7248.736</v>
+        <v>1661.0048</v>
       </c>
       <c r="G40" t="n">
-        <v>141.5366666666665</v>
+        <v>141.5049999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1944,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="C41" t="n">
         <v>141.9</v>
       </c>
-      <c r="C41" t="n">
-        <v>142</v>
-      </c>
       <c r="D41" t="n">
-        <v>142</v>
+        <v>141.9</v>
       </c>
       <c r="E41" t="n">
-        <v>141.9</v>
+        <v>141.8</v>
       </c>
       <c r="F41" t="n">
-        <v>5061.8784</v>
+        <v>7248.736</v>
       </c>
       <c r="G41" t="n">
-        <v>141.5699999999998</v>
+        <v>141.5366666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1982,19 +1836,19 @@
         <v>141.9</v>
       </c>
       <c r="C42" t="n">
-        <v>141.9</v>
+        <v>142</v>
       </c>
       <c r="D42" t="n">
-        <v>141.9</v>
+        <v>142</v>
       </c>
       <c r="E42" t="n">
         <v>141.9</v>
       </c>
       <c r="F42" t="n">
-        <v>7416.7123</v>
+        <v>5061.8784</v>
       </c>
       <c r="G42" t="n">
-        <v>141.6016666666665</v>
+        <v>141.5699999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2017,19 +1871,19 @@
         <v>141.9</v>
       </c>
       <c r="C43" t="n">
-        <v>142</v>
+        <v>141.9</v>
       </c>
       <c r="D43" t="n">
-        <v>142</v>
+        <v>141.9</v>
       </c>
       <c r="E43" t="n">
         <v>141.9</v>
       </c>
       <c r="F43" t="n">
-        <v>4098.3794</v>
+        <v>7416.7123</v>
       </c>
       <c r="G43" t="n">
-        <v>141.6199999999998</v>
+        <v>141.6016666666665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2049,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>142</v>
+        <v>141.9</v>
       </c>
       <c r="C44" t="n">
         <v>142</v>
@@ -2058,13 +1912,13 @@
         <v>142</v>
       </c>
       <c r="E44" t="n">
-        <v>142</v>
+        <v>141.9</v>
       </c>
       <c r="F44" t="n">
-        <v>478.195</v>
+        <v>4098.3794</v>
       </c>
       <c r="G44" t="n">
-        <v>141.6416666666665</v>
+        <v>141.6199999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2084,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>141.3</v>
+        <v>142</v>
       </c>
       <c r="C45" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" t="n">
         <v>142</v>
       </c>
       <c r="E45" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F45" t="n">
-        <v>5258.3264</v>
+        <v>478.195</v>
       </c>
       <c r="G45" t="n">
-        <v>141.6466666666664</v>
+        <v>141.6416666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2119,10 +1973,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="C46" t="n">
         <v>141</v>
-      </c>
-      <c r="C46" t="n">
-        <v>142</v>
       </c>
       <c r="D46" t="n">
         <v>142</v>
@@ -2131,10 +1985,10 @@
         <v>141</v>
       </c>
       <c r="F46" t="n">
-        <v>475</v>
+        <v>5258.3264</v>
       </c>
       <c r="G46" t="n">
-        <v>141.6683333333331</v>
+        <v>141.6466666666664</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2154,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>141</v>
+      </c>
+      <c r="C47" t="n">
         <v>142</v>
       </c>
-      <c r="C47" t="n">
-        <v>142.4</v>
-      </c>
       <c r="D47" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="E47" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" t="n">
-        <v>636.2924</v>
+        <v>475</v>
       </c>
       <c r="G47" t="n">
-        <v>141.6933333333331</v>
+        <v>141.6683333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2189,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>142.3</v>
+        <v>142</v>
       </c>
       <c r="C48" t="n">
-        <v>142.3</v>
+        <v>142.4</v>
       </c>
       <c r="D48" t="n">
-        <v>142.3</v>
+        <v>142.4</v>
       </c>
       <c r="E48" t="n">
-        <v>142.3</v>
+        <v>142</v>
       </c>
       <c r="F48" t="n">
-        <v>223.0669</v>
+        <v>636.2924</v>
       </c>
       <c r="G48" t="n">
-        <v>141.7233333333331</v>
+        <v>141.6933333333331</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2227,35 +2081,29 @@
         <v>142.3</v>
       </c>
       <c r="C49" t="n">
-        <v>142.4</v>
+        <v>142.3</v>
       </c>
       <c r="D49" t="n">
-        <v>142.4</v>
+        <v>142.3</v>
       </c>
       <c r="E49" t="n">
         <v>142.3</v>
       </c>
       <c r="F49" t="n">
-        <v>4406.8419</v>
+        <v>223.0669</v>
       </c>
       <c r="G49" t="n">
-        <v>141.7549999999997</v>
+        <v>141.7233333333331</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>142.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2265,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="C50" t="n">
         <v>142.4</v>
       </c>
-      <c r="C50" t="n">
-        <v>142.5</v>
-      </c>
       <c r="D50" t="n">
-        <v>142.5</v>
+        <v>142.4</v>
       </c>
       <c r="E50" t="n">
-        <v>142.4</v>
+        <v>142.3</v>
       </c>
       <c r="F50" t="n">
-        <v>5391.751</v>
+        <v>4406.8419</v>
       </c>
       <c r="G50" t="n">
-        <v>141.7883333333331</v>
+        <v>141.7549999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2290,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2304,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>142.5</v>
+        <v>142.4</v>
       </c>
       <c r="C51" t="n">
         <v>142.5</v>
@@ -2313,13 +2157,13 @@
         <v>142.5</v>
       </c>
       <c r="E51" t="n">
-        <v>142.5</v>
+        <v>142.4</v>
       </c>
       <c r="F51" t="n">
-        <v>1250</v>
+        <v>5391.751</v>
       </c>
       <c r="G51" t="n">
-        <v>141.8149999999997</v>
+        <v>141.7883333333331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2329,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2343,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>142.4</v>
+        <v>142.5</v>
       </c>
       <c r="C52" t="n">
-        <v>144.6</v>
+        <v>142.5</v>
       </c>
       <c r="D52" t="n">
-        <v>144.6</v>
+        <v>142.5</v>
       </c>
       <c r="E52" t="n">
-        <v>142.4</v>
+        <v>142.5</v>
       </c>
       <c r="F52" t="n">
-        <v>125</v>
+        <v>1250</v>
       </c>
       <c r="G52" t="n">
-        <v>141.8949999999998</v>
+        <v>141.8149999999997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2368,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>143</v>
+        <v>142.4</v>
       </c>
       <c r="C53" t="n">
-        <v>143</v>
+        <v>144.6</v>
       </c>
       <c r="D53" t="n">
-        <v>143</v>
+        <v>144.6</v>
       </c>
       <c r="E53" t="n">
-        <v>142.5</v>
+        <v>142.4</v>
       </c>
       <c r="F53" t="n">
-        <v>40248.5827</v>
+        <v>125</v>
       </c>
       <c r="G53" t="n">
-        <v>141.9299999999998</v>
+        <v>141.8949999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2407,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2421,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>142.2</v>
+        <v>143</v>
       </c>
       <c r="C54" t="n">
-        <v>143.7</v>
+        <v>143</v>
       </c>
       <c r="D54" t="n">
-        <v>143.7</v>
+        <v>143</v>
       </c>
       <c r="E54" t="n">
-        <v>142.2</v>
+        <v>142.5</v>
       </c>
       <c r="F54" t="n">
-        <v>9925.740599999999</v>
+        <v>40248.5827</v>
       </c>
       <c r="G54" t="n">
-        <v>141.9799999999998</v>
+        <v>141.9299999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2446,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2463,33 +2291,29 @@
         <v>142.2</v>
       </c>
       <c r="C55" t="n">
-        <v>142.2</v>
+        <v>143.7</v>
       </c>
       <c r="D55" t="n">
-        <v>142.2</v>
+        <v>143.7</v>
       </c>
       <c r="E55" t="n">
         <v>142.2</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>9925.740599999999</v>
       </c>
       <c r="G55" t="n">
-        <v>142.0066666666665</v>
+        <v>141.9799999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2499,36 +2323,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>142.5</v>
+        <v>142.2</v>
       </c>
       <c r="C56" t="n">
-        <v>142.5</v>
+        <v>142.2</v>
       </c>
       <c r="D56" t="n">
-        <v>142.5</v>
+        <v>142.2</v>
       </c>
       <c r="E56" t="n">
-        <v>142.5</v>
+        <v>142.2</v>
       </c>
       <c r="F56" t="n">
-        <v>6041.5</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>142.0383333333331</v>
+        <v>142.0066666666665</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2538,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>142.4</v>
+        <v>142.5</v>
       </c>
       <c r="C57" t="n">
-        <v>143.9</v>
+        <v>142.5</v>
       </c>
       <c r="D57" t="n">
-        <v>143.9</v>
+        <v>142.5</v>
       </c>
       <c r="E57" t="n">
-        <v>142.4</v>
+        <v>142.5</v>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>6041.5</v>
       </c>
       <c r="G57" t="n">
-        <v>142.0883333333331</v>
+        <v>142.0383333333331</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2563,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2577,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>143.9</v>
+        <v>142.4</v>
       </c>
       <c r="C58" t="n">
         <v>143.9</v>
@@ -2586,25 +2402,27 @@
         <v>143.9</v>
       </c>
       <c r="E58" t="n">
-        <v>143.8</v>
+        <v>142.4</v>
       </c>
       <c r="F58" t="n">
-        <v>1310.4412</v>
+        <v>250</v>
       </c>
       <c r="G58" t="n">
-        <v>142.1383333333331</v>
+        <v>142.0883333333331</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>142.5</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2616,30 +2434,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="C59" t="n">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="D59" t="n">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="E59" t="n">
         <v>143.8</v>
       </c>
       <c r="F59" t="n">
-        <v>411.7648</v>
+        <v>1310.4412</v>
       </c>
       <c r="G59" t="n">
-        <v>142.1866666666664</v>
+        <v>142.1383333333331</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2655,22 +2475,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>142.3</v>
+        <v>143.8</v>
       </c>
       <c r="C60" t="n">
-        <v>142.3</v>
+        <v>143.8</v>
       </c>
       <c r="D60" t="n">
-        <v>142.3</v>
+        <v>143.8</v>
       </c>
       <c r="E60" t="n">
-        <v>142.3</v>
+        <v>143.8</v>
       </c>
       <c r="F60" t="n">
-        <v>499.8304</v>
+        <v>411.7648</v>
       </c>
       <c r="G60" t="n">
-        <v>142.2099999999998</v>
+        <v>142.1866666666664</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2694,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>144</v>
+        <v>142.3</v>
       </c>
       <c r="C61" t="n">
-        <v>144</v>
+        <v>142.3</v>
       </c>
       <c r="D61" t="n">
-        <v>144</v>
+        <v>142.3</v>
       </c>
       <c r="E61" t="n">
-        <v>144</v>
+        <v>142.3</v>
       </c>
       <c r="F61" t="n">
-        <v>394.7683</v>
+        <v>499.8304</v>
       </c>
       <c r="G61" t="n">
-        <v>142.2616666666664</v>
+        <v>142.2099999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2745,10 +2565,10 @@
         <v>144</v>
       </c>
       <c r="F62" t="n">
-        <v>11169.0644</v>
+        <v>394.7683</v>
       </c>
       <c r="G62" t="n">
-        <v>142.3133333333331</v>
+        <v>142.2616666666664</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2784,10 +2604,10 @@
         <v>144</v>
       </c>
       <c r="F63" t="n">
-        <v>2131.7207</v>
+        <v>11169.0644</v>
       </c>
       <c r="G63" t="n">
-        <v>142.3649999999998</v>
+        <v>142.3133333333331</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2823,10 +2643,10 @@
         <v>144</v>
       </c>
       <c r="F64" t="n">
-        <v>240.7922</v>
+        <v>2131.7207</v>
       </c>
       <c r="G64" t="n">
-        <v>142.4166666666665</v>
+        <v>142.3649999999998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2862,10 +2682,10 @@
         <v>144</v>
       </c>
       <c r="F65" t="n">
-        <v>46130.6752</v>
+        <v>240.7922</v>
       </c>
       <c r="G65" t="n">
-        <v>142.4683333333331</v>
+        <v>142.4166666666665</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2889,22 +2709,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="C66" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="D66" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="E66" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="F66" t="n">
-        <v>17663.9996</v>
+        <v>46130.6752</v>
       </c>
       <c r="G66" t="n">
-        <v>142.5283333333331</v>
+        <v>142.4683333333331</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2940,10 +2760,10 @@
         <v>144.5</v>
       </c>
       <c r="F67" t="n">
-        <v>3646.2116</v>
+        <v>17663.9996</v>
       </c>
       <c r="G67" t="n">
-        <v>142.5883333333331</v>
+        <v>142.5283333333331</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2955,42 +2775,48 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>144.6</v>
+        <v>144.5</v>
       </c>
       <c r="C68" t="n">
-        <v>145</v>
+        <v>144.5</v>
       </c>
       <c r="D68" t="n">
-        <v>145</v>
+        <v>144.5</v>
       </c>
       <c r="E68" t="n">
-        <v>144.6</v>
+        <v>144.5</v>
       </c>
       <c r="F68" t="n">
-        <v>34815.4534</v>
+        <v>3646.2116</v>
       </c>
       <c r="G68" t="n">
-        <v>142.6549999999998</v>
+        <v>142.5883333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3000,22 +2826,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>145.2</v>
+        <v>144.6</v>
       </c>
       <c r="C69" t="n">
-        <v>145.2</v>
+        <v>145</v>
       </c>
       <c r="D69" t="n">
-        <v>145.2</v>
+        <v>145</v>
       </c>
       <c r="E69" t="n">
-        <v>145.2</v>
+        <v>144.6</v>
       </c>
       <c r="F69" t="n">
-        <v>334.8109</v>
+        <v>34815.4534</v>
       </c>
       <c r="G69" t="n">
-        <v>142.7249999999998</v>
+        <v>142.6549999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3025,7 +2851,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3038,29 +2868,33 @@
         <v>145.2</v>
       </c>
       <c r="C70" t="n">
-        <v>145.5</v>
+        <v>145.2</v>
       </c>
       <c r="D70" t="n">
-        <v>145.5</v>
+        <v>145.2</v>
       </c>
       <c r="E70" t="n">
         <v>145.2</v>
       </c>
       <c r="F70" t="n">
-        <v>15117.4719</v>
+        <v>334.8109</v>
       </c>
       <c r="G70" t="n">
-        <v>142.7999999999998</v>
+        <v>142.7249999999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +2904,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="C71" t="n">
         <v>145.5</v>
       </c>
-      <c r="C71" t="n">
-        <v>145.6</v>
-      </c>
       <c r="D71" t="n">
-        <v>145.6</v>
+        <v>145.5</v>
       </c>
       <c r="E71" t="n">
-        <v>145.5</v>
+        <v>145.2</v>
       </c>
       <c r="F71" t="n">
-        <v>3377.0196</v>
+        <v>15117.4719</v>
       </c>
       <c r="G71" t="n">
-        <v>142.8766666666665</v>
+        <v>142.7999999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3095,7 +2929,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3105,22 +2943,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>145.7</v>
+        <v>145.5</v>
       </c>
       <c r="C72" t="n">
-        <v>145.7</v>
+        <v>145.6</v>
       </c>
       <c r="D72" t="n">
-        <v>145.7</v>
+        <v>145.6</v>
       </c>
       <c r="E72" t="n">
-        <v>145.7</v>
+        <v>145.5</v>
       </c>
       <c r="F72" t="n">
-        <v>395.6254</v>
+        <v>3377.0196</v>
       </c>
       <c r="G72" t="n">
-        <v>142.9549999999998</v>
+        <v>142.8766666666665</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3130,7 +2968,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3143,19 +2985,19 @@
         <v>145.7</v>
       </c>
       <c r="C73" t="n">
-        <v>146</v>
+        <v>145.7</v>
       </c>
       <c r="D73" t="n">
-        <v>146</v>
+        <v>145.7</v>
       </c>
       <c r="E73" t="n">
         <v>145.7</v>
       </c>
       <c r="F73" t="n">
-        <v>1973.3198</v>
+        <v>395.6254</v>
       </c>
       <c r="G73" t="n">
-        <v>143.0383333333332</v>
+        <v>142.9549999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3165,7 +3007,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3175,22 +3021,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>146.2</v>
+        <v>145.7</v>
       </c>
       <c r="C74" t="n">
-        <v>146.4</v>
+        <v>146</v>
       </c>
       <c r="D74" t="n">
-        <v>146.4</v>
+        <v>146</v>
       </c>
       <c r="E74" t="n">
-        <v>146.2</v>
+        <v>145.7</v>
       </c>
       <c r="F74" t="n">
-        <v>5594.5223</v>
+        <v>1973.3198</v>
       </c>
       <c r="G74" t="n">
-        <v>143.1283333333332</v>
+        <v>143.0383333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3200,7 +3046,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3060,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="C75" t="n">
         <v>146.4</v>
       </c>
-      <c r="C75" t="n">
-        <v>146.5</v>
-      </c>
       <c r="D75" t="n">
-        <v>147</v>
+        <v>146.4</v>
       </c>
       <c r="E75" t="n">
-        <v>146.4</v>
+        <v>146.2</v>
       </c>
       <c r="F75" t="n">
-        <v>12756.1987</v>
+        <v>5594.5223</v>
       </c>
       <c r="G75" t="n">
-        <v>143.2199999999998</v>
+        <v>143.1283333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3235,7 +3085,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3245,22 +3099,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="C76" t="n">
         <v>146.5</v>
       </c>
-      <c r="C76" t="n">
-        <v>144.1</v>
-      </c>
       <c r="D76" t="n">
-        <v>146.5</v>
+        <v>147</v>
       </c>
       <c r="E76" t="n">
-        <v>144.1</v>
+        <v>146.4</v>
       </c>
       <c r="F76" t="n">
-        <v>5757.98</v>
+        <v>12756.1987</v>
       </c>
       <c r="G76" t="n">
-        <v>143.2666666666665</v>
+        <v>143.2199999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3270,7 +3124,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3280,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>145.1</v>
+        <v>146.5</v>
       </c>
       <c r="C77" t="n">
-        <v>145.1</v>
+        <v>144.1</v>
       </c>
       <c r="D77" t="n">
-        <v>145.1</v>
+        <v>146.5</v>
       </c>
       <c r="E77" t="n">
-        <v>145.1</v>
+        <v>144.1</v>
       </c>
       <c r="F77" t="n">
-        <v>2610.8249</v>
+        <v>5757.98</v>
       </c>
       <c r="G77" t="n">
-        <v>143.3183333333332</v>
+        <v>143.2666666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3305,7 +3163,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3327,10 +3189,10 @@
         <v>145.1</v>
       </c>
       <c r="F78" t="n">
-        <v>6126.6878</v>
+        <v>2610.8249</v>
       </c>
       <c r="G78" t="n">
-        <v>143.3699999999999</v>
+        <v>143.3183333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3340,7 +3202,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3350,22 +3216,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>146.2</v>
+        <v>145.1</v>
       </c>
       <c r="C79" t="n">
-        <v>146.2</v>
+        <v>145.1</v>
       </c>
       <c r="D79" t="n">
-        <v>146.2</v>
+        <v>145.1</v>
       </c>
       <c r="E79" t="n">
-        <v>146.2</v>
+        <v>145.1</v>
       </c>
       <c r="F79" t="n">
-        <v>677.8582</v>
+        <v>6126.6878</v>
       </c>
       <c r="G79" t="n">
-        <v>143.4399999999999</v>
+        <v>143.3699999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3375,7 +3241,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3388,19 +3258,19 @@
         <v>146.2</v>
       </c>
       <c r="C80" t="n">
-        <v>146.5</v>
+        <v>146.2</v>
       </c>
       <c r="D80" t="n">
-        <v>146.5</v>
+        <v>146.2</v>
       </c>
       <c r="E80" t="n">
         <v>146.2</v>
       </c>
       <c r="F80" t="n">
-        <v>334.8109</v>
+        <v>677.8582</v>
       </c>
       <c r="G80" t="n">
-        <v>143.5149999999999</v>
+        <v>143.4399999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3410,7 +3280,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3420,22 +3294,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="C81" t="n">
         <v>146.5</v>
       </c>
-      <c r="C81" t="n">
-        <v>147</v>
-      </c>
       <c r="D81" t="n">
-        <v>147</v>
+        <v>146.5</v>
       </c>
       <c r="E81" t="n">
-        <v>146.5</v>
+        <v>146.2</v>
       </c>
       <c r="F81" t="n">
-        <v>425.6266</v>
+        <v>334.8109</v>
       </c>
       <c r="G81" t="n">
-        <v>143.5916666666666</v>
+        <v>143.5149999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3445,7 +3319,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3455,7 +3333,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>147</v>
+        <v>146.5</v>
       </c>
       <c r="C82" t="n">
         <v>147</v>
@@ -3464,13 +3342,13 @@
         <v>147</v>
       </c>
       <c r="E82" t="n">
-        <v>147</v>
+        <v>146.5</v>
       </c>
       <c r="F82" t="n">
-        <v>1909.5727</v>
+        <v>425.6266</v>
       </c>
       <c r="G82" t="n">
-        <v>143.6416666666665</v>
+        <v>143.5916666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3480,7 +3358,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3502,10 +3384,10 @@
         <v>147</v>
       </c>
       <c r="F83" t="n">
-        <v>423.4409</v>
+        <v>1909.5727</v>
       </c>
       <c r="G83" t="n">
-        <v>143.6916666666665</v>
+        <v>143.6416666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3515,7 +3397,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3525,22 +3411,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>146.2</v>
+        <v>147</v>
       </c>
       <c r="C84" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="D84" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="E84" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="F84" t="n">
-        <v>7852.3207</v>
+        <v>423.4409</v>
       </c>
       <c r="G84" t="n">
-        <v>143.7483333333332</v>
+        <v>143.6916666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3550,7 +3436,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3560,22 +3450,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>146.1</v>
+        <v>146.2</v>
       </c>
       <c r="C85" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="D85" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="E85" t="n">
         <v>146.1</v>
       </c>
       <c r="F85" t="n">
-        <v>988</v>
+        <v>7852.3207</v>
       </c>
       <c r="G85" t="n">
-        <v>143.8116666666666</v>
+        <v>143.7483333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3585,7 +3475,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3595,22 +3489,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>147.8</v>
+        <v>146.1</v>
       </c>
       <c r="C86" t="n">
-        <v>148</v>
+        <v>146.1</v>
       </c>
       <c r="D86" t="n">
-        <v>148</v>
+        <v>146.1</v>
       </c>
       <c r="E86" t="n">
-        <v>147.8</v>
+        <v>146.1</v>
       </c>
       <c r="F86" t="n">
-        <v>1131.5675</v>
+        <v>988</v>
       </c>
       <c r="G86" t="n">
-        <v>143.9033333333332</v>
+        <v>143.8116666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3620,7 +3514,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3630,22 +3528,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>148.1</v>
+        <v>147.8</v>
       </c>
       <c r="C87" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="D87" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="E87" t="n">
-        <v>148.1</v>
+        <v>147.8</v>
       </c>
       <c r="F87" t="n">
-        <v>5005</v>
+        <v>1131.5675</v>
       </c>
       <c r="G87" t="n">
-        <v>143.9616666666666</v>
+        <v>143.9033333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3655,7 +3553,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3668,19 +3570,19 @@
         <v>148.1</v>
       </c>
       <c r="C88" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="D88" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="E88" t="n">
         <v>148.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2052.8065</v>
+        <v>5005</v>
       </c>
       <c r="G88" t="n">
-        <v>144.0599999999999</v>
+        <v>143.9616666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3690,7 +3592,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3700,22 +3606,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>146.2</v>
+        <v>148.1</v>
       </c>
       <c r="C89" t="n">
-        <v>146.2</v>
+        <v>148.4</v>
       </c>
       <c r="D89" t="n">
-        <v>146.2</v>
+        <v>148.4</v>
       </c>
       <c r="E89" t="n">
-        <v>146.2</v>
+        <v>148.1</v>
       </c>
       <c r="F89" t="n">
-        <v>7.25</v>
+        <v>2052.8065</v>
       </c>
       <c r="G89" t="n">
-        <v>144.0916666666666</v>
+        <v>144.0599999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3725,7 +3631,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3738,19 +3648,19 @@
         <v>146.2</v>
       </c>
       <c r="C90" t="n">
-        <v>148.2</v>
+        <v>146.2</v>
       </c>
       <c r="D90" t="n">
-        <v>148.2</v>
+        <v>146.2</v>
       </c>
       <c r="E90" t="n">
         <v>146.2</v>
       </c>
       <c r="F90" t="n">
-        <v>10124.9999</v>
+        <v>7.25</v>
       </c>
       <c r="G90" t="n">
-        <v>144.1883333333332</v>
+        <v>144.0916666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3760,7 +3670,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3770,7 +3684,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>146.1</v>
+        <v>146.2</v>
       </c>
       <c r="C91" t="n">
         <v>148.2</v>
@@ -3779,13 +3693,13 @@
         <v>148.2</v>
       </c>
       <c r="E91" t="n">
-        <v>146.1</v>
+        <v>146.2</v>
       </c>
       <c r="F91" t="n">
-        <v>933.1763999999999</v>
+        <v>10124.9999</v>
       </c>
       <c r="G91" t="n">
-        <v>144.2816666666666</v>
+        <v>144.1883333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3795,7 +3709,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3805,7 +3723,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>148.2</v>
+        <v>146.1</v>
       </c>
       <c r="C92" t="n">
         <v>148.2</v>
@@ -3814,13 +3732,13 @@
         <v>148.2</v>
       </c>
       <c r="E92" t="n">
-        <v>148.2</v>
+        <v>146.1</v>
       </c>
       <c r="F92" t="n">
-        <v>1864.6753</v>
+        <v>933.1763999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>144.3683333333333</v>
+        <v>144.2816666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3830,7 +3748,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3843,19 +3765,19 @@
         <v>148.2</v>
       </c>
       <c r="C93" t="n">
-        <v>148.4</v>
+        <v>148.2</v>
       </c>
       <c r="D93" t="n">
-        <v>148.4</v>
+        <v>148.2</v>
       </c>
       <c r="E93" t="n">
         <v>148.2</v>
       </c>
       <c r="F93" t="n">
-        <v>14510.1403</v>
+        <v>1864.6753</v>
       </c>
       <c r="G93" t="n">
-        <v>144.4683333333333</v>
+        <v>144.3683333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3865,7 +3787,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3875,7 +3801,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>148.4</v>
+        <v>148.2</v>
       </c>
       <c r="C94" t="n">
         <v>148.4</v>
@@ -3884,13 +3810,13 @@
         <v>148.4</v>
       </c>
       <c r="E94" t="n">
-        <v>148.4</v>
+        <v>148.2</v>
       </c>
       <c r="F94" t="n">
-        <v>671.8295000000001</v>
+        <v>14510.1403</v>
       </c>
       <c r="G94" t="n">
-        <v>144.5799999999999</v>
+        <v>144.4683333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3900,7 +3826,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3910,22 +3840,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>148.9</v>
+        <v>148.4</v>
       </c>
       <c r="C95" t="n">
-        <v>149</v>
+        <v>148.4</v>
       </c>
       <c r="D95" t="n">
-        <v>149</v>
+        <v>148.4</v>
       </c>
       <c r="E95" t="n">
-        <v>148.9</v>
+        <v>148.4</v>
       </c>
       <c r="F95" t="n">
-        <v>8626.5568</v>
+        <v>671.8295000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>144.6966666666666</v>
+        <v>144.5799999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3935,7 +3865,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3945,7 +3879,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="C96" t="n">
         <v>149</v>
@@ -3954,13 +3888,13 @@
         <v>149</v>
       </c>
       <c r="E96" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="F96" t="n">
-        <v>431</v>
+        <v>8626.5568</v>
       </c>
       <c r="G96" t="n">
-        <v>144.8033333333333</v>
+        <v>144.6966666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3970,7 +3904,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3983,19 +3921,19 @@
         <v>149</v>
       </c>
       <c r="C97" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="D97" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="E97" t="n">
         <v>149</v>
       </c>
       <c r="F97" t="n">
-        <v>23398.80005170114</v>
+        <v>431</v>
       </c>
       <c r="G97" t="n">
-        <v>144.9266666666666</v>
+        <v>144.8033333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4005,7 +3943,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4015,7 +3957,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="C98" t="n">
         <v>149.9</v>
@@ -4024,13 +3966,13 @@
         <v>149.9</v>
       </c>
       <c r="E98" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="F98" t="n">
-        <v>1125</v>
+        <v>23398.80005170114</v>
       </c>
       <c r="G98" t="n">
-        <v>145.0583333333333</v>
+        <v>144.9266666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4040,7 +3982,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +3996,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>149.8</v>
+        <v>149.9</v>
       </c>
       <c r="C99" t="n">
-        <v>149.8</v>
+        <v>149.9</v>
       </c>
       <c r="D99" t="n">
-        <v>149.8</v>
+        <v>149.9</v>
       </c>
       <c r="E99" t="n">
-        <v>149.8</v>
+        <v>149.9</v>
       </c>
       <c r="F99" t="n">
-        <v>125</v>
+        <v>1125</v>
       </c>
       <c r="G99" t="n">
-        <v>145.1899999999999</v>
+        <v>145.0583333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4075,7 +4021,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4085,22 +4035,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>149.4</v>
+        <v>149.8</v>
       </c>
       <c r="C100" t="n">
-        <v>149.4</v>
+        <v>149.8</v>
       </c>
       <c r="D100" t="n">
-        <v>149.4</v>
+        <v>149.8</v>
       </c>
       <c r="E100" t="n">
-        <v>149.4</v>
+        <v>149.8</v>
       </c>
       <c r="F100" t="n">
-        <v>3750</v>
+        <v>125</v>
       </c>
       <c r="G100" t="n">
-        <v>145.3149999999999</v>
+        <v>145.1899999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4110,7 +4060,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4123,19 +4077,19 @@
         <v>149.4</v>
       </c>
       <c r="C101" t="n">
-        <v>149.5</v>
+        <v>149.4</v>
       </c>
       <c r="D101" t="n">
-        <v>149.5</v>
+        <v>149.4</v>
       </c>
       <c r="E101" t="n">
         <v>149.4</v>
       </c>
       <c r="F101" t="n">
-        <v>2167.1626</v>
+        <v>3750</v>
       </c>
       <c r="G101" t="n">
-        <v>145.4399999999999</v>
+        <v>145.3149999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4145,7 +4099,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4155,22 +4113,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>149.1</v>
+        <v>149.4</v>
       </c>
       <c r="C102" t="n">
-        <v>149.3</v>
+        <v>149.5</v>
       </c>
       <c r="D102" t="n">
-        <v>149.3</v>
+        <v>149.5</v>
       </c>
       <c r="E102" t="n">
-        <v>149.1</v>
+        <v>149.4</v>
       </c>
       <c r="F102" t="n">
-        <v>15000</v>
+        <v>2167.1626</v>
       </c>
       <c r="G102" t="n">
-        <v>145.5633333333332</v>
+        <v>145.4399999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4180,7 +4138,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4190,7 +4152,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>149.3</v>
+        <v>149.1</v>
       </c>
       <c r="C103" t="n">
         <v>149.3</v>
@@ -4199,13 +4161,13 @@
         <v>149.3</v>
       </c>
       <c r="E103" t="n">
-        <v>149.3</v>
+        <v>149.1</v>
       </c>
       <c r="F103" t="n">
-        <v>312.0936</v>
+        <v>15000</v>
       </c>
       <c r="G103" t="n">
-        <v>145.6849999999999</v>
+        <v>145.5633333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4215,7 +4177,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4225,22 +4191,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="C104" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="D104" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="E104" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="F104" t="n">
-        <v>6685.8857</v>
+        <v>312.0936</v>
       </c>
       <c r="G104" t="n">
-        <v>145.8033333333332</v>
+        <v>145.6849999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4250,7 +4216,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4263,19 +4233,19 @@
         <v>149.1</v>
       </c>
       <c r="C105" t="n">
-        <v>149.4</v>
+        <v>149.1</v>
       </c>
       <c r="D105" t="n">
-        <v>149.4</v>
+        <v>149.1</v>
       </c>
       <c r="E105" t="n">
-        <v>147.7</v>
+        <v>149.1</v>
       </c>
       <c r="F105" t="n">
-        <v>20402.6437</v>
+        <v>6685.8857</v>
       </c>
       <c r="G105" t="n">
-        <v>145.9433333333332</v>
+        <v>145.8033333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4285,7 +4255,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4295,22 +4269,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>148.9</v>
+        <v>149.1</v>
       </c>
       <c r="C106" t="n">
-        <v>148.9</v>
+        <v>149.4</v>
       </c>
       <c r="D106" t="n">
-        <v>148.9</v>
+        <v>149.4</v>
       </c>
       <c r="E106" t="n">
-        <v>148.9</v>
+        <v>147.7</v>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>20402.6437</v>
       </c>
       <c r="G106" t="n">
-        <v>146.0583333333332</v>
+        <v>145.9433333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4320,7 +4294,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4333,19 +4311,19 @@
         <v>148.9</v>
       </c>
       <c r="C107" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="D107" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="E107" t="n">
         <v>148.9</v>
       </c>
       <c r="F107" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="G107" t="n">
-        <v>146.1683333333332</v>
+        <v>146.0583333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4355,7 +4333,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4365,22 +4347,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>149.8</v>
+        <v>148.9</v>
       </c>
       <c r="C108" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="D108" t="n">
-        <v>149.8</v>
+        <v>149</v>
       </c>
       <c r="E108" t="n">
-        <v>149.8</v>
+        <v>148.9</v>
       </c>
       <c r="F108" t="n">
-        <v>7.9533</v>
+        <v>375</v>
       </c>
       <c r="G108" t="n">
-        <v>146.2933333333332</v>
+        <v>146.1683333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4390,7 +4372,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4400,22 +4386,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>149.5</v>
+        <v>149.8</v>
       </c>
       <c r="C109" t="n">
-        <v>149.6</v>
+        <v>149.8</v>
       </c>
       <c r="D109" t="n">
-        <v>149.6</v>
+        <v>149.8</v>
       </c>
       <c r="E109" t="n">
-        <v>149.5</v>
+        <v>149.8</v>
       </c>
       <c r="F109" t="n">
-        <v>3013.7676</v>
+        <v>7.9533</v>
       </c>
       <c r="G109" t="n">
-        <v>146.4133333333332</v>
+        <v>146.2933333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4425,7 +4411,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4435,22 +4425,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C110" t="n">
         <v>149.6</v>
       </c>
-      <c r="C110" t="n">
-        <v>149.9</v>
-      </c>
       <c r="D110" t="n">
-        <v>149.9</v>
+        <v>149.6</v>
       </c>
       <c r="E110" t="n">
-        <v>149.6</v>
+        <v>149.5</v>
       </c>
       <c r="F110" t="n">
-        <v>8000</v>
+        <v>3013.7676</v>
       </c>
       <c r="G110" t="n">
-        <v>146.5366666666665</v>
+        <v>146.4133333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4460,7 +4450,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4470,22 +4464,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>148.2</v>
+        <v>149.6</v>
       </c>
       <c r="C111" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="D111" t="n">
-        <v>148.2</v>
+        <v>149.9</v>
       </c>
       <c r="E111" t="n">
-        <v>148.1</v>
+        <v>149.6</v>
       </c>
       <c r="F111" t="n">
-        <v>1997.2803</v>
+        <v>8000</v>
       </c>
       <c r="G111" t="n">
-        <v>146.6299999999999</v>
+        <v>146.5366666666665</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4495,7 +4489,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4517,10 +4515,10 @@
         <v>148.1</v>
       </c>
       <c r="F112" t="n">
-        <v>1425.1915</v>
+        <v>1997.2803</v>
       </c>
       <c r="G112" t="n">
-        <v>146.6883333333332</v>
+        <v>146.6299999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4530,7 +4528,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4540,22 +4542,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="C113" t="n">
         <v>148.1</v>
       </c>
       <c r="D113" t="n">
-        <v>148.1</v>
+        <v>148.2</v>
       </c>
       <c r="E113" t="n">
         <v>148.1</v>
       </c>
       <c r="F113" t="n">
-        <v>2763.3426</v>
+        <v>1425.1915</v>
       </c>
       <c r="G113" t="n">
-        <v>146.7733333333332</v>
+        <v>146.6883333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4565,7 +4567,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4575,22 +4581,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="C114" t="n">
         <v>148.1</v>
       </c>
       <c r="D114" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="E114" t="n">
         <v>148.1</v>
       </c>
       <c r="F114" t="n">
-        <v>3013.7676</v>
+        <v>2763.3426</v>
       </c>
       <c r="G114" t="n">
-        <v>146.8466666666666</v>
+        <v>146.7733333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4600,7 +4606,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4610,22 +4620,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>149.8</v>
+        <v>148.2</v>
       </c>
       <c r="C115" t="n">
-        <v>149.8</v>
+        <v>148.1</v>
       </c>
       <c r="D115" t="n">
-        <v>149.8</v>
+        <v>148.2</v>
       </c>
       <c r="E115" t="n">
-        <v>148.2</v>
+        <v>148.1</v>
       </c>
       <c r="F115" t="n">
-        <v>1522.8197</v>
+        <v>3013.7676</v>
       </c>
       <c r="G115" t="n">
-        <v>146.9733333333332</v>
+        <v>146.8466666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4635,7 +4645,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4645,22 +4659,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>149.9</v>
+        <v>149.8</v>
       </c>
       <c r="C116" t="n">
-        <v>149.9</v>
+        <v>149.8</v>
       </c>
       <c r="D116" t="n">
-        <v>149.9</v>
+        <v>149.8</v>
       </c>
       <c r="E116" t="n">
-        <v>149.9</v>
+        <v>148.2</v>
       </c>
       <c r="F116" t="n">
-        <v>689.4584</v>
+        <v>1522.8197</v>
       </c>
       <c r="G116" t="n">
-        <v>147.0966666666665</v>
+        <v>146.9733333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4670,7 +4684,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4680,7 +4698,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>149.3</v>
+        <v>149.9</v>
       </c>
       <c r="C117" t="n">
         <v>149.9</v>
@@ -4689,13 +4707,13 @@
         <v>149.9</v>
       </c>
       <c r="E117" t="n">
-        <v>149.3</v>
+        <v>149.9</v>
       </c>
       <c r="F117" t="n">
-        <v>2093.398</v>
+        <v>689.4584</v>
       </c>
       <c r="G117" t="n">
-        <v>147.1966666666665</v>
+        <v>147.0966666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4705,7 +4723,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4715,22 +4737,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="C118" t="n">
         <v>149.9</v>
       </c>
-      <c r="C118" t="n">
-        <v>150.1</v>
-      </c>
       <c r="D118" t="n">
-        <v>150.1</v>
+        <v>149.9</v>
       </c>
       <c r="E118" t="n">
-        <v>149.9</v>
+        <v>149.3</v>
       </c>
       <c r="F118" t="n">
-        <v>13089.21664829887</v>
+        <v>2093.398</v>
       </c>
       <c r="G118" t="n">
-        <v>147.2999999999999</v>
+        <v>147.1966666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4740,7 +4762,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4750,7 +4776,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>150.1</v>
+        <v>149.9</v>
       </c>
       <c r="C119" t="n">
         <v>150.1</v>
@@ -4759,13 +4785,13 @@
         <v>150.1</v>
       </c>
       <c r="E119" t="n">
-        <v>150.1</v>
+        <v>149.9</v>
       </c>
       <c r="F119" t="n">
-        <v>129.1555</v>
+        <v>13089.21664829887</v>
       </c>
       <c r="G119" t="n">
-        <v>147.4049999999999</v>
+        <v>147.2999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4775,7 +4801,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4797,10 +4827,10 @@
         <v>150.1</v>
       </c>
       <c r="F120" t="n">
-        <v>2745.3932</v>
+        <v>129.1555</v>
       </c>
       <c r="G120" t="n">
-        <v>147.5349999999999</v>
+        <v>147.4049999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4810,7 +4840,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4820,22 +4854,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="C121" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="D121" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="E121" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="F121" t="n">
-        <v>14426</v>
+        <v>2745.3932</v>
       </c>
       <c r="G121" t="n">
-        <v>147.6349999999999</v>
+        <v>147.5349999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4845,7 +4879,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4855,22 +4893,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>150.1</v>
+        <v>150</v>
       </c>
       <c r="C122" t="n">
-        <v>150.1</v>
+        <v>150</v>
       </c>
       <c r="D122" t="n">
-        <v>150.1</v>
+        <v>150</v>
       </c>
       <c r="E122" t="n">
-        <v>150.1</v>
+        <v>150</v>
       </c>
       <c r="F122" t="n">
-        <v>13025.687</v>
+        <v>14426</v>
       </c>
       <c r="G122" t="n">
-        <v>147.7366666666666</v>
+        <v>147.6349999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4880,7 +4918,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4893,19 +4935,19 @@
         <v>150.1</v>
       </c>
       <c r="C123" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="D123" t="n">
         <v>150.1</v>
       </c>
       <c r="E123" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="F123" t="n">
-        <v>16842.7527</v>
+        <v>13025.687</v>
       </c>
       <c r="G123" t="n">
-        <v>147.8366666666666</v>
+        <v>147.7366666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4915,7 +4957,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4925,22 +4971,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="C124" t="n">
         <v>150</v>
       </c>
       <c r="D124" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="E124" t="n">
         <v>150</v>
       </c>
       <c r="F124" t="n">
-        <v>14570.3079</v>
+        <v>16842.7527</v>
       </c>
       <c r="G124" t="n">
-        <v>147.9366666666666</v>
+        <v>147.8366666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4950,7 +4996,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4960,7 +5010,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>149.9</v>
+        <v>150</v>
       </c>
       <c r="C125" t="n">
         <v>150</v>
@@ -4969,13 +5019,13 @@
         <v>150</v>
       </c>
       <c r="E125" t="n">
-        <v>149.9</v>
+        <v>150</v>
       </c>
       <c r="F125" t="n">
-        <v>6381.02</v>
+        <v>14570.3079</v>
       </c>
       <c r="G125" t="n">
-        <v>148.0366666666666</v>
+        <v>147.9366666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4985,7 +5035,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4995,7 +5049,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="C126" t="n">
         <v>150</v>
@@ -5004,13 +5058,13 @@
         <v>150</v>
       </c>
       <c r="E126" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="F126" t="n">
-        <v>26344.3787</v>
+        <v>6381.02</v>
       </c>
       <c r="G126" t="n">
-        <v>148.1283333333332</v>
+        <v>148.0366666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5020,7 +5074,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5042,10 +5100,10 @@
         <v>150</v>
       </c>
       <c r="F127" t="n">
-        <v>15000</v>
+        <v>26344.3787</v>
       </c>
       <c r="G127" t="n">
-        <v>148.2199999999999</v>
+        <v>148.1283333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5055,7 +5113,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5077,10 +5139,10 @@
         <v>150</v>
       </c>
       <c r="F128" t="n">
-        <v>4925.9267</v>
+        <v>15000</v>
       </c>
       <c r="G128" t="n">
-        <v>148.3033333333333</v>
+        <v>148.2199999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5090,7 +5152,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5100,22 +5166,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>150.2</v>
+        <v>150</v>
       </c>
       <c r="C129" t="n">
-        <v>151.8</v>
+        <v>150</v>
       </c>
       <c r="D129" t="n">
-        <v>151.8</v>
+        <v>150</v>
       </c>
       <c r="E129" t="n">
-        <v>150.2</v>
+        <v>150</v>
       </c>
       <c r="F129" t="n">
-        <v>493.3653</v>
+        <v>4925.9267</v>
       </c>
       <c r="G129" t="n">
-        <v>148.4133333333332</v>
+        <v>148.3033333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5125,7 +5191,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5135,22 +5205,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>150</v>
+        <v>150.2</v>
       </c>
       <c r="C130" t="n">
-        <v>152</v>
+        <v>151.8</v>
       </c>
       <c r="D130" t="n">
-        <v>152</v>
+        <v>151.8</v>
       </c>
       <c r="E130" t="n">
-        <v>150</v>
+        <v>150.2</v>
       </c>
       <c r="F130" t="n">
-        <v>744.355</v>
+        <v>493.3653</v>
       </c>
       <c r="G130" t="n">
-        <v>148.5216666666666</v>
+        <v>148.4133333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5160,7 +5230,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5170,22 +5244,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>149.1</v>
+        <v>150</v>
       </c>
       <c r="C131" t="n">
-        <v>149.1</v>
+        <v>152</v>
       </c>
       <c r="D131" t="n">
-        <v>149.1</v>
+        <v>152</v>
       </c>
       <c r="E131" t="n">
-        <v>149.1</v>
+        <v>150</v>
       </c>
       <c r="F131" t="n">
-        <v>12425.3959</v>
+        <v>744.355</v>
       </c>
       <c r="G131" t="n">
-        <v>148.5799999999999</v>
+        <v>148.5216666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5195,7 +5269,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5217,10 +5295,10 @@
         <v>149.1</v>
       </c>
       <c r="F132" t="n">
-        <v>9696.203799999999</v>
+        <v>12425.3959</v>
       </c>
       <c r="G132" t="n">
-        <v>148.6366666666666</v>
+        <v>148.5799999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5230,7 +5308,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5252,10 +5334,10 @@
         <v>149.1</v>
       </c>
       <c r="F133" t="n">
-        <v>2612.1258</v>
+        <v>9696.203799999999</v>
       </c>
       <c r="G133" t="n">
-        <v>148.6883333333332</v>
+        <v>148.6366666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5265,7 +5347,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5275,22 +5361,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="C134" t="n">
-        <v>150.5</v>
+        <v>149.1</v>
       </c>
       <c r="D134" t="n">
-        <v>150.5</v>
+        <v>149.1</v>
       </c>
       <c r="E134" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="F134" t="n">
-        <v>6980.3445</v>
+        <v>2612.1258</v>
       </c>
       <c r="G134" t="n">
-        <v>148.7566666666666</v>
+        <v>148.6883333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5300,7 +5386,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5313,19 +5403,19 @@
         <v>149</v>
       </c>
       <c r="C135" t="n">
-        <v>149</v>
+        <v>150.5</v>
       </c>
       <c r="D135" t="n">
-        <v>149</v>
+        <v>150.5</v>
       </c>
       <c r="E135" t="n">
         <v>149</v>
       </c>
       <c r="F135" t="n">
-        <v>209.2991</v>
+        <v>6980.3445</v>
       </c>
       <c r="G135" t="n">
-        <v>148.7983333333332</v>
+        <v>148.7566666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5335,7 +5425,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5357,10 +5451,10 @@
         <v>149</v>
       </c>
       <c r="F136" t="n">
-        <v>1655.2312</v>
+        <v>209.2991</v>
       </c>
       <c r="G136" t="n">
-        <v>148.8799999999999</v>
+        <v>148.7983333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5370,7 +5464,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5383,19 +5481,19 @@
         <v>149</v>
       </c>
       <c r="C137" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="D137" t="n">
         <v>149</v>
       </c>
       <c r="E137" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="F137" t="n">
-        <v>21164.2736</v>
+        <v>1655.2312</v>
       </c>
       <c r="G137" t="n">
-        <v>148.9299999999999</v>
+        <v>148.8799999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5405,7 +5503,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5415,22 +5517,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="C138" t="n">
-        <v>150.3</v>
+        <v>148.1</v>
       </c>
       <c r="D138" t="n">
-        <v>150.3</v>
+        <v>149</v>
       </c>
       <c r="E138" t="n">
-        <v>148.6</v>
+        <v>148.1</v>
       </c>
       <c r="F138" t="n">
-        <v>1024.7936</v>
+        <v>21164.2736</v>
       </c>
       <c r="G138" t="n">
-        <v>149.0166666666665</v>
+        <v>148.9299999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5440,7 +5542,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5450,22 +5556,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>148.5</v>
+        <v>148.6</v>
       </c>
       <c r="C139" t="n">
-        <v>148.5</v>
+        <v>150.3</v>
       </c>
       <c r="D139" t="n">
-        <v>148.5</v>
+        <v>150.3</v>
       </c>
       <c r="E139" t="n">
-        <v>148.5</v>
+        <v>148.6</v>
       </c>
       <c r="F139" t="n">
-        <v>183.0293</v>
+        <v>1024.7936</v>
       </c>
       <c r="G139" t="n">
-        <v>149.0549999999999</v>
+        <v>149.0166666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5475,7 +5581,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5485,22 +5595,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>149.6</v>
+        <v>148.5</v>
       </c>
       <c r="C140" t="n">
-        <v>149.6</v>
+        <v>148.5</v>
       </c>
       <c r="D140" t="n">
-        <v>149.6</v>
+        <v>148.5</v>
       </c>
       <c r="E140" t="n">
-        <v>149.6</v>
+        <v>148.5</v>
       </c>
       <c r="F140" t="n">
-        <v>56.7743</v>
+        <v>183.0293</v>
       </c>
       <c r="G140" t="n">
-        <v>149.1066666666665</v>
+        <v>149.0549999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5510,7 +5620,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5520,22 +5634,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>149.7</v>
+        <v>149.6</v>
       </c>
       <c r="C141" t="n">
-        <v>149.7</v>
+        <v>149.6</v>
       </c>
       <c r="D141" t="n">
-        <v>149.7</v>
+        <v>149.6</v>
       </c>
       <c r="E141" t="n">
-        <v>149.7</v>
+        <v>149.6</v>
       </c>
       <c r="F141" t="n">
-        <v>3098.2996</v>
+        <v>56.7743</v>
       </c>
       <c r="G141" t="n">
-        <v>149.1516666666666</v>
+        <v>149.1066666666665</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5545,7 +5659,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5555,22 +5673,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>148.4</v>
+        <v>149.7</v>
       </c>
       <c r="C142" t="n">
-        <v>148.4</v>
+        <v>149.7</v>
       </c>
       <c r="D142" t="n">
-        <v>148.4</v>
+        <v>149.7</v>
       </c>
       <c r="E142" t="n">
-        <v>148.4</v>
+        <v>149.7</v>
       </c>
       <c r="F142" t="n">
-        <v>583.1176</v>
+        <v>3098.2996</v>
       </c>
       <c r="G142" t="n">
-        <v>149.1749999999999</v>
+        <v>149.1516666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5580,7 +5698,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5590,22 +5712,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>148.3</v>
+        <v>148.4</v>
       </c>
       <c r="C143" t="n">
-        <v>148.7</v>
+        <v>148.4</v>
       </c>
       <c r="D143" t="n">
-        <v>148.7</v>
+        <v>148.4</v>
       </c>
       <c r="E143" t="n">
-        <v>148.1</v>
+        <v>148.4</v>
       </c>
       <c r="F143" t="n">
-        <v>7352.1748</v>
+        <v>583.1176</v>
       </c>
       <c r="G143" t="n">
-        <v>149.2033333333332</v>
+        <v>149.1749999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5615,8 +5737,51 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7352.1748</v>
+      </c>
+      <c r="G144" t="n">
+        <v>149.2033333333332</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1212.3636</v>
       </c>
       <c r="G2" t="n">
+        <v>140.6933333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>139.7966666666665</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1385.4156</v>
       </c>
       <c r="G3" t="n">
+        <v>140.6933333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>139.8283333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>439.1317</v>
       </c>
       <c r="G4" t="n">
+        <v>140.72</v>
+      </c>
+      <c r="H4" t="n">
         <v>139.8599999999998</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>3381.6771</v>
       </c>
       <c r="G5" t="n">
+        <v>140.7466666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>139.8916666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>5174.5519</v>
       </c>
       <c r="G6" t="n">
+        <v>140.7733333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>139.9233333333331</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>793.2379</v>
       </c>
       <c r="G7" t="n">
+        <v>140.7733333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>139.9549999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>20883.2567</v>
       </c>
       <c r="G8" t="n">
+        <v>140.8466666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>139.9866666666664</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,29 @@
         <v>2060</v>
       </c>
       <c r="G9" t="n">
+        <v>140.8533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>140.0116666666664</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +805,27 @@
         <v>4274</v>
       </c>
       <c r="G10" t="n">
+        <v>140.8733333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>140.0366666666664</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +849,27 @@
         <v>2740</v>
       </c>
       <c r="G11" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="H11" t="n">
         <v>140.0616666666664</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +893,27 @@
         <v>4394.3514</v>
       </c>
       <c r="G12" t="n">
+        <v>140.9266666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>140.0866666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +937,27 @@
         <v>972.7784</v>
       </c>
       <c r="G13" t="n">
+        <v>140.9333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>140.1116666666664</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +981,27 @@
         <v>2403.45</v>
       </c>
       <c r="G14" t="n">
+        <v>140.94</v>
+      </c>
+      <c r="H14" t="n">
         <v>140.1316666666665</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1025,27 @@
         <v>576.0251</v>
       </c>
       <c r="G15" t="n">
+        <v>140.9466666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>140.1516666666665</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1069,27 @@
         <v>2382</v>
       </c>
       <c r="G16" t="n">
+        <v>140.9533333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>140.1716666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1113,29 @@
         <v>5482.4302</v>
       </c>
       <c r="G17" t="n">
+        <v>140.98</v>
+      </c>
+      <c r="H17" t="n">
         <v>140.2016666666665</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>141</v>
+      </c>
+      <c r="L17" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1159,27 @@
         <v>591.4059999999999</v>
       </c>
       <c r="G18" t="n">
+        <v>141.0533333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>140.2383333333331</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1203,27 @@
         <v>1863.9359</v>
       </c>
       <c r="G19" t="n">
+        <v>141.1266666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>140.2749999999998</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1247,27 @@
         <v>1446.9275</v>
       </c>
       <c r="G20" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="H20" t="n">
         <v>140.3116666666665</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1291,29 @@
         <v>1247.61</v>
       </c>
       <c r="G21" t="n">
+        <v>141.2733333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>140.3483333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>142</v>
+      </c>
+      <c r="L21" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1337,29 @@
         <v>9008.7863</v>
       </c>
       <c r="G22" t="n">
+        <v>141.3733333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>140.3916666666665</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>142</v>
+      </c>
+      <c r="L22" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1383,29 @@
         <v>6000</v>
       </c>
       <c r="G23" t="n">
+        <v>141.58</v>
+      </c>
+      <c r="H23" t="n">
         <v>140.4616666666665</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1429,27 @@
         <v>3331.5408</v>
       </c>
       <c r="G24" t="n">
+        <v>141.7799999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>140.5283333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1473,27 @@
         <v>10000</v>
       </c>
       <c r="G25" t="n">
+        <v>142.0133333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>140.6033333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1517,27 @@
         <v>10425.7247</v>
       </c>
       <c r="G26" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="H26" t="n">
         <v>140.6733333333332</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1561,27 @@
         <v>10016.3942</v>
       </c>
       <c r="G27" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="H27" t="n">
         <v>140.7316666666665</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1605,27 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>142.44</v>
+      </c>
+      <c r="H28" t="n">
         <v>140.8099999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1649,27 @@
         <v>3331.5408</v>
       </c>
       <c r="G29" t="n">
+        <v>142.54</v>
+      </c>
+      <c r="H29" t="n">
         <v>140.8816666666665</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1693,27 @@
         <v>5239.2242</v>
       </c>
       <c r="G30" t="n">
+        <v>142.76</v>
+      </c>
+      <c r="H30" t="n">
         <v>140.9833333333331</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1737,27 @@
         <v>2279.8327</v>
       </c>
       <c r="G31" t="n">
+        <v>142.8533333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>141.0533333333331</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1781,27 @@
         <v>325.752</v>
       </c>
       <c r="G32" t="n">
+        <v>142.94</v>
+      </c>
+      <c r="H32" t="n">
         <v>141.1133333333331</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1825,27 @@
         <v>469.2985</v>
       </c>
       <c r="G33" t="n">
+        <v>143.0066666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>141.1799999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1869,27 @@
         <v>2000</v>
       </c>
       <c r="G34" t="n">
+        <v>143.0333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>141.2366666666665</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1913,27 @@
         <v>33601.4375</v>
       </c>
       <c r="G35" t="n">
+        <v>143.0133333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>141.2816666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1957,27 @@
         <v>478.1971</v>
       </c>
       <c r="G36" t="n">
+        <v>143.0133333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>141.3316666666665</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2001,27 @@
         <v>2558.7255</v>
       </c>
       <c r="G37" t="n">
+        <v>143.0266666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>141.3766666666665</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2045,27 @@
         <v>988.8075</v>
       </c>
       <c r="G38" t="n">
+        <v>142.9266666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>141.4333333333331</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2089,27 @@
         <v>765.6767</v>
       </c>
       <c r="G39" t="n">
+        <v>142.7933333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>141.4683333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2133,27 @@
         <v>1661.0048</v>
       </c>
       <c r="G40" t="n">
+        <v>142.6199999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>141.5049999999998</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2177,27 @@
         <v>7248.736</v>
       </c>
       <c r="G41" t="n">
+        <v>142.5933333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>141.5366666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2221,27 @@
         <v>5061.8784</v>
       </c>
       <c r="G42" t="n">
+        <v>142.5599999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>141.5699999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2265,27 @@
         <v>7416.7123</v>
       </c>
       <c r="G43" t="n">
+        <v>142.38</v>
+      </c>
+      <c r="H43" t="n">
         <v>141.6016666666665</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2309,27 @@
         <v>4098.3794</v>
       </c>
       <c r="G44" t="n">
+        <v>142.3466666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>141.6199999999998</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2353,27 @@
         <v>478.195</v>
       </c>
       <c r="G45" t="n">
+        <v>142.1933333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>141.6416666666665</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2397,27 @@
         <v>5258.3264</v>
       </c>
       <c r="G46" t="n">
+        <v>142.0999999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>141.6466666666664</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2441,27 @@
         <v>475</v>
       </c>
       <c r="G47" t="n">
+        <v>142.0599999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>141.6683333333331</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2485,27 @@
         <v>636.2924</v>
       </c>
       <c r="G48" t="n">
+        <v>142.02</v>
+      </c>
+      <c r="H48" t="n">
         <v>141.6933333333331</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2529,27 @@
         <v>223.0669</v>
       </c>
       <c r="G49" t="n">
+        <v>142.0133333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>141.7233333333331</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2573,27 @@
         <v>4406.8419</v>
       </c>
       <c r="G50" t="n">
+        <v>142.06</v>
+      </c>
+      <c r="H50" t="n">
         <v>141.7549999999997</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2617,27 @@
         <v>5391.751</v>
       </c>
       <c r="G51" t="n">
+        <v>142.0933333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>141.7883333333331</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2661,27 @@
         <v>1250</v>
       </c>
       <c r="G52" t="n">
+        <v>142.0866666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>141.8149999999997</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2705,27 @@
         <v>125</v>
       </c>
       <c r="G53" t="n">
+        <v>142.2266666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>141.8949999999998</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2749,27 @@
         <v>40248.5827</v>
       </c>
       <c r="G54" t="n">
+        <v>142.2933333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>141.9299999999998</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2793,27 @@
         <v>9925.740599999999</v>
       </c>
       <c r="G55" t="n">
+        <v>142.4133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>141.9799999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2837,27 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
+        <v>142.4333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>142.0066666666665</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2881,27 @@
         <v>6041.5</v>
       </c>
       <c r="G57" t="n">
+        <v>142.4666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>142.0383333333331</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,24 +2925,27 @@
         <v>250</v>
       </c>
       <c r="G58" t="n">
+        <v>142.5999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>142.0883333333331</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2449,24 +2969,27 @@
         <v>1310.4412</v>
       </c>
       <c r="G59" t="n">
+        <v>142.7266666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>142.1383333333331</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>143.9</v>
+        <v>0</v>
       </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,22 +3013,27 @@
         <v>411.7648</v>
       </c>
       <c r="G60" t="n">
+        <v>142.8466666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>142.1866666666664</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,22 +3057,27 @@
         <v>499.8304</v>
       </c>
       <c r="G61" t="n">
+        <v>142.9333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>142.2099999999998</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,22 +3101,27 @@
         <v>394.7683</v>
       </c>
       <c r="G62" t="n">
+        <v>143.0666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>142.2616666666664</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2607,22 +3145,27 @@
         <v>11169.0644</v>
       </c>
       <c r="G63" t="n">
+        <v>143.1733333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>142.3133333333331</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,22 +3189,27 @@
         <v>2131.7207</v>
       </c>
       <c r="G64" t="n">
+        <v>143.2866666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>142.3649999999998</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2685,22 +3233,27 @@
         <v>240.7922</v>
       </c>
       <c r="G65" t="n">
+        <v>143.3933333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>142.4166666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,22 +3277,27 @@
         <v>46130.6752</v>
       </c>
       <c r="G66" t="n">
+        <v>143.4933333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>142.4683333333331</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2763,22 +3321,27 @@
         <v>17663.9996</v>
       </c>
       <c r="G67" t="n">
+        <v>143.6266666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>142.5283333333331</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,22 +3365,27 @@
         <v>3646.2116</v>
       </c>
       <c r="G68" t="n">
+        <v>143.6199999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>142.5883333333331</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2841,22 +3409,27 @@
         <v>34815.4534</v>
       </c>
       <c r="G69" t="n">
+        <v>143.7533333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>142.6549999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,22 +3453,27 @@
         <v>334.8109</v>
       </c>
       <c r="G70" t="n">
+        <v>143.8533333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>142.7249999999998</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2919,22 +3497,27 @@
         <v>15117.4719</v>
       </c>
       <c r="G71" t="n">
+        <v>144.0733333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>142.7999999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,22 +3541,27 @@
         <v>3377.0196</v>
       </c>
       <c r="G72" t="n">
+        <v>144.2799999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>142.8766666666665</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2997,22 +3585,27 @@
         <v>395.6254</v>
       </c>
       <c r="G73" t="n">
+        <v>144.3999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>142.9549999999998</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,22 +3629,27 @@
         <v>1973.3198</v>
       </c>
       <c r="G74" t="n">
+        <v>144.5399999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>143.0383333333332</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3075,22 +3673,27 @@
         <v>5594.5223</v>
       </c>
       <c r="G75" t="n">
+        <v>144.7133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>143.1283333333332</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,22 +3717,27 @@
         <v>12756.1987</v>
       </c>
       <c r="G76" t="n">
+        <v>144.9933333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>143.2199999999998</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,22 +3761,27 @@
         <v>5757.98</v>
       </c>
       <c r="G77" t="n">
+        <v>144.9999999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>143.2666666666665</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,22 +3805,27 @@
         <v>2610.8249</v>
       </c>
       <c r="G78" t="n">
+        <v>145.0733333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>143.3183333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,22 +3849,27 @@
         <v>6126.6878</v>
       </c>
       <c r="G79" t="n">
+        <v>145.1466666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>143.3699999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,22 +3893,27 @@
         <v>677.8582</v>
       </c>
       <c r="G80" t="n">
+        <v>145.2933333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>143.4399999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,22 +3937,27 @@
         <v>334.8109</v>
       </c>
       <c r="G81" t="n">
+        <v>145.4599999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>143.5149999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,22 +3981,27 @@
         <v>425.6266</v>
       </c>
       <c r="G82" t="n">
+        <v>145.6266666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>143.5916666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,22 +4025,27 @@
         <v>1909.5727</v>
       </c>
       <c r="G83" t="n">
+        <v>145.7933333333332</v>
+      </c>
+      <c r="H83" t="n">
         <v>143.6416666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,22 +4069,27 @@
         <v>423.4409</v>
       </c>
       <c r="G84" t="n">
+        <v>145.9266666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>143.6916666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,22 +4113,27 @@
         <v>7852.3207</v>
       </c>
       <c r="G85" t="n">
+        <v>146.1066666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>143.7483333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,22 +4157,27 @@
         <v>988</v>
       </c>
       <c r="G86" t="n">
+        <v>146.1466666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>143.8116666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3543,22 +4201,27 @@
         <v>1131.5675</v>
       </c>
       <c r="G87" t="n">
+        <v>146.3066666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>143.9033333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,22 +4245,27 @@
         <v>5005</v>
       </c>
       <c r="G88" t="n">
+        <v>146.4666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>143.9616666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3621,22 +4289,27 @@
         <v>2052.8065</v>
       </c>
       <c r="G89" t="n">
+        <v>146.6266666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>144.0599999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,22 +4333,27 @@
         <v>7.25</v>
       </c>
       <c r="G90" t="n">
+        <v>146.6133333333332</v>
+      </c>
+      <c r="H90" t="n">
         <v>144.0916666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3699,22 +4377,27 @@
         <v>10124.9999</v>
       </c>
       <c r="G91" t="n">
+        <v>146.7266666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>144.1883333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,22 +4421,27 @@
         <v>933.1763999999999</v>
       </c>
       <c r="G92" t="n">
+        <v>146.9999999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>144.2816666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3777,22 +4465,27 @@
         <v>1864.6753</v>
       </c>
       <c r="G93" t="n">
+        <v>147.2066666666665</v>
+      </c>
+      <c r="H93" t="n">
         <v>144.3683333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,22 +4509,27 @@
         <v>14510.1403</v>
       </c>
       <c r="G94" t="n">
+        <v>147.4266666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>144.4683333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,22 +4553,27 @@
         <v>671.8295000000001</v>
       </c>
       <c r="G95" t="n">
+        <v>147.5733333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>144.5799999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,22 +4597,27 @@
         <v>8626.5568</v>
       </c>
       <c r="G96" t="n">
+        <v>147.7399999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>144.6966666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,22 +4641,27 @@
         <v>431</v>
       </c>
       <c r="G97" t="n">
+        <v>147.8733333333332</v>
+      </c>
+      <c r="H97" t="n">
         <v>144.8033333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,22 +4685,27 @@
         <v>23398.80005170114</v>
       </c>
       <c r="G98" t="n">
+        <v>148.0666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>144.9266666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4011,22 +4729,27 @@
         <v>1125</v>
       </c>
       <c r="G99" t="n">
+        <v>148.2599999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>145.0583333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,22 +4773,27 @@
         <v>125</v>
       </c>
       <c r="G100" t="n">
+        <v>148.3866666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>145.1899999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,22 +4817,27 @@
         <v>3750</v>
       </c>
       <c r="G101" t="n">
+        <v>148.6066666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>145.3149999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,22 +4861,27 @@
         <v>2167.1626</v>
       </c>
       <c r="G102" t="n">
+        <v>148.7066666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>145.4399999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,22 +4905,27 @@
         <v>15000</v>
       </c>
       <c r="G103" t="n">
+        <v>148.7866666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>145.5633333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,22 +4949,27 @@
         <v>312.0936</v>
       </c>
       <c r="G104" t="n">
+        <v>148.8466666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>145.6849999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,22 +4993,27 @@
         <v>6685.8857</v>
       </c>
       <c r="G105" t="n">
+        <v>149.04</v>
+      </c>
+      <c r="H105" t="n">
         <v>145.8033333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,22 +5037,27 @@
         <v>20402.6437</v>
       </c>
       <c r="G106" t="n">
+        <v>149.12</v>
+      </c>
+      <c r="H106" t="n">
         <v>145.9433333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4323,22 +5081,27 @@
         <v>250</v>
       </c>
       <c r="G107" t="n">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>146.0583333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,22 +5125,27 @@
         <v>375</v>
       </c>
       <c r="G108" t="n">
+        <v>149.22</v>
+      </c>
+      <c r="H108" t="n">
         <v>146.1683333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4401,22 +5169,27 @@
         <v>7.9533</v>
       </c>
       <c r="G109" t="n">
+        <v>149.3133333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>146.2933333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,23 +5213,28 @@
         <v>3013.7676</v>
       </c>
       <c r="G110" t="n">
+        <v>149.3933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>146.4133333333332</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
+      <c r="L110" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1.056745919091554</v>
       </c>
     </row>
     <row r="111">
@@ -4479,22 +5257,21 @@
         <v>8000</v>
       </c>
       <c r="G111" t="n">
+        <v>149.4533333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>146.5366666666665</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,22 +5295,21 @@
         <v>1997.2803</v>
       </c>
       <c r="G112" t="n">
+        <v>149.3933333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>146.6299999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4557,22 +5333,21 @@
         <v>1425.1915</v>
       </c>
       <c r="G113" t="n">
+        <v>149.2733333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>146.6883333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,22 +5371,21 @@
         <v>2763.3426</v>
       </c>
       <c r="G114" t="n">
+        <v>149.1533333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>146.7733333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4635,22 +5409,21 @@
         <v>3013.7676</v>
       </c>
       <c r="G115" t="n">
+        <v>149.04</v>
+      </c>
+      <c r="H115" t="n">
         <v>146.8466666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,22 +5447,21 @@
         <v>1522.8197</v>
       </c>
       <c r="G116" t="n">
+        <v>149.0666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>146.9733333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4713,22 +5485,21 @@
         <v>689.4584</v>
       </c>
       <c r="G117" t="n">
+        <v>149.0933333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>147.0966666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,22 +5523,21 @@
         <v>2093.398</v>
       </c>
       <c r="G118" t="n">
+        <v>149.1333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>147.1966666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,22 +5561,21 @@
         <v>13089.21664829887</v>
       </c>
       <c r="G119" t="n">
+        <v>149.1866666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>147.2999999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,22 +5599,21 @@
         <v>129.1555</v>
       </c>
       <c r="G120" t="n">
+        <v>149.2533333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>147.4049999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,22 +5637,21 @@
         <v>2745.3932</v>
       </c>
       <c r="G121" t="n">
+        <v>149.2999999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>147.5349999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,22 +5675,21 @@
         <v>14426</v>
       </c>
       <c r="G122" t="n">
+        <v>149.3733333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>147.6349999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,22 +5713,21 @@
         <v>13025.687</v>
       </c>
       <c r="G123" t="n">
+        <v>149.4466666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>147.7366666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,22 +5751,21 @@
         <v>16842.7527</v>
       </c>
       <c r="G124" t="n">
+        <v>149.4599999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>147.8366666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5025,22 +5789,21 @@
         <v>14570.3079</v>
       </c>
       <c r="G125" t="n">
+        <v>149.4866666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>147.9366666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5064,22 +5827,21 @@
         <v>6381.02</v>
       </c>
       <c r="G126" t="n">
+        <v>149.4933333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>148.0366666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,22 +5865,21 @@
         <v>26344.3787</v>
       </c>
       <c r="G127" t="n">
+        <v>149.6199999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>148.1283333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,22 +5903,21 @@
         <v>15000</v>
       </c>
       <c r="G128" t="n">
+        <v>149.7466666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>148.2199999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5181,22 +5941,21 @@
         <v>4925.9267</v>
       </c>
       <c r="G129" t="n">
+        <v>149.8733333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>148.3033333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,22 +5979,21 @@
         <v>493.3653</v>
       </c>
       <c r="G130" t="n">
+        <v>150.1199999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>148.4133333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,22 +6017,21 @@
         <v>744.355</v>
       </c>
       <c r="G131" t="n">
+        <v>150.2666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>148.5216666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,22 +6055,21 @@
         <v>12425.3959</v>
       </c>
       <c r="G132" t="n">
+        <v>150.2133333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>148.5799999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5337,22 +6093,21 @@
         <v>9696.203799999999</v>
       </c>
       <c r="G133" t="n">
+        <v>150.1599999999999</v>
+      </c>
+      <c r="H133" t="n">
         <v>148.6366666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,22 +6131,21 @@
         <v>2612.1258</v>
       </c>
       <c r="G134" t="n">
+        <v>150.0933333333332</v>
+      </c>
+      <c r="H134" t="n">
         <v>148.6883333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,22 +6169,21 @@
         <v>6980.3445</v>
       </c>
       <c r="G135" t="n">
+        <v>150.1199999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>148.7566666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,22 +6207,21 @@
         <v>209.2991</v>
       </c>
       <c r="G136" t="n">
+        <v>150.0466666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>148.7983333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,22 +6245,21 @@
         <v>1655.2312</v>
       </c>
       <c r="G137" t="n">
+        <v>149.9799999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>148.8799999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,22 +6283,21 @@
         <v>21164.2736</v>
       </c>
       <c r="G138" t="n">
+        <v>149.8466666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>148.9299999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,22 +6321,21 @@
         <v>1024.7936</v>
       </c>
       <c r="G139" t="n">
+        <v>149.8666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>149.0166666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,22 +6359,21 @@
         <v>183.0293</v>
       </c>
       <c r="G140" t="n">
+        <v>149.7666666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>149.0549999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,22 +6397,21 @@
         <v>56.7743</v>
       </c>
       <c r="G141" t="n">
+        <v>149.7399999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>149.1066666666665</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,22 +6435,21 @@
         <v>3098.2996</v>
       </c>
       <c r="G142" t="n">
+        <v>149.7199999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>149.1516666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5727,22 +6473,21 @@
         <v>583.1176</v>
       </c>
       <c r="G143" t="n">
+        <v>149.6133333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>149.1749999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,22 +6511,401 @@
         <v>7352.1748</v>
       </c>
       <c r="G144" t="n">
+        <v>149.5266666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>149.2033333333332</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>219.5287</v>
+      </c>
+      <c r="G145" t="n">
+        <v>149.3333333333332</v>
+      </c>
+      <c r="H145" t="n">
+        <v>149.2199999999999</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>83.6157</v>
+      </c>
+      <c r="G146" t="n">
+        <v>149.1799999999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>149.2799999999999</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>171.2966</v>
+      </c>
+      <c r="G147" t="n">
+        <v>149.1133333333332</v>
+      </c>
+      <c r="H147" t="n">
+        <v>149.2816666666666</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8315.162399999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>148.9866666666666</v>
+      </c>
+      <c r="H148" t="n">
+        <v>149.2666666666666</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>147</v>
+      </c>
+      <c r="D149" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>147</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3110.9409</v>
+      </c>
+      <c r="G149" t="n">
+        <v>148.8466666666666</v>
+      </c>
+      <c r="H149" t="n">
+        <v>149.2433333333333</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3098.2996</v>
+      </c>
+      <c r="G150" t="n">
+        <v>148.6866666666666</v>
+      </c>
+      <c r="H150" t="n">
+        <v>149.2749999999999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3849.0764</v>
+      </c>
+      <c r="G151" t="n">
+        <v>148.6599999999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>149.2816666666666</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>147</v>
+      </c>
+      <c r="C152" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>147</v>
+      </c>
+      <c r="F152" t="n">
+        <v>802.3385</v>
+      </c>
+      <c r="G152" t="n">
+        <v>148.6399999999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>149.2899999999999</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>37.4856</v>
+      </c>
+      <c r="G153" t="n">
+        <v>148.6799999999999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>149.2983333333332</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>68.626</v>
+      </c>
+      <c r="G154" t="n">
+        <v>148.4533333333332</v>
+      </c>
+      <c r="H154" t="n">
+        <v>149.2733333333332</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="C2" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="D2" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="F2" t="n">
-        <v>1212.3636</v>
+        <v>427.96</v>
       </c>
       <c r="G2" t="n">
-        <v>140.6933333333333</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H2" t="n">
-        <v>139.7966666666665</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="C3" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="D3" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="E3" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="F3" t="n">
-        <v>1385.4156</v>
+        <v>1125.9063</v>
       </c>
       <c r="G3" t="n">
-        <v>140.6933333333333</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H3" t="n">
-        <v>139.8283333333331</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="C4" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="E4" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="F4" t="n">
-        <v>439.1317</v>
+        <v>3009</v>
       </c>
       <c r="G4" t="n">
-        <v>140.72</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H4" t="n">
-        <v>139.8599999999998</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9</v>
+        <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>3381.6771</v>
+        <v>912.1224999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>140.7466666666666</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H5" t="n">
-        <v>139.8916666666665</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +573,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>140.9</v>
+        <v>139.9</v>
       </c>
       <c r="C6" t="n">
-        <v>140.9</v>
+        <v>139.9</v>
       </c>
       <c r="D6" t="n">
-        <v>140.9</v>
+        <v>139.9</v>
       </c>
       <c r="E6" t="n">
-        <v>140.9</v>
+        <v>139.9</v>
       </c>
       <c r="F6" t="n">
-        <v>5174.5519</v>
+        <v>2390</v>
       </c>
       <c r="G6" t="n">
-        <v>140.7733333333333</v>
+        <v>47216.92265730742</v>
       </c>
       <c r="H6" t="n">
-        <v>139.9233333333331</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="K6" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>139</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +612,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>140.9</v>
+        <v>139.1</v>
       </c>
       <c r="C7" t="n">
-        <v>140.9</v>
+        <v>139.1</v>
       </c>
       <c r="D7" t="n">
-        <v>140.9</v>
+        <v>139.1</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9</v>
+        <v>139.1</v>
       </c>
       <c r="F7" t="n">
-        <v>793.2379</v>
+        <v>138.6712</v>
       </c>
       <c r="G7" t="n">
-        <v>140.7733333333333</v>
+        <v>47078.25145730742</v>
       </c>
       <c r="H7" t="n">
-        <v>139.9549999999998</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M7" t="inlineStr">
+        <v>139</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,44 +653,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>140.9</v>
+        <v>139.9</v>
       </c>
       <c r="C8" t="n">
-        <v>140.9</v>
+        <v>139.9</v>
       </c>
       <c r="D8" t="n">
-        <v>140.9</v>
+        <v>139.9</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9</v>
+        <v>139.9</v>
       </c>
       <c r="F8" t="n">
-        <v>20883.2567</v>
+        <v>5202.8144</v>
       </c>
       <c r="G8" t="n">
-        <v>140.8466666666667</v>
+        <v>52281.06585730743</v>
       </c>
       <c r="H8" t="n">
-        <v>139.9866666666664</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>139</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,44 +694,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>140.9</v>
+        <v>139.7</v>
       </c>
       <c r="C9" t="n">
-        <v>141</v>
+        <v>139.7</v>
       </c>
       <c r="D9" t="n">
-        <v>141</v>
+        <v>139.7</v>
       </c>
       <c r="E9" t="n">
-        <v>140.9</v>
+        <v>139.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2060</v>
+        <v>23995.3713</v>
       </c>
       <c r="G9" t="n">
-        <v>140.8533333333333</v>
+        <v>28285.69455730743</v>
       </c>
       <c r="H9" t="n">
-        <v>140.0116666666664</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -790,42 +729,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="F10" t="n">
-        <v>4274</v>
+        <v>516.1548</v>
       </c>
       <c r="G10" t="n">
-        <v>140.8733333333333</v>
+        <v>28801.84935730743</v>
       </c>
       <c r="H10" t="n">
-        <v>140.0366666666664</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,42 +764,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="n">
-        <v>2740</v>
+        <v>4420.1676</v>
       </c>
       <c r="G11" t="n">
-        <v>140.9</v>
+        <v>28801.84935730743</v>
       </c>
       <c r="H11" t="n">
-        <v>140.0616666666664</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -878,42 +799,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" t="n">
-        <v>4394.3514</v>
+        <v>467.803</v>
       </c>
       <c r="G12" t="n">
-        <v>140.9266666666667</v>
+        <v>28801.84935730743</v>
       </c>
       <c r="H12" t="n">
-        <v>140.0866666666664</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -922,42 +834,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="C13" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="D13" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="E13" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="F13" t="n">
-        <v>972.7784</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>140.9333333333333</v>
+        <v>28805.84935730743</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1116666666664</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>140</v>
+      </c>
+      <c r="K13" t="n">
+        <v>140</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -966,42 +873,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141</v>
+        <v>140.1</v>
       </c>
       <c r="C14" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="D14" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="E14" t="n">
-        <v>141</v>
+        <v>140.1</v>
       </c>
       <c r="F14" t="n">
-        <v>2403.45</v>
+        <v>5735.2311</v>
       </c>
       <c r="G14" t="n">
-        <v>140.94</v>
+        <v>23070.61825730743</v>
       </c>
       <c r="H14" t="n">
-        <v>140.1316666666665</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
         <v>140.9</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="K14" t="n">
+        <v>140</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1010,42 +916,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="C15" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="D15" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="E15" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="F15" t="n">
-        <v>576.0251</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>140.9466666666667</v>
+        <v>23070.61825730743</v>
       </c>
       <c r="H15" t="n">
-        <v>140.1516666666665</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>140</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1054,42 +959,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="C16" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="D16" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="E16" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2382</v>
+        <v>688.3672</v>
       </c>
       <c r="G16" t="n">
-        <v>140.9533333333333</v>
+        <v>23070.61825730743</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1716666666665</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,44 +998,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="C17" t="n">
-        <v>141.3</v>
+        <v>140.9</v>
       </c>
       <c r="D17" t="n">
-        <v>141.3</v>
+        <v>140.9</v>
       </c>
       <c r="E17" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="F17" t="n">
-        <v>5482.4302</v>
+        <v>257.0771</v>
       </c>
       <c r="G17" t="n">
-        <v>140.98</v>
+        <v>23327.69535730742</v>
       </c>
       <c r="H17" t="n">
-        <v>140.2016666666665</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>140.7</v>
       </c>
       <c r="K17" t="n">
-        <v>141</v>
-      </c>
-      <c r="L17" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,42 +1041,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>141.3</v>
+        <v>140.1</v>
       </c>
       <c r="C18" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="D18" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="E18" t="n">
-        <v>141.3</v>
+        <v>140</v>
       </c>
       <c r="F18" t="n">
-        <v>591.4059999999999</v>
+        <v>10521.5874</v>
       </c>
       <c r="G18" t="n">
-        <v>141.0533333333333</v>
+        <v>12806.10795730742</v>
       </c>
       <c r="H18" t="n">
-        <v>140.2383333333331</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
         <v>140.9</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="K18" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1188,42 +1084,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="C19" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="D19" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="E19" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="F19" t="n">
-        <v>1863.9359</v>
+        <v>1300.0916</v>
       </c>
       <c r="G19" t="n">
-        <v>141.1266666666666</v>
+        <v>12806.10795730742</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2749999999998</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1232,42 +1125,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="C20" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="D20" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="E20" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1446.9275</v>
+        <v>1336.5308</v>
       </c>
       <c r="G20" t="n">
-        <v>141.2</v>
+        <v>12806.10795730742</v>
       </c>
       <c r="H20" t="n">
-        <v>140.3116666666665</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1276,44 +1166,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="C21" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="D21" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="E21" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="F21" t="n">
-        <v>1247.61</v>
+        <v>8547.431200000001</v>
       </c>
       <c r="G21" t="n">
-        <v>141.2733333333333</v>
+        <v>21353.53915730742</v>
       </c>
       <c r="H21" t="n">
-        <v>140.3483333333332</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>142</v>
-      </c>
-      <c r="L21" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,44 +1207,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>142</v>
+        <v>139.8</v>
       </c>
       <c r="C22" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="D22" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="E22" t="n">
-        <v>142</v>
+        <v>139.8</v>
       </c>
       <c r="F22" t="n">
-        <v>9008.7863</v>
+        <v>5.614</v>
       </c>
       <c r="G22" t="n">
-        <v>141.3733333333333</v>
+        <v>21347.92515730742</v>
       </c>
       <c r="H22" t="n">
-        <v>140.3916666666665</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>142</v>
-      </c>
-      <c r="L22" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1368,44 +1248,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="C23" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="D23" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="E23" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="F23" t="n">
-        <v>6000</v>
+        <v>1064.9633</v>
       </c>
       <c r="G23" t="n">
-        <v>141.58</v>
+        <v>22412.88845730742</v>
       </c>
       <c r="H23" t="n">
-        <v>140.4616666666665</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1414,42 +1289,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="C24" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="D24" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="E24" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="F24" t="n">
-        <v>3331.5408</v>
+        <v>260.078</v>
       </c>
       <c r="G24" t="n">
-        <v>141.7799999999999</v>
+        <v>22152.81045730742</v>
       </c>
       <c r="H24" t="n">
-        <v>140.5283333333332</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1458,42 +1330,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>144</v>
+        <v>140.6</v>
       </c>
       <c r="C25" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="D25" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>140.6</v>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>550.165</v>
       </c>
       <c r="G25" t="n">
-        <v>142.0133333333333</v>
+        <v>21602.64545730742</v>
       </c>
       <c r="H25" t="n">
-        <v>140.6033333333332</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,42 +1371,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>144</v>
+        <v>140.6</v>
       </c>
       <c r="C26" t="n">
-        <v>142.3</v>
+        <v>140.6</v>
       </c>
       <c r="D26" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="E26" t="n">
-        <v>142.3</v>
+        <v>140.6</v>
       </c>
       <c r="F26" t="n">
-        <v>10425.7247</v>
+        <v>7272.5059</v>
       </c>
       <c r="G26" t="n">
-        <v>142.1</v>
+        <v>21602.64545730742</v>
       </c>
       <c r="H26" t="n">
-        <v>140.6733333333332</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1546,42 +1414,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>144</v>
+        <v>140.6</v>
       </c>
       <c r="C27" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="D27" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="E27" t="n">
-        <v>142.5</v>
+        <v>140.6</v>
       </c>
       <c r="F27" t="n">
-        <v>10016.3942</v>
+        <v>5586.696</v>
       </c>
       <c r="G27" t="n">
-        <v>142.2</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H27" t="n">
-        <v>140.7316666666665</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1590,42 +1455,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>144.6</v>
+        <v>140.9</v>
       </c>
       <c r="C28" t="n">
-        <v>144.6</v>
+        <v>140.9</v>
       </c>
       <c r="D28" t="n">
-        <v>144.6</v>
+        <v>140.9</v>
       </c>
       <c r="E28" t="n">
-        <v>144.6</v>
+        <v>140.9</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>1193.3236</v>
       </c>
       <c r="G28" t="n">
-        <v>142.44</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H28" t="n">
-        <v>140.8099999999999</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,42 +1496,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="C29" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="D29" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="E29" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="F29" t="n">
-        <v>3331.5408</v>
+        <v>332.3021</v>
       </c>
       <c r="G29" t="n">
-        <v>142.54</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H29" t="n">
-        <v>140.8816666666665</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,42 +1537,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>142.9</v>
+        <v>140.9</v>
       </c>
       <c r="C30" t="n">
-        <v>144.3</v>
+        <v>140.9</v>
       </c>
       <c r="D30" t="n">
-        <v>144.3</v>
+        <v>140.9</v>
       </c>
       <c r="E30" t="n">
-        <v>142.8</v>
+        <v>140.9</v>
       </c>
       <c r="F30" t="n">
-        <v>5239.2242</v>
+        <v>7338.2011</v>
       </c>
       <c r="G30" t="n">
-        <v>142.76</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H30" t="n">
-        <v>140.9833333333331</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1722,42 +1578,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>142.4</v>
+        <v>140.9</v>
       </c>
       <c r="C31" t="n">
-        <v>142.4</v>
+        <v>140.9</v>
       </c>
       <c r="D31" t="n">
-        <v>142.4</v>
+        <v>140.9</v>
       </c>
       <c r="E31" t="n">
-        <v>142.4</v>
+        <v>140.9</v>
       </c>
       <c r="F31" t="n">
-        <v>2279.8327</v>
+        <v>1212.3636</v>
       </c>
       <c r="G31" t="n">
-        <v>142.8533333333333</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H31" t="n">
-        <v>141.0533333333331</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,42 +1619,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>142.6</v>
+        <v>140.9</v>
       </c>
       <c r="C32" t="n">
-        <v>142.6</v>
+        <v>140.9</v>
       </c>
       <c r="D32" t="n">
-        <v>142.6</v>
+        <v>140.9</v>
       </c>
       <c r="E32" t="n">
-        <v>142.6</v>
+        <v>140.9</v>
       </c>
       <c r="F32" t="n">
-        <v>325.752</v>
+        <v>1385.4156</v>
       </c>
       <c r="G32" t="n">
-        <v>142.94</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H32" t="n">
-        <v>141.1133333333331</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1810,42 +1660,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>143</v>
+        <v>140.9</v>
       </c>
       <c r="C33" t="n">
-        <v>143</v>
+        <v>140.9</v>
       </c>
       <c r="D33" t="n">
-        <v>143</v>
+        <v>140.9</v>
       </c>
       <c r="E33" t="n">
-        <v>143</v>
+        <v>140.9</v>
       </c>
       <c r="F33" t="n">
-        <v>469.2985</v>
+        <v>439.1317</v>
       </c>
       <c r="G33" t="n">
-        <v>143.0066666666666</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H33" t="n">
-        <v>141.1799999999998</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1854,42 +1701,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="C34" t="n">
-        <v>142.4</v>
+        <v>140.9</v>
       </c>
       <c r="D34" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4</v>
+        <v>140.9</v>
       </c>
       <c r="F34" t="n">
-        <v>2000</v>
+        <v>3381.6771</v>
       </c>
       <c r="G34" t="n">
-        <v>143.0333333333333</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2366666666665</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,42 +1742,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>142.4</v>
+        <v>140.9</v>
       </c>
       <c r="C35" t="n">
-        <v>141.7</v>
+        <v>140.9</v>
       </c>
       <c r="D35" t="n">
-        <v>142.4</v>
+        <v>140.9</v>
       </c>
       <c r="E35" t="n">
-        <v>141.7</v>
+        <v>140.9</v>
       </c>
       <c r="F35" t="n">
-        <v>33601.4375</v>
+        <v>5174.5519</v>
       </c>
       <c r="G35" t="n">
-        <v>143.0133333333333</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H35" t="n">
-        <v>141.2816666666665</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,42 +1783,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="C36" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="D36" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="E36" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="F36" t="n">
-        <v>478.1971</v>
+        <v>793.2379</v>
       </c>
       <c r="G36" t="n">
-        <v>143.0133333333333</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H36" t="n">
-        <v>141.3316666666665</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,42 +1824,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="C37" t="n">
-        <v>142.6</v>
+        <v>140.9</v>
       </c>
       <c r="D37" t="n">
-        <v>142.7</v>
+        <v>140.9</v>
       </c>
       <c r="E37" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="F37" t="n">
-        <v>2558.7255</v>
+        <v>20883.2567</v>
       </c>
       <c r="G37" t="n">
-        <v>143.0266666666666</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H37" t="n">
-        <v>141.3766666666665</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,42 +1865,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="C38" t="n">
-        <v>142.5</v>
+        <v>141</v>
       </c>
       <c r="D38" t="n">
-        <v>142.5</v>
+        <v>141</v>
       </c>
       <c r="E38" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="F38" t="n">
-        <v>988.8075</v>
+        <v>2060</v>
       </c>
       <c r="G38" t="n">
-        <v>142.9266666666666</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H38" t="n">
-        <v>141.4333333333331</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,42 +1906,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>141.6</v>
+        <v>141</v>
       </c>
       <c r="C39" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" t="n">
-        <v>141.6</v>
+        <v>141</v>
       </c>
       <c r="F39" t="n">
-        <v>765.6767</v>
+        <v>4274</v>
       </c>
       <c r="G39" t="n">
-        <v>142.7933333333333</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H39" t="n">
-        <v>141.4683333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2118,42 +1947,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="D40" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" t="n">
-        <v>141.2</v>
+        <v>141</v>
       </c>
       <c r="F40" t="n">
-        <v>1661.0048</v>
+        <v>2740</v>
       </c>
       <c r="G40" t="n">
-        <v>142.6199999999999</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H40" t="n">
-        <v>141.5049999999998</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,42 +1988,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>141.8</v>
+        <v>141</v>
       </c>
       <c r="C41" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="D41" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="E41" t="n">
-        <v>141.8</v>
+        <v>141</v>
       </c>
       <c r="F41" t="n">
-        <v>7248.736</v>
+        <v>4394.3514</v>
       </c>
       <c r="G41" t="n">
-        <v>142.5933333333333</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5366666666665</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2206,42 +2029,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="C42" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="F42" t="n">
-        <v>5061.8784</v>
+        <v>972.7784</v>
       </c>
       <c r="G42" t="n">
-        <v>142.5599999999999</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H42" t="n">
-        <v>141.5699999999998</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,42 +2070,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="C43" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="D43" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="E43" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="F43" t="n">
-        <v>7416.7123</v>
+        <v>2403.45</v>
       </c>
       <c r="G43" t="n">
-        <v>142.38</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H43" t="n">
-        <v>141.6016666666665</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2294,42 +2111,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="C44" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="F44" t="n">
-        <v>4098.3794</v>
+        <v>576.0251</v>
       </c>
       <c r="G44" t="n">
-        <v>142.3466666666666</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H44" t="n">
-        <v>141.6199999999998</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,42 +2152,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F45" t="n">
-        <v>478.195</v>
+        <v>2382</v>
       </c>
       <c r="G45" t="n">
-        <v>142.1933333333333</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H45" t="n">
-        <v>141.6416666666665</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,42 +2193,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>141</v>
+      </c>
+      <c r="C46" t="n">
         <v>141.3</v>
       </c>
-      <c r="C46" t="n">
-        <v>141</v>
-      </c>
       <c r="D46" t="n">
-        <v>142</v>
+        <v>141.3</v>
       </c>
       <c r="E46" t="n">
         <v>141</v>
       </c>
       <c r="F46" t="n">
-        <v>5258.3264</v>
+        <v>5482.4302</v>
       </c>
       <c r="G46" t="n">
-        <v>142.0999999999999</v>
+        <v>34731.77165730742</v>
       </c>
       <c r="H46" t="n">
-        <v>141.6466666666664</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,7 +2234,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>141</v>
+        <v>141.3</v>
       </c>
       <c r="C47" t="n">
         <v>142</v>
@@ -2435,33 +2243,30 @@
         <v>142</v>
       </c>
       <c r="E47" t="n">
-        <v>141</v>
+        <v>141.3</v>
       </c>
       <c r="F47" t="n">
-        <v>475</v>
+        <v>591.4059999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>142.0599999999999</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H47" t="n">
-        <v>141.6683333333331</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2473,39 +2278,36 @@
         <v>142</v>
       </c>
       <c r="C48" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="D48" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="E48" t="n">
         <v>142</v>
       </c>
       <c r="F48" t="n">
-        <v>636.2924</v>
+        <v>1863.9359</v>
       </c>
       <c r="G48" t="n">
-        <v>142.02</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H48" t="n">
-        <v>141.6933333333331</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,42 +2316,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>142.3</v>
+        <v>142</v>
       </c>
       <c r="C49" t="n">
-        <v>142.3</v>
+        <v>142</v>
       </c>
       <c r="D49" t="n">
-        <v>142.3</v>
+        <v>142</v>
       </c>
       <c r="E49" t="n">
-        <v>142.3</v>
+        <v>142</v>
       </c>
       <c r="F49" t="n">
-        <v>223.0669</v>
+        <v>1446.9275</v>
       </c>
       <c r="G49" t="n">
-        <v>142.0133333333333</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H49" t="n">
-        <v>141.7233333333331</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,42 +2357,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>142.3</v>
+        <v>142</v>
       </c>
       <c r="C50" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="D50" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="E50" t="n">
-        <v>142.3</v>
+        <v>142</v>
       </c>
       <c r="F50" t="n">
-        <v>4406.8419</v>
+        <v>1247.61</v>
       </c>
       <c r="G50" t="n">
-        <v>142.06</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H50" t="n">
-        <v>141.7549999999997</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2602,42 +2398,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>142</v>
+      </c>
+      <c r="C51" t="n">
         <v>142.4</v>
       </c>
-      <c r="C51" t="n">
-        <v>142.5</v>
-      </c>
       <c r="D51" t="n">
-        <v>142.5</v>
+        <v>142.4</v>
       </c>
       <c r="E51" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="F51" t="n">
-        <v>5391.751</v>
+        <v>9008.7863</v>
       </c>
       <c r="G51" t="n">
-        <v>142.0933333333333</v>
+        <v>44331.96395730742</v>
       </c>
       <c r="H51" t="n">
-        <v>141.7883333333331</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2649,39 +2442,36 @@
         <v>142.5</v>
       </c>
       <c r="C52" t="n">
-        <v>142.5</v>
+        <v>144</v>
       </c>
       <c r="D52" t="n">
-        <v>142.5</v>
+        <v>144</v>
       </c>
       <c r="E52" t="n">
         <v>142.5</v>
       </c>
       <c r="F52" t="n">
-        <v>1250</v>
+        <v>6000</v>
       </c>
       <c r="G52" t="n">
-        <v>142.0866666666666</v>
+        <v>50331.96395730742</v>
       </c>
       <c r="H52" t="n">
-        <v>141.8149999999997</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,42 +2480,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="C53" t="n">
-        <v>144.6</v>
+        <v>144</v>
       </c>
       <c r="D53" t="n">
-        <v>144.6</v>
+        <v>144</v>
       </c>
       <c r="E53" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="F53" t="n">
-        <v>125</v>
+        <v>3331.5408</v>
       </c>
       <c r="G53" t="n">
-        <v>142.2266666666666</v>
+        <v>50331.96395730742</v>
       </c>
       <c r="H53" t="n">
-        <v>141.8949999999998</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,42 +2521,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" t="n">
-        <v>143</v>
+        <v>144.5</v>
       </c>
       <c r="D54" t="n">
-        <v>143</v>
+        <v>144.5</v>
       </c>
       <c r="E54" t="n">
-        <v>142.5</v>
+        <v>144</v>
       </c>
       <c r="F54" t="n">
-        <v>40248.5827</v>
+        <v>10000</v>
       </c>
       <c r="G54" t="n">
-        <v>142.2933333333333</v>
+        <v>60331.96395730742</v>
       </c>
       <c r="H54" t="n">
-        <v>141.9299999999998</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,42 +2562,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>142.2</v>
+        <v>144</v>
       </c>
       <c r="C55" t="n">
-        <v>143.7</v>
+        <v>142.3</v>
       </c>
       <c r="D55" t="n">
-        <v>143.7</v>
+        <v>144.5</v>
       </c>
       <c r="E55" t="n">
-        <v>142.2</v>
+        <v>142.3</v>
       </c>
       <c r="F55" t="n">
-        <v>9925.740599999999</v>
+        <v>10425.7247</v>
       </c>
       <c r="G55" t="n">
-        <v>142.4133333333333</v>
+        <v>49906.23925730742</v>
       </c>
       <c r="H55" t="n">
-        <v>141.9799999999998</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,42 +2603,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>142.2</v>
+        <v>144</v>
       </c>
       <c r="C56" t="n">
-        <v>142.2</v>
+        <v>142.5</v>
       </c>
       <c r="D56" t="n">
-        <v>142.2</v>
+        <v>144</v>
       </c>
       <c r="E56" t="n">
-        <v>142.2</v>
+        <v>142.5</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>10016.3942</v>
       </c>
       <c r="G56" t="n">
-        <v>142.4333333333333</v>
+        <v>59922.63345730743</v>
       </c>
       <c r="H56" t="n">
-        <v>142.0066666666665</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,42 +2644,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>142.5</v>
+        <v>144.6</v>
       </c>
       <c r="C57" t="n">
-        <v>142.5</v>
+        <v>144.6</v>
       </c>
       <c r="D57" t="n">
-        <v>142.5</v>
+        <v>144.6</v>
       </c>
       <c r="E57" t="n">
-        <v>142.5</v>
+        <v>144.6</v>
       </c>
       <c r="F57" t="n">
-        <v>6041.5</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>142.4666666666666</v>
+        <v>59932.63345730743</v>
       </c>
       <c r="H57" t="n">
-        <v>142.0383333333331</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,42 +2685,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="C58" t="n">
-        <v>143.9</v>
+        <v>142.5</v>
       </c>
       <c r="D58" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="E58" t="n">
-        <v>142.4</v>
+        <v>142.5</v>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>3331.5408</v>
       </c>
       <c r="G58" t="n">
-        <v>142.5999999999999</v>
+        <v>56601.09265730742</v>
       </c>
       <c r="H58" t="n">
-        <v>142.0883333333331</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,42 +2726,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>143.9</v>
+        <v>142.9</v>
       </c>
       <c r="C59" t="n">
-        <v>143.9</v>
+        <v>144.3</v>
       </c>
       <c r="D59" t="n">
-        <v>143.9</v>
+        <v>144.3</v>
       </c>
       <c r="E59" t="n">
-        <v>143.8</v>
+        <v>142.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1310.4412</v>
+        <v>5239.2242</v>
       </c>
       <c r="G59" t="n">
-        <v>142.7266666666666</v>
+        <v>61840.31685730742</v>
       </c>
       <c r="H59" t="n">
-        <v>142.1383333333331</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,42 +2767,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>143.8</v>
+        <v>142.4</v>
       </c>
       <c r="C60" t="n">
-        <v>143.8</v>
+        <v>142.4</v>
       </c>
       <c r="D60" t="n">
-        <v>143.8</v>
+        <v>142.4</v>
       </c>
       <c r="E60" t="n">
-        <v>143.8</v>
+        <v>142.4</v>
       </c>
       <c r="F60" t="n">
-        <v>411.7648</v>
+        <v>2279.8327</v>
       </c>
       <c r="G60" t="n">
-        <v>142.8466666666666</v>
+        <v>59560.48415730742</v>
       </c>
       <c r="H60" t="n">
-        <v>142.1866666666664</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,42 +2808,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>142.3</v>
+        <v>142.6</v>
       </c>
       <c r="C61" t="n">
-        <v>142.3</v>
+        <v>142.6</v>
       </c>
       <c r="D61" t="n">
-        <v>142.3</v>
+        <v>142.6</v>
       </c>
       <c r="E61" t="n">
-        <v>142.3</v>
+        <v>142.6</v>
       </c>
       <c r="F61" t="n">
-        <v>499.8304</v>
+        <v>325.752</v>
       </c>
       <c r="G61" t="n">
-        <v>142.9333333333333</v>
+        <v>59886.23615730742</v>
       </c>
       <c r="H61" t="n">
-        <v>142.2099999999998</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3086,42 +2849,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E62" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F62" t="n">
-        <v>394.7683</v>
+        <v>469.2985</v>
       </c>
       <c r="G62" t="n">
-        <v>143.0666666666666</v>
+        <v>60355.53465730742</v>
       </c>
       <c r="H62" t="n">
-        <v>142.2616666666664</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,42 +2890,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>144</v>
+        <v>142.5</v>
       </c>
       <c r="C63" t="n">
-        <v>144</v>
+        <v>142.4</v>
       </c>
       <c r="D63" t="n">
-        <v>144</v>
+        <v>142.5</v>
       </c>
       <c r="E63" t="n">
-        <v>144</v>
+        <v>142.4</v>
       </c>
       <c r="F63" t="n">
-        <v>11169.0644</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>143.1733333333333</v>
+        <v>58355.53465730742</v>
       </c>
       <c r="H63" t="n">
-        <v>142.3133333333331</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,42 +2931,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>144</v>
+        <v>142.4</v>
       </c>
       <c r="C64" t="n">
-        <v>144</v>
+        <v>141.7</v>
       </c>
       <c r="D64" t="n">
-        <v>144</v>
+        <v>142.4</v>
       </c>
       <c r="E64" t="n">
-        <v>144</v>
+        <v>141.7</v>
       </c>
       <c r="F64" t="n">
-        <v>2131.7207</v>
+        <v>33601.4375</v>
       </c>
       <c r="G64" t="n">
-        <v>143.2866666666666</v>
+        <v>24754.09715730742</v>
       </c>
       <c r="H64" t="n">
-        <v>142.3649999999998</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,42 +2972,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C65" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D65" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E65" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F65" t="n">
-        <v>240.7922</v>
+        <v>478.1971</v>
       </c>
       <c r="G65" t="n">
-        <v>143.3933333333333</v>
+        <v>25232.29425730742</v>
       </c>
       <c r="H65" t="n">
-        <v>142.4166666666665</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3262,42 +3013,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C66" t="n">
-        <v>144</v>
+        <v>142.6</v>
       </c>
       <c r="D66" t="n">
-        <v>144</v>
+        <v>142.7</v>
       </c>
       <c r="E66" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F66" t="n">
-        <v>46130.6752</v>
+        <v>2558.7255</v>
       </c>
       <c r="G66" t="n">
-        <v>143.4933333333333</v>
+        <v>27791.01975730742</v>
       </c>
       <c r="H66" t="n">
-        <v>142.4683333333331</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,42 +3054,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>144.5</v>
+        <v>142.5</v>
       </c>
       <c r="C67" t="n">
-        <v>144.5</v>
+        <v>142.5</v>
       </c>
       <c r="D67" t="n">
-        <v>144.5</v>
+        <v>142.5</v>
       </c>
       <c r="E67" t="n">
-        <v>144.5</v>
+        <v>142.5</v>
       </c>
       <c r="F67" t="n">
-        <v>17663.9996</v>
+        <v>988.8075</v>
       </c>
       <c r="G67" t="n">
-        <v>143.6266666666666</v>
+        <v>26802.21225730742</v>
       </c>
       <c r="H67" t="n">
-        <v>142.5283333333331</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,42 +3095,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>144.5</v>
+        <v>141.6</v>
       </c>
       <c r="C68" t="n">
-        <v>144.5</v>
+        <v>142</v>
       </c>
       <c r="D68" t="n">
-        <v>144.5</v>
+        <v>142</v>
       </c>
       <c r="E68" t="n">
-        <v>144.5</v>
+        <v>141.6</v>
       </c>
       <c r="F68" t="n">
-        <v>3646.2116</v>
+        <v>765.6767</v>
       </c>
       <c r="G68" t="n">
-        <v>143.6199999999999</v>
+        <v>26036.53555730742</v>
       </c>
       <c r="H68" t="n">
-        <v>142.5883333333331</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,42 +3136,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>144.6</v>
+        <v>142</v>
       </c>
       <c r="C69" t="n">
-        <v>145</v>
+        <v>141.9</v>
       </c>
       <c r="D69" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E69" t="n">
-        <v>144.6</v>
+        <v>141.2</v>
       </c>
       <c r="F69" t="n">
-        <v>34815.4534</v>
+        <v>1661.0048</v>
       </c>
       <c r="G69" t="n">
-        <v>143.7533333333333</v>
+        <v>24375.53075730742</v>
       </c>
       <c r="H69" t="n">
-        <v>142.6549999999998</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,42 +3177,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>145.2</v>
+        <v>141.8</v>
       </c>
       <c r="C70" t="n">
-        <v>145.2</v>
+        <v>141.9</v>
       </c>
       <c r="D70" t="n">
-        <v>145.2</v>
+        <v>141.9</v>
       </c>
       <c r="E70" t="n">
-        <v>145.2</v>
+        <v>141.8</v>
       </c>
       <c r="F70" t="n">
-        <v>334.8109</v>
+        <v>7248.736</v>
       </c>
       <c r="G70" t="n">
-        <v>143.8533333333333</v>
+        <v>24375.53075730742</v>
       </c>
       <c r="H70" t="n">
-        <v>142.7249999999998</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,42 +3218,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>145.2</v>
+        <v>141.9</v>
       </c>
       <c r="C71" t="n">
-        <v>145.5</v>
+        <v>142</v>
       </c>
       <c r="D71" t="n">
-        <v>145.5</v>
+        <v>142</v>
       </c>
       <c r="E71" t="n">
-        <v>145.2</v>
+        <v>141.9</v>
       </c>
       <c r="F71" t="n">
-        <v>15117.4719</v>
+        <v>5061.8784</v>
       </c>
       <c r="G71" t="n">
-        <v>144.0733333333333</v>
+        <v>29437.40915730743</v>
       </c>
       <c r="H71" t="n">
-        <v>142.7999999999998</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3526,42 +3259,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>145.5</v>
+        <v>141.9</v>
       </c>
       <c r="C72" t="n">
-        <v>145.6</v>
+        <v>141.9</v>
       </c>
       <c r="D72" t="n">
-        <v>145.6</v>
+        <v>141.9</v>
       </c>
       <c r="E72" t="n">
-        <v>145.5</v>
+        <v>141.9</v>
       </c>
       <c r="F72" t="n">
-        <v>3377.0196</v>
+        <v>7416.7123</v>
       </c>
       <c r="G72" t="n">
-        <v>144.2799999999999</v>
+        <v>22020.69685730743</v>
       </c>
       <c r="H72" t="n">
-        <v>142.8766666666665</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>142</v>
+      </c>
+      <c r="K72" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,42 +3302,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>145.7</v>
+        <v>141.9</v>
       </c>
       <c r="C73" t="n">
-        <v>145.7</v>
+        <v>142</v>
       </c>
       <c r="D73" t="n">
-        <v>145.7</v>
+        <v>142</v>
       </c>
       <c r="E73" t="n">
-        <v>145.7</v>
+        <v>141.9</v>
       </c>
       <c r="F73" t="n">
-        <v>395.6254</v>
+        <v>4098.3794</v>
       </c>
       <c r="G73" t="n">
-        <v>144.3999999999999</v>
+        <v>26119.07625730742</v>
       </c>
       <c r="H73" t="n">
-        <v>142.9549999999998</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="K73" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,42 +3345,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>145.7</v>
+        <v>142</v>
       </c>
       <c r="C74" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D74" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E74" t="n">
-        <v>145.7</v>
+        <v>142</v>
       </c>
       <c r="F74" t="n">
-        <v>1973.3198</v>
+        <v>478.195</v>
       </c>
       <c r="G74" t="n">
-        <v>144.5399999999999</v>
+        <v>26119.07625730742</v>
       </c>
       <c r="H74" t="n">
-        <v>143.0383333333332</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,42 +3388,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>146.2</v>
+        <v>141.3</v>
       </c>
       <c r="C75" t="n">
-        <v>146.4</v>
+        <v>141</v>
       </c>
       <c r="D75" t="n">
-        <v>146.4</v>
+        <v>142</v>
       </c>
       <c r="E75" t="n">
-        <v>146.2</v>
+        <v>141</v>
       </c>
       <c r="F75" t="n">
-        <v>5594.5223</v>
+        <v>5258.3264</v>
       </c>
       <c r="G75" t="n">
-        <v>144.7133333333333</v>
+        <v>20860.74985730743</v>
       </c>
       <c r="H75" t="n">
-        <v>143.1283333333332</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,42 +3429,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>146.4</v>
+        <v>141</v>
       </c>
       <c r="C76" t="n">
-        <v>146.5</v>
+        <v>142</v>
       </c>
       <c r="D76" t="n">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E76" t="n">
-        <v>146.4</v>
+        <v>141</v>
       </c>
       <c r="F76" t="n">
-        <v>12756.1987</v>
+        <v>475</v>
       </c>
       <c r="G76" t="n">
-        <v>144.9933333333333</v>
+        <v>21335.74985730743</v>
       </c>
       <c r="H76" t="n">
-        <v>143.2199999999998</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>141</v>
+      </c>
+      <c r="K76" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,42 +3472,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>146.5</v>
+        <v>142</v>
       </c>
       <c r="C77" t="n">
-        <v>144.1</v>
+        <v>142.4</v>
       </c>
       <c r="D77" t="n">
-        <v>146.5</v>
+        <v>142.4</v>
       </c>
       <c r="E77" t="n">
-        <v>144.1</v>
+        <v>142</v>
       </c>
       <c r="F77" t="n">
-        <v>5757.98</v>
+        <v>636.2924</v>
       </c>
       <c r="G77" t="n">
-        <v>144.9999999999999</v>
+        <v>21972.04225730742</v>
       </c>
       <c r="H77" t="n">
-        <v>143.2666666666665</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>142</v>
+      </c>
+      <c r="K77" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,42 +3515,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>145.1</v>
+        <v>142.3</v>
       </c>
       <c r="C78" t="n">
-        <v>145.1</v>
+        <v>142.3</v>
       </c>
       <c r="D78" t="n">
-        <v>145.1</v>
+        <v>142.3</v>
       </c>
       <c r="E78" t="n">
-        <v>145.1</v>
+        <v>142.3</v>
       </c>
       <c r="F78" t="n">
-        <v>2610.8249</v>
+        <v>223.0669</v>
       </c>
       <c r="G78" t="n">
-        <v>145.0733333333332</v>
+        <v>21748.97535730742</v>
       </c>
       <c r="H78" t="n">
-        <v>143.3183333333332</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,42 +3558,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>145.1</v>
+        <v>142.3</v>
       </c>
       <c r="C79" t="n">
-        <v>145.1</v>
+        <v>142.4</v>
       </c>
       <c r="D79" t="n">
-        <v>145.1</v>
+        <v>142.4</v>
       </c>
       <c r="E79" t="n">
-        <v>145.1</v>
+        <v>142.3</v>
       </c>
       <c r="F79" t="n">
-        <v>6126.6878</v>
+        <v>4406.8419</v>
       </c>
       <c r="G79" t="n">
-        <v>145.1466666666666</v>
+        <v>26155.81725730742</v>
       </c>
       <c r="H79" t="n">
-        <v>143.3699999999999</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,42 +3601,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>146.2</v>
+        <v>142.4</v>
       </c>
       <c r="C80" t="n">
-        <v>146.2</v>
+        <v>142.5</v>
       </c>
       <c r="D80" t="n">
-        <v>146.2</v>
+        <v>142.5</v>
       </c>
       <c r="E80" t="n">
-        <v>146.2</v>
+        <v>142.4</v>
       </c>
       <c r="F80" t="n">
-        <v>677.8582</v>
+        <v>5391.751</v>
       </c>
       <c r="G80" t="n">
-        <v>145.2933333333332</v>
+        <v>31547.56825730742</v>
       </c>
       <c r="H80" t="n">
-        <v>143.4399999999999</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,42 +3644,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>146.2</v>
+        <v>142.5</v>
       </c>
       <c r="C81" t="n">
-        <v>146.5</v>
+        <v>142.5</v>
       </c>
       <c r="D81" t="n">
-        <v>146.5</v>
+        <v>142.5</v>
       </c>
       <c r="E81" t="n">
-        <v>146.2</v>
+        <v>142.5</v>
       </c>
       <c r="F81" t="n">
-        <v>334.8109</v>
+        <v>1250</v>
       </c>
       <c r="G81" t="n">
-        <v>145.4599999999999</v>
+        <v>31547.56825730742</v>
       </c>
       <c r="H81" t="n">
-        <v>143.5149999999999</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,42 +3687,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>146.5</v>
+        <v>142.4</v>
       </c>
       <c r="C82" t="n">
-        <v>147</v>
+        <v>144.6</v>
       </c>
       <c r="D82" t="n">
-        <v>147</v>
+        <v>144.6</v>
       </c>
       <c r="E82" t="n">
-        <v>146.5</v>
+        <v>142.4</v>
       </c>
       <c r="F82" t="n">
-        <v>425.6266</v>
+        <v>125</v>
       </c>
       <c r="G82" t="n">
-        <v>145.6266666666666</v>
+        <v>31672.56825730742</v>
       </c>
       <c r="H82" t="n">
-        <v>143.5916666666666</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,42 +3730,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C83" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D83" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E83" t="n">
-        <v>147</v>
+        <v>142.5</v>
       </c>
       <c r="F83" t="n">
-        <v>1909.5727</v>
+        <v>40248.5827</v>
       </c>
       <c r="G83" t="n">
-        <v>145.7933333333332</v>
+        <v>-8576.014442692576</v>
       </c>
       <c r="H83" t="n">
-        <v>143.6416666666665</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="K83" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,42 +3773,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>147</v>
+        <v>142.2</v>
       </c>
       <c r="C84" t="n">
-        <v>147</v>
+        <v>143.7</v>
       </c>
       <c r="D84" t="n">
-        <v>147</v>
+        <v>143.7</v>
       </c>
       <c r="E84" t="n">
-        <v>147</v>
+        <v>142.2</v>
       </c>
       <c r="F84" t="n">
-        <v>423.4409</v>
+        <v>9925.740599999999</v>
       </c>
       <c r="G84" t="n">
-        <v>145.9266666666666</v>
+        <v>1349.726157307423</v>
       </c>
       <c r="H84" t="n">
-        <v>143.6916666666665</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,42 +3814,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>146.2</v>
+        <v>142.2</v>
       </c>
       <c r="C85" t="n">
-        <v>147.9</v>
+        <v>142.2</v>
       </c>
       <c r="D85" t="n">
-        <v>147.9</v>
+        <v>142.2</v>
       </c>
       <c r="E85" t="n">
-        <v>146.1</v>
+        <v>142.2</v>
       </c>
       <c r="F85" t="n">
-        <v>7852.3207</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>146.1066666666666</v>
+        <v>1339.726157307423</v>
       </c>
       <c r="H85" t="n">
-        <v>143.7483333333332</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,42 +3855,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>146.1</v>
+        <v>142.5</v>
       </c>
       <c r="C86" t="n">
-        <v>146.1</v>
+        <v>142.5</v>
       </c>
       <c r="D86" t="n">
-        <v>146.1</v>
+        <v>142.5</v>
       </c>
       <c r="E86" t="n">
-        <v>146.1</v>
+        <v>142.5</v>
       </c>
       <c r="F86" t="n">
-        <v>988</v>
+        <v>6041.5</v>
       </c>
       <c r="G86" t="n">
-        <v>146.1466666666666</v>
+        <v>7381.226157307423</v>
       </c>
       <c r="H86" t="n">
-        <v>143.8116666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,42 +3896,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>147.8</v>
+        <v>142.4</v>
       </c>
       <c r="C87" t="n">
-        <v>148</v>
+        <v>143.9</v>
       </c>
       <c r="D87" t="n">
-        <v>148</v>
+        <v>143.9</v>
       </c>
       <c r="E87" t="n">
-        <v>147.8</v>
+        <v>142.4</v>
       </c>
       <c r="F87" t="n">
-        <v>1131.5675</v>
+        <v>250</v>
       </c>
       <c r="G87" t="n">
-        <v>146.3066666666666</v>
+        <v>7631.226157307423</v>
       </c>
       <c r="H87" t="n">
-        <v>143.9033333333332</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,42 +3937,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>148.1</v>
+        <v>143.9</v>
       </c>
       <c r="C88" t="n">
-        <v>148.1</v>
+        <v>143.9</v>
       </c>
       <c r="D88" t="n">
-        <v>148.1</v>
+        <v>143.9</v>
       </c>
       <c r="E88" t="n">
-        <v>148.1</v>
+        <v>143.8</v>
       </c>
       <c r="F88" t="n">
-        <v>5005</v>
+        <v>1310.4412</v>
       </c>
       <c r="G88" t="n">
-        <v>146.4666666666666</v>
+        <v>7631.226157307423</v>
       </c>
       <c r="H88" t="n">
-        <v>143.9616666666666</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,42 +3978,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>148.1</v>
+        <v>143.8</v>
       </c>
       <c r="C89" t="n">
-        <v>148.4</v>
+        <v>143.8</v>
       </c>
       <c r="D89" t="n">
-        <v>148.4</v>
+        <v>143.8</v>
       </c>
       <c r="E89" t="n">
-        <v>148.1</v>
+        <v>143.8</v>
       </c>
       <c r="F89" t="n">
-        <v>2052.8065</v>
+        <v>411.7648</v>
       </c>
       <c r="G89" t="n">
-        <v>146.6266666666666</v>
+        <v>7219.461357307423</v>
       </c>
       <c r="H89" t="n">
-        <v>144.0599999999999</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,42 +4019,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>146.2</v>
+        <v>142.3</v>
       </c>
       <c r="C90" t="n">
-        <v>146.2</v>
+        <v>142.3</v>
       </c>
       <c r="D90" t="n">
-        <v>146.2</v>
+        <v>142.3</v>
       </c>
       <c r="E90" t="n">
-        <v>146.2</v>
+        <v>142.3</v>
       </c>
       <c r="F90" t="n">
-        <v>7.25</v>
+        <v>499.8304</v>
       </c>
       <c r="G90" t="n">
-        <v>146.6133333333332</v>
+        <v>6719.630957307423</v>
       </c>
       <c r="H90" t="n">
-        <v>144.0916666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,42 +4060,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>146.2</v>
+        <v>144</v>
       </c>
       <c r="C91" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="D91" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="E91" t="n">
-        <v>146.2</v>
+        <v>144</v>
       </c>
       <c r="F91" t="n">
-        <v>10124.9999</v>
+        <v>394.7683</v>
       </c>
       <c r="G91" t="n">
-        <v>146.7266666666665</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H91" t="n">
-        <v>144.1883333333332</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,42 +4101,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>146.1</v>
+        <v>144</v>
       </c>
       <c r="C92" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="D92" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="E92" t="n">
-        <v>146.1</v>
+        <v>144</v>
       </c>
       <c r="F92" t="n">
-        <v>933.1763999999999</v>
+        <v>11169.0644</v>
       </c>
       <c r="G92" t="n">
-        <v>146.9999999999999</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H92" t="n">
-        <v>144.2816666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,42 +4142,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="C93" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="D93" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="E93" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="F93" t="n">
-        <v>1864.6753</v>
+        <v>2131.7207</v>
       </c>
       <c r="G93" t="n">
-        <v>147.2066666666665</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H93" t="n">
-        <v>144.3683333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,42 +4183,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="C94" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="D94" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="E94" t="n">
-        <v>148.2</v>
+        <v>144</v>
       </c>
       <c r="F94" t="n">
-        <v>14510.1403</v>
+        <v>240.7922</v>
       </c>
       <c r="G94" t="n">
-        <v>147.4266666666666</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H94" t="n">
-        <v>144.4683333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,42 +4224,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="C95" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="D95" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="E95" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="F95" t="n">
-        <v>671.8295000000001</v>
+        <v>46130.6752</v>
       </c>
       <c r="G95" t="n">
-        <v>147.5733333333332</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H95" t="n">
-        <v>144.5799999999999</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,42 +4265,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>148.9</v>
+        <v>144.5</v>
       </c>
       <c r="C96" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="D96" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="E96" t="n">
-        <v>148.9</v>
+        <v>144.5</v>
       </c>
       <c r="F96" t="n">
-        <v>8626.5568</v>
+        <v>17663.9996</v>
       </c>
       <c r="G96" t="n">
-        <v>147.7399999999999</v>
+        <v>24778.39885730742</v>
       </c>
       <c r="H96" t="n">
-        <v>144.6966666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,42 +4306,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="C97" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="D97" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="E97" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="F97" t="n">
-        <v>431</v>
+        <v>3646.2116</v>
       </c>
       <c r="G97" t="n">
-        <v>147.8733333333332</v>
+        <v>24778.39885730742</v>
       </c>
       <c r="H97" t="n">
-        <v>144.8033333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,42 +4347,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>149</v>
+        <v>144.6</v>
       </c>
       <c r="C98" t="n">
-        <v>149.9</v>
+        <v>145</v>
       </c>
       <c r="D98" t="n">
-        <v>149.9</v>
+        <v>145</v>
       </c>
       <c r="E98" t="n">
-        <v>149</v>
+        <v>144.6</v>
       </c>
       <c r="F98" t="n">
-        <v>23398.80005170114</v>
+        <v>34815.4534</v>
       </c>
       <c r="G98" t="n">
-        <v>148.0666666666666</v>
+        <v>59593.85225730742</v>
       </c>
       <c r="H98" t="n">
-        <v>144.9266666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,42 +4388,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>149.9</v>
+        <v>145.2</v>
       </c>
       <c r="C99" t="n">
-        <v>149.9</v>
+        <v>145.2</v>
       </c>
       <c r="D99" t="n">
-        <v>149.9</v>
+        <v>145.2</v>
       </c>
       <c r="E99" t="n">
-        <v>149.9</v>
+        <v>145.2</v>
       </c>
       <c r="F99" t="n">
-        <v>1125</v>
+        <v>334.8109</v>
       </c>
       <c r="G99" t="n">
-        <v>148.2599999999999</v>
+        <v>59928.66315730742</v>
       </c>
       <c r="H99" t="n">
-        <v>145.0583333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,42 +4429,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>149.8</v>
+        <v>145.2</v>
       </c>
       <c r="C100" t="n">
-        <v>149.8</v>
+        <v>145.5</v>
       </c>
       <c r="D100" t="n">
-        <v>149.8</v>
+        <v>145.5</v>
       </c>
       <c r="E100" t="n">
-        <v>149.8</v>
+        <v>145.2</v>
       </c>
       <c r="F100" t="n">
-        <v>125</v>
+        <v>15117.4719</v>
       </c>
       <c r="G100" t="n">
-        <v>148.3866666666666</v>
+        <v>75046.13505730742</v>
       </c>
       <c r="H100" t="n">
-        <v>145.1899999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,42 +4470,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>149.4</v>
+        <v>145.5</v>
       </c>
       <c r="C101" t="n">
-        <v>149.4</v>
+        <v>145.6</v>
       </c>
       <c r="D101" t="n">
-        <v>149.4</v>
+        <v>145.6</v>
       </c>
       <c r="E101" t="n">
-        <v>149.4</v>
+        <v>145.5</v>
       </c>
       <c r="F101" t="n">
-        <v>3750</v>
+        <v>3377.0196</v>
       </c>
       <c r="G101" t="n">
-        <v>148.6066666666666</v>
+        <v>78423.15465730742</v>
       </c>
       <c r="H101" t="n">
-        <v>145.3149999999999</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,42 +4511,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>149.4</v>
+        <v>145.7</v>
       </c>
       <c r="C102" t="n">
-        <v>149.5</v>
+        <v>145.7</v>
       </c>
       <c r="D102" t="n">
-        <v>149.5</v>
+        <v>145.7</v>
       </c>
       <c r="E102" t="n">
-        <v>149.4</v>
+        <v>145.7</v>
       </c>
       <c r="F102" t="n">
-        <v>2167.1626</v>
+        <v>395.6254</v>
       </c>
       <c r="G102" t="n">
-        <v>148.7066666666666</v>
+        <v>78818.78005730742</v>
       </c>
       <c r="H102" t="n">
-        <v>145.4399999999999</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4890,42 +4552,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>149.1</v>
+        <v>145.7</v>
       </c>
       <c r="C103" t="n">
-        <v>149.3</v>
+        <v>146</v>
       </c>
       <c r="D103" t="n">
-        <v>149.3</v>
+        <v>146</v>
       </c>
       <c r="E103" t="n">
-        <v>149.1</v>
+        <v>145.7</v>
       </c>
       <c r="F103" t="n">
-        <v>15000</v>
+        <v>1973.3198</v>
       </c>
       <c r="G103" t="n">
-        <v>148.7866666666666</v>
+        <v>80792.09985730742</v>
       </c>
       <c r="H103" t="n">
-        <v>145.5633333333332</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,42 +4593,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>149.3</v>
+        <v>146.2</v>
       </c>
       <c r="C104" t="n">
-        <v>149.3</v>
+        <v>146.4</v>
       </c>
       <c r="D104" t="n">
-        <v>149.3</v>
+        <v>146.4</v>
       </c>
       <c r="E104" t="n">
-        <v>149.3</v>
+        <v>146.2</v>
       </c>
       <c r="F104" t="n">
-        <v>312.0936</v>
+        <v>5594.5223</v>
       </c>
       <c r="G104" t="n">
-        <v>148.8466666666666</v>
+        <v>86386.62215730741</v>
       </c>
       <c r="H104" t="n">
-        <v>145.6849999999999</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,42 +4634,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>149.1</v>
+        <v>146.4</v>
       </c>
       <c r="C105" t="n">
-        <v>149.1</v>
+        <v>146.5</v>
       </c>
       <c r="D105" t="n">
-        <v>149.1</v>
+        <v>147</v>
       </c>
       <c r="E105" t="n">
-        <v>149.1</v>
+        <v>146.4</v>
       </c>
       <c r="F105" t="n">
-        <v>6685.8857</v>
+        <v>12756.1987</v>
       </c>
       <c r="G105" t="n">
-        <v>149.04</v>
+        <v>99142.82085730741</v>
       </c>
       <c r="H105" t="n">
-        <v>145.8033333333332</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,42 +4675,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>149.1</v>
+        <v>146.5</v>
       </c>
       <c r="C106" t="n">
-        <v>149.4</v>
+        <v>144.1</v>
       </c>
       <c r="D106" t="n">
-        <v>149.4</v>
+        <v>146.5</v>
       </c>
       <c r="E106" t="n">
-        <v>147.7</v>
+        <v>144.1</v>
       </c>
       <c r="F106" t="n">
-        <v>20402.6437</v>
+        <v>5757.98</v>
       </c>
       <c r="G106" t="n">
-        <v>149.12</v>
+        <v>93384.84085730741</v>
       </c>
       <c r="H106" t="n">
-        <v>145.9433333333332</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,42 +4716,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>148.9</v>
+        <v>145.1</v>
       </c>
       <c r="C107" t="n">
-        <v>148.9</v>
+        <v>145.1</v>
       </c>
       <c r="D107" t="n">
-        <v>148.9</v>
+        <v>145.1</v>
       </c>
       <c r="E107" t="n">
-        <v>148.9</v>
+        <v>145.1</v>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>2610.8249</v>
       </c>
       <c r="G107" t="n">
-        <v>149.1666666666667</v>
+        <v>95995.66575730742</v>
       </c>
       <c r="H107" t="n">
-        <v>146.0583333333332</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,42 +4757,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>148.9</v>
+        <v>145.1</v>
       </c>
       <c r="C108" t="n">
-        <v>149</v>
+        <v>145.1</v>
       </c>
       <c r="D108" t="n">
-        <v>149</v>
+        <v>145.1</v>
       </c>
       <c r="E108" t="n">
-        <v>148.9</v>
+        <v>145.1</v>
       </c>
       <c r="F108" t="n">
-        <v>375</v>
+        <v>6126.6878</v>
       </c>
       <c r="G108" t="n">
-        <v>149.22</v>
+        <v>95995.66575730742</v>
       </c>
       <c r="H108" t="n">
-        <v>146.1683333333332</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,42 +4798,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>149.8</v>
+        <v>146.2</v>
       </c>
       <c r="C109" t="n">
-        <v>149.8</v>
+        <v>146.2</v>
       </c>
       <c r="D109" t="n">
-        <v>149.8</v>
+        <v>146.2</v>
       </c>
       <c r="E109" t="n">
-        <v>149.8</v>
+        <v>146.2</v>
       </c>
       <c r="F109" t="n">
-        <v>7.9533</v>
+        <v>677.8582</v>
       </c>
       <c r="G109" t="n">
-        <v>149.3133333333334</v>
+        <v>96673.52395730742</v>
       </c>
       <c r="H109" t="n">
-        <v>146.2933333333332</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,43 +4839,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>149.5</v>
+        <v>146.2</v>
       </c>
       <c r="C110" t="n">
-        <v>149.6</v>
+        <v>146.5</v>
       </c>
       <c r="D110" t="n">
-        <v>149.6</v>
+        <v>146.5</v>
       </c>
       <c r="E110" t="n">
-        <v>149.5</v>
+        <v>146.2</v>
       </c>
       <c r="F110" t="n">
-        <v>3013.7676</v>
+        <v>334.8109</v>
       </c>
       <c r="G110" t="n">
-        <v>149.3933333333333</v>
+        <v>97008.33485730742</v>
       </c>
       <c r="H110" t="n">
-        <v>146.4133333333332</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
-        <v>1.056745919091554</v>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -5242,36 +4880,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>149.6</v>
+        <v>146.5</v>
       </c>
       <c r="C111" t="n">
-        <v>149.9</v>
+        <v>147</v>
       </c>
       <c r="D111" t="n">
-        <v>149.9</v>
+        <v>147</v>
       </c>
       <c r="E111" t="n">
-        <v>149.6</v>
+        <v>146.5</v>
       </c>
       <c r="F111" t="n">
-        <v>8000</v>
+        <v>425.6266</v>
       </c>
       <c r="G111" t="n">
-        <v>149.4533333333333</v>
+        <v>97433.96145730742</v>
       </c>
       <c r="H111" t="n">
-        <v>146.5366666666665</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,36 +4921,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>148.2</v>
+        <v>147</v>
       </c>
       <c r="C112" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="D112" t="n">
-        <v>148.2</v>
+        <v>147</v>
       </c>
       <c r="E112" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="F112" t="n">
-        <v>1997.2803</v>
+        <v>1909.5727</v>
       </c>
       <c r="G112" t="n">
-        <v>149.3933333333333</v>
+        <v>97433.96145730742</v>
       </c>
       <c r="H112" t="n">
-        <v>146.6299999999999</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,36 +4962,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>148.2</v>
+        <v>147</v>
       </c>
       <c r="C113" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="D113" t="n">
-        <v>148.2</v>
+        <v>147</v>
       </c>
       <c r="E113" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="F113" t="n">
-        <v>1425.1915</v>
+        <v>423.4409</v>
       </c>
       <c r="G113" t="n">
-        <v>149.2733333333333</v>
+        <v>97433.96145730742</v>
       </c>
       <c r="H113" t="n">
-        <v>146.6883333333332</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,36 +5003,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>148.1</v>
+        <v>146.2</v>
       </c>
       <c r="C114" t="n">
-        <v>148.1</v>
+        <v>147.9</v>
       </c>
       <c r="D114" t="n">
-        <v>148.1</v>
+        <v>147.9</v>
       </c>
       <c r="E114" t="n">
-        <v>148.1</v>
+        <v>146.1</v>
       </c>
       <c r="F114" t="n">
-        <v>2763.3426</v>
+        <v>7852.3207</v>
       </c>
       <c r="G114" t="n">
-        <v>149.1533333333333</v>
+        <v>105286.2821573074</v>
       </c>
       <c r="H114" t="n">
-        <v>146.7733333333332</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,36 +5044,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>148.2</v>
+        <v>146.1</v>
       </c>
       <c r="C115" t="n">
-        <v>148.1</v>
+        <v>146.1</v>
       </c>
       <c r="D115" t="n">
-        <v>148.2</v>
+        <v>146.1</v>
       </c>
       <c r="E115" t="n">
-        <v>148.1</v>
+        <v>146.1</v>
       </c>
       <c r="F115" t="n">
-        <v>3013.7676</v>
+        <v>988</v>
       </c>
       <c r="G115" t="n">
-        <v>149.04</v>
+        <v>104298.2821573074</v>
       </c>
       <c r="H115" t="n">
-        <v>146.8466666666666</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,36 +5085,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>149.8</v>
+        <v>147.8</v>
       </c>
       <c r="C116" t="n">
-        <v>149.8</v>
+        <v>148</v>
       </c>
       <c r="D116" t="n">
-        <v>149.8</v>
+        <v>148</v>
       </c>
       <c r="E116" t="n">
-        <v>148.2</v>
+        <v>147.8</v>
       </c>
       <c r="F116" t="n">
-        <v>1522.8197</v>
+        <v>1131.5675</v>
       </c>
       <c r="G116" t="n">
-        <v>149.0666666666666</v>
+        <v>105429.8496573074</v>
       </c>
       <c r="H116" t="n">
-        <v>146.9733333333332</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,36 +5126,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>149.9</v>
+        <v>148.1</v>
       </c>
       <c r="C117" t="n">
-        <v>149.9</v>
+        <v>148.1</v>
       </c>
       <c r="D117" t="n">
-        <v>149.9</v>
+        <v>148.1</v>
       </c>
       <c r="E117" t="n">
-        <v>149.9</v>
+        <v>148.1</v>
       </c>
       <c r="F117" t="n">
-        <v>689.4584</v>
+        <v>5005</v>
       </c>
       <c r="G117" t="n">
-        <v>149.0933333333333</v>
+        <v>110434.8496573074</v>
       </c>
       <c r="H117" t="n">
-        <v>147.0966666666665</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,36 +5167,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>149.3</v>
+        <v>148.1</v>
       </c>
       <c r="C118" t="n">
-        <v>149.9</v>
+        <v>148.4</v>
       </c>
       <c r="D118" t="n">
-        <v>149.9</v>
+        <v>148.4</v>
       </c>
       <c r="E118" t="n">
-        <v>149.3</v>
+        <v>148.1</v>
       </c>
       <c r="F118" t="n">
-        <v>2093.398</v>
+        <v>2052.8065</v>
       </c>
       <c r="G118" t="n">
-        <v>149.1333333333333</v>
+        <v>112487.6561573074</v>
       </c>
       <c r="H118" t="n">
-        <v>147.1966666666665</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,36 +5208,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>149.9</v>
+        <v>146.2</v>
       </c>
       <c r="C119" t="n">
-        <v>150.1</v>
+        <v>146.2</v>
       </c>
       <c r="D119" t="n">
-        <v>150.1</v>
+        <v>146.2</v>
       </c>
       <c r="E119" t="n">
-        <v>149.9</v>
+        <v>146.2</v>
       </c>
       <c r="F119" t="n">
-        <v>13089.21664829887</v>
+        <v>7.25</v>
       </c>
       <c r="G119" t="n">
-        <v>149.1866666666666</v>
+        <v>112480.4061573074</v>
       </c>
       <c r="H119" t="n">
-        <v>147.2999999999999</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5584,36 +5249,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>150.1</v>
+        <v>146.2</v>
       </c>
       <c r="C120" t="n">
-        <v>150.1</v>
+        <v>148.2</v>
       </c>
       <c r="D120" t="n">
-        <v>150.1</v>
+        <v>148.2</v>
       </c>
       <c r="E120" t="n">
-        <v>150.1</v>
+        <v>146.2</v>
       </c>
       <c r="F120" t="n">
-        <v>129.1555</v>
+        <v>10124.9999</v>
       </c>
       <c r="G120" t="n">
-        <v>149.2533333333333</v>
+        <v>122605.4060573074</v>
       </c>
       <c r="H120" t="n">
-        <v>147.4049999999999</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,36 +5290,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>150.1</v>
+        <v>146.1</v>
       </c>
       <c r="C121" t="n">
-        <v>150.1</v>
+        <v>148.2</v>
       </c>
       <c r="D121" t="n">
-        <v>150.1</v>
+        <v>148.2</v>
       </c>
       <c r="E121" t="n">
-        <v>150.1</v>
+        <v>146.1</v>
       </c>
       <c r="F121" t="n">
-        <v>2745.3932</v>
+        <v>933.1763999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>149.2999999999999</v>
+        <v>122605.4060573074</v>
       </c>
       <c r="H121" t="n">
-        <v>147.5349999999999</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,36 +5331,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>150</v>
+        <v>148.2</v>
       </c>
       <c r="C122" t="n">
-        <v>150</v>
+        <v>148.2</v>
       </c>
       <c r="D122" t="n">
-        <v>150</v>
+        <v>148.2</v>
       </c>
       <c r="E122" t="n">
-        <v>150</v>
+        <v>148.2</v>
       </c>
       <c r="F122" t="n">
-        <v>14426</v>
+        <v>1864.6753</v>
       </c>
       <c r="G122" t="n">
-        <v>149.3733333333333</v>
+        <v>122605.4060573074</v>
       </c>
       <c r="H122" t="n">
-        <v>147.6349999999999</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,36 +5372,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>150.1</v>
+        <v>148.2</v>
       </c>
       <c r="C123" t="n">
-        <v>150.1</v>
+        <v>148.4</v>
       </c>
       <c r="D123" t="n">
-        <v>150.1</v>
+        <v>148.4</v>
       </c>
       <c r="E123" t="n">
-        <v>150.1</v>
+        <v>148.2</v>
       </c>
       <c r="F123" t="n">
-        <v>13025.687</v>
+        <v>14510.1403</v>
       </c>
       <c r="G123" t="n">
-        <v>149.4466666666666</v>
+        <v>137115.5463573074</v>
       </c>
       <c r="H123" t="n">
-        <v>147.7366666666666</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,36 +5413,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>150.1</v>
+        <v>148.4</v>
       </c>
       <c r="C124" t="n">
-        <v>150</v>
+        <v>148.4</v>
       </c>
       <c r="D124" t="n">
-        <v>150.1</v>
+        <v>148.4</v>
       </c>
       <c r="E124" t="n">
-        <v>150</v>
+        <v>148.4</v>
       </c>
       <c r="F124" t="n">
-        <v>16842.7527</v>
+        <v>671.8295000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>149.4599999999999</v>
+        <v>137115.5463573074</v>
       </c>
       <c r="H124" t="n">
-        <v>147.8366666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5774,36 +5454,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>150</v>
+        <v>148.9</v>
       </c>
       <c r="C125" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D125" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E125" t="n">
-        <v>150</v>
+        <v>148.9</v>
       </c>
       <c r="F125" t="n">
-        <v>14570.3079</v>
+        <v>8626.5568</v>
       </c>
       <c r="G125" t="n">
-        <v>149.4866666666666</v>
+        <v>145742.1031573074</v>
       </c>
       <c r="H125" t="n">
-        <v>147.9366666666666</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,36 +5495,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="C126" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D126" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E126" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="F126" t="n">
-        <v>6381.02</v>
+        <v>431</v>
       </c>
       <c r="G126" t="n">
-        <v>149.4933333333333</v>
+        <v>145742.1031573074</v>
       </c>
       <c r="H126" t="n">
-        <v>148.0366666666666</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,36 +5536,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C127" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="D127" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="E127" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F127" t="n">
-        <v>26344.3787</v>
+        <v>23398.80005170114</v>
       </c>
       <c r="G127" t="n">
-        <v>149.6199999999999</v>
+        <v>169140.9032090085</v>
       </c>
       <c r="H127" t="n">
-        <v>148.1283333333332</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5888,36 +5577,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="C128" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="D128" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="E128" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="F128" t="n">
-        <v>15000</v>
+        <v>1125</v>
       </c>
       <c r="G128" t="n">
-        <v>149.7466666666666</v>
+        <v>169140.9032090085</v>
       </c>
       <c r="H128" t="n">
-        <v>148.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,36 +5618,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>150</v>
+        <v>149.8</v>
       </c>
       <c r="C129" t="n">
-        <v>150</v>
+        <v>149.8</v>
       </c>
       <c r="D129" t="n">
-        <v>150</v>
+        <v>149.8</v>
       </c>
       <c r="E129" t="n">
-        <v>150</v>
+        <v>149.8</v>
       </c>
       <c r="F129" t="n">
-        <v>4925.9267</v>
+        <v>125</v>
       </c>
       <c r="G129" t="n">
-        <v>149.8733333333333</v>
+        <v>169015.9032090085</v>
       </c>
       <c r="H129" t="n">
-        <v>148.3033333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5964,36 +5659,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>150.2</v>
+        <v>149.4</v>
       </c>
       <c r="C130" t="n">
-        <v>151.8</v>
+        <v>149.4</v>
       </c>
       <c r="D130" t="n">
-        <v>151.8</v>
+        <v>149.4</v>
       </c>
       <c r="E130" t="n">
-        <v>150.2</v>
+        <v>149.4</v>
       </c>
       <c r="F130" t="n">
-        <v>493.3653</v>
+        <v>3750</v>
       </c>
       <c r="G130" t="n">
-        <v>150.1199999999999</v>
+        <v>165265.9032090085</v>
       </c>
       <c r="H130" t="n">
-        <v>148.4133333333332</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6002,36 +5700,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>150</v>
+        <v>149.4</v>
       </c>
       <c r="C131" t="n">
-        <v>152</v>
+        <v>149.5</v>
       </c>
       <c r="D131" t="n">
-        <v>152</v>
+        <v>149.5</v>
       </c>
       <c r="E131" t="n">
-        <v>150</v>
+        <v>149.4</v>
       </c>
       <c r="F131" t="n">
-        <v>744.355</v>
+        <v>2167.1626</v>
       </c>
       <c r="G131" t="n">
-        <v>150.2666666666666</v>
+        <v>167433.0658090085</v>
       </c>
       <c r="H131" t="n">
-        <v>148.5216666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6043,33 +5744,36 @@
         <v>149.1</v>
       </c>
       <c r="C132" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="D132" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="E132" t="n">
         <v>149.1</v>
       </c>
       <c r="F132" t="n">
-        <v>12425.3959</v>
+        <v>15000</v>
       </c>
       <c r="G132" t="n">
-        <v>150.2133333333333</v>
+        <v>152433.0658090085</v>
       </c>
       <c r="H132" t="n">
-        <v>148.5799999999999</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6078,36 +5782,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="C133" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="D133" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="E133" t="n">
-        <v>149.1</v>
+        <v>149.3</v>
       </c>
       <c r="F133" t="n">
-        <v>9696.203799999999</v>
+        <v>312.0936</v>
       </c>
       <c r="G133" t="n">
-        <v>150.1599999999999</v>
+        <v>152433.0658090085</v>
       </c>
       <c r="H133" t="n">
-        <v>148.6366666666666</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,24 +5835,27 @@
         <v>149.1</v>
       </c>
       <c r="F134" t="n">
-        <v>2612.1258</v>
+        <v>6685.8857</v>
       </c>
       <c r="G134" t="n">
-        <v>150.0933333333332</v>
+        <v>145747.1801090085</v>
       </c>
       <c r="H134" t="n">
-        <v>148.6883333333332</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,36 +5864,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="C135" t="n">
-        <v>150.5</v>
+        <v>149.4</v>
       </c>
       <c r="D135" t="n">
-        <v>150.5</v>
+        <v>149.4</v>
       </c>
       <c r="E135" t="n">
-        <v>149</v>
+        <v>147.7</v>
       </c>
       <c r="F135" t="n">
-        <v>6980.3445</v>
+        <v>20402.6437</v>
       </c>
       <c r="G135" t="n">
-        <v>150.1199999999999</v>
+        <v>166149.8238090085</v>
       </c>
       <c r="H135" t="n">
-        <v>148.7566666666666</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6192,36 +5905,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="C136" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="D136" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="E136" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="F136" t="n">
-        <v>209.2991</v>
+        <v>250</v>
       </c>
       <c r="G136" t="n">
-        <v>150.0466666666666</v>
+        <v>165899.8238090085</v>
       </c>
       <c r="H136" t="n">
-        <v>148.7983333333332</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,7 +5946,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="C137" t="n">
         <v>149</v>
@@ -6239,27 +5955,30 @@
         <v>149</v>
       </c>
       <c r="E137" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="F137" t="n">
-        <v>1655.2312</v>
+        <v>375</v>
       </c>
       <c r="G137" t="n">
-        <v>149.9799999999999</v>
+        <v>166274.8238090085</v>
       </c>
       <c r="H137" t="n">
-        <v>148.8799999999999</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,36 +5987,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>149</v>
+        <v>149.8</v>
       </c>
       <c r="C138" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="D138" t="n">
-        <v>149</v>
+        <v>149.8</v>
       </c>
       <c r="E138" t="n">
-        <v>148.1</v>
+        <v>149.8</v>
       </c>
       <c r="F138" t="n">
-        <v>21164.2736</v>
+        <v>7.9533</v>
       </c>
       <c r="G138" t="n">
-        <v>149.8466666666666</v>
+        <v>166282.7771090085</v>
       </c>
       <c r="H138" t="n">
-        <v>148.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,36 +6028,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>148.6</v>
+        <v>149.5</v>
       </c>
       <c r="C139" t="n">
-        <v>150.3</v>
+        <v>149.6</v>
       </c>
       <c r="D139" t="n">
-        <v>150.3</v>
+        <v>149.6</v>
       </c>
       <c r="E139" t="n">
-        <v>148.6</v>
+        <v>149.5</v>
       </c>
       <c r="F139" t="n">
-        <v>1024.7936</v>
+        <v>3013.7676</v>
       </c>
       <c r="G139" t="n">
-        <v>149.8666666666666</v>
+        <v>163269.0095090085</v>
       </c>
       <c r="H139" t="n">
-        <v>149.0166666666665</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,36 +6069,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>148.5</v>
+        <v>149.6</v>
       </c>
       <c r="C140" t="n">
-        <v>148.5</v>
+        <v>149.9</v>
       </c>
       <c r="D140" t="n">
-        <v>148.5</v>
+        <v>149.9</v>
       </c>
       <c r="E140" t="n">
-        <v>148.5</v>
+        <v>149.6</v>
       </c>
       <c r="F140" t="n">
-        <v>183.0293</v>
+        <v>8000</v>
       </c>
       <c r="G140" t="n">
-        <v>149.7666666666666</v>
+        <v>171269.0095090085</v>
       </c>
       <c r="H140" t="n">
-        <v>149.0549999999999</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6382,36 +6110,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>149.6</v>
+        <v>148.2</v>
       </c>
       <c r="C141" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="D141" t="n">
-        <v>149.6</v>
+        <v>148.2</v>
       </c>
       <c r="E141" t="n">
-        <v>149.6</v>
+        <v>148.1</v>
       </c>
       <c r="F141" t="n">
-        <v>56.7743</v>
+        <v>1997.2803</v>
       </c>
       <c r="G141" t="n">
-        <v>149.7399999999999</v>
+        <v>169271.7292090085</v>
       </c>
       <c r="H141" t="n">
-        <v>149.1066666666665</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6420,36 +6151,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>149.7</v>
+        <v>148.2</v>
       </c>
       <c r="C142" t="n">
-        <v>149.7</v>
+        <v>148.1</v>
       </c>
       <c r="D142" t="n">
-        <v>149.7</v>
+        <v>148.2</v>
       </c>
       <c r="E142" t="n">
-        <v>149.7</v>
+        <v>148.1</v>
       </c>
       <c r="F142" t="n">
-        <v>3098.2996</v>
+        <v>1425.1915</v>
       </c>
       <c r="G142" t="n">
-        <v>149.7199999999999</v>
+        <v>169271.7292090085</v>
       </c>
       <c r="H142" t="n">
-        <v>149.1516666666666</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,36 +6192,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="C143" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="D143" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="E143" t="n">
-        <v>148.4</v>
+        <v>148.1</v>
       </c>
       <c r="F143" t="n">
-        <v>583.1176</v>
+        <v>2763.3426</v>
       </c>
       <c r="G143" t="n">
-        <v>149.6133333333333</v>
+        <v>169271.7292090085</v>
       </c>
       <c r="H143" t="n">
-        <v>149.1749999999999</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,36 +6233,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>148.3</v>
+        <v>148.2</v>
       </c>
       <c r="C144" t="n">
-        <v>148.7</v>
+        <v>148.1</v>
       </c>
       <c r="D144" t="n">
-        <v>148.7</v>
+        <v>148.2</v>
       </c>
       <c r="E144" t="n">
         <v>148.1</v>
       </c>
       <c r="F144" t="n">
-        <v>7352.1748</v>
+        <v>3013.7676</v>
       </c>
       <c r="G144" t="n">
-        <v>149.5266666666666</v>
+        <v>169271.7292090085</v>
       </c>
       <c r="H144" t="n">
-        <v>149.2033333333332</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6534,36 +6274,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="C145" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="D145" t="n">
-        <v>148.9</v>
+        <v>149.8</v>
       </c>
       <c r="E145" t="n">
-        <v>148.9</v>
+        <v>148.2</v>
       </c>
       <c r="F145" t="n">
-        <v>219.5287</v>
+        <v>1522.8197</v>
       </c>
       <c r="G145" t="n">
-        <v>149.3333333333332</v>
+        <v>170794.5489090085</v>
       </c>
       <c r="H145" t="n">
-        <v>149.2199999999999</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6572,36 +6315,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>149.7</v>
+        <v>149.9</v>
       </c>
       <c r="C146" t="n">
-        <v>149.7</v>
+        <v>149.9</v>
       </c>
       <c r="D146" t="n">
-        <v>149.7</v>
+        <v>149.9</v>
       </c>
       <c r="E146" t="n">
-        <v>149.7</v>
+        <v>149.9</v>
       </c>
       <c r="F146" t="n">
-        <v>83.6157</v>
+        <v>689.4584</v>
       </c>
       <c r="G146" t="n">
-        <v>149.1799999999999</v>
+        <v>171484.0073090085</v>
       </c>
       <c r="H146" t="n">
-        <v>149.2799999999999</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6610,36 +6356,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>148.1</v>
+        <v>149.3</v>
       </c>
       <c r="C147" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="D147" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="E147" t="n">
-        <v>148.1</v>
+        <v>149.3</v>
       </c>
       <c r="F147" t="n">
-        <v>171.2966</v>
+        <v>2093.398</v>
       </c>
       <c r="G147" t="n">
-        <v>149.1133333333332</v>
+        <v>171484.0073090085</v>
       </c>
       <c r="H147" t="n">
-        <v>149.2816666666666</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6648,36 +6397,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="C148" t="n">
-        <v>147.2</v>
+        <v>150.1</v>
       </c>
       <c r="D148" t="n">
-        <v>148.1</v>
+        <v>150.1</v>
       </c>
       <c r="E148" t="n">
-        <v>147.2</v>
+        <v>149.9</v>
       </c>
       <c r="F148" t="n">
-        <v>8315.162399999999</v>
+        <v>13089.21664829887</v>
       </c>
       <c r="G148" t="n">
-        <v>148.9866666666666</v>
+        <v>184573.2239573074</v>
       </c>
       <c r="H148" t="n">
-        <v>149.2666666666666</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6686,37 +6438,40 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>147.5</v>
+        <v>150.1</v>
       </c>
       <c r="C149" t="n">
-        <v>147</v>
+        <v>150.1</v>
       </c>
       <c r="D149" t="n">
-        <v>147.5</v>
+        <v>150.1</v>
       </c>
       <c r="E149" t="n">
-        <v>147</v>
+        <v>150.1</v>
       </c>
       <c r="F149" t="n">
-        <v>3110.9409</v>
+        <v>129.1555</v>
       </c>
       <c r="G149" t="n">
-        <v>148.8466666666666</v>
+        <v>184573.2239573074</v>
       </c>
       <c r="H149" t="n">
-        <v>149.2433333333333</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1.06180881307747</v>
       </c>
     </row>
     <row r="150">
@@ -6724,36 +6479,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>148.1</v>
+        <v>150.1</v>
       </c>
       <c r="C150" t="n">
-        <v>148.1</v>
+        <v>150.1</v>
       </c>
       <c r="D150" t="n">
-        <v>148.1</v>
+        <v>150.1</v>
       </c>
       <c r="E150" t="n">
-        <v>148.1</v>
+        <v>150.1</v>
       </c>
       <c r="F150" t="n">
-        <v>3098.2996</v>
+        <v>2745.3932</v>
       </c>
       <c r="G150" t="n">
-        <v>148.6866666666666</v>
+        <v>184573.2239573074</v>
       </c>
       <c r="H150" t="n">
-        <v>149.2749999999999</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6762,36 +6514,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>148.6</v>
+        <v>150</v>
       </c>
       <c r="C151" t="n">
-        <v>148.6</v>
+        <v>150</v>
       </c>
       <c r="D151" t="n">
-        <v>148.6</v>
+        <v>150</v>
       </c>
       <c r="E151" t="n">
-        <v>148.6</v>
+        <v>150</v>
       </c>
       <c r="F151" t="n">
-        <v>3849.0764</v>
+        <v>14426</v>
       </c>
       <c r="G151" t="n">
-        <v>148.6599999999999</v>
+        <v>170147.2239573074</v>
       </c>
       <c r="H151" t="n">
-        <v>149.2816666666666</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6800,36 +6549,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>147</v>
+        <v>150.1</v>
       </c>
       <c r="C152" t="n">
-        <v>148.7</v>
+        <v>150.1</v>
       </c>
       <c r="D152" t="n">
-        <v>148.7</v>
+        <v>150.1</v>
       </c>
       <c r="E152" t="n">
-        <v>147</v>
+        <v>150.1</v>
       </c>
       <c r="F152" t="n">
-        <v>802.3385</v>
+        <v>13025.687</v>
       </c>
       <c r="G152" t="n">
-        <v>148.6399999999999</v>
+        <v>183172.9109573074</v>
       </c>
       <c r="H152" t="n">
-        <v>149.2899999999999</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,36 +6584,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>148.7</v>
+        <v>150.1</v>
       </c>
       <c r="C153" t="n">
-        <v>148.7</v>
+        <v>150</v>
       </c>
       <c r="D153" t="n">
-        <v>148.7</v>
+        <v>150.1</v>
       </c>
       <c r="E153" t="n">
-        <v>148.7</v>
+        <v>150</v>
       </c>
       <c r="F153" t="n">
-        <v>37.4856</v>
+        <v>16842.7527</v>
       </c>
       <c r="G153" t="n">
-        <v>148.6799999999999</v>
+        <v>166330.1582573074</v>
       </c>
       <c r="H153" t="n">
-        <v>149.2983333333332</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6876,36 +6619,1048 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="C154" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="D154" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="E154" t="n">
-        <v>146.9</v>
+        <v>150</v>
       </c>
       <c r="F154" t="n">
-        <v>68.626</v>
+        <v>14570.3079</v>
       </c>
       <c r="G154" t="n">
-        <v>148.4533333333332</v>
+        <v>166330.1582573074</v>
       </c>
       <c r="H154" t="n">
-        <v>149.2733333333332</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>150</v>
+      </c>
+      <c r="D155" t="n">
+        <v>150</v>
+      </c>
+      <c r="E155" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6381.02</v>
+      </c>
+      <c r="G155" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>150</v>
+      </c>
+      <c r="C156" t="n">
+        <v>150</v>
+      </c>
+      <c r="D156" t="n">
+        <v>150</v>
+      </c>
+      <c r="E156" t="n">
+        <v>150</v>
+      </c>
+      <c r="F156" t="n">
+        <v>26344.3787</v>
+      </c>
+      <c r="G156" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>150</v>
+      </c>
+      <c r="C157" t="n">
+        <v>150</v>
+      </c>
+      <c r="D157" t="n">
+        <v>150</v>
+      </c>
+      <c r="E157" t="n">
+        <v>150</v>
+      </c>
+      <c r="F157" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>150</v>
+      </c>
+      <c r="C158" t="n">
+        <v>150</v>
+      </c>
+      <c r="D158" t="n">
+        <v>150</v>
+      </c>
+      <c r="E158" t="n">
+        <v>150</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4925.9267</v>
+      </c>
+      <c r="G158" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>493.3653</v>
+      </c>
+      <c r="G159" t="n">
+        <v>166823.5235573074</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>150</v>
+      </c>
+      <c r="C160" t="n">
+        <v>152</v>
+      </c>
+      <c r="D160" t="n">
+        <v>152</v>
+      </c>
+      <c r="E160" t="n">
+        <v>150</v>
+      </c>
+      <c r="F160" t="n">
+        <v>744.355</v>
+      </c>
+      <c r="G160" t="n">
+        <v>167567.8785573074</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>12425.3959</v>
+      </c>
+      <c r="G161" t="n">
+        <v>155142.4826573074</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>9696.203799999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>155142.4826573074</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2612.1258</v>
+      </c>
+      <c r="G163" t="n">
+        <v>155142.4826573074</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>149</v>
+      </c>
+      <c r="C164" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>149</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6980.3445</v>
+      </c>
+      <c r="G164" t="n">
+        <v>162122.8271573074</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>149</v>
+      </c>
+      <c r="C165" t="n">
+        <v>149</v>
+      </c>
+      <c r="D165" t="n">
+        <v>149</v>
+      </c>
+      <c r="E165" t="n">
+        <v>149</v>
+      </c>
+      <c r="F165" t="n">
+        <v>209.2991</v>
+      </c>
+      <c r="G165" t="n">
+        <v>161913.5280573074</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>149</v>
+      </c>
+      <c r="C166" t="n">
+        <v>149</v>
+      </c>
+      <c r="D166" t="n">
+        <v>149</v>
+      </c>
+      <c r="E166" t="n">
+        <v>149</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1655.2312</v>
+      </c>
+      <c r="G166" t="n">
+        <v>161913.5280573074</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>149</v>
+      </c>
+      <c r="C167" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>149</v>
+      </c>
+      <c r="E167" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21164.2736</v>
+      </c>
+      <c r="G167" t="n">
+        <v>140749.2544573074</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="E168" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1024.7936</v>
+      </c>
+      <c r="G168" t="n">
+        <v>141774.0480573074</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>183.0293</v>
+      </c>
+      <c r="G169" t="n">
+        <v>141591.0187573074</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="F170" t="n">
+        <v>56.7743</v>
+      </c>
+      <c r="G170" t="n">
+        <v>141647.7930573074</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D171" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3098.2996</v>
+      </c>
+      <c r="G171" t="n">
+        <v>144746.0926573074</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>583.1176</v>
+      </c>
+      <c r="G172" t="n">
+        <v>144162.9750573074</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7352.1748</v>
+      </c>
+      <c r="G173" t="n">
+        <v>151515.1498573074</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>219.5287</v>
+      </c>
+      <c r="G174" t="n">
+        <v>151734.6785573074</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>83.6157</v>
+      </c>
+      <c r="G175" t="n">
+        <v>151818.2942573074</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>171.2966</v>
+      </c>
+      <c r="G176" t="n">
+        <v>151646.9976573074</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8315.162399999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>143331.8352573074</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="C178" t="n">
+        <v>147</v>
+      </c>
+      <c r="D178" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>147</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3110.9409</v>
+      </c>
+      <c r="G178" t="n">
+        <v>140220.8943573074</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3098.2996</v>
+      </c>
+      <c r="G179" t="n">
+        <v>143319.1939573074</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3849.0764</v>
+      </c>
+      <c r="G180" t="n">
+        <v>147168.2703573074</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>147</v>
+      </c>
+      <c r="C181" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>147</v>
+      </c>
+      <c r="F181" t="n">
+        <v>802.3385</v>
+      </c>
+      <c r="G181" t="n">
+        <v>147970.6088573074</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>37.4856</v>
+      </c>
+      <c r="G182" t="n">
+        <v>147970.6088573074</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="C183" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="F183" t="n">
+        <v>68.626</v>
+      </c>
+      <c r="G183" t="n">
+        <v>147901.9828573074</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" t="n">
-        <v>427.96</v>
+        <v>576.0251</v>
       </c>
       <c r="G2" t="n">
-        <v>44826.92265730742</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,133 +467,157 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D3" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3" t="n">
-        <v>1125.9063</v>
+        <v>2382</v>
       </c>
       <c r="G3" t="n">
-        <v>44826.92265730742</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>141</v>
+      </c>
+      <c r="K3" t="n">
+        <v>141</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" t="n">
-        <v>139</v>
+        <v>141.3</v>
       </c>
       <c r="D4" t="n">
-        <v>139</v>
+        <v>141.3</v>
       </c>
       <c r="E4" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" t="n">
-        <v>3009</v>
+        <v>5482.4302</v>
       </c>
       <c r="G4" t="n">
-        <v>44826.92265730742</v>
+        <v>34731.77165730742</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>141</v>
+      </c>
+      <c r="K4" t="n">
+        <v>141</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>139</v>
+        <v>141.3</v>
       </c>
       <c r="C5" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D5" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E5" t="n">
-        <v>139</v>
+        <v>141.3</v>
       </c>
       <c r="F5" t="n">
-        <v>912.1224999999999</v>
+        <v>591.4059999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>44826.92265730742</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>141</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="C6" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="D6" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="E6" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="F6" t="n">
-        <v>2390</v>
+        <v>1863.9359</v>
       </c>
       <c r="G6" t="n">
-        <v>47216.92265730742</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -597,78 +626,86 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K6" t="n">
-        <v>139</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>139.1</v>
+        <v>142</v>
       </c>
       <c r="C7" t="n">
-        <v>139.1</v>
+        <v>142</v>
       </c>
       <c r="D7" t="n">
-        <v>139.1</v>
+        <v>142</v>
       </c>
       <c r="E7" t="n">
-        <v>139.1</v>
+        <v>142</v>
       </c>
       <c r="F7" t="n">
-        <v>138.6712</v>
+        <v>1446.9275</v>
       </c>
       <c r="G7" t="n">
-        <v>47078.25145730742</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>142</v>
+      </c>
       <c r="K7" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="C8" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="D8" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="E8" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="F8" t="n">
-        <v>5202.8144</v>
+        <v>1247.61</v>
       </c>
       <c r="G8" t="n">
-        <v>52281.06585730743</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,38 +715,39 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>139.7</v>
+        <v>142</v>
       </c>
       <c r="C9" t="n">
-        <v>139.7</v>
+        <v>142.4</v>
       </c>
       <c r="D9" t="n">
-        <v>139.7</v>
+        <v>142.4</v>
       </c>
       <c r="E9" t="n">
-        <v>139.7</v>
+        <v>142</v>
       </c>
       <c r="F9" t="n">
-        <v>23995.3713</v>
+        <v>9008.7863</v>
       </c>
       <c r="G9" t="n">
-        <v>28285.69455730743</v>
+        <v>44331.96395730742</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -718,33 +756,40 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>141</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>139.9</v>
+        <v>142.5</v>
       </c>
       <c r="C10" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D10" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E10" t="n">
-        <v>139.9</v>
+        <v>142.5</v>
       </c>
       <c r="F10" t="n">
-        <v>516.1548</v>
+        <v>6000</v>
       </c>
       <c r="G10" t="n">
-        <v>28801.84935730743</v>
+        <v>50331.96395730742</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -753,33 +798,40 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>141</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D11" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E11" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F11" t="n">
-        <v>4420.1676</v>
+        <v>3331.5408</v>
       </c>
       <c r="G11" t="n">
-        <v>28801.84935730743</v>
+        <v>50331.96395730742</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -788,33 +840,40 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>141</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>144.5</v>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>144.5</v>
       </c>
       <c r="E12" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F12" t="n">
-        <v>467.803</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>28801.84935730743</v>
+        <v>60331.96395730742</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,252 +882,260 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>141</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>140.9</v>
+        <v>144</v>
       </c>
       <c r="C13" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="D13" t="n">
-        <v>140.9</v>
+        <v>144.5</v>
       </c>
       <c r="E13" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>10425.7247</v>
       </c>
       <c r="G13" t="n">
-        <v>28805.84935730743</v>
+        <v>49906.23925730742</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>140</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>140</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140.1</v>
+        <v>144</v>
       </c>
       <c r="C14" t="n">
-        <v>140.7</v>
+        <v>142.5</v>
       </c>
       <c r="D14" t="n">
-        <v>140.7</v>
+        <v>144</v>
       </c>
       <c r="E14" t="n">
-        <v>140.1</v>
+        <v>142.5</v>
       </c>
       <c r="F14" t="n">
-        <v>5735.2311</v>
+        <v>10016.3942</v>
       </c>
       <c r="G14" t="n">
-        <v>23070.61825730743</v>
+        <v>59922.63345730743</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>140.9</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140.7</v>
+        <v>144.6</v>
       </c>
       <c r="C15" t="n">
-        <v>140.7</v>
+        <v>144.6</v>
       </c>
       <c r="D15" t="n">
-        <v>140.7</v>
+        <v>144.6</v>
       </c>
       <c r="E15" t="n">
-        <v>140.7</v>
+        <v>144.6</v>
       </c>
       <c r="F15" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>23070.61825730743</v>
+        <v>59932.63345730743</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>140.7</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140.7</v>
+        <v>144</v>
       </c>
       <c r="C16" t="n">
-        <v>140.7</v>
+        <v>142.5</v>
       </c>
       <c r="D16" t="n">
-        <v>140.7</v>
+        <v>144</v>
       </c>
       <c r="E16" t="n">
-        <v>140.7</v>
+        <v>142.5</v>
       </c>
       <c r="F16" t="n">
-        <v>688.3672</v>
+        <v>3331.5408</v>
       </c>
       <c r="G16" t="n">
-        <v>23070.61825730743</v>
+        <v>56601.09265730742</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>140.7</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>140.7</v>
+        <v>142.9</v>
       </c>
       <c r="C17" t="n">
-        <v>140.9</v>
+        <v>144.3</v>
       </c>
       <c r="D17" t="n">
-        <v>140.9</v>
+        <v>144.3</v>
       </c>
       <c r="E17" t="n">
-        <v>140.7</v>
+        <v>142.8</v>
       </c>
       <c r="F17" t="n">
-        <v>257.0771</v>
+        <v>5239.2242</v>
       </c>
       <c r="G17" t="n">
-        <v>23327.69535730742</v>
+        <v>61840.31685730742</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>140.7</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>140.1</v>
+        <v>142.4</v>
       </c>
       <c r="C18" t="n">
-        <v>140.5</v>
+        <v>142.4</v>
       </c>
       <c r="D18" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="E18" t="n">
-        <v>140</v>
+        <v>142.4</v>
       </c>
       <c r="F18" t="n">
-        <v>10521.5874</v>
+        <v>2279.8327</v>
       </c>
       <c r="G18" t="n">
-        <v>12806.10795730742</v>
+        <v>59560.48415730742</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>140.9</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1078,28 +1145,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>140.5</v>
+        <v>142.6</v>
       </c>
       <c r="C19" t="n">
-        <v>140.5</v>
+        <v>142.6</v>
       </c>
       <c r="D19" t="n">
-        <v>140.5</v>
+        <v>142.6</v>
       </c>
       <c r="E19" t="n">
-        <v>140.5</v>
+        <v>142.6</v>
       </c>
       <c r="F19" t="n">
-        <v>1300.0916</v>
+        <v>325.752</v>
       </c>
       <c r="G19" t="n">
-        <v>12806.10795730742</v>
+        <v>59886.23615730742</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1109,7 +1177,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1119,28 +1187,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>140.5</v>
+        <v>143</v>
       </c>
       <c r="C20" t="n">
-        <v>140.5</v>
+        <v>143</v>
       </c>
       <c r="D20" t="n">
-        <v>140.5</v>
+        <v>143</v>
       </c>
       <c r="E20" t="n">
-        <v>140.5</v>
+        <v>143</v>
       </c>
       <c r="F20" t="n">
-        <v>1336.5308</v>
+        <v>469.2985</v>
       </c>
       <c r="G20" t="n">
-        <v>12806.10795730742</v>
+        <v>60355.53465730742</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1150,7 +1219,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1160,28 +1229,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>140.5</v>
+        <v>142.5</v>
       </c>
       <c r="C21" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="D21" t="n">
-        <v>140.9</v>
+        <v>142.5</v>
       </c>
       <c r="E21" t="n">
-        <v>140.5</v>
+        <v>142.4</v>
       </c>
       <c r="F21" t="n">
-        <v>8547.431200000001</v>
+        <v>2000</v>
       </c>
       <c r="G21" t="n">
-        <v>21353.53915730742</v>
+        <v>58355.53465730742</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1191,7 +1261,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1201,28 +1271,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>139.8</v>
+        <v>142.4</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8</v>
+        <v>141.7</v>
       </c>
       <c r="D22" t="n">
-        <v>139.8</v>
+        <v>142.4</v>
       </c>
       <c r="E22" t="n">
-        <v>139.8</v>
+        <v>141.7</v>
       </c>
       <c r="F22" t="n">
-        <v>5.614</v>
+        <v>33601.4375</v>
       </c>
       <c r="G22" t="n">
-        <v>21347.92515730742</v>
+        <v>24754.09715730742</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1232,7 +1303,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1242,28 +1313,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="C23" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="D23" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="F23" t="n">
-        <v>1064.9633</v>
+        <v>478.1971</v>
       </c>
       <c r="G23" t="n">
-        <v>22412.88845730742</v>
+        <v>25232.29425730742</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1273,7 +1345,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1283,28 +1355,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>140.7</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n">
-        <v>140.7</v>
+        <v>142.6</v>
       </c>
       <c r="D24" t="n">
-        <v>140.7</v>
+        <v>142.7</v>
       </c>
       <c r="E24" t="n">
-        <v>140.7</v>
+        <v>142</v>
       </c>
       <c r="F24" t="n">
-        <v>260.078</v>
+        <v>2558.7255</v>
       </c>
       <c r="G24" t="n">
-        <v>22152.81045730742</v>
+        <v>27791.01975730742</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1314,7 +1387,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1324,28 +1397,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>140.6</v>
+        <v>142.5</v>
       </c>
       <c r="C25" t="n">
-        <v>140.6</v>
+        <v>142.5</v>
       </c>
       <c r="D25" t="n">
-        <v>140.6</v>
+        <v>142.5</v>
       </c>
       <c r="E25" t="n">
-        <v>140.6</v>
+        <v>142.5</v>
       </c>
       <c r="F25" t="n">
-        <v>550.165</v>
+        <v>988.8075</v>
       </c>
       <c r="G25" t="n">
-        <v>21602.64545730742</v>
+        <v>26802.21225730742</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1355,7 +1429,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1365,40 +1439,39 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>140.6</v>
+        <v>141.6</v>
       </c>
       <c r="C26" t="n">
-        <v>140.6</v>
+        <v>142</v>
       </c>
       <c r="D26" t="n">
-        <v>140.6</v>
+        <v>142</v>
       </c>
       <c r="E26" t="n">
-        <v>140.6</v>
+        <v>141.6</v>
       </c>
       <c r="F26" t="n">
-        <v>7272.5059</v>
+        <v>765.6767</v>
       </c>
       <c r="G26" t="n">
-        <v>21602.64545730742</v>
+        <v>26036.53555730742</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>140.6</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1408,28 +1481,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>140.6</v>
+        <v>142</v>
       </c>
       <c r="C27" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="D27" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="E27" t="n">
-        <v>140.6</v>
+        <v>141.2</v>
       </c>
       <c r="F27" t="n">
-        <v>5586.696</v>
+        <v>1661.0048</v>
       </c>
       <c r="G27" t="n">
-        <v>27189.34145730742</v>
+        <v>24375.53075730742</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1439,7 +1513,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1449,28 +1523,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>140.9</v>
+        <v>141.8</v>
       </c>
       <c r="C28" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="D28" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="E28" t="n">
-        <v>140.9</v>
+        <v>141.8</v>
       </c>
       <c r="F28" t="n">
-        <v>1193.3236</v>
+        <v>7248.736</v>
       </c>
       <c r="G28" t="n">
-        <v>27189.34145730742</v>
+        <v>24375.53075730742</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1480,7 +1555,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1490,28 +1565,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="C29" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="D29" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="F29" t="n">
-        <v>332.3021</v>
+        <v>5061.8784</v>
       </c>
       <c r="G29" t="n">
-        <v>27189.34145730742</v>
+        <v>29437.40915730743</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1521,7 +1597,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1531,28 +1607,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="C30" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="D30" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="E30" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="F30" t="n">
-        <v>7338.2011</v>
+        <v>7416.7123</v>
       </c>
       <c r="G30" t="n">
-        <v>27189.34145730742</v>
+        <v>22020.69685730743</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1562,7 +1639,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1572,28 +1649,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="C31" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="D31" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="E31" t="n">
-        <v>140.9</v>
+        <v>141.9</v>
       </c>
       <c r="F31" t="n">
-        <v>1212.3636</v>
+        <v>4098.3794</v>
       </c>
       <c r="G31" t="n">
-        <v>27189.34145730742</v>
+        <v>26119.07625730742</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1603,7 +1681,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1613,28 +1691,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="C32" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="D32" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="F32" t="n">
-        <v>1385.4156</v>
+        <v>478.195</v>
       </c>
       <c r="G32" t="n">
-        <v>27189.34145730742</v>
+        <v>26119.07625730742</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1644,7 +1723,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1654,28 +1733,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>140.9</v>
+        <v>141.3</v>
       </c>
       <c r="C33" t="n">
-        <v>140.9</v>
+        <v>141</v>
       </c>
       <c r="D33" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="E33" t="n">
-        <v>140.9</v>
+        <v>141</v>
       </c>
       <c r="F33" t="n">
-        <v>439.1317</v>
+        <v>5258.3264</v>
       </c>
       <c r="G33" t="n">
-        <v>27189.34145730742</v>
+        <v>20860.74985730743</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1685,7 +1765,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1695,28 +1775,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>140.9</v>
+        <v>141</v>
       </c>
       <c r="C34" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="D34" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="E34" t="n">
-        <v>140.9</v>
+        <v>141</v>
       </c>
       <c r="F34" t="n">
-        <v>3381.6771</v>
+        <v>475</v>
       </c>
       <c r="G34" t="n">
-        <v>27189.34145730742</v>
+        <v>21335.74985730743</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1726,7 +1807,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1736,28 +1817,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="C35" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="D35" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9</v>
+        <v>142</v>
       </c>
       <c r="F35" t="n">
-        <v>5174.5519</v>
+        <v>636.2924</v>
       </c>
       <c r="G35" t="n">
-        <v>27189.34145730742</v>
+        <v>21972.04225730742</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1767,7 +1849,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1777,28 +1859,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="C36" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="D36" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="E36" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="F36" t="n">
-        <v>793.2379</v>
+        <v>223.0669</v>
       </c>
       <c r="G36" t="n">
-        <v>27189.34145730742</v>
+        <v>21748.97535730742</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1808,7 +1891,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1818,28 +1901,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="C37" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="D37" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="E37" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="F37" t="n">
-        <v>20883.2567</v>
+        <v>4406.8419</v>
       </c>
       <c r="G37" t="n">
-        <v>27189.34145730742</v>
+        <v>26155.81725730742</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1849,7 +1933,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1859,28 +1943,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="C38" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="D38" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9</v>
+        <v>142.4</v>
       </c>
       <c r="F38" t="n">
-        <v>2060</v>
+        <v>5391.751</v>
       </c>
       <c r="G38" t="n">
-        <v>29249.34145730742</v>
+        <v>31547.56825730742</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1890,7 +1975,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1900,28 +1985,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="C39" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="D39" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="E39" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="F39" t="n">
-        <v>4274</v>
+        <v>1250</v>
       </c>
       <c r="G39" t="n">
-        <v>29249.34145730742</v>
+        <v>31547.56825730742</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1931,7 +2017,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1941,28 +2027,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>141</v>
+        <v>142.4</v>
       </c>
       <c r="C40" t="n">
-        <v>141</v>
+        <v>144.6</v>
       </c>
       <c r="D40" t="n">
-        <v>141</v>
+        <v>144.6</v>
       </c>
       <c r="E40" t="n">
-        <v>141</v>
+        <v>142.4</v>
       </c>
       <c r="F40" t="n">
-        <v>2740</v>
+        <v>125</v>
       </c>
       <c r="G40" t="n">
-        <v>29249.34145730742</v>
+        <v>31672.56825730742</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1972,7 +2059,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1982,28 +2069,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C41" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D41" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E41" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="F41" t="n">
-        <v>4394.3514</v>
+        <v>40248.5827</v>
       </c>
       <c r="G41" t="n">
-        <v>29249.34145730742</v>
+        <v>-8576.014442692576</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2013,7 +2101,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2023,28 +2111,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>141</v>
+        <v>142.2</v>
       </c>
       <c r="C42" t="n">
-        <v>141</v>
+        <v>143.7</v>
       </c>
       <c r="D42" t="n">
-        <v>141</v>
+        <v>143.7</v>
       </c>
       <c r="E42" t="n">
-        <v>141</v>
+        <v>142.2</v>
       </c>
       <c r="F42" t="n">
-        <v>972.7784</v>
+        <v>9925.740599999999</v>
       </c>
       <c r="G42" t="n">
-        <v>29249.34145730742</v>
+        <v>1349.726157307423</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2054,7 +2143,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2064,28 +2153,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>141</v>
+        <v>142.2</v>
       </c>
       <c r="C43" t="n">
-        <v>141</v>
+        <v>142.2</v>
       </c>
       <c r="D43" t="n">
-        <v>141</v>
+        <v>142.2</v>
       </c>
       <c r="E43" t="n">
-        <v>141</v>
+        <v>142.2</v>
       </c>
       <c r="F43" t="n">
-        <v>2403.45</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>29249.34145730742</v>
+        <v>1339.726157307423</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2095,7 +2185,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2105,28 +2195,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="C44" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="D44" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="E44" t="n">
-        <v>141</v>
+        <v>142.5</v>
       </c>
       <c r="F44" t="n">
-        <v>576.0251</v>
+        <v>6041.5</v>
       </c>
       <c r="G44" t="n">
-        <v>29249.34145730742</v>
+        <v>7381.226157307423</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2136,7 +2227,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2146,28 +2237,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>141</v>
+        <v>142.4</v>
       </c>
       <c r="C45" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="D45" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="E45" t="n">
-        <v>141</v>
+        <v>142.4</v>
       </c>
       <c r="F45" t="n">
-        <v>2382</v>
+        <v>250</v>
       </c>
       <c r="G45" t="n">
-        <v>29249.34145730742</v>
+        <v>7631.226157307423</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2177,7 +2269,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2187,28 +2279,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="C46" t="n">
-        <v>141.3</v>
+        <v>143.9</v>
       </c>
       <c r="D46" t="n">
-        <v>141.3</v>
+        <v>143.9</v>
       </c>
       <c r="E46" t="n">
-        <v>141</v>
+        <v>143.8</v>
       </c>
       <c r="F46" t="n">
-        <v>5482.4302</v>
+        <v>1310.4412</v>
       </c>
       <c r="G46" t="n">
-        <v>34731.77165730742</v>
+        <v>7631.226157307423</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2218,7 +2311,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2228,28 +2321,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>141.3</v>
+        <v>143.8</v>
       </c>
       <c r="C47" t="n">
-        <v>142</v>
+        <v>143.8</v>
       </c>
       <c r="D47" t="n">
-        <v>142</v>
+        <v>143.8</v>
       </c>
       <c r="E47" t="n">
-        <v>141.3</v>
+        <v>143.8</v>
       </c>
       <c r="F47" t="n">
-        <v>591.4059999999999</v>
+        <v>411.7648</v>
       </c>
       <c r="G47" t="n">
-        <v>35323.17765730742</v>
+        <v>7219.461357307423</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2259,7 +2353,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2269,28 +2363,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>142</v>
+        <v>142.3</v>
       </c>
       <c r="C48" t="n">
-        <v>142</v>
+        <v>142.3</v>
       </c>
       <c r="D48" t="n">
-        <v>142</v>
+        <v>142.3</v>
       </c>
       <c r="E48" t="n">
-        <v>142</v>
+        <v>142.3</v>
       </c>
       <c r="F48" t="n">
-        <v>1863.9359</v>
+        <v>499.8304</v>
       </c>
       <c r="G48" t="n">
-        <v>35323.17765730742</v>
+        <v>6719.630957307423</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2300,7 +2395,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2310,28 +2405,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C49" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E49" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F49" t="n">
-        <v>1446.9275</v>
+        <v>394.7683</v>
       </c>
       <c r="G49" t="n">
-        <v>35323.17765730742</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2341,7 +2437,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2351,28 +2447,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C50" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E50" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F50" t="n">
-        <v>1247.61</v>
+        <v>11169.0644</v>
       </c>
       <c r="G50" t="n">
-        <v>35323.17765730742</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2382,7 +2479,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2392,28 +2489,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C51" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="D51" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="E51" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F51" t="n">
-        <v>9008.7863</v>
+        <v>2131.7207</v>
       </c>
       <c r="G51" t="n">
-        <v>44331.96395730742</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2423,7 +2521,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2433,13 +2531,14 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>142.5</v>
+        <v>144</v>
       </c>
       <c r="C52" t="n">
         <v>144</v>
@@ -2448,13 +2547,13 @@
         <v>144</v>
       </c>
       <c r="E52" t="n">
-        <v>142.5</v>
+        <v>144</v>
       </c>
       <c r="F52" t="n">
-        <v>6000</v>
+        <v>240.7922</v>
       </c>
       <c r="G52" t="n">
-        <v>50331.96395730742</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2464,7 +2563,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2474,6 +2573,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2492,10 +2592,10 @@
         <v>144</v>
       </c>
       <c r="F53" t="n">
-        <v>3331.5408</v>
+        <v>46130.6752</v>
       </c>
       <c r="G53" t="n">
-        <v>50331.96395730742</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2505,7 +2605,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2515,13 +2615,14 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>144</v>
+        <v>144.5</v>
       </c>
       <c r="C54" t="n">
         <v>144.5</v>
@@ -2530,13 +2631,13 @@
         <v>144.5</v>
       </c>
       <c r="E54" t="n">
-        <v>144</v>
+        <v>144.5</v>
       </c>
       <c r="F54" t="n">
-        <v>10000</v>
+        <v>17663.9996</v>
       </c>
       <c r="G54" t="n">
-        <v>60331.96395730742</v>
+        <v>24778.39885730742</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2546,7 +2647,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2556,28 +2657,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>144</v>
+        <v>144.5</v>
       </c>
       <c r="C55" t="n">
-        <v>142.3</v>
+        <v>144.5</v>
       </c>
       <c r="D55" t="n">
         <v>144.5</v>
       </c>
       <c r="E55" t="n">
-        <v>142.3</v>
+        <v>144.5</v>
       </c>
       <c r="F55" t="n">
-        <v>10425.7247</v>
+        <v>3646.2116</v>
       </c>
       <c r="G55" t="n">
-        <v>49906.23925730742</v>
+        <v>24778.39885730742</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2587,7 +2689,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2597,28 +2699,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>144</v>
+        <v>144.6</v>
       </c>
       <c r="C56" t="n">
-        <v>142.5</v>
+        <v>145</v>
       </c>
       <c r="D56" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E56" t="n">
-        <v>142.5</v>
+        <v>144.6</v>
       </c>
       <c r="F56" t="n">
-        <v>10016.3942</v>
+        <v>34815.4534</v>
       </c>
       <c r="G56" t="n">
-        <v>59922.63345730743</v>
+        <v>59593.85225730742</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2628,7 +2731,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2638,28 +2741,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>144.6</v>
+        <v>145.2</v>
       </c>
       <c r="C57" t="n">
-        <v>144.6</v>
+        <v>145.2</v>
       </c>
       <c r="D57" t="n">
-        <v>144.6</v>
+        <v>145.2</v>
       </c>
       <c r="E57" t="n">
-        <v>144.6</v>
+        <v>145.2</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>334.8109</v>
       </c>
       <c r="G57" t="n">
-        <v>59932.63345730743</v>
+        <v>59928.66315730742</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2669,7 +2773,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2679,28 +2783,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>144</v>
+        <v>145.2</v>
       </c>
       <c r="C58" t="n">
-        <v>142.5</v>
+        <v>145.5</v>
       </c>
       <c r="D58" t="n">
-        <v>144</v>
+        <v>145.5</v>
       </c>
       <c r="E58" t="n">
-        <v>142.5</v>
+        <v>145.2</v>
       </c>
       <c r="F58" t="n">
-        <v>3331.5408</v>
+        <v>15117.4719</v>
       </c>
       <c r="G58" t="n">
-        <v>56601.09265730742</v>
+        <v>75046.13505730742</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2710,7 +2815,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2720,28 +2825,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>142.9</v>
+        <v>145.5</v>
       </c>
       <c r="C59" t="n">
-        <v>144.3</v>
+        <v>145.6</v>
       </c>
       <c r="D59" t="n">
-        <v>144.3</v>
+        <v>145.6</v>
       </c>
       <c r="E59" t="n">
-        <v>142.8</v>
+        <v>145.5</v>
       </c>
       <c r="F59" t="n">
-        <v>5239.2242</v>
+        <v>3377.0196</v>
       </c>
       <c r="G59" t="n">
-        <v>61840.31685730742</v>
+        <v>78423.15465730742</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2751,7 +2857,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2761,28 +2867,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>142.4</v>
+        <v>145.7</v>
       </c>
       <c r="C60" t="n">
-        <v>142.4</v>
+        <v>145.7</v>
       </c>
       <c r="D60" t="n">
-        <v>142.4</v>
+        <v>145.7</v>
       </c>
       <c r="E60" t="n">
-        <v>142.4</v>
+        <v>145.7</v>
       </c>
       <c r="F60" t="n">
-        <v>2279.8327</v>
+        <v>395.6254</v>
       </c>
       <c r="G60" t="n">
-        <v>59560.48415730742</v>
+        <v>78818.78005730742</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2792,7 +2899,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2802,28 +2909,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>142.6</v>
+        <v>145.7</v>
       </c>
       <c r="C61" t="n">
-        <v>142.6</v>
+        <v>146</v>
       </c>
       <c r="D61" t="n">
-        <v>142.6</v>
+        <v>146</v>
       </c>
       <c r="E61" t="n">
-        <v>142.6</v>
+        <v>145.7</v>
       </c>
       <c r="F61" t="n">
-        <v>325.752</v>
+        <v>1973.3198</v>
       </c>
       <c r="G61" t="n">
-        <v>59886.23615730742</v>
+        <v>80792.09985730742</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2833,7 +2941,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2843,28 +2951,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>143</v>
+        <v>146.2</v>
       </c>
       <c r="C62" t="n">
-        <v>143</v>
+        <v>146.4</v>
       </c>
       <c r="D62" t="n">
-        <v>143</v>
+        <v>146.4</v>
       </c>
       <c r="E62" t="n">
-        <v>143</v>
+        <v>146.2</v>
       </c>
       <c r="F62" t="n">
-        <v>469.2985</v>
+        <v>5594.5223</v>
       </c>
       <c r="G62" t="n">
-        <v>60355.53465730742</v>
+        <v>86386.62215730741</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2874,7 +2983,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2884,28 +2993,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>142.5</v>
+        <v>146.4</v>
       </c>
       <c r="C63" t="n">
-        <v>142.4</v>
+        <v>146.5</v>
       </c>
       <c r="D63" t="n">
-        <v>142.5</v>
+        <v>147</v>
       </c>
       <c r="E63" t="n">
-        <v>142.4</v>
+        <v>146.4</v>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>12756.1987</v>
       </c>
       <c r="G63" t="n">
-        <v>58355.53465730742</v>
+        <v>99142.82085730741</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2915,7 +3025,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2925,28 +3035,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>142.4</v>
+        <v>146.5</v>
       </c>
       <c r="C64" t="n">
-        <v>141.7</v>
+        <v>144.1</v>
       </c>
       <c r="D64" t="n">
-        <v>142.4</v>
+        <v>146.5</v>
       </c>
       <c r="E64" t="n">
-        <v>141.7</v>
+        <v>144.1</v>
       </c>
       <c r="F64" t="n">
-        <v>33601.4375</v>
+        <v>5757.98</v>
       </c>
       <c r="G64" t="n">
-        <v>24754.09715730742</v>
+        <v>93384.84085730741</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2956,7 +3067,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2966,28 +3077,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>142</v>
+        <v>145.1</v>
       </c>
       <c r="C65" t="n">
-        <v>142</v>
+        <v>145.1</v>
       </c>
       <c r="D65" t="n">
-        <v>142</v>
+        <v>145.1</v>
       </c>
       <c r="E65" t="n">
-        <v>142</v>
+        <v>145.1</v>
       </c>
       <c r="F65" t="n">
-        <v>478.1971</v>
+        <v>2610.8249</v>
       </c>
       <c r="G65" t="n">
-        <v>25232.29425730742</v>
+        <v>95995.66575730742</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2997,7 +3109,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3007,28 +3119,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>142</v>
+        <v>145.1</v>
       </c>
       <c r="C66" t="n">
-        <v>142.6</v>
+        <v>145.1</v>
       </c>
       <c r="D66" t="n">
-        <v>142.7</v>
+        <v>145.1</v>
       </c>
       <c r="E66" t="n">
-        <v>142</v>
+        <v>145.1</v>
       </c>
       <c r="F66" t="n">
-        <v>2558.7255</v>
+        <v>6126.6878</v>
       </c>
       <c r="G66" t="n">
-        <v>27791.01975730742</v>
+        <v>95995.66575730742</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3038,7 +3151,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3048,28 +3161,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>142.5</v>
+        <v>146.2</v>
       </c>
       <c r="C67" t="n">
-        <v>142.5</v>
+        <v>146.2</v>
       </c>
       <c r="D67" t="n">
-        <v>142.5</v>
+        <v>146.2</v>
       </c>
       <c r="E67" t="n">
-        <v>142.5</v>
+        <v>146.2</v>
       </c>
       <c r="F67" t="n">
-        <v>988.8075</v>
+        <v>677.8582</v>
       </c>
       <c r="G67" t="n">
-        <v>26802.21225730742</v>
+        <v>96673.52395730742</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3079,7 +3193,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3089,28 +3203,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>141.6</v>
+        <v>146.2</v>
       </c>
       <c r="C68" t="n">
-        <v>142</v>
+        <v>146.5</v>
       </c>
       <c r="D68" t="n">
-        <v>142</v>
+        <v>146.5</v>
       </c>
       <c r="E68" t="n">
-        <v>141.6</v>
+        <v>146.2</v>
       </c>
       <c r="F68" t="n">
-        <v>765.6767</v>
+        <v>334.8109</v>
       </c>
       <c r="G68" t="n">
-        <v>26036.53555730742</v>
+        <v>97008.33485730742</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3120,7 +3235,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3130,28 +3245,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>142</v>
+        <v>146.5</v>
       </c>
       <c r="C69" t="n">
-        <v>141.9</v>
+        <v>147</v>
       </c>
       <c r="D69" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E69" t="n">
-        <v>141.2</v>
+        <v>146.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1661.0048</v>
+        <v>425.6266</v>
       </c>
       <c r="G69" t="n">
-        <v>24375.53075730742</v>
+        <v>97433.96145730742</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3161,7 +3277,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3171,28 +3287,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>141.8</v>
+        <v>147</v>
       </c>
       <c r="C70" t="n">
-        <v>141.9</v>
+        <v>147</v>
       </c>
       <c r="D70" t="n">
-        <v>141.9</v>
+        <v>147</v>
       </c>
       <c r="E70" t="n">
-        <v>141.8</v>
+        <v>147</v>
       </c>
       <c r="F70" t="n">
-        <v>7248.736</v>
+        <v>1909.5727</v>
       </c>
       <c r="G70" t="n">
-        <v>24375.53075730742</v>
+        <v>97433.96145730742</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3202,7 +3319,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3212,28 +3329,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>141.9</v>
+        <v>147</v>
       </c>
       <c r="C71" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D71" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E71" t="n">
-        <v>141.9</v>
+        <v>147</v>
       </c>
       <c r="F71" t="n">
-        <v>5061.8784</v>
+        <v>423.4409</v>
       </c>
       <c r="G71" t="n">
-        <v>29437.40915730743</v>
+        <v>97433.96145730742</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3243,7 +3361,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3253,40 +3371,39 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>141.9</v>
+        <v>146.2</v>
       </c>
       <c r="C72" t="n">
-        <v>141.9</v>
+        <v>147.9</v>
       </c>
       <c r="D72" t="n">
-        <v>141.9</v>
+        <v>147.9</v>
       </c>
       <c r="E72" t="n">
-        <v>141.9</v>
+        <v>146.1</v>
       </c>
       <c r="F72" t="n">
-        <v>7416.7123</v>
+        <v>7852.3207</v>
       </c>
       <c r="G72" t="n">
-        <v>22020.69685730743</v>
+        <v>105286.2821573074</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>142</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3296,40 +3413,39 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>141.9</v>
+        <v>146.1</v>
       </c>
       <c r="C73" t="n">
-        <v>142</v>
+        <v>146.1</v>
       </c>
       <c r="D73" t="n">
-        <v>142</v>
+        <v>146.1</v>
       </c>
       <c r="E73" t="n">
-        <v>141.9</v>
+        <v>146.1</v>
       </c>
       <c r="F73" t="n">
-        <v>4098.3794</v>
+        <v>988</v>
       </c>
       <c r="G73" t="n">
-        <v>26119.07625730742</v>
+        <v>104298.2821573074</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>141.9</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3339,40 +3455,39 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>142</v>
+        <v>147.8</v>
       </c>
       <c r="C74" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D74" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E74" t="n">
-        <v>142</v>
+        <v>147.8</v>
       </c>
       <c r="F74" t="n">
-        <v>478.195</v>
+        <v>1131.5675</v>
       </c>
       <c r="G74" t="n">
-        <v>26119.07625730742</v>
+        <v>105429.8496573074</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>142</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3382,28 +3497,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>141.3</v>
+        <v>148.1</v>
       </c>
       <c r="C75" t="n">
-        <v>141</v>
+        <v>148.1</v>
       </c>
       <c r="D75" t="n">
-        <v>142</v>
+        <v>148.1</v>
       </c>
       <c r="E75" t="n">
-        <v>141</v>
+        <v>148.1</v>
       </c>
       <c r="F75" t="n">
-        <v>5258.3264</v>
+        <v>5005</v>
       </c>
       <c r="G75" t="n">
-        <v>20860.74985730743</v>
+        <v>110434.8496573074</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3413,7 +3529,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3423,40 +3539,39 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>141</v>
+        <v>148.1</v>
       </c>
       <c r="C76" t="n">
-        <v>142</v>
+        <v>148.4</v>
       </c>
       <c r="D76" t="n">
-        <v>142</v>
+        <v>148.4</v>
       </c>
       <c r="E76" t="n">
-        <v>141</v>
+        <v>148.1</v>
       </c>
       <c r="F76" t="n">
-        <v>475</v>
+        <v>2052.8065</v>
       </c>
       <c r="G76" t="n">
-        <v>21335.74985730743</v>
+        <v>112487.6561573074</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>141</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3466,40 +3581,39 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>142</v>
+        <v>146.2</v>
       </c>
       <c r="C77" t="n">
-        <v>142.4</v>
+        <v>146.2</v>
       </c>
       <c r="D77" t="n">
-        <v>142.4</v>
+        <v>146.2</v>
       </c>
       <c r="E77" t="n">
-        <v>142</v>
+        <v>146.2</v>
       </c>
       <c r="F77" t="n">
-        <v>636.2924</v>
+        <v>7.25</v>
       </c>
       <c r="G77" t="n">
-        <v>21972.04225730742</v>
+        <v>112480.4061573074</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>142</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3509,40 +3623,39 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>142.3</v>
+        <v>146.2</v>
       </c>
       <c r="C78" t="n">
-        <v>142.3</v>
+        <v>148.2</v>
       </c>
       <c r="D78" t="n">
-        <v>142.3</v>
+        <v>148.2</v>
       </c>
       <c r="E78" t="n">
-        <v>142.3</v>
+        <v>146.2</v>
       </c>
       <c r="F78" t="n">
-        <v>223.0669</v>
+        <v>10124.9999</v>
       </c>
       <c r="G78" t="n">
-        <v>21748.97535730742</v>
+        <v>122605.4060573074</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>142.4</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3552,40 +3665,39 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>142.3</v>
+        <v>146.1</v>
       </c>
       <c r="C79" t="n">
-        <v>142.4</v>
+        <v>148.2</v>
       </c>
       <c r="D79" t="n">
-        <v>142.4</v>
+        <v>148.2</v>
       </c>
       <c r="E79" t="n">
-        <v>142.3</v>
+        <v>146.1</v>
       </c>
       <c r="F79" t="n">
-        <v>4406.8419</v>
+        <v>933.1763999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>26155.81725730742</v>
+        <v>122605.4060573074</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>142.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3595,40 +3707,39 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>142.4</v>
+        <v>148.2</v>
       </c>
       <c r="C80" t="n">
-        <v>142.5</v>
+        <v>148.2</v>
       </c>
       <c r="D80" t="n">
-        <v>142.5</v>
+        <v>148.2</v>
       </c>
       <c r="E80" t="n">
-        <v>142.4</v>
+        <v>148.2</v>
       </c>
       <c r="F80" t="n">
-        <v>5391.751</v>
+        <v>1864.6753</v>
       </c>
       <c r="G80" t="n">
-        <v>31547.56825730742</v>
+        <v>122605.4060573074</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>142.4</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3638,40 +3749,39 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>142.5</v>
+        <v>148.2</v>
       </c>
       <c r="C81" t="n">
-        <v>142.5</v>
+        <v>148.4</v>
       </c>
       <c r="D81" t="n">
-        <v>142.5</v>
+        <v>148.4</v>
       </c>
       <c r="E81" t="n">
-        <v>142.5</v>
+        <v>148.2</v>
       </c>
       <c r="F81" t="n">
-        <v>1250</v>
+        <v>14510.1403</v>
       </c>
       <c r="G81" t="n">
-        <v>31547.56825730742</v>
+        <v>137115.5463573074</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>142.5</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3681,40 +3791,39 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>142.4</v>
+        <v>148.4</v>
       </c>
       <c r="C82" t="n">
-        <v>144.6</v>
+        <v>148.4</v>
       </c>
       <c r="D82" t="n">
-        <v>144.6</v>
+        <v>148.4</v>
       </c>
       <c r="E82" t="n">
-        <v>142.4</v>
+        <v>148.4</v>
       </c>
       <c r="F82" t="n">
-        <v>125</v>
+        <v>671.8295000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>31672.56825730742</v>
+        <v>137115.5463573074</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>142.5</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3724,40 +3833,39 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>143</v>
+        <v>148.9</v>
       </c>
       <c r="C83" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D83" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E83" t="n">
-        <v>142.5</v>
+        <v>148.9</v>
       </c>
       <c r="F83" t="n">
-        <v>40248.5827</v>
+        <v>8626.5568</v>
       </c>
       <c r="G83" t="n">
-        <v>-8576.014442692576</v>
+        <v>145742.1031573074</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>144.6</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3767,28 +3875,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>142.2</v>
+        <v>149</v>
       </c>
       <c r="C84" t="n">
-        <v>143.7</v>
+        <v>149</v>
       </c>
       <c r="D84" t="n">
-        <v>143.7</v>
+        <v>149</v>
       </c>
       <c r="E84" t="n">
-        <v>142.2</v>
+        <v>149</v>
       </c>
       <c r="F84" t="n">
-        <v>9925.740599999999</v>
+        <v>431</v>
       </c>
       <c r="G84" t="n">
-        <v>1349.726157307423</v>
+        <v>145742.1031573074</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3798,7 +3907,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3808,28 +3917,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>142.2</v>
+        <v>149</v>
       </c>
       <c r="C85" t="n">
-        <v>142.2</v>
+        <v>149.9</v>
       </c>
       <c r="D85" t="n">
-        <v>142.2</v>
+        <v>149.9</v>
       </c>
       <c r="E85" t="n">
-        <v>142.2</v>
+        <v>149</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>23398.80005170114</v>
       </c>
       <c r="G85" t="n">
-        <v>1339.726157307423</v>
+        <v>169140.9032090085</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3839,7 +3949,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3849,28 +3959,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>142.5</v>
+        <v>149.9</v>
       </c>
       <c r="C86" t="n">
-        <v>142.5</v>
+        <v>149.9</v>
       </c>
       <c r="D86" t="n">
-        <v>142.5</v>
+        <v>149.9</v>
       </c>
       <c r="E86" t="n">
-        <v>142.5</v>
+        <v>149.9</v>
       </c>
       <c r="F86" t="n">
-        <v>6041.5</v>
+        <v>1125</v>
       </c>
       <c r="G86" t="n">
-        <v>7381.226157307423</v>
+        <v>169140.9032090085</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3880,7 +3991,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3890,28 +4001,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>142.4</v>
+        <v>149.8</v>
       </c>
       <c r="C87" t="n">
-        <v>143.9</v>
+        <v>149.8</v>
       </c>
       <c r="D87" t="n">
-        <v>143.9</v>
+        <v>149.8</v>
       </c>
       <c r="E87" t="n">
-        <v>142.4</v>
+        <v>149.8</v>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="G87" t="n">
-        <v>7631.226157307423</v>
+        <v>169015.9032090085</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3921,7 +4033,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3931,28 +4043,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>143.9</v>
+        <v>149.4</v>
       </c>
       <c r="C88" t="n">
-        <v>143.9</v>
+        <v>149.4</v>
       </c>
       <c r="D88" t="n">
-        <v>143.9</v>
+        <v>149.4</v>
       </c>
       <c r="E88" t="n">
-        <v>143.8</v>
+        <v>149.4</v>
       </c>
       <c r="F88" t="n">
-        <v>1310.4412</v>
+        <v>3750</v>
       </c>
       <c r="G88" t="n">
-        <v>7631.226157307423</v>
+        <v>165265.9032090085</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3962,7 +4075,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3972,28 +4085,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>143.8</v>
+        <v>149.4</v>
       </c>
       <c r="C89" t="n">
-        <v>143.8</v>
+        <v>149.5</v>
       </c>
       <c r="D89" t="n">
-        <v>143.8</v>
+        <v>149.5</v>
       </c>
       <c r="E89" t="n">
-        <v>143.8</v>
+        <v>149.4</v>
       </c>
       <c r="F89" t="n">
-        <v>411.7648</v>
+        <v>2167.1626</v>
       </c>
       <c r="G89" t="n">
-        <v>7219.461357307423</v>
+        <v>167433.0658090085</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4003,7 +4117,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4013,28 +4127,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>142.3</v>
+        <v>149.1</v>
       </c>
       <c r="C90" t="n">
-        <v>142.3</v>
+        <v>149.3</v>
       </c>
       <c r="D90" t="n">
-        <v>142.3</v>
+        <v>149.3</v>
       </c>
       <c r="E90" t="n">
-        <v>142.3</v>
+        <v>149.1</v>
       </c>
       <c r="F90" t="n">
-        <v>499.8304</v>
+        <v>15000</v>
       </c>
       <c r="G90" t="n">
-        <v>6719.630957307423</v>
+        <v>152433.0658090085</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4044,7 +4159,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4054,28 +4169,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>144</v>
+        <v>149.3</v>
       </c>
       <c r="C91" t="n">
-        <v>144</v>
+        <v>149.3</v>
       </c>
       <c r="D91" t="n">
-        <v>144</v>
+        <v>149.3</v>
       </c>
       <c r="E91" t="n">
-        <v>144</v>
+        <v>149.3</v>
       </c>
       <c r="F91" t="n">
-        <v>394.7683</v>
+        <v>312.0936</v>
       </c>
       <c r="G91" t="n">
-        <v>7114.399257307423</v>
+        <v>152433.0658090085</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4085,7 +4201,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4095,28 +4211,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>144</v>
+        <v>149.1</v>
       </c>
       <c r="C92" t="n">
-        <v>144</v>
+        <v>149.1</v>
       </c>
       <c r="D92" t="n">
-        <v>144</v>
+        <v>149.1</v>
       </c>
       <c r="E92" t="n">
-        <v>144</v>
+        <v>149.1</v>
       </c>
       <c r="F92" t="n">
-        <v>11169.0644</v>
+        <v>6685.8857</v>
       </c>
       <c r="G92" t="n">
-        <v>7114.399257307423</v>
+        <v>145747.1801090085</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4126,7 +4243,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4136,28 +4253,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>144</v>
+        <v>149.1</v>
       </c>
       <c r="C93" t="n">
-        <v>144</v>
+        <v>149.4</v>
       </c>
       <c r="D93" t="n">
-        <v>144</v>
+        <v>149.4</v>
       </c>
       <c r="E93" t="n">
-        <v>144</v>
+        <v>147.7</v>
       </c>
       <c r="F93" t="n">
-        <v>2131.7207</v>
+        <v>20402.6437</v>
       </c>
       <c r="G93" t="n">
-        <v>7114.399257307423</v>
+        <v>166149.8238090085</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4167,7 +4285,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4177,28 +4295,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="C94" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="D94" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="E94" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="F94" t="n">
-        <v>240.7922</v>
+        <v>250</v>
       </c>
       <c r="G94" t="n">
-        <v>7114.399257307423</v>
+        <v>165899.8238090085</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4208,7 +4327,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4218,28 +4337,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="C95" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D95" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E95" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="F95" t="n">
-        <v>46130.6752</v>
+        <v>375</v>
       </c>
       <c r="G95" t="n">
-        <v>7114.399257307423</v>
+        <v>166274.8238090085</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4249,7 +4369,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4259,28 +4379,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>144.5</v>
+        <v>149.8</v>
       </c>
       <c r="C96" t="n">
-        <v>144.5</v>
+        <v>149.8</v>
       </c>
       <c r="D96" t="n">
-        <v>144.5</v>
+        <v>149.8</v>
       </c>
       <c r="E96" t="n">
-        <v>144.5</v>
+        <v>149.8</v>
       </c>
       <c r="F96" t="n">
-        <v>17663.9996</v>
+        <v>7.9533</v>
       </c>
       <c r="G96" t="n">
-        <v>24778.39885730742</v>
+        <v>166282.7771090085</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4290,7 +4411,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4300,28 +4421,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>144.5</v>
+        <v>149.5</v>
       </c>
       <c r="C97" t="n">
-        <v>144.5</v>
+        <v>149.6</v>
       </c>
       <c r="D97" t="n">
-        <v>144.5</v>
+        <v>149.6</v>
       </c>
       <c r="E97" t="n">
-        <v>144.5</v>
+        <v>149.5</v>
       </c>
       <c r="F97" t="n">
-        <v>3646.2116</v>
+        <v>3013.7676</v>
       </c>
       <c r="G97" t="n">
-        <v>24778.39885730742</v>
+        <v>163269.0095090085</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4331,7 +4453,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4341,28 +4463,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>144.6</v>
+        <v>149.6</v>
       </c>
       <c r="C98" t="n">
-        <v>145</v>
+        <v>149.9</v>
       </c>
       <c r="D98" t="n">
-        <v>145</v>
+        <v>149.9</v>
       </c>
       <c r="E98" t="n">
-        <v>144.6</v>
+        <v>149.6</v>
       </c>
       <c r="F98" t="n">
-        <v>34815.4534</v>
+        <v>8000</v>
       </c>
       <c r="G98" t="n">
-        <v>59593.85225730742</v>
+        <v>171269.0095090085</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4372,7 +4495,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4382,28 +4505,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>145.2</v>
+        <v>148.2</v>
       </c>
       <c r="C99" t="n">
-        <v>145.2</v>
+        <v>148.1</v>
       </c>
       <c r="D99" t="n">
-        <v>145.2</v>
+        <v>148.2</v>
       </c>
       <c r="E99" t="n">
-        <v>145.2</v>
+        <v>148.1</v>
       </c>
       <c r="F99" t="n">
-        <v>334.8109</v>
+        <v>1997.2803</v>
       </c>
       <c r="G99" t="n">
-        <v>59928.66315730742</v>
+        <v>169271.7292090085</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4413,7 +4537,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4423,28 +4547,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>145.2</v>
+        <v>148.2</v>
       </c>
       <c r="C100" t="n">
-        <v>145.5</v>
+        <v>148.1</v>
       </c>
       <c r="D100" t="n">
-        <v>145.5</v>
+        <v>148.2</v>
       </c>
       <c r="E100" t="n">
-        <v>145.2</v>
+        <v>148.1</v>
       </c>
       <c r="F100" t="n">
-        <v>15117.4719</v>
+        <v>1425.1915</v>
       </c>
       <c r="G100" t="n">
-        <v>75046.13505730742</v>
+        <v>169271.7292090085</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4454,7 +4579,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4464,28 +4589,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>145.5</v>
+        <v>148.1</v>
       </c>
       <c r="C101" t="n">
-        <v>145.6</v>
+        <v>148.1</v>
       </c>
       <c r="D101" t="n">
-        <v>145.6</v>
+        <v>148.1</v>
       </c>
       <c r="E101" t="n">
-        <v>145.5</v>
+        <v>148.1</v>
       </c>
       <c r="F101" t="n">
-        <v>3377.0196</v>
+        <v>2763.3426</v>
       </c>
       <c r="G101" t="n">
-        <v>78423.15465730742</v>
+        <v>169271.7292090085</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4495,7 +4621,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4505,28 +4631,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>145.7</v>
+        <v>148.2</v>
       </c>
       <c r="C102" t="n">
-        <v>145.7</v>
+        <v>148.1</v>
       </c>
       <c r="D102" t="n">
-        <v>145.7</v>
+        <v>148.2</v>
       </c>
       <c r="E102" t="n">
-        <v>145.7</v>
+        <v>148.1</v>
       </c>
       <c r="F102" t="n">
-        <v>395.6254</v>
+        <v>3013.7676</v>
       </c>
       <c r="G102" t="n">
-        <v>78818.78005730742</v>
+        <v>169271.7292090085</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4536,7 +4663,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4546,28 +4673,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>145.7</v>
+        <v>149.8</v>
       </c>
       <c r="C103" t="n">
-        <v>146</v>
+        <v>149.8</v>
       </c>
       <c r="D103" t="n">
-        <v>146</v>
+        <v>149.8</v>
       </c>
       <c r="E103" t="n">
-        <v>145.7</v>
+        <v>148.2</v>
       </c>
       <c r="F103" t="n">
-        <v>1973.3198</v>
+        <v>1522.8197</v>
       </c>
       <c r="G103" t="n">
-        <v>80792.09985730742</v>
+        <v>170794.5489090085</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4577,7 +4705,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4587,28 +4715,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>146.2</v>
+        <v>149.9</v>
       </c>
       <c r="C104" t="n">
-        <v>146.4</v>
+        <v>149.9</v>
       </c>
       <c r="D104" t="n">
-        <v>146.4</v>
+        <v>149.9</v>
       </c>
       <c r="E104" t="n">
-        <v>146.2</v>
+        <v>149.9</v>
       </c>
       <c r="F104" t="n">
-        <v>5594.5223</v>
+        <v>689.4584</v>
       </c>
       <c r="G104" t="n">
-        <v>86386.62215730741</v>
+        <v>171484.0073090085</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4618,7 +4747,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4628,28 +4757,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>146.4</v>
+        <v>149.3</v>
       </c>
       <c r="C105" t="n">
-        <v>146.5</v>
+        <v>149.9</v>
       </c>
       <c r="D105" t="n">
-        <v>147</v>
+        <v>149.9</v>
       </c>
       <c r="E105" t="n">
-        <v>146.4</v>
+        <v>149.3</v>
       </c>
       <c r="F105" t="n">
-        <v>12756.1987</v>
+        <v>2093.398</v>
       </c>
       <c r="G105" t="n">
-        <v>99142.82085730741</v>
+        <v>171484.0073090085</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4659,7 +4789,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4669,45 +4799,49 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>146.5</v>
+        <v>149.9</v>
       </c>
       <c r="C106" t="n">
-        <v>144.1</v>
+        <v>150.1</v>
       </c>
       <c r="D106" t="n">
-        <v>146.5</v>
+        <v>150.1</v>
       </c>
       <c r="E106" t="n">
-        <v>144.1</v>
+        <v>149.9</v>
       </c>
       <c r="F106" t="n">
-        <v>5757.98</v>
+        <v>13089.21664829887</v>
       </c>
       <c r="G106" t="n">
-        <v>93384.84085730741</v>
+        <v>184573.2239573074</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>140.7</v>
+        <v>141</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M106" t="n">
+        <v>1.059539007092199</v>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,22 +4850,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>145.1</v>
+        <v>150.1</v>
       </c>
       <c r="C107" t="n">
-        <v>145.1</v>
+        <v>150.1</v>
       </c>
       <c r="D107" t="n">
-        <v>145.1</v>
+        <v>150.1</v>
       </c>
       <c r="E107" t="n">
-        <v>145.1</v>
+        <v>150.1</v>
       </c>
       <c r="F107" t="n">
-        <v>2610.8249</v>
+        <v>129.1555</v>
       </c>
       <c r="G107" t="n">
-        <v>95995.66575730742</v>
+        <v>184573.2239573074</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4740,39 +4874,34 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>145.1</v>
+        <v>150.1</v>
       </c>
       <c r="C108" t="n">
-        <v>145.1</v>
+        <v>150.1</v>
       </c>
       <c r="D108" t="n">
-        <v>145.1</v>
+        <v>150.1</v>
       </c>
       <c r="E108" t="n">
-        <v>145.1</v>
+        <v>150.1</v>
       </c>
       <c r="F108" t="n">
-        <v>6126.6878</v>
+        <v>2745.3932</v>
       </c>
       <c r="G108" t="n">
-        <v>95995.66575730742</v>
+        <v>184573.2239573074</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4781,982 +4910,862 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>146.2</v>
+        <v>150</v>
       </c>
       <c r="C109" t="n">
-        <v>146.2</v>
+        <v>150</v>
       </c>
       <c r="D109" t="n">
-        <v>146.2</v>
+        <v>150</v>
       </c>
       <c r="E109" t="n">
-        <v>146.2</v>
+        <v>150</v>
       </c>
       <c r="F109" t="n">
-        <v>677.8582</v>
+        <v>14426</v>
       </c>
       <c r="G109" t="n">
-        <v>96673.52395730742</v>
+        <v>170147.2239573074</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>146.2</v>
+        <v>150.1</v>
       </c>
       <c r="C110" t="n">
-        <v>146.5</v>
+        <v>150.1</v>
       </c>
       <c r="D110" t="n">
-        <v>146.5</v>
+        <v>150.1</v>
       </c>
       <c r="E110" t="n">
-        <v>146.2</v>
+        <v>150.1</v>
       </c>
       <c r="F110" t="n">
-        <v>334.8109</v>
+        <v>13025.687</v>
       </c>
       <c r="G110" t="n">
-        <v>97008.33485730742</v>
+        <v>183172.9109573074</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>146.5</v>
+        <v>150.1</v>
       </c>
       <c r="C111" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D111" t="n">
-        <v>147</v>
+        <v>150.1</v>
       </c>
       <c r="E111" t="n">
-        <v>146.5</v>
+        <v>150</v>
       </c>
       <c r="F111" t="n">
-        <v>425.6266</v>
+        <v>16842.7527</v>
       </c>
       <c r="G111" t="n">
-        <v>97433.96145730742</v>
+        <v>166330.1582573074</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C112" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D112" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E112" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F112" t="n">
-        <v>1909.5727</v>
+        <v>14570.3079</v>
       </c>
       <c r="G112" t="n">
-        <v>97433.96145730742</v>
+        <v>166330.1582573074</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>147</v>
+        <v>149.9</v>
       </c>
       <c r="C113" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D113" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E113" t="n">
-        <v>147</v>
+        <v>149.9</v>
       </c>
       <c r="F113" t="n">
-        <v>423.4409</v>
+        <v>6381.02</v>
       </c>
       <c r="G113" t="n">
-        <v>97433.96145730742</v>
+        <v>166330.1582573074</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>146.2</v>
+        <v>150</v>
       </c>
       <c r="C114" t="n">
-        <v>147.9</v>
+        <v>150</v>
       </c>
       <c r="D114" t="n">
-        <v>147.9</v>
+        <v>150</v>
       </c>
       <c r="E114" t="n">
-        <v>146.1</v>
+        <v>150</v>
       </c>
       <c r="F114" t="n">
-        <v>7852.3207</v>
+        <v>26344.3787</v>
       </c>
       <c r="G114" t="n">
-        <v>105286.2821573074</v>
+        <v>166330.1582573074</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>146.1</v>
+        <v>150</v>
       </c>
       <c r="C115" t="n">
-        <v>146.1</v>
+        <v>150</v>
       </c>
       <c r="D115" t="n">
-        <v>146.1</v>
+        <v>150</v>
       </c>
       <c r="E115" t="n">
-        <v>146.1</v>
+        <v>150</v>
       </c>
       <c r="F115" t="n">
-        <v>988</v>
+        <v>15000</v>
       </c>
       <c r="G115" t="n">
-        <v>104298.2821573074</v>
+        <v>166330.1582573074</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>147.8</v>
+        <v>150</v>
       </c>
       <c r="C116" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D116" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E116" t="n">
-        <v>147.8</v>
+        <v>150</v>
       </c>
       <c r="F116" t="n">
-        <v>1131.5675</v>
+        <v>4925.9267</v>
       </c>
       <c r="G116" t="n">
-        <v>105429.8496573074</v>
+        <v>166330.1582573074</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>148.1</v>
+        <v>150.2</v>
       </c>
       <c r="C117" t="n">
-        <v>148.1</v>
+        <v>151.8</v>
       </c>
       <c r="D117" t="n">
-        <v>148.1</v>
+        <v>151.8</v>
       </c>
       <c r="E117" t="n">
-        <v>148.1</v>
+        <v>150.2</v>
       </c>
       <c r="F117" t="n">
-        <v>5005</v>
+        <v>493.3653</v>
       </c>
       <c r="G117" t="n">
-        <v>110434.8496573074</v>
+        <v>166823.5235573074</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="C118" t="n">
-        <v>148.4</v>
+        <v>152</v>
       </c>
       <c r="D118" t="n">
-        <v>148.4</v>
+        <v>152</v>
       </c>
       <c r="E118" t="n">
-        <v>148.1</v>
+        <v>150</v>
       </c>
       <c r="F118" t="n">
-        <v>2052.8065</v>
+        <v>744.355</v>
       </c>
       <c r="G118" t="n">
-        <v>112487.6561573074</v>
+        <v>167567.8785573074</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>146.2</v>
+        <v>149.1</v>
       </c>
       <c r="C119" t="n">
-        <v>146.2</v>
+        <v>149.1</v>
       </c>
       <c r="D119" t="n">
-        <v>146.2</v>
+        <v>149.1</v>
       </c>
       <c r="E119" t="n">
-        <v>146.2</v>
+        <v>149.1</v>
       </c>
       <c r="F119" t="n">
-        <v>7.25</v>
+        <v>12425.3959</v>
       </c>
       <c r="G119" t="n">
-        <v>112480.4061573074</v>
+        <v>155142.4826573074</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>146.2</v>
+        <v>149.1</v>
       </c>
       <c r="C120" t="n">
-        <v>148.2</v>
+        <v>149.1</v>
       </c>
       <c r="D120" t="n">
-        <v>148.2</v>
+        <v>149.1</v>
       </c>
       <c r="E120" t="n">
-        <v>146.2</v>
+        <v>149.1</v>
       </c>
       <c r="F120" t="n">
-        <v>10124.9999</v>
+        <v>9696.203799999999</v>
       </c>
       <c r="G120" t="n">
-        <v>122605.4060573074</v>
+        <v>155142.4826573074</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>146.1</v>
+        <v>149.1</v>
       </c>
       <c r="C121" t="n">
-        <v>148.2</v>
+        <v>149.1</v>
       </c>
       <c r="D121" t="n">
-        <v>148.2</v>
+        <v>149.1</v>
       </c>
       <c r="E121" t="n">
-        <v>146.1</v>
+        <v>149.1</v>
       </c>
       <c r="F121" t="n">
-        <v>933.1763999999999</v>
+        <v>2612.1258</v>
       </c>
       <c r="G121" t="n">
-        <v>122605.4060573074</v>
+        <v>155142.4826573074</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="C122" t="n">
-        <v>148.2</v>
+        <v>150.5</v>
       </c>
       <c r="D122" t="n">
-        <v>148.2</v>
+        <v>150.5</v>
       </c>
       <c r="E122" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="F122" t="n">
-        <v>1864.6753</v>
+        <v>6980.3445</v>
       </c>
       <c r="G122" t="n">
-        <v>122605.4060573074</v>
+        <v>162122.8271573074</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="C123" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="D123" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="E123" t="n">
-        <v>148.2</v>
+        <v>149</v>
       </c>
       <c r="F123" t="n">
-        <v>14510.1403</v>
+        <v>209.2991</v>
       </c>
       <c r="G123" t="n">
-        <v>137115.5463573074</v>
+        <v>161913.5280573074</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="C124" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="D124" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="E124" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="F124" t="n">
-        <v>671.8295000000001</v>
+        <v>1655.2312</v>
       </c>
       <c r="G124" t="n">
-        <v>137115.5463573074</v>
+        <v>161913.5280573074</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>148.9</v>
+        <v>149</v>
       </c>
       <c r="C125" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D125" t="n">
         <v>149</v>
       </c>
       <c r="E125" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="F125" t="n">
-        <v>8626.5568</v>
+        <v>21164.2736</v>
       </c>
       <c r="G125" t="n">
-        <v>145742.1031573074</v>
+        <v>140749.2544573074</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>149</v>
+        <v>148.6</v>
       </c>
       <c r="C126" t="n">
-        <v>149</v>
+        <v>150.3</v>
       </c>
       <c r="D126" t="n">
-        <v>149</v>
+        <v>150.3</v>
       </c>
       <c r="E126" t="n">
-        <v>149</v>
+        <v>148.6</v>
       </c>
       <c r="F126" t="n">
-        <v>431</v>
+        <v>1024.7936</v>
       </c>
       <c r="G126" t="n">
-        <v>145742.1031573074</v>
+        <v>141774.0480573074</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="C127" t="n">
-        <v>149.9</v>
+        <v>148.5</v>
       </c>
       <c r="D127" t="n">
-        <v>149.9</v>
+        <v>148.5</v>
       </c>
       <c r="E127" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="F127" t="n">
-        <v>23398.80005170114</v>
+        <v>183.0293</v>
       </c>
       <c r="G127" t="n">
-        <v>169140.9032090085</v>
+        <v>141591.0187573074</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>149.9</v>
+        <v>149.6</v>
       </c>
       <c r="C128" t="n">
-        <v>149.9</v>
+        <v>149.6</v>
       </c>
       <c r="D128" t="n">
-        <v>149.9</v>
+        <v>149.6</v>
       </c>
       <c r="E128" t="n">
-        <v>149.9</v>
+        <v>149.6</v>
       </c>
       <c r="F128" t="n">
-        <v>1125</v>
+        <v>56.7743</v>
       </c>
       <c r="G128" t="n">
-        <v>169140.9032090085</v>
+        <v>141647.7930573074</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>149.8</v>
+        <v>149.7</v>
       </c>
       <c r="C129" t="n">
-        <v>149.8</v>
+        <v>149.7</v>
       </c>
       <c r="D129" t="n">
-        <v>149.8</v>
+        <v>149.7</v>
       </c>
       <c r="E129" t="n">
-        <v>149.8</v>
+        <v>149.7</v>
       </c>
       <c r="F129" t="n">
-        <v>125</v>
+        <v>3098.2996</v>
       </c>
       <c r="G129" t="n">
-        <v>169015.9032090085</v>
+        <v>144746.0926573074</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>149.4</v>
+        <v>148.4</v>
       </c>
       <c r="C130" t="n">
-        <v>149.4</v>
+        <v>148.4</v>
       </c>
       <c r="D130" t="n">
-        <v>149.4</v>
+        <v>148.4</v>
       </c>
       <c r="E130" t="n">
-        <v>149.4</v>
+        <v>148.4</v>
       </c>
       <c r="F130" t="n">
-        <v>3750</v>
+        <v>583.1176</v>
       </c>
       <c r="G130" t="n">
-        <v>165265.9032090085</v>
+        <v>144162.9750573074</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>149.4</v>
+        <v>148.3</v>
       </c>
       <c r="C131" t="n">
-        <v>149.5</v>
+        <v>148.7</v>
       </c>
       <c r="D131" t="n">
-        <v>149.5</v>
+        <v>148.7</v>
       </c>
       <c r="E131" t="n">
-        <v>149.4</v>
+        <v>148.1</v>
       </c>
       <c r="F131" t="n">
-        <v>2167.1626</v>
+        <v>7352.1748</v>
       </c>
       <c r="G131" t="n">
-        <v>167433.0658090085</v>
+        <v>151515.1498573074</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>149.1</v>
+        <v>148.9</v>
       </c>
       <c r="C132" t="n">
-        <v>149.3</v>
+        <v>148.9</v>
       </c>
       <c r="D132" t="n">
-        <v>149.3</v>
+        <v>148.9</v>
       </c>
       <c r="E132" t="n">
-        <v>149.1</v>
+        <v>148.9</v>
       </c>
       <c r="F132" t="n">
-        <v>15000</v>
+        <v>219.5287</v>
       </c>
       <c r="G132" t="n">
-        <v>152433.0658090085</v>
+        <v>151734.6785573074</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5765,326 +5774,286 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>149.3</v>
+        <v>149.7</v>
       </c>
       <c r="C133" t="n">
-        <v>149.3</v>
+        <v>149.7</v>
       </c>
       <c r="D133" t="n">
-        <v>149.3</v>
+        <v>149.7</v>
       </c>
       <c r="E133" t="n">
-        <v>149.3</v>
+        <v>149.7</v>
       </c>
       <c r="F133" t="n">
-        <v>312.0936</v>
+        <v>83.6157</v>
       </c>
       <c r="G133" t="n">
-        <v>152433.0658090085</v>
+        <v>151818.2942573074</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="C134" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="D134" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="E134" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="F134" t="n">
-        <v>6685.8857</v>
+        <v>171.2966</v>
       </c>
       <c r="G134" t="n">
-        <v>145747.1801090085</v>
+        <v>151646.9976573074</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>149.1</v>
+        <v>148.1</v>
       </c>
       <c r="C135" t="n">
-        <v>149.4</v>
+        <v>147.2</v>
       </c>
       <c r="D135" t="n">
-        <v>149.4</v>
+        <v>148.1</v>
       </c>
       <c r="E135" t="n">
-        <v>147.7</v>
+        <v>147.2</v>
       </c>
       <c r="F135" t="n">
-        <v>20402.6437</v>
+        <v>8315.162399999999</v>
       </c>
       <c r="G135" t="n">
-        <v>166149.8238090085</v>
+        <v>143331.8352573074</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>148.9</v>
+        <v>147.5</v>
       </c>
       <c r="C136" t="n">
-        <v>148.9</v>
+        <v>147</v>
       </c>
       <c r="D136" t="n">
-        <v>148.9</v>
+        <v>147.5</v>
       </c>
       <c r="E136" t="n">
-        <v>148.9</v>
+        <v>147</v>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>3110.9409</v>
       </c>
       <c r="G136" t="n">
-        <v>165899.8238090085</v>
+        <v>140220.8943573074</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="C137" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="D137" t="n">
-        <v>149</v>
+        <v>148.1</v>
       </c>
       <c r="E137" t="n">
-        <v>148.9</v>
+        <v>148.1</v>
       </c>
       <c r="F137" t="n">
-        <v>375</v>
+        <v>3098.2996</v>
       </c>
       <c r="G137" t="n">
-        <v>166274.8238090085</v>
+        <v>143319.1939573074</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>149.8</v>
+        <v>148.6</v>
       </c>
       <c r="C138" t="n">
-        <v>149.8</v>
+        <v>148.6</v>
       </c>
       <c r="D138" t="n">
-        <v>149.8</v>
+        <v>148.6</v>
       </c>
       <c r="E138" t="n">
-        <v>149.8</v>
+        <v>148.6</v>
       </c>
       <c r="F138" t="n">
-        <v>7.9533</v>
+        <v>3849.0764</v>
       </c>
       <c r="G138" t="n">
-        <v>166282.7771090085</v>
+        <v>147168.2703573074</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>149.5</v>
+        <v>147</v>
       </c>
       <c r="C139" t="n">
-        <v>149.6</v>
+        <v>148.7</v>
       </c>
       <c r="D139" t="n">
-        <v>149.6</v>
+        <v>148.7</v>
       </c>
       <c r="E139" t="n">
-        <v>149.5</v>
+        <v>147</v>
       </c>
       <c r="F139" t="n">
-        <v>3013.7676</v>
+        <v>802.3385</v>
       </c>
       <c r="G139" t="n">
-        <v>163269.0095090085</v>
+        <v>147970.6088573074</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>149.6</v>
+        <v>148.7</v>
       </c>
       <c r="C140" t="n">
-        <v>149.9</v>
+        <v>148.7</v>
       </c>
       <c r="D140" t="n">
-        <v>149.9</v>
+        <v>148.7</v>
       </c>
       <c r="E140" t="n">
-        <v>149.6</v>
+        <v>148.7</v>
       </c>
       <c r="F140" t="n">
-        <v>8000</v>
+        <v>37.4856</v>
       </c>
       <c r="G140" t="n">
-        <v>171269.0095090085</v>
+        <v>147970.6088573074</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6093,39 +6062,34 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>148.2</v>
+        <v>146.9</v>
       </c>
       <c r="C141" t="n">
-        <v>148.1</v>
+        <v>146.9</v>
       </c>
       <c r="D141" t="n">
-        <v>148.2</v>
+        <v>146.9</v>
       </c>
       <c r="E141" t="n">
-        <v>148.1</v>
+        <v>146.9</v>
       </c>
       <c r="F141" t="n">
-        <v>1997.2803</v>
+        <v>68.626</v>
       </c>
       <c r="G141" t="n">
-        <v>169271.7292090085</v>
+        <v>147901.9828573074</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6134,1535 +6098,12 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1425.1915</v>
-      </c>
-      <c r="G142" t="n">
-        <v>169271.7292090085</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2763.3426</v>
-      </c>
-      <c r="G143" t="n">
-        <v>169271.7292090085</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3013.7676</v>
-      </c>
-      <c r="G144" t="n">
-        <v>169271.7292090085</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="C145" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="D145" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="E145" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1522.8197</v>
-      </c>
-      <c r="G145" t="n">
-        <v>170794.5489090085</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>689.4584</v>
-      </c>
-      <c r="G146" t="n">
-        <v>171484.0073090085</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>149.3</v>
-      </c>
-      <c r="C147" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>149.3</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2093.398</v>
-      </c>
-      <c r="G147" t="n">
-        <v>171484.0073090085</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="C148" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="E148" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="F148" t="n">
-        <v>13089.21664829887</v>
-      </c>
-      <c r="G148" t="n">
-        <v>184573.2239573074</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="E149" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>129.1555</v>
-      </c>
-      <c r="G149" t="n">
-        <v>184573.2239573074</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1.06180881307747</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2745.3932</v>
-      </c>
-      <c r="G150" t="n">
-        <v>184573.2239573074</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>150</v>
-      </c>
-      <c r="C151" t="n">
-        <v>150</v>
-      </c>
-      <c r="D151" t="n">
-        <v>150</v>
-      </c>
-      <c r="E151" t="n">
-        <v>150</v>
-      </c>
-      <c r="F151" t="n">
-        <v>14426</v>
-      </c>
-      <c r="G151" t="n">
-        <v>170147.2239573074</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>13025.687</v>
-      </c>
-      <c r="G152" t="n">
-        <v>183172.9109573074</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>150</v>
-      </c>
-      <c r="D153" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>150</v>
-      </c>
-      <c r="F153" t="n">
-        <v>16842.7527</v>
-      </c>
-      <c r="G153" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>150</v>
-      </c>
-      <c r="C154" t="n">
-        <v>150</v>
-      </c>
-      <c r="D154" t="n">
-        <v>150</v>
-      </c>
-      <c r="E154" t="n">
-        <v>150</v>
-      </c>
-      <c r="F154" t="n">
-        <v>14570.3079</v>
-      </c>
-      <c r="G154" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="C155" t="n">
-        <v>150</v>
-      </c>
-      <c r="D155" t="n">
-        <v>150</v>
-      </c>
-      <c r="E155" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="F155" t="n">
-        <v>6381.02</v>
-      </c>
-      <c r="G155" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>150</v>
-      </c>
-      <c r="C156" t="n">
-        <v>150</v>
-      </c>
-      <c r="D156" t="n">
-        <v>150</v>
-      </c>
-      <c r="E156" t="n">
-        <v>150</v>
-      </c>
-      <c r="F156" t="n">
-        <v>26344.3787</v>
-      </c>
-      <c r="G156" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>150</v>
-      </c>
-      <c r="C157" t="n">
-        <v>150</v>
-      </c>
-      <c r="D157" t="n">
-        <v>150</v>
-      </c>
-      <c r="E157" t="n">
-        <v>150</v>
-      </c>
-      <c r="F157" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>150</v>
-      </c>
-      <c r="C158" t="n">
-        <v>150</v>
-      </c>
-      <c r="D158" t="n">
-        <v>150</v>
-      </c>
-      <c r="E158" t="n">
-        <v>150</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4925.9267</v>
-      </c>
-      <c r="G158" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="D159" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="E159" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>493.3653</v>
-      </c>
-      <c r="G159" t="n">
-        <v>166823.5235573074</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>150</v>
-      </c>
-      <c r="C160" t="n">
-        <v>152</v>
-      </c>
-      <c r="D160" t="n">
-        <v>152</v>
-      </c>
-      <c r="E160" t="n">
-        <v>150</v>
-      </c>
-      <c r="F160" t="n">
-        <v>744.355</v>
-      </c>
-      <c r="G160" t="n">
-        <v>167567.8785573074</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>12425.3959</v>
-      </c>
-      <c r="G161" t="n">
-        <v>155142.4826573074</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="E162" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="F162" t="n">
-        <v>9696.203799999999</v>
-      </c>
-      <c r="G162" t="n">
-        <v>155142.4826573074</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2612.1258</v>
-      </c>
-      <c r="G163" t="n">
-        <v>155142.4826573074</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>149</v>
-      </c>
-      <c r="C164" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="D164" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>149</v>
-      </c>
-      <c r="F164" t="n">
-        <v>6980.3445</v>
-      </c>
-      <c r="G164" t="n">
-        <v>162122.8271573074</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>149</v>
-      </c>
-      <c r="C165" t="n">
-        <v>149</v>
-      </c>
-      <c r="D165" t="n">
-        <v>149</v>
-      </c>
-      <c r="E165" t="n">
-        <v>149</v>
-      </c>
-      <c r="F165" t="n">
-        <v>209.2991</v>
-      </c>
-      <c r="G165" t="n">
-        <v>161913.5280573074</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>149</v>
-      </c>
-      <c r="C166" t="n">
-        <v>149</v>
-      </c>
-      <c r="D166" t="n">
-        <v>149</v>
-      </c>
-      <c r="E166" t="n">
-        <v>149</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1655.2312</v>
-      </c>
-      <c r="G166" t="n">
-        <v>161913.5280573074</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>149</v>
-      </c>
-      <c r="C167" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>149</v>
-      </c>
-      <c r="E167" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>21164.2736</v>
-      </c>
-      <c r="G167" t="n">
-        <v>140749.2544573074</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>150.3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>150.3</v>
-      </c>
-      <c r="E168" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1024.7936</v>
-      </c>
-      <c r="G168" t="n">
-        <v>141774.0480573074</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="C169" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="D169" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="E169" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>183.0293</v>
-      </c>
-      <c r="G169" t="n">
-        <v>141591.0187573074</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="C170" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="D170" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="E170" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="F170" t="n">
-        <v>56.7743</v>
-      </c>
-      <c r="G170" t="n">
-        <v>141647.7930573074</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="C171" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="D171" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="E171" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3098.2996</v>
-      </c>
-      <c r="G171" t="n">
-        <v>144746.0926573074</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="C172" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="D172" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="E172" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>583.1176</v>
-      </c>
-      <c r="G172" t="n">
-        <v>144162.9750573074</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F173" t="n">
-        <v>7352.1748</v>
-      </c>
-      <c r="G173" t="n">
-        <v>151515.1498573074</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C174" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="D174" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="F174" t="n">
-        <v>219.5287</v>
-      </c>
-      <c r="G174" t="n">
-        <v>151734.6785573074</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="C175" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="D175" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="E175" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="F175" t="n">
-        <v>83.6157</v>
-      </c>
-      <c r="G175" t="n">
-        <v>151818.2942573074</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="C176" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F176" t="n">
-        <v>171.2966</v>
-      </c>
-      <c r="G176" t="n">
-        <v>151646.9976573074</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="C177" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="D177" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="F177" t="n">
-        <v>8315.162399999999</v>
-      </c>
-      <c r="G177" t="n">
-        <v>143331.8352573074</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="C178" t="n">
-        <v>147</v>
-      </c>
-      <c r="D178" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="E178" t="n">
-        <v>147</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3110.9409</v>
-      </c>
-      <c r="G178" t="n">
-        <v>140220.8943573074</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="C179" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="D179" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="E179" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F179" t="n">
-        <v>3098.2996</v>
-      </c>
-      <c r="G179" t="n">
-        <v>143319.1939573074</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="C180" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="D180" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="E180" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3849.0764</v>
-      </c>
-      <c r="G180" t="n">
-        <v>147168.2703573074</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>147</v>
-      </c>
-      <c r="C181" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>147</v>
-      </c>
-      <c r="F181" t="n">
-        <v>802.3385</v>
-      </c>
-      <c r="G181" t="n">
-        <v>147970.6088573074</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="D182" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="E182" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="F182" t="n">
-        <v>37.4856</v>
-      </c>
-      <c r="G182" t="n">
-        <v>147970.6088573074</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="C183" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="D183" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="E183" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="F183" t="n">
-        <v>68.626</v>
-      </c>
-      <c r="G183" t="n">
-        <v>147901.9828573074</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2" t="n">
-        <v>576.0251</v>
+        <v>2106.56</v>
       </c>
       <c r="G2" t="n">
-        <v>29249.34145730742</v>
+        <v>43115.06125730742</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" t="n">
-        <v>2382</v>
+        <v>1346.4039</v>
       </c>
       <c r="G3" t="n">
-        <v>29249.34145730742</v>
+        <v>43115.06125730742</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K3" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="E4" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" t="n">
-        <v>5482.4302</v>
+        <v>2109</v>
       </c>
       <c r="G4" t="n">
-        <v>34731.77165730742</v>
+        <v>43115.06125730742</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K4" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E5" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="F5" t="n">
-        <v>591.4059999999999</v>
+        <v>810.0361</v>
       </c>
       <c r="G5" t="n">
-        <v>35323.17765730742</v>
+        <v>43115.06125730742</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,14 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="K5" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -602,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6" t="n">
-        <v>1863.9359</v>
+        <v>52.0333</v>
       </c>
       <c r="G6" t="n">
-        <v>35323.17765730742</v>
+        <v>43115.06125730742</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,16 +626,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K6" t="n">
-        <v>141</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -646,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="C7" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="D7" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="E7" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1446.9275</v>
+        <v>6359.608</v>
       </c>
       <c r="G7" t="n">
-        <v>35323.17765730742</v>
+        <v>49474.66925730743</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -670,14 +666,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K7" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -690,36 +686,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="D8" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="E8" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8" t="n">
-        <v>1247.61</v>
+        <v>4975.8927</v>
       </c>
       <c r="G8" t="n">
-        <v>35323.17765730742</v>
+        <v>49474.66925730743</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>139.5</v>
+      </c>
       <c r="K8" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -732,32 +730,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="C9" t="n">
-        <v>142.4</v>
+        <v>139.5</v>
       </c>
       <c r="D9" t="n">
-        <v>142.4</v>
+        <v>139.5</v>
       </c>
       <c r="E9" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="F9" t="n">
-        <v>9008.7863</v>
+        <v>6569.282</v>
       </c>
       <c r="G9" t="n">
-        <v>44331.96395730742</v>
+        <v>49474.66925730743</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>139.5</v>
+      </c>
       <c r="K9" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -774,32 +774,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>142.5</v>
+        <v>139.5</v>
       </c>
       <c r="C10" t="n">
-        <v>144</v>
+        <v>139.5</v>
       </c>
       <c r="D10" t="n">
-        <v>144</v>
+        <v>139.5</v>
       </c>
       <c r="E10" t="n">
-        <v>142.5</v>
+        <v>139.5</v>
       </c>
       <c r="F10" t="n">
-        <v>6000</v>
+        <v>632.3330999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>50331.96395730742</v>
+        <v>49474.66925730743</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>139.5</v>
+      </c>
       <c r="K10" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -816,32 +818,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>144</v>
+        <v>139.5</v>
       </c>
       <c r="C11" t="n">
-        <v>144</v>
+        <v>139.5</v>
       </c>
       <c r="D11" t="n">
-        <v>144</v>
+        <v>139.5</v>
       </c>
       <c r="E11" t="n">
-        <v>144</v>
+        <v>139.5</v>
       </c>
       <c r="F11" t="n">
-        <v>3331.5408</v>
+        <v>1414.9223</v>
       </c>
       <c r="G11" t="n">
-        <v>50331.96395730742</v>
+        <v>49474.66925730743</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>139.5</v>
+      </c>
       <c r="K11" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -858,32 +862,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="C12" t="n">
-        <v>144.5</v>
+        <v>139.8</v>
       </c>
       <c r="D12" t="n">
-        <v>144.5</v>
+        <v>139.8</v>
       </c>
       <c r="E12" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>429.7798</v>
       </c>
       <c r="G12" t="n">
-        <v>60331.96395730742</v>
+        <v>49904.44905730742</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>139.5</v>
+      </c>
       <c r="K12" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -900,32 +906,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="C13" t="n">
-        <v>142.3</v>
+        <v>139.8</v>
       </c>
       <c r="D13" t="n">
-        <v>144.5</v>
+        <v>139.8</v>
       </c>
       <c r="E13" t="n">
-        <v>142.3</v>
+        <v>139.8</v>
       </c>
       <c r="F13" t="n">
-        <v>10425.7247</v>
+        <v>244.0732</v>
       </c>
       <c r="G13" t="n">
-        <v>49906.23925730742</v>
+        <v>49904.44905730742</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K13" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -942,32 +950,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144</v>
+        <v>139.5</v>
       </c>
       <c r="C14" t="n">
-        <v>142.5</v>
+        <v>139.8</v>
       </c>
       <c r="D14" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="E14" t="n">
-        <v>142.5</v>
+        <v>139.5</v>
       </c>
       <c r="F14" t="n">
-        <v>10016.3942</v>
+        <v>10669.4848</v>
       </c>
       <c r="G14" t="n">
-        <v>59922.63345730743</v>
+        <v>49904.44905730742</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K14" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -984,32 +994,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144.6</v>
+        <v>139.5</v>
       </c>
       <c r="C15" t="n">
-        <v>144.6</v>
+        <v>139.5</v>
       </c>
       <c r="D15" t="n">
-        <v>144.6</v>
+        <v>139.5</v>
       </c>
       <c r="E15" t="n">
-        <v>144.6</v>
+        <v>139.5</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="n">
-        <v>59932.63345730743</v>
+        <v>45904.44905730742</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K15" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1026,32 +1038,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="C16" t="n">
-        <v>142.5</v>
+        <v>139.8</v>
       </c>
       <c r="D16" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="E16" t="n">
-        <v>142.5</v>
+        <v>139.8</v>
       </c>
       <c r="F16" t="n">
-        <v>3331.5408</v>
+        <v>3802.7991</v>
       </c>
       <c r="G16" t="n">
-        <v>56601.09265730742</v>
+        <v>49707.24815730742</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>139.5</v>
+      </c>
       <c r="K16" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1068,32 +1082,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>142.9</v>
+        <v>139.8</v>
       </c>
       <c r="C17" t="n">
-        <v>144.3</v>
+        <v>139.8</v>
       </c>
       <c r="D17" t="n">
-        <v>144.3</v>
+        <v>139.8</v>
       </c>
       <c r="E17" t="n">
-        <v>142.8</v>
+        <v>139.8</v>
       </c>
       <c r="F17" t="n">
-        <v>5239.2242</v>
+        <v>7736.6134</v>
       </c>
       <c r="G17" t="n">
-        <v>61840.31685730742</v>
+        <v>49707.24815730742</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K17" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1110,32 +1126,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="C18" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="D18" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="E18" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="F18" t="n">
-        <v>2279.8327</v>
+        <v>4964.5444</v>
       </c>
       <c r="G18" t="n">
-        <v>59560.48415730742</v>
+        <v>49707.24815730742</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K18" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1152,32 +1170,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>142.6</v>
+        <v>139.8</v>
       </c>
       <c r="C19" t="n">
-        <v>142.6</v>
+        <v>139.8</v>
       </c>
       <c r="D19" t="n">
-        <v>142.6</v>
+        <v>139.8</v>
       </c>
       <c r="E19" t="n">
-        <v>142.6</v>
+        <v>139.8</v>
       </c>
       <c r="F19" t="n">
-        <v>325.752</v>
+        <v>1418.1481</v>
       </c>
       <c r="G19" t="n">
-        <v>59886.23615730742</v>
+        <v>49707.24815730742</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K19" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1194,32 +1214,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>143</v>
+        <v>139.8</v>
       </c>
       <c r="C20" t="n">
-        <v>143</v>
+        <v>139.8</v>
       </c>
       <c r="D20" t="n">
-        <v>143</v>
+        <v>139.8</v>
       </c>
       <c r="E20" t="n">
-        <v>143</v>
+        <v>139.8</v>
       </c>
       <c r="F20" t="n">
-        <v>469.2985</v>
+        <v>14591.9862</v>
       </c>
       <c r="G20" t="n">
-        <v>60355.53465730742</v>
+        <v>49707.24815730742</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K20" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1236,32 +1258,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>142.5</v>
+        <v>139.8</v>
       </c>
       <c r="C21" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="D21" t="n">
-        <v>142.5</v>
+        <v>139.8</v>
       </c>
       <c r="E21" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="F21" t="n">
-        <v>2000</v>
+        <v>3857.6306</v>
       </c>
       <c r="G21" t="n">
-        <v>58355.53465730742</v>
+        <v>49707.24815730742</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K21" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1278,32 +1302,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>142.4</v>
+        <v>139.8</v>
       </c>
       <c r="C22" t="n">
-        <v>141.7</v>
+        <v>140</v>
       </c>
       <c r="D22" t="n">
-        <v>142.4</v>
+        <v>140</v>
       </c>
       <c r="E22" t="n">
-        <v>141.7</v>
+        <v>139.8</v>
       </c>
       <c r="F22" t="n">
-        <v>33601.4375</v>
+        <v>15715.8187</v>
       </c>
       <c r="G22" t="n">
-        <v>24754.09715730742</v>
+        <v>65423.06685730742</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K22" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1320,32 +1346,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F23" t="n">
-        <v>478.1971</v>
+        <v>39209.9985</v>
       </c>
       <c r="G23" t="n">
-        <v>25232.29425730742</v>
+        <v>65423.06685730742</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>140</v>
+      </c>
       <c r="K23" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1362,22 +1390,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" t="n">
-        <v>142.6</v>
+        <v>138.1</v>
       </c>
       <c r="D24" t="n">
-        <v>142.7</v>
+        <v>140</v>
       </c>
       <c r="E24" t="n">
-        <v>142</v>
+        <v>138.1</v>
       </c>
       <c r="F24" t="n">
-        <v>2558.7255</v>
+        <v>22943.2406</v>
       </c>
       <c r="G24" t="n">
-        <v>27791.01975730742</v>
+        <v>42479.82625730742</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1387,7 +1415,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1404,22 +1432,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>142.5</v>
+        <v>139</v>
       </c>
       <c r="C25" t="n">
-        <v>142.5</v>
+        <v>139</v>
       </c>
       <c r="D25" t="n">
-        <v>142.5</v>
+        <v>139</v>
       </c>
       <c r="E25" t="n">
-        <v>142.5</v>
+        <v>139</v>
       </c>
       <c r="F25" t="n">
-        <v>988.8075</v>
+        <v>45.9226</v>
       </c>
       <c r="G25" t="n">
-        <v>26802.21225730742</v>
+        <v>42525.74885730742</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1429,7 +1457,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1446,32 +1474,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>141.6</v>
+        <v>139.9</v>
       </c>
       <c r="C26" t="n">
-        <v>142</v>
+        <v>139.9</v>
       </c>
       <c r="D26" t="n">
-        <v>142</v>
+        <v>139.9</v>
       </c>
       <c r="E26" t="n">
-        <v>141.6</v>
+        <v>139.9</v>
       </c>
       <c r="F26" t="n">
-        <v>765.6767</v>
+        <v>206.4568</v>
       </c>
       <c r="G26" t="n">
-        <v>26036.53555730742</v>
+        <v>42732.20565730742</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>139</v>
+      </c>
       <c r="K26" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1488,32 +1518,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>142</v>
+        <v>138.2</v>
       </c>
       <c r="C27" t="n">
-        <v>141.9</v>
+        <v>138.2</v>
       </c>
       <c r="D27" t="n">
-        <v>142</v>
+        <v>138.2</v>
       </c>
       <c r="E27" t="n">
-        <v>141.2</v>
+        <v>138.2</v>
       </c>
       <c r="F27" t="n">
-        <v>1661.0048</v>
+        <v>268.8901</v>
       </c>
       <c r="G27" t="n">
-        <v>24375.53075730742</v>
+        <v>42463.31555730742</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>139.9</v>
+      </c>
       <c r="K27" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1530,32 +1562,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>141.8</v>
+        <v>139.9</v>
       </c>
       <c r="C28" t="n">
-        <v>141.9</v>
+        <v>138.2</v>
       </c>
       <c r="D28" t="n">
-        <v>141.9</v>
+        <v>139.9</v>
       </c>
       <c r="E28" t="n">
-        <v>141.8</v>
+        <v>138.2</v>
       </c>
       <c r="F28" t="n">
-        <v>7248.736</v>
+        <v>1492.4644</v>
       </c>
       <c r="G28" t="n">
-        <v>24375.53075730742</v>
+        <v>42463.31555730742</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>138.2</v>
+      </c>
       <c r="K28" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1572,32 +1606,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>141.9</v>
+        <v>139.9</v>
       </c>
       <c r="C29" t="n">
-        <v>142</v>
+        <v>138.2</v>
       </c>
       <c r="D29" t="n">
-        <v>142</v>
+        <v>139.9</v>
       </c>
       <c r="E29" t="n">
-        <v>141.9</v>
+        <v>138.2</v>
       </c>
       <c r="F29" t="n">
-        <v>5061.8784</v>
+        <v>13115.9762</v>
       </c>
       <c r="G29" t="n">
-        <v>29437.40915730743</v>
+        <v>42463.31555730742</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>138.2</v>
+      </c>
       <c r="K29" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1614,32 +1650,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>141.9</v>
+        <v>139</v>
       </c>
       <c r="C30" t="n">
-        <v>141.9</v>
+        <v>139</v>
       </c>
       <c r="D30" t="n">
-        <v>141.9</v>
+        <v>139</v>
       </c>
       <c r="E30" t="n">
-        <v>141.9</v>
+        <v>139</v>
       </c>
       <c r="F30" t="n">
-        <v>7416.7123</v>
+        <v>2363.6071</v>
       </c>
       <c r="G30" t="n">
-        <v>22020.69685730743</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>138.2</v>
+      </c>
       <c r="K30" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1656,32 +1694,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>141.9</v>
+        <v>139</v>
       </c>
       <c r="C31" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D31" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E31" t="n">
-        <v>141.9</v>
+        <v>139</v>
       </c>
       <c r="F31" t="n">
-        <v>4098.3794</v>
+        <v>427.96</v>
       </c>
       <c r="G31" t="n">
-        <v>26119.07625730742</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>139</v>
+      </c>
       <c r="K31" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1698,32 +1738,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C32" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D32" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E32" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F32" t="n">
-        <v>478.195</v>
+        <v>1125.9063</v>
       </c>
       <c r="G32" t="n">
-        <v>26119.07625730742</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>139</v>
+      </c>
       <c r="K32" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1740,32 +1782,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>141.3</v>
+        <v>139</v>
       </c>
       <c r="C33" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D33" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E33" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F33" t="n">
-        <v>5258.3264</v>
+        <v>3009</v>
       </c>
       <c r="G33" t="n">
-        <v>20860.74985730743</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>139</v>
+      </c>
       <c r="K33" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1782,32 +1826,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C34" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D34" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E34" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F34" t="n">
-        <v>475</v>
+        <v>912.1224999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>21335.74985730743</v>
+        <v>44826.92265730742</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>139</v>
+      </c>
       <c r="K34" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1824,32 +1870,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>142</v>
+        <v>139.9</v>
       </c>
       <c r="C35" t="n">
-        <v>142.4</v>
+        <v>139.9</v>
       </c>
       <c r="D35" t="n">
-        <v>142.4</v>
+        <v>139.9</v>
       </c>
       <c r="E35" t="n">
-        <v>142</v>
+        <v>139.9</v>
       </c>
       <c r="F35" t="n">
-        <v>636.2924</v>
+        <v>2390</v>
       </c>
       <c r="G35" t="n">
-        <v>21972.04225730742</v>
+        <v>47216.92265730742</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>139</v>
+      </c>
       <c r="K35" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1866,32 +1914,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>142.3</v>
+        <v>139.1</v>
       </c>
       <c r="C36" t="n">
-        <v>142.3</v>
+        <v>139.1</v>
       </c>
       <c r="D36" t="n">
-        <v>142.3</v>
+        <v>139.1</v>
       </c>
       <c r="E36" t="n">
-        <v>142.3</v>
+        <v>139.1</v>
       </c>
       <c r="F36" t="n">
-        <v>223.0669</v>
+        <v>138.6712</v>
       </c>
       <c r="G36" t="n">
-        <v>21748.97535730742</v>
+        <v>47078.25145730742</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>139.9</v>
+      </c>
       <c r="K36" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1908,32 +1958,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>142.3</v>
+        <v>139.9</v>
       </c>
       <c r="C37" t="n">
-        <v>142.4</v>
+        <v>139.9</v>
       </c>
       <c r="D37" t="n">
-        <v>142.4</v>
+        <v>139.9</v>
       </c>
       <c r="E37" t="n">
-        <v>142.3</v>
+        <v>139.9</v>
       </c>
       <c r="F37" t="n">
-        <v>4406.8419</v>
+        <v>5202.8144</v>
       </c>
       <c r="G37" t="n">
-        <v>26155.81725730742</v>
+        <v>52281.06585730743</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>139.1</v>
+      </c>
       <c r="K37" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1950,32 +2002,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>142.4</v>
+        <v>139.7</v>
       </c>
       <c r="C38" t="n">
-        <v>142.5</v>
+        <v>139.7</v>
       </c>
       <c r="D38" t="n">
-        <v>142.5</v>
+        <v>139.7</v>
       </c>
       <c r="E38" t="n">
-        <v>142.4</v>
+        <v>139.7</v>
       </c>
       <c r="F38" t="n">
-        <v>5391.751</v>
+        <v>23995.3713</v>
       </c>
       <c r="G38" t="n">
-        <v>31547.56825730742</v>
+        <v>28285.69455730743</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>139.9</v>
+      </c>
       <c r="K38" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1992,32 +2046,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>142.5</v>
+        <v>139.9</v>
       </c>
       <c r="C39" t="n">
-        <v>142.5</v>
+        <v>140</v>
       </c>
       <c r="D39" t="n">
-        <v>142.5</v>
+        <v>140</v>
       </c>
       <c r="E39" t="n">
-        <v>142.5</v>
+        <v>139.9</v>
       </c>
       <c r="F39" t="n">
-        <v>1250</v>
+        <v>516.1548</v>
       </c>
       <c r="G39" t="n">
-        <v>31547.56825730742</v>
+        <v>28801.84935730743</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>139.7</v>
+      </c>
       <c r="K39" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2034,32 +2090,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>142.4</v>
+        <v>140</v>
       </c>
       <c r="C40" t="n">
-        <v>144.6</v>
+        <v>140</v>
       </c>
       <c r="D40" t="n">
-        <v>144.6</v>
+        <v>140</v>
       </c>
       <c r="E40" t="n">
-        <v>142.4</v>
+        <v>140</v>
       </c>
       <c r="F40" t="n">
-        <v>125</v>
+        <v>4420.1676</v>
       </c>
       <c r="G40" t="n">
-        <v>31672.56825730742</v>
+        <v>28801.84935730743</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>140</v>
+      </c>
       <c r="K40" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2076,32 +2134,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C41" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D41" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E41" t="n">
-        <v>142.5</v>
+        <v>140</v>
       </c>
       <c r="F41" t="n">
-        <v>40248.5827</v>
+        <v>467.803</v>
       </c>
       <c r="G41" t="n">
-        <v>-8576.014442692576</v>
+        <v>28801.84935730743</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>140</v>
+      </c>
       <c r="K41" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2118,32 +2178,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>142.2</v>
+        <v>140.9</v>
       </c>
       <c r="C42" t="n">
-        <v>143.7</v>
+        <v>140.9</v>
       </c>
       <c r="D42" t="n">
-        <v>143.7</v>
+        <v>140.9</v>
       </c>
       <c r="E42" t="n">
-        <v>142.2</v>
+        <v>140.9</v>
       </c>
       <c r="F42" t="n">
-        <v>9925.740599999999</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>1349.726157307423</v>
+        <v>28805.84935730743</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>140</v>
+      </c>
       <c r="K42" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2160,22 +2222,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>142.2</v>
+        <v>140.1</v>
       </c>
       <c r="C43" t="n">
-        <v>142.2</v>
+        <v>140.7</v>
       </c>
       <c r="D43" t="n">
-        <v>142.2</v>
+        <v>140.7</v>
       </c>
       <c r="E43" t="n">
-        <v>142.2</v>
+        <v>140.1</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>5735.2311</v>
       </c>
       <c r="G43" t="n">
-        <v>1339.726157307423</v>
+        <v>23070.61825730743</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2185,7 +2247,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2202,32 +2264,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>142.5</v>
+        <v>140.7</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5</v>
+        <v>140.7</v>
       </c>
       <c r="D44" t="n">
-        <v>142.5</v>
+        <v>140.7</v>
       </c>
       <c r="E44" t="n">
-        <v>142.5</v>
+        <v>140.7</v>
       </c>
       <c r="F44" t="n">
-        <v>6041.5</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>7381.226157307423</v>
+        <v>23070.61825730743</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>140.7</v>
+      </c>
       <c r="K44" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2244,22 +2308,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>142.4</v>
+        <v>140.7</v>
       </c>
       <c r="C45" t="n">
-        <v>143.9</v>
+        <v>140.7</v>
       </c>
       <c r="D45" t="n">
-        <v>143.9</v>
+        <v>140.7</v>
       </c>
       <c r="E45" t="n">
-        <v>142.4</v>
+        <v>140.7</v>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>688.3672</v>
       </c>
       <c r="G45" t="n">
-        <v>7631.226157307423</v>
+        <v>23070.61825730743</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2269,7 +2333,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2286,32 +2350,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>143.9</v>
+        <v>140.7</v>
       </c>
       <c r="C46" t="n">
-        <v>143.9</v>
+        <v>140.9</v>
       </c>
       <c r="D46" t="n">
-        <v>143.9</v>
+        <v>140.9</v>
       </c>
       <c r="E46" t="n">
-        <v>143.8</v>
+        <v>140.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1310.4412</v>
+        <v>257.0771</v>
       </c>
       <c r="G46" t="n">
-        <v>7631.226157307423</v>
+        <v>23327.69535730742</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>140.7</v>
+      </c>
       <c r="K46" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2328,22 +2394,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>143.8</v>
+        <v>140.1</v>
       </c>
       <c r="C47" t="n">
-        <v>143.8</v>
+        <v>140.5</v>
       </c>
       <c r="D47" t="n">
-        <v>143.8</v>
+        <v>140.9</v>
       </c>
       <c r="E47" t="n">
-        <v>143.8</v>
+        <v>140</v>
       </c>
       <c r="F47" t="n">
-        <v>411.7648</v>
+        <v>10521.5874</v>
       </c>
       <c r="G47" t="n">
-        <v>7219.461357307423</v>
+        <v>12806.10795730742</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2353,7 +2419,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2370,22 +2436,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>142.3</v>
+        <v>140.5</v>
       </c>
       <c r="C48" t="n">
-        <v>142.3</v>
+        <v>140.5</v>
       </c>
       <c r="D48" t="n">
-        <v>142.3</v>
+        <v>140.5</v>
       </c>
       <c r="E48" t="n">
-        <v>142.3</v>
+        <v>140.5</v>
       </c>
       <c r="F48" t="n">
-        <v>499.8304</v>
+        <v>1300.0916</v>
       </c>
       <c r="G48" t="n">
-        <v>6719.630957307423</v>
+        <v>12806.10795730742</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2395,7 +2461,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2412,22 +2478,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>144</v>
+        <v>140.5</v>
       </c>
       <c r="C49" t="n">
-        <v>144</v>
+        <v>140.5</v>
       </c>
       <c r="D49" t="n">
-        <v>144</v>
+        <v>140.5</v>
       </c>
       <c r="E49" t="n">
-        <v>144</v>
+        <v>140.5</v>
       </c>
       <c r="F49" t="n">
-        <v>394.7683</v>
+        <v>1336.5308</v>
       </c>
       <c r="G49" t="n">
-        <v>7114.399257307423</v>
+        <v>12806.10795730742</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2437,7 +2503,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2454,32 +2520,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>144</v>
+        <v>140.5</v>
       </c>
       <c r="C50" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="D50" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="E50" t="n">
-        <v>144</v>
+        <v>140.5</v>
       </c>
       <c r="F50" t="n">
-        <v>11169.0644</v>
+        <v>8547.431200000001</v>
       </c>
       <c r="G50" t="n">
-        <v>7114.399257307423</v>
+        <v>21353.53915730742</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>140.5</v>
+      </c>
       <c r="K50" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2496,32 +2564,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="C51" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="D51" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="E51" t="n">
-        <v>144</v>
+        <v>139.8</v>
       </c>
       <c r="F51" t="n">
-        <v>2131.7207</v>
+        <v>5.614</v>
       </c>
       <c r="G51" t="n">
-        <v>7114.399257307423</v>
+        <v>21347.92515730742</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K51" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2538,32 +2608,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="C52" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="D52" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="E52" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="F52" t="n">
-        <v>240.7922</v>
+        <v>1064.9633</v>
       </c>
       <c r="G52" t="n">
-        <v>7114.399257307423</v>
+        <v>22412.88845730742</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>139.8</v>
+      </c>
       <c r="K52" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2580,32 +2652,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="C53" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="D53" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="E53" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="F53" t="n">
-        <v>46130.6752</v>
+        <v>260.078</v>
       </c>
       <c r="G53" t="n">
-        <v>7114.399257307423</v>
+        <v>22152.81045730742</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K53" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2622,32 +2696,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="C54" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="D54" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="E54" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="F54" t="n">
-        <v>17663.9996</v>
+        <v>550.165</v>
       </c>
       <c r="G54" t="n">
-        <v>24778.39885730742</v>
+        <v>21602.64545730742</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>140.7</v>
+      </c>
       <c r="K54" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2664,32 +2740,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="C55" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="D55" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="E55" t="n">
-        <v>144.5</v>
+        <v>140.6</v>
       </c>
       <c r="F55" t="n">
-        <v>3646.2116</v>
+        <v>7272.5059</v>
       </c>
       <c r="G55" t="n">
-        <v>24778.39885730742</v>
+        <v>21602.64545730742</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>140.6</v>
+      </c>
       <c r="K55" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2706,22 +2784,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>144.6</v>
+        <v>140.6</v>
       </c>
       <c r="C56" t="n">
-        <v>145</v>
+        <v>140.9</v>
       </c>
       <c r="D56" t="n">
-        <v>145</v>
+        <v>140.9</v>
       </c>
       <c r="E56" t="n">
-        <v>144.6</v>
+        <v>140.6</v>
       </c>
       <c r="F56" t="n">
-        <v>34815.4534</v>
+        <v>5586.696</v>
       </c>
       <c r="G56" t="n">
-        <v>59593.85225730742</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2731,7 +2809,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2748,32 +2826,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>145.2</v>
+        <v>140.9</v>
       </c>
       <c r="C57" t="n">
-        <v>145.2</v>
+        <v>140.9</v>
       </c>
       <c r="D57" t="n">
-        <v>145.2</v>
+        <v>140.9</v>
       </c>
       <c r="E57" t="n">
-        <v>145.2</v>
+        <v>140.9</v>
       </c>
       <c r="F57" t="n">
-        <v>334.8109</v>
+        <v>1193.3236</v>
       </c>
       <c r="G57" t="n">
-        <v>59928.66315730742</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K57" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2790,32 +2870,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>145.2</v>
+        <v>140.9</v>
       </c>
       <c r="C58" t="n">
-        <v>145.5</v>
+        <v>140.9</v>
       </c>
       <c r="D58" t="n">
-        <v>145.5</v>
+        <v>140.9</v>
       </c>
       <c r="E58" t="n">
-        <v>145.2</v>
+        <v>140.9</v>
       </c>
       <c r="F58" t="n">
-        <v>15117.4719</v>
+        <v>332.3021</v>
       </c>
       <c r="G58" t="n">
-        <v>75046.13505730742</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K58" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2832,32 +2914,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>145.5</v>
+        <v>140.9</v>
       </c>
       <c r="C59" t="n">
-        <v>145.6</v>
+        <v>140.9</v>
       </c>
       <c r="D59" t="n">
-        <v>145.6</v>
+        <v>140.9</v>
       </c>
       <c r="E59" t="n">
-        <v>145.5</v>
+        <v>140.9</v>
       </c>
       <c r="F59" t="n">
-        <v>3377.0196</v>
+        <v>7338.2011</v>
       </c>
       <c r="G59" t="n">
-        <v>78423.15465730742</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K59" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2874,32 +2958,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>145.7</v>
+        <v>140.9</v>
       </c>
       <c r="C60" t="n">
-        <v>145.7</v>
+        <v>140.9</v>
       </c>
       <c r="D60" t="n">
-        <v>145.7</v>
+        <v>140.9</v>
       </c>
       <c r="E60" t="n">
-        <v>145.7</v>
+        <v>140.9</v>
       </c>
       <c r="F60" t="n">
-        <v>395.6254</v>
+        <v>1212.3636</v>
       </c>
       <c r="G60" t="n">
-        <v>78818.78005730742</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K60" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2916,32 +3002,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>145.7</v>
+        <v>140.9</v>
       </c>
       <c r="C61" t="n">
-        <v>146</v>
+        <v>140.9</v>
       </c>
       <c r="D61" t="n">
-        <v>146</v>
+        <v>140.9</v>
       </c>
       <c r="E61" t="n">
-        <v>145.7</v>
+        <v>140.9</v>
       </c>
       <c r="F61" t="n">
-        <v>1973.3198</v>
+        <v>1385.4156</v>
       </c>
       <c r="G61" t="n">
-        <v>80792.09985730742</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K61" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2958,32 +3046,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>146.2</v>
+        <v>140.9</v>
       </c>
       <c r="C62" t="n">
-        <v>146.4</v>
+        <v>140.9</v>
       </c>
       <c r="D62" t="n">
-        <v>146.4</v>
+        <v>140.9</v>
       </c>
       <c r="E62" t="n">
-        <v>146.2</v>
+        <v>140.9</v>
       </c>
       <c r="F62" t="n">
-        <v>5594.5223</v>
+        <v>439.1317</v>
       </c>
       <c r="G62" t="n">
-        <v>86386.62215730741</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K62" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3000,32 +3090,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>146.4</v>
+        <v>140.9</v>
       </c>
       <c r="C63" t="n">
-        <v>146.5</v>
+        <v>140.9</v>
       </c>
       <c r="D63" t="n">
-        <v>147</v>
+        <v>140.9</v>
       </c>
       <c r="E63" t="n">
-        <v>146.4</v>
+        <v>140.9</v>
       </c>
       <c r="F63" t="n">
-        <v>12756.1987</v>
+        <v>3381.6771</v>
       </c>
       <c r="G63" t="n">
-        <v>99142.82085730741</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K63" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3042,32 +3134,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>146.5</v>
+        <v>140.9</v>
       </c>
       <c r="C64" t="n">
-        <v>144.1</v>
+        <v>140.9</v>
       </c>
       <c r="D64" t="n">
-        <v>146.5</v>
+        <v>140.9</v>
       </c>
       <c r="E64" t="n">
-        <v>144.1</v>
+        <v>140.9</v>
       </c>
       <c r="F64" t="n">
-        <v>5757.98</v>
+        <v>5174.5519</v>
       </c>
       <c r="G64" t="n">
-        <v>93384.84085730741</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K64" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3084,22 +3178,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>145.1</v>
+        <v>140.9</v>
       </c>
       <c r="C65" t="n">
-        <v>145.1</v>
+        <v>140.9</v>
       </c>
       <c r="D65" t="n">
-        <v>145.1</v>
+        <v>140.9</v>
       </c>
       <c r="E65" t="n">
-        <v>145.1</v>
+        <v>140.9</v>
       </c>
       <c r="F65" t="n">
-        <v>2610.8249</v>
+        <v>793.2379</v>
       </c>
       <c r="G65" t="n">
-        <v>95995.66575730742</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3109,7 +3203,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3126,22 +3220,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>145.1</v>
+        <v>140.9</v>
       </c>
       <c r="C66" t="n">
-        <v>145.1</v>
+        <v>140.9</v>
       </c>
       <c r="D66" t="n">
-        <v>145.1</v>
+        <v>140.9</v>
       </c>
       <c r="E66" t="n">
-        <v>145.1</v>
+        <v>140.9</v>
       </c>
       <c r="F66" t="n">
-        <v>6126.6878</v>
+        <v>20883.2567</v>
       </c>
       <c r="G66" t="n">
-        <v>95995.66575730742</v>
+        <v>27189.34145730742</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3151,7 +3245,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3168,22 +3262,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>146.2</v>
+        <v>140.9</v>
       </c>
       <c r="C67" t="n">
-        <v>146.2</v>
+        <v>141</v>
       </c>
       <c r="D67" t="n">
-        <v>146.2</v>
+        <v>141</v>
       </c>
       <c r="E67" t="n">
-        <v>146.2</v>
+        <v>140.9</v>
       </c>
       <c r="F67" t="n">
-        <v>677.8582</v>
+        <v>2060</v>
       </c>
       <c r="G67" t="n">
-        <v>96673.52395730742</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3193,7 +3287,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3210,22 +3304,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>146.2</v>
+        <v>141</v>
       </c>
       <c r="C68" t="n">
-        <v>146.5</v>
+        <v>141</v>
       </c>
       <c r="D68" t="n">
-        <v>146.5</v>
+        <v>141</v>
       </c>
       <c r="E68" t="n">
-        <v>146.2</v>
+        <v>141</v>
       </c>
       <c r="F68" t="n">
-        <v>334.8109</v>
+        <v>4274</v>
       </c>
       <c r="G68" t="n">
-        <v>97008.33485730742</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3235,7 +3329,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3252,22 +3346,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>146.5</v>
+        <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D69" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E69" t="n">
-        <v>146.5</v>
+        <v>141</v>
       </c>
       <c r="F69" t="n">
-        <v>425.6266</v>
+        <v>2740</v>
       </c>
       <c r="G69" t="n">
-        <v>97433.96145730742</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3277,7 +3371,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3294,22 +3388,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D70" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E70" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F70" t="n">
-        <v>1909.5727</v>
+        <v>4394.3514</v>
       </c>
       <c r="G70" t="n">
-        <v>97433.96145730742</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3319,7 +3413,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3336,22 +3430,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C71" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D71" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E71" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F71" t="n">
-        <v>423.4409</v>
+        <v>972.7784</v>
       </c>
       <c r="G71" t="n">
-        <v>97433.96145730742</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3361,7 +3455,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3378,22 +3472,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>146.2</v>
+        <v>141</v>
       </c>
       <c r="C72" t="n">
-        <v>147.9</v>
+        <v>141</v>
       </c>
       <c r="D72" t="n">
-        <v>147.9</v>
+        <v>141</v>
       </c>
       <c r="E72" t="n">
-        <v>146.1</v>
+        <v>141</v>
       </c>
       <c r="F72" t="n">
-        <v>7852.3207</v>
+        <v>2403.45</v>
       </c>
       <c r="G72" t="n">
-        <v>105286.2821573074</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3403,7 +3497,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3420,22 +3514,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>146.1</v>
+        <v>141</v>
       </c>
       <c r="C73" t="n">
-        <v>146.1</v>
+        <v>141</v>
       </c>
       <c r="D73" t="n">
-        <v>146.1</v>
+        <v>141</v>
       </c>
       <c r="E73" t="n">
-        <v>146.1</v>
+        <v>141</v>
       </c>
       <c r="F73" t="n">
-        <v>988</v>
+        <v>576.0251</v>
       </c>
       <c r="G73" t="n">
-        <v>104298.2821573074</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3445,7 +3539,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3462,22 +3556,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>147.8</v>
+        <v>141</v>
       </c>
       <c r="C74" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D74" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E74" t="n">
-        <v>147.8</v>
+        <v>141</v>
       </c>
       <c r="F74" t="n">
-        <v>1131.5675</v>
+        <v>2382</v>
       </c>
       <c r="G74" t="n">
-        <v>105429.8496573074</v>
+        <v>29249.34145730742</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3487,7 +3581,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3504,22 +3598,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>148.1</v>
+        <v>141</v>
       </c>
       <c r="C75" t="n">
-        <v>148.1</v>
+        <v>141.3</v>
       </c>
       <c r="D75" t="n">
-        <v>148.1</v>
+        <v>141.3</v>
       </c>
       <c r="E75" t="n">
-        <v>148.1</v>
+        <v>141</v>
       </c>
       <c r="F75" t="n">
-        <v>5005</v>
+        <v>5482.4302</v>
       </c>
       <c r="G75" t="n">
-        <v>110434.8496573074</v>
+        <v>34731.77165730742</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3529,7 +3623,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3546,22 +3640,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>148.1</v>
+        <v>141.3</v>
       </c>
       <c r="C76" t="n">
-        <v>148.4</v>
+        <v>142</v>
       </c>
       <c r="D76" t="n">
-        <v>148.4</v>
+        <v>142</v>
       </c>
       <c r="E76" t="n">
-        <v>148.1</v>
+        <v>141.3</v>
       </c>
       <c r="F76" t="n">
-        <v>2052.8065</v>
+        <v>591.4059999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>112487.6561573074</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3571,7 +3665,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3588,22 +3682,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>146.2</v>
+        <v>142</v>
       </c>
       <c r="C77" t="n">
-        <v>146.2</v>
+        <v>142</v>
       </c>
       <c r="D77" t="n">
-        <v>146.2</v>
+        <v>142</v>
       </c>
       <c r="E77" t="n">
-        <v>146.2</v>
+        <v>142</v>
       </c>
       <c r="F77" t="n">
-        <v>7.25</v>
+        <v>1863.9359</v>
       </c>
       <c r="G77" t="n">
-        <v>112480.4061573074</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3613,7 +3707,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3630,22 +3724,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>146.2</v>
+        <v>142</v>
       </c>
       <c r="C78" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="D78" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="E78" t="n">
-        <v>146.2</v>
+        <v>142</v>
       </c>
       <c r="F78" t="n">
-        <v>10124.9999</v>
+        <v>1446.9275</v>
       </c>
       <c r="G78" t="n">
-        <v>122605.4060573074</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3655,7 +3749,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3672,32 +3766,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>146.1</v>
+        <v>142</v>
       </c>
       <c r="C79" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="D79" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="E79" t="n">
-        <v>146.1</v>
+        <v>142</v>
       </c>
       <c r="F79" t="n">
-        <v>933.1763999999999</v>
+        <v>1247.61</v>
       </c>
       <c r="G79" t="n">
-        <v>122605.4060573074</v>
+        <v>35323.17765730742</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>142</v>
+      </c>
       <c r="K79" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3714,22 +3810,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="C80" t="n">
-        <v>148.2</v>
+        <v>142.4</v>
       </c>
       <c r="D80" t="n">
-        <v>148.2</v>
+        <v>142.4</v>
       </c>
       <c r="E80" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="F80" t="n">
-        <v>1864.6753</v>
+        <v>9008.7863</v>
       </c>
       <c r="G80" t="n">
-        <v>122605.4060573074</v>
+        <v>44331.96395730742</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3739,7 +3835,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3756,32 +3852,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>148.2</v>
+        <v>142.5</v>
       </c>
       <c r="C81" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="D81" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="E81" t="n">
-        <v>148.2</v>
+        <v>142.5</v>
       </c>
       <c r="F81" t="n">
-        <v>14510.1403</v>
+        <v>6000</v>
       </c>
       <c r="G81" t="n">
-        <v>137115.5463573074</v>
+        <v>50331.96395730742</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>142.4</v>
+      </c>
       <c r="K81" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3798,22 +3896,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="C82" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="D82" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="E82" t="n">
-        <v>148.4</v>
+        <v>144</v>
       </c>
       <c r="F82" t="n">
-        <v>671.8295000000001</v>
+        <v>3331.5408</v>
       </c>
       <c r="G82" t="n">
-        <v>137115.5463573074</v>
+        <v>50331.96395730742</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3823,7 +3921,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3840,22 +3938,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>148.9</v>
+        <v>144</v>
       </c>
       <c r="C83" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="D83" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="E83" t="n">
-        <v>148.9</v>
+        <v>144</v>
       </c>
       <c r="F83" t="n">
-        <v>8626.5568</v>
+        <v>10000</v>
       </c>
       <c r="G83" t="n">
-        <v>145742.1031573074</v>
+        <v>60331.96395730742</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3865,7 +3963,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3882,22 +3980,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C84" t="n">
-        <v>149</v>
+        <v>142.3</v>
       </c>
       <c r="D84" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="E84" t="n">
-        <v>149</v>
+        <v>142.3</v>
       </c>
       <c r="F84" t="n">
-        <v>431</v>
+        <v>10425.7247</v>
       </c>
       <c r="G84" t="n">
-        <v>145742.1031573074</v>
+        <v>49906.23925730742</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3907,7 +4005,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3924,22 +4022,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C85" t="n">
-        <v>149.9</v>
+        <v>142.5</v>
       </c>
       <c r="D85" t="n">
-        <v>149.9</v>
+        <v>144</v>
       </c>
       <c r="E85" t="n">
-        <v>149</v>
+        <v>142.5</v>
       </c>
       <c r="F85" t="n">
-        <v>23398.80005170114</v>
+        <v>10016.3942</v>
       </c>
       <c r="G85" t="n">
-        <v>169140.9032090085</v>
+        <v>59922.63345730743</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3949,7 +4047,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3966,22 +4064,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>149.9</v>
+        <v>144.6</v>
       </c>
       <c r="C86" t="n">
-        <v>149.9</v>
+        <v>144.6</v>
       </c>
       <c r="D86" t="n">
-        <v>149.9</v>
+        <v>144.6</v>
       </c>
       <c r="E86" t="n">
-        <v>149.9</v>
+        <v>144.6</v>
       </c>
       <c r="F86" t="n">
-        <v>1125</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>169140.9032090085</v>
+        <v>59932.63345730743</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3991,7 +4089,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4008,22 +4106,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>149.8</v>
+        <v>144</v>
       </c>
       <c r="C87" t="n">
-        <v>149.8</v>
+        <v>142.5</v>
       </c>
       <c r="D87" t="n">
-        <v>149.8</v>
+        <v>144</v>
       </c>
       <c r="E87" t="n">
-        <v>149.8</v>
+        <v>142.5</v>
       </c>
       <c r="F87" t="n">
-        <v>125</v>
+        <v>3331.5408</v>
       </c>
       <c r="G87" t="n">
-        <v>169015.9032090085</v>
+        <v>56601.09265730742</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4033,7 +4131,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4050,22 +4148,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>149.4</v>
+        <v>142.9</v>
       </c>
       <c r="C88" t="n">
-        <v>149.4</v>
+        <v>144.3</v>
       </c>
       <c r="D88" t="n">
-        <v>149.4</v>
+        <v>144.3</v>
       </c>
       <c r="E88" t="n">
-        <v>149.4</v>
+        <v>142.8</v>
       </c>
       <c r="F88" t="n">
-        <v>3750</v>
+        <v>5239.2242</v>
       </c>
       <c r="G88" t="n">
-        <v>165265.9032090085</v>
+        <v>61840.31685730742</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4075,7 +4173,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4092,22 +4190,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>149.4</v>
+        <v>142.4</v>
       </c>
       <c r="C89" t="n">
-        <v>149.5</v>
+        <v>142.4</v>
       </c>
       <c r="D89" t="n">
-        <v>149.5</v>
+        <v>142.4</v>
       </c>
       <c r="E89" t="n">
-        <v>149.4</v>
+        <v>142.4</v>
       </c>
       <c r="F89" t="n">
-        <v>2167.1626</v>
+        <v>2279.8327</v>
       </c>
       <c r="G89" t="n">
-        <v>167433.0658090085</v>
+        <v>59560.48415730742</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4117,7 +4215,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4134,22 +4232,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>149.1</v>
+        <v>142.6</v>
       </c>
       <c r="C90" t="n">
-        <v>149.3</v>
+        <v>142.6</v>
       </c>
       <c r="D90" t="n">
-        <v>149.3</v>
+        <v>142.6</v>
       </c>
       <c r="E90" t="n">
-        <v>149.1</v>
+        <v>142.6</v>
       </c>
       <c r="F90" t="n">
-        <v>15000</v>
+        <v>325.752</v>
       </c>
       <c r="G90" t="n">
-        <v>152433.0658090085</v>
+        <v>59886.23615730742</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4159,7 +4257,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4176,22 +4274,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>149.3</v>
+        <v>143</v>
       </c>
       <c r="C91" t="n">
-        <v>149.3</v>
+        <v>143</v>
       </c>
       <c r="D91" t="n">
-        <v>149.3</v>
+        <v>143</v>
       </c>
       <c r="E91" t="n">
-        <v>149.3</v>
+        <v>143</v>
       </c>
       <c r="F91" t="n">
-        <v>312.0936</v>
+        <v>469.2985</v>
       </c>
       <c r="G91" t="n">
-        <v>152433.0658090085</v>
+        <v>60355.53465730742</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4201,7 +4299,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4218,22 +4316,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>149.1</v>
+        <v>142.5</v>
       </c>
       <c r="C92" t="n">
-        <v>149.1</v>
+        <v>142.4</v>
       </c>
       <c r="D92" t="n">
-        <v>149.1</v>
+        <v>142.5</v>
       </c>
       <c r="E92" t="n">
-        <v>149.1</v>
+        <v>142.4</v>
       </c>
       <c r="F92" t="n">
-        <v>6685.8857</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>145747.1801090085</v>
+        <v>58355.53465730742</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4243,7 +4341,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4260,22 +4358,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>149.1</v>
+        <v>142.4</v>
       </c>
       <c r="C93" t="n">
-        <v>149.4</v>
+        <v>141.7</v>
       </c>
       <c r="D93" t="n">
-        <v>149.4</v>
+        <v>142.4</v>
       </c>
       <c r="E93" t="n">
-        <v>147.7</v>
+        <v>141.7</v>
       </c>
       <c r="F93" t="n">
-        <v>20402.6437</v>
+        <v>33601.4375</v>
       </c>
       <c r="G93" t="n">
-        <v>166149.8238090085</v>
+        <v>24754.09715730742</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4285,7 +4383,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4302,22 +4400,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>148.9</v>
+        <v>142</v>
       </c>
       <c r="C94" t="n">
-        <v>148.9</v>
+        <v>142</v>
       </c>
       <c r="D94" t="n">
-        <v>148.9</v>
+        <v>142</v>
       </c>
       <c r="E94" t="n">
-        <v>148.9</v>
+        <v>142</v>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>478.1971</v>
       </c>
       <c r="G94" t="n">
-        <v>165899.8238090085</v>
+        <v>25232.29425730742</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4327,7 +4425,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4344,22 +4442,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>148.9</v>
+        <v>142</v>
       </c>
       <c r="C95" t="n">
-        <v>149</v>
+        <v>142.6</v>
       </c>
       <c r="D95" t="n">
-        <v>149</v>
+        <v>142.7</v>
       </c>
       <c r="E95" t="n">
-        <v>148.9</v>
+        <v>142</v>
       </c>
       <c r="F95" t="n">
-        <v>375</v>
+        <v>2558.7255</v>
       </c>
       <c r="G95" t="n">
-        <v>166274.8238090085</v>
+        <v>27791.01975730742</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4369,7 +4467,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4386,22 +4484,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>149.8</v>
+        <v>142.5</v>
       </c>
       <c r="C96" t="n">
-        <v>149.8</v>
+        <v>142.5</v>
       </c>
       <c r="D96" t="n">
-        <v>149.8</v>
+        <v>142.5</v>
       </c>
       <c r="E96" t="n">
-        <v>149.8</v>
+        <v>142.5</v>
       </c>
       <c r="F96" t="n">
-        <v>7.9533</v>
+        <v>988.8075</v>
       </c>
       <c r="G96" t="n">
-        <v>166282.7771090085</v>
+        <v>26802.21225730742</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4411,7 +4509,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4428,22 +4526,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>149.5</v>
+        <v>141.6</v>
       </c>
       <c r="C97" t="n">
-        <v>149.6</v>
+        <v>142</v>
       </c>
       <c r="D97" t="n">
-        <v>149.6</v>
+        <v>142</v>
       </c>
       <c r="E97" t="n">
-        <v>149.5</v>
+        <v>141.6</v>
       </c>
       <c r="F97" t="n">
-        <v>3013.7676</v>
+        <v>765.6767</v>
       </c>
       <c r="G97" t="n">
-        <v>163269.0095090085</v>
+        <v>26036.53555730742</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4453,7 +4551,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4470,22 +4568,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>149.6</v>
+        <v>142</v>
       </c>
       <c r="C98" t="n">
-        <v>149.9</v>
+        <v>141.9</v>
       </c>
       <c r="D98" t="n">
-        <v>149.9</v>
+        <v>142</v>
       </c>
       <c r="E98" t="n">
-        <v>149.6</v>
+        <v>141.2</v>
       </c>
       <c r="F98" t="n">
-        <v>8000</v>
+        <v>1661.0048</v>
       </c>
       <c r="G98" t="n">
-        <v>171269.0095090085</v>
+        <v>24375.53075730742</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4495,7 +4593,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4512,22 +4610,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>148.2</v>
+        <v>141.8</v>
       </c>
       <c r="C99" t="n">
-        <v>148.1</v>
+        <v>141.9</v>
       </c>
       <c r="D99" t="n">
-        <v>148.2</v>
+        <v>141.9</v>
       </c>
       <c r="E99" t="n">
-        <v>148.1</v>
+        <v>141.8</v>
       </c>
       <c r="F99" t="n">
-        <v>1997.2803</v>
+        <v>7248.736</v>
       </c>
       <c r="G99" t="n">
-        <v>169271.7292090085</v>
+        <v>24375.53075730742</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4537,7 +4635,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4554,22 +4652,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>148.2</v>
+        <v>141.9</v>
       </c>
       <c r="C100" t="n">
-        <v>148.1</v>
+        <v>142</v>
       </c>
       <c r="D100" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="E100" t="n">
-        <v>148.1</v>
+        <v>141.9</v>
       </c>
       <c r="F100" t="n">
-        <v>1425.1915</v>
+        <v>5061.8784</v>
       </c>
       <c r="G100" t="n">
-        <v>169271.7292090085</v>
+        <v>29437.40915730743</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4579,7 +4677,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4596,22 +4694,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>148.1</v>
+        <v>141.9</v>
       </c>
       <c r="C101" t="n">
-        <v>148.1</v>
+        <v>141.9</v>
       </c>
       <c r="D101" t="n">
-        <v>148.1</v>
+        <v>141.9</v>
       </c>
       <c r="E101" t="n">
-        <v>148.1</v>
+        <v>141.9</v>
       </c>
       <c r="F101" t="n">
-        <v>2763.3426</v>
+        <v>7416.7123</v>
       </c>
       <c r="G101" t="n">
-        <v>169271.7292090085</v>
+        <v>22020.69685730743</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4621,7 +4719,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4638,22 +4736,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>148.2</v>
+        <v>141.9</v>
       </c>
       <c r="C102" t="n">
-        <v>148.1</v>
+        <v>142</v>
       </c>
       <c r="D102" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="E102" t="n">
-        <v>148.1</v>
+        <v>141.9</v>
       </c>
       <c r="F102" t="n">
-        <v>3013.7676</v>
+        <v>4098.3794</v>
       </c>
       <c r="G102" t="n">
-        <v>169271.7292090085</v>
+        <v>26119.07625730742</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4663,7 +4761,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4680,22 +4778,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>149.8</v>
+        <v>142</v>
       </c>
       <c r="C103" t="n">
-        <v>149.8</v>
+        <v>142</v>
       </c>
       <c r="D103" t="n">
-        <v>149.8</v>
+        <v>142</v>
       </c>
       <c r="E103" t="n">
-        <v>148.2</v>
+        <v>142</v>
       </c>
       <c r="F103" t="n">
-        <v>1522.8197</v>
+        <v>478.195</v>
       </c>
       <c r="G103" t="n">
-        <v>170794.5489090085</v>
+        <v>26119.07625730742</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4705,7 +4803,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4722,22 +4820,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>149.9</v>
+        <v>141.3</v>
       </c>
       <c r="C104" t="n">
-        <v>149.9</v>
+        <v>141</v>
       </c>
       <c r="D104" t="n">
-        <v>149.9</v>
+        <v>142</v>
       </c>
       <c r="E104" t="n">
-        <v>149.9</v>
+        <v>141</v>
       </c>
       <c r="F104" t="n">
-        <v>689.4584</v>
+        <v>5258.3264</v>
       </c>
       <c r="G104" t="n">
-        <v>171484.0073090085</v>
+        <v>20860.74985730743</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4747,7 +4845,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4764,32 +4862,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>149.3</v>
+        <v>141</v>
       </c>
       <c r="C105" t="n">
-        <v>149.9</v>
+        <v>142</v>
       </c>
       <c r="D105" t="n">
-        <v>149.9</v>
+        <v>142</v>
       </c>
       <c r="E105" t="n">
-        <v>149.3</v>
+        <v>141</v>
       </c>
       <c r="F105" t="n">
-        <v>2093.398</v>
+        <v>475</v>
       </c>
       <c r="G105" t="n">
-        <v>171484.0073090085</v>
+        <v>21335.74985730743</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>141</v>
+      </c>
       <c r="K105" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4806,66 +4906,66 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>149.9</v>
+        <v>142</v>
       </c>
       <c r="C106" t="n">
-        <v>150.1</v>
+        <v>142.4</v>
       </c>
       <c r="D106" t="n">
-        <v>150.1</v>
+        <v>142.4</v>
       </c>
       <c r="E106" t="n">
-        <v>149.9</v>
+        <v>142</v>
       </c>
       <c r="F106" t="n">
-        <v>13089.21664829887</v>
+        <v>636.2924</v>
       </c>
       <c r="G106" t="n">
-        <v>184573.2239573074</v>
+        <v>21972.04225730742</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>142</v>
+      </c>
       <c r="K106" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>1.059539007092199</v>
-      </c>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>150.1</v>
+        <v>142.3</v>
       </c>
       <c r="C107" t="n">
-        <v>150.1</v>
+        <v>142.3</v>
       </c>
       <c r="D107" t="n">
-        <v>150.1</v>
+        <v>142.3</v>
       </c>
       <c r="E107" t="n">
-        <v>150.1</v>
+        <v>142.3</v>
       </c>
       <c r="F107" t="n">
-        <v>129.1555</v>
+        <v>223.0669</v>
       </c>
       <c r="G107" t="n">
-        <v>184573.2239573074</v>
+        <v>21748.97535730742</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4874,8 +4974,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>139</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4886,22 +4992,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>150.1</v>
+        <v>142.3</v>
       </c>
       <c r="C108" t="n">
-        <v>150.1</v>
+        <v>142.4</v>
       </c>
       <c r="D108" t="n">
-        <v>150.1</v>
+        <v>142.4</v>
       </c>
       <c r="E108" t="n">
-        <v>150.1</v>
+        <v>142.3</v>
       </c>
       <c r="F108" t="n">
-        <v>2745.3932</v>
+        <v>4406.8419</v>
       </c>
       <c r="G108" t="n">
-        <v>184573.2239573074</v>
+        <v>26155.81725730742</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4910,8 +5016,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>139</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4922,32 +5034,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="C109" t="n">
-        <v>150</v>
+        <v>142.5</v>
       </c>
       <c r="D109" t="n">
-        <v>150</v>
+        <v>142.5</v>
       </c>
       <c r="E109" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="F109" t="n">
-        <v>14426</v>
+        <v>5391.751</v>
       </c>
       <c r="G109" t="n">
-        <v>170147.2239573074</v>
+        <v>31547.56825730742</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>139</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4958,32 +5076,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>150.1</v>
+        <v>142.5</v>
       </c>
       <c r="C110" t="n">
-        <v>150.1</v>
+        <v>142.5</v>
       </c>
       <c r="D110" t="n">
-        <v>150.1</v>
+        <v>142.5</v>
       </c>
       <c r="E110" t="n">
-        <v>150.1</v>
+        <v>142.5</v>
       </c>
       <c r="F110" t="n">
-        <v>13025.687</v>
+        <v>1250</v>
       </c>
       <c r="G110" t="n">
-        <v>183172.9109573074</v>
+        <v>31547.56825730742</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>139</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4994,32 +5118,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>150.1</v>
+        <v>142.4</v>
       </c>
       <c r="C111" t="n">
-        <v>150</v>
+        <v>144.6</v>
       </c>
       <c r="D111" t="n">
-        <v>150.1</v>
+        <v>144.6</v>
       </c>
       <c r="E111" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="F111" t="n">
-        <v>16842.7527</v>
+        <v>125</v>
       </c>
       <c r="G111" t="n">
-        <v>166330.1582573074</v>
+        <v>31672.56825730742</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>139</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5030,32 +5160,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C112" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D112" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E112" t="n">
-        <v>150</v>
+        <v>142.5</v>
       </c>
       <c r="F112" t="n">
-        <v>14570.3079</v>
+        <v>40248.5827</v>
       </c>
       <c r="G112" t="n">
-        <v>166330.1582573074</v>
+        <v>-8576.014442692576</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>139</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5066,32 +5202,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>149.9</v>
+        <v>142.2</v>
       </c>
       <c r="C113" t="n">
-        <v>150</v>
+        <v>143.7</v>
       </c>
       <c r="D113" t="n">
-        <v>150</v>
+        <v>143.7</v>
       </c>
       <c r="E113" t="n">
-        <v>149.9</v>
+        <v>142.2</v>
       </c>
       <c r="F113" t="n">
-        <v>6381.02</v>
+        <v>9925.740599999999</v>
       </c>
       <c r="G113" t="n">
-        <v>166330.1582573074</v>
+        <v>1349.726157307423</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>139</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5102,32 +5244,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>150</v>
+        <v>142.2</v>
       </c>
       <c r="C114" t="n">
-        <v>150</v>
+        <v>142.2</v>
       </c>
       <c r="D114" t="n">
-        <v>150</v>
+        <v>142.2</v>
       </c>
       <c r="E114" t="n">
-        <v>150</v>
+        <v>142.2</v>
       </c>
       <c r="F114" t="n">
-        <v>26344.3787</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>166330.1582573074</v>
+        <v>1339.726157307423</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>139</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5138,32 +5286,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>150</v>
+        <v>142.5</v>
       </c>
       <c r="C115" t="n">
-        <v>150</v>
+        <v>142.5</v>
       </c>
       <c r="D115" t="n">
-        <v>150</v>
+        <v>142.5</v>
       </c>
       <c r="E115" t="n">
-        <v>150</v>
+        <v>142.5</v>
       </c>
       <c r="F115" t="n">
-        <v>15000</v>
+        <v>6041.5</v>
       </c>
       <c r="G115" t="n">
-        <v>166330.1582573074</v>
+        <v>7381.226157307423</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>139</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5174,32 +5328,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="C116" t="n">
-        <v>150</v>
+        <v>143.9</v>
       </c>
       <c r="D116" t="n">
-        <v>150</v>
+        <v>143.9</v>
       </c>
       <c r="E116" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="F116" t="n">
-        <v>4925.9267</v>
+        <v>250</v>
       </c>
       <c r="G116" t="n">
-        <v>166330.1582573074</v>
+        <v>7631.226157307423</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>139</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5210,32 +5370,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>150.2</v>
+        <v>143.9</v>
       </c>
       <c r="C117" t="n">
-        <v>151.8</v>
+        <v>143.9</v>
       </c>
       <c r="D117" t="n">
-        <v>151.8</v>
+        <v>143.9</v>
       </c>
       <c r="E117" t="n">
-        <v>150.2</v>
+        <v>143.8</v>
       </c>
       <c r="F117" t="n">
-        <v>493.3653</v>
+        <v>1310.4412</v>
       </c>
       <c r="G117" t="n">
-        <v>166823.5235573074</v>
+        <v>7631.226157307423</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>139</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5246,32 +5412,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>150</v>
+        <v>143.8</v>
       </c>
       <c r="C118" t="n">
-        <v>152</v>
+        <v>143.8</v>
       </c>
       <c r="D118" t="n">
-        <v>152</v>
+        <v>143.8</v>
       </c>
       <c r="E118" t="n">
-        <v>150</v>
+        <v>143.8</v>
       </c>
       <c r="F118" t="n">
-        <v>744.355</v>
+        <v>411.7648</v>
       </c>
       <c r="G118" t="n">
-        <v>167567.8785573074</v>
+        <v>7219.461357307423</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>139</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5282,32 +5454,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>149.1</v>
+        <v>142.3</v>
       </c>
       <c r="C119" t="n">
-        <v>149.1</v>
+        <v>142.3</v>
       </c>
       <c r="D119" t="n">
-        <v>149.1</v>
+        <v>142.3</v>
       </c>
       <c r="E119" t="n">
-        <v>149.1</v>
+        <v>142.3</v>
       </c>
       <c r="F119" t="n">
-        <v>12425.3959</v>
+        <v>499.8304</v>
       </c>
       <c r="G119" t="n">
-        <v>155142.4826573074</v>
+        <v>6719.630957307423</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>139</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5318,32 +5496,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>149.1</v>
+        <v>144</v>
       </c>
       <c r="C120" t="n">
-        <v>149.1</v>
+        <v>144</v>
       </c>
       <c r="D120" t="n">
-        <v>149.1</v>
+        <v>144</v>
       </c>
       <c r="E120" t="n">
-        <v>149.1</v>
+        <v>144</v>
       </c>
       <c r="F120" t="n">
-        <v>9696.203799999999</v>
+        <v>394.7683</v>
       </c>
       <c r="G120" t="n">
-        <v>155142.4826573074</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>139</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5354,32 +5538,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>149.1</v>
+        <v>144</v>
       </c>
       <c r="C121" t="n">
-        <v>149.1</v>
+        <v>144</v>
       </c>
       <c r="D121" t="n">
-        <v>149.1</v>
+        <v>144</v>
       </c>
       <c r="E121" t="n">
-        <v>149.1</v>
+        <v>144</v>
       </c>
       <c r="F121" t="n">
-        <v>2612.1258</v>
+        <v>11169.0644</v>
       </c>
       <c r="G121" t="n">
-        <v>155142.4826573074</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>139</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5390,32 +5580,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C122" t="n">
-        <v>150.5</v>
+        <v>144</v>
       </c>
       <c r="D122" t="n">
-        <v>150.5</v>
+        <v>144</v>
       </c>
       <c r="E122" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F122" t="n">
-        <v>6980.3445</v>
+        <v>2131.7207</v>
       </c>
       <c r="G122" t="n">
-        <v>162122.8271573074</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>139</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5426,32 +5622,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C123" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D123" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E123" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F123" t="n">
-        <v>209.2991</v>
+        <v>240.7922</v>
       </c>
       <c r="G123" t="n">
-        <v>161913.5280573074</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>139</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5462,32 +5664,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C124" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D124" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E124" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F124" t="n">
-        <v>1655.2312</v>
+        <v>46130.6752</v>
       </c>
       <c r="G124" t="n">
-        <v>161913.5280573074</v>
+        <v>7114.399257307423</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>139</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5498,32 +5706,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="C125" t="n">
-        <v>148.1</v>
+        <v>144.5</v>
       </c>
       <c r="D125" t="n">
-        <v>149</v>
+        <v>144.5</v>
       </c>
       <c r="E125" t="n">
-        <v>148.1</v>
+        <v>144.5</v>
       </c>
       <c r="F125" t="n">
-        <v>21164.2736</v>
+        <v>17663.9996</v>
       </c>
       <c r="G125" t="n">
-        <v>140749.2544573074</v>
+        <v>24778.39885730742</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>139</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5534,32 +5748,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>148.6</v>
+        <v>144.5</v>
       </c>
       <c r="C126" t="n">
-        <v>150.3</v>
+        <v>144.5</v>
       </c>
       <c r="D126" t="n">
-        <v>150.3</v>
+        <v>144.5</v>
       </c>
       <c r="E126" t="n">
-        <v>148.6</v>
+        <v>144.5</v>
       </c>
       <c r="F126" t="n">
-        <v>1024.7936</v>
+        <v>3646.2116</v>
       </c>
       <c r="G126" t="n">
-        <v>141774.0480573074</v>
+        <v>24778.39885730742</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>139</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5570,32 +5790,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>148.5</v>
+        <v>144.6</v>
       </c>
       <c r="C127" t="n">
-        <v>148.5</v>
+        <v>145</v>
       </c>
       <c r="D127" t="n">
-        <v>148.5</v>
+        <v>145</v>
       </c>
       <c r="E127" t="n">
-        <v>148.5</v>
+        <v>144.6</v>
       </c>
       <c r="F127" t="n">
-        <v>183.0293</v>
+        <v>34815.4534</v>
       </c>
       <c r="G127" t="n">
-        <v>141591.0187573074</v>
+        <v>59593.85225730742</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>139</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5606,32 +5832,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>149.6</v>
+        <v>145.2</v>
       </c>
       <c r="C128" t="n">
-        <v>149.6</v>
+        <v>145.2</v>
       </c>
       <c r="D128" t="n">
-        <v>149.6</v>
+        <v>145.2</v>
       </c>
       <c r="E128" t="n">
-        <v>149.6</v>
+        <v>145.2</v>
       </c>
       <c r="F128" t="n">
-        <v>56.7743</v>
+        <v>334.8109</v>
       </c>
       <c r="G128" t="n">
-        <v>141647.7930573074</v>
+        <v>59928.66315730742</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>139</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5642,32 +5874,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>149.7</v>
+        <v>145.2</v>
       </c>
       <c r="C129" t="n">
-        <v>149.7</v>
+        <v>145.5</v>
       </c>
       <c r="D129" t="n">
-        <v>149.7</v>
+        <v>145.5</v>
       </c>
       <c r="E129" t="n">
-        <v>149.7</v>
+        <v>145.2</v>
       </c>
       <c r="F129" t="n">
-        <v>3098.2996</v>
+        <v>15117.4719</v>
       </c>
       <c r="G129" t="n">
-        <v>144746.0926573074</v>
+        <v>75046.13505730742</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>139</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5678,32 +5916,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>148.4</v>
+        <v>145.5</v>
       </c>
       <c r="C130" t="n">
-        <v>148.4</v>
+        <v>145.6</v>
       </c>
       <c r="D130" t="n">
-        <v>148.4</v>
+        <v>145.6</v>
       </c>
       <c r="E130" t="n">
-        <v>148.4</v>
+        <v>145.5</v>
       </c>
       <c r="F130" t="n">
-        <v>583.1176</v>
+        <v>3377.0196</v>
       </c>
       <c r="G130" t="n">
-        <v>144162.9750573074</v>
+        <v>78423.15465730742</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>139</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5714,32 +5958,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>148.3</v>
+        <v>145.7</v>
       </c>
       <c r="C131" t="n">
-        <v>148.7</v>
+        <v>145.7</v>
       </c>
       <c r="D131" t="n">
-        <v>148.7</v>
+        <v>145.7</v>
       </c>
       <c r="E131" t="n">
-        <v>148.1</v>
+        <v>145.7</v>
       </c>
       <c r="F131" t="n">
-        <v>7352.1748</v>
+        <v>395.6254</v>
       </c>
       <c r="G131" t="n">
-        <v>151515.1498573074</v>
+        <v>78818.78005730742</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>139</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5750,22 +6000,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>148.9</v>
+        <v>145.7</v>
       </c>
       <c r="C132" t="n">
-        <v>148.9</v>
+        <v>146</v>
       </c>
       <c r="D132" t="n">
-        <v>148.9</v>
+        <v>146</v>
       </c>
       <c r="E132" t="n">
-        <v>148.9</v>
+        <v>145.7</v>
       </c>
       <c r="F132" t="n">
-        <v>219.5287</v>
+        <v>1973.3198</v>
       </c>
       <c r="G132" t="n">
-        <v>151734.6785573074</v>
+        <v>80792.09985730742</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5774,8 +6024,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>139</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5786,32 +6042,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>149.7</v>
+        <v>146.2</v>
       </c>
       <c r="C133" t="n">
-        <v>149.7</v>
+        <v>146.4</v>
       </c>
       <c r="D133" t="n">
-        <v>149.7</v>
+        <v>146.4</v>
       </c>
       <c r="E133" t="n">
-        <v>149.7</v>
+        <v>146.2</v>
       </c>
       <c r="F133" t="n">
-        <v>83.6157</v>
+        <v>5594.5223</v>
       </c>
       <c r="G133" t="n">
-        <v>151818.2942573074</v>
+        <v>86386.62215730741</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>139</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5822,32 +6084,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>148.1</v>
+        <v>146.4</v>
       </c>
       <c r="C134" t="n">
-        <v>148.1</v>
+        <v>146.5</v>
       </c>
       <c r="D134" t="n">
-        <v>148.1</v>
+        <v>147</v>
       </c>
       <c r="E134" t="n">
-        <v>148.1</v>
+        <v>146.4</v>
       </c>
       <c r="F134" t="n">
-        <v>171.2966</v>
+        <v>12756.1987</v>
       </c>
       <c r="G134" t="n">
-        <v>151646.9976573074</v>
+        <v>99142.82085730741</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>139</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5858,32 +6126,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>148.1</v>
+        <v>146.5</v>
       </c>
       <c r="C135" t="n">
-        <v>147.2</v>
+        <v>144.1</v>
       </c>
       <c r="D135" t="n">
-        <v>148.1</v>
+        <v>146.5</v>
       </c>
       <c r="E135" t="n">
-        <v>147.2</v>
+        <v>144.1</v>
       </c>
       <c r="F135" t="n">
-        <v>8315.162399999999</v>
+        <v>5757.98</v>
       </c>
       <c r="G135" t="n">
-        <v>143331.8352573074</v>
+        <v>93384.84085730741</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>139</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5894,32 +6168,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>147.5</v>
+        <v>145.1</v>
       </c>
       <c r="C136" t="n">
-        <v>147</v>
+        <v>145.1</v>
       </c>
       <c r="D136" t="n">
-        <v>147.5</v>
+        <v>145.1</v>
       </c>
       <c r="E136" t="n">
-        <v>147</v>
+        <v>145.1</v>
       </c>
       <c r="F136" t="n">
-        <v>3110.9409</v>
+        <v>2610.8249</v>
       </c>
       <c r="G136" t="n">
-        <v>140220.8943573074</v>
+        <v>95995.66575730742</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>139</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5930,32 +6210,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>148.1</v>
+        <v>145.1</v>
       </c>
       <c r="C137" t="n">
-        <v>148.1</v>
+        <v>145.1</v>
       </c>
       <c r="D137" t="n">
-        <v>148.1</v>
+        <v>145.1</v>
       </c>
       <c r="E137" t="n">
-        <v>148.1</v>
+        <v>145.1</v>
       </c>
       <c r="F137" t="n">
-        <v>3098.2996</v>
+        <v>6126.6878</v>
       </c>
       <c r="G137" t="n">
-        <v>143319.1939573074</v>
+        <v>95995.66575730742</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>139</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5966,32 +6252,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>148.6</v>
+        <v>146.2</v>
       </c>
       <c r="C138" t="n">
-        <v>148.6</v>
+        <v>146.2</v>
       </c>
       <c r="D138" t="n">
-        <v>148.6</v>
+        <v>146.2</v>
       </c>
       <c r="E138" t="n">
-        <v>148.6</v>
+        <v>146.2</v>
       </c>
       <c r="F138" t="n">
-        <v>3849.0764</v>
+        <v>677.8582</v>
       </c>
       <c r="G138" t="n">
-        <v>147168.2703573074</v>
+        <v>96673.52395730742</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>139</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6002,32 +6294,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>147</v>
+        <v>146.2</v>
       </c>
       <c r="C139" t="n">
-        <v>148.7</v>
+        <v>146.5</v>
       </c>
       <c r="D139" t="n">
-        <v>148.7</v>
+        <v>146.5</v>
       </c>
       <c r="E139" t="n">
-        <v>147</v>
+        <v>146.2</v>
       </c>
       <c r="F139" t="n">
-        <v>802.3385</v>
+        <v>334.8109</v>
       </c>
       <c r="G139" t="n">
-        <v>147970.6088573074</v>
+        <v>97008.33485730742</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>139</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6038,22 +6336,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>148.7</v>
+        <v>146.5</v>
       </c>
       <c r="C140" t="n">
-        <v>148.7</v>
+        <v>147</v>
       </c>
       <c r="D140" t="n">
-        <v>148.7</v>
+        <v>147</v>
       </c>
       <c r="E140" t="n">
-        <v>148.7</v>
+        <v>146.5</v>
       </c>
       <c r="F140" t="n">
-        <v>37.4856</v>
+        <v>425.6266</v>
       </c>
       <c r="G140" t="n">
-        <v>147970.6088573074</v>
+        <v>97433.96145730742</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6062,8 +6360,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>139</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6074,36 +6378,2738 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>147</v>
+      </c>
+      <c r="C141" t="n">
+        <v>147</v>
+      </c>
+      <c r="D141" t="n">
+        <v>147</v>
+      </c>
+      <c r="E141" t="n">
+        <v>147</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1909.5727</v>
+      </c>
+      <c r="G141" t="n">
+        <v>97433.96145730742</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>139</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>147</v>
+      </c>
+      <c r="C142" t="n">
+        <v>147</v>
+      </c>
+      <c r="D142" t="n">
+        <v>147</v>
+      </c>
+      <c r="E142" t="n">
+        <v>147</v>
+      </c>
+      <c r="F142" t="n">
+        <v>423.4409</v>
+      </c>
+      <c r="G142" t="n">
+        <v>97433.96145730742</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>139</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7852.3207</v>
+      </c>
+      <c r="G143" t="n">
+        <v>105286.2821573074</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>139</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>988</v>
+      </c>
+      <c r="G144" t="n">
+        <v>104298.2821573074</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>139</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>148</v>
+      </c>
+      <c r="D145" t="n">
+        <v>148</v>
+      </c>
+      <c r="E145" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1131.5675</v>
+      </c>
+      <c r="G145" t="n">
+        <v>105429.8496573074</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>139</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5005</v>
+      </c>
+      <c r="G146" t="n">
+        <v>110434.8496573074</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>139</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2052.8065</v>
+      </c>
+      <c r="G147" t="n">
+        <v>112487.6561573074</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>139</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="G148" t="n">
+        <v>112480.4061573074</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>139</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10124.9999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>122605.4060573074</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>139</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>933.1763999999999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>122605.4060573074</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>139</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1864.6753</v>
+      </c>
+      <c r="G151" t="n">
+        <v>122605.4060573074</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>139</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>14510.1403</v>
+      </c>
+      <c r="G152" t="n">
+        <v>137115.5463573074</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>139</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>671.8295000000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>137115.5463573074</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>139</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>149</v>
+      </c>
+      <c r="D154" t="n">
+        <v>149</v>
+      </c>
+      <c r="E154" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8626.5568</v>
+      </c>
+      <c r="G154" t="n">
+        <v>145742.1031573074</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>139</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>149</v>
+      </c>
+      <c r="C155" t="n">
+        <v>149</v>
+      </c>
+      <c r="D155" t="n">
+        <v>149</v>
+      </c>
+      <c r="E155" t="n">
+        <v>149</v>
+      </c>
+      <c r="F155" t="n">
+        <v>431</v>
+      </c>
+      <c r="G155" t="n">
+        <v>145742.1031573074</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>139</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>149</v>
+      </c>
+      <c r="C156" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>149</v>
+      </c>
+      <c r="F156" t="n">
+        <v>23398.80005170114</v>
+      </c>
+      <c r="G156" t="n">
+        <v>169140.9032090085</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>139</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1125</v>
+      </c>
+      <c r="G157" t="n">
+        <v>169140.9032090085</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>139</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>125</v>
+      </c>
+      <c r="G158" t="n">
+        <v>169015.9032090085</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>139</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G159" t="n">
+        <v>165265.9032090085</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>139</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2167.1626</v>
+      </c>
+      <c r="G160" t="n">
+        <v>167433.0658090085</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>139</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>152433.0658090085</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>139</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>312.0936</v>
+      </c>
+      <c r="G162" t="n">
+        <v>152433.0658090085</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>139</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6685.8857</v>
+      </c>
+      <c r="G163" t="n">
+        <v>145747.1801090085</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>139</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>20402.6437</v>
+      </c>
+      <c r="G164" t="n">
+        <v>166149.8238090085</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>139</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1.069820143884892</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.003597122302158</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F165" t="n">
+        <v>250</v>
+      </c>
+      <c r="G165" t="n">
+        <v>165899.8238090085</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>149</v>
+      </c>
+      <c r="D166" t="n">
+        <v>149</v>
+      </c>
+      <c r="E166" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F166" t="n">
+        <v>375</v>
+      </c>
+      <c r="G166" t="n">
+        <v>166274.8238090085</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7.9533</v>
+      </c>
+      <c r="G167" t="n">
+        <v>166282.7771090085</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3013.7676</v>
+      </c>
+      <c r="G168" t="n">
+        <v>163269.0095090085</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>171269.0095090085</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1997.2803</v>
+      </c>
+      <c r="G170" t="n">
+        <v>169271.7292090085</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1425.1915</v>
+      </c>
+      <c r="G171" t="n">
+        <v>169271.7292090085</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2763.3426</v>
+      </c>
+      <c r="G172" t="n">
+        <v>169271.7292090085</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3013.7676</v>
+      </c>
+      <c r="G173" t="n">
+        <v>169271.7292090085</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="C174" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="D174" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E174" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1522.8197</v>
+      </c>
+      <c r="G174" t="n">
+        <v>170794.5489090085</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>689.4584</v>
+      </c>
+      <c r="G175" t="n">
+        <v>171484.0073090085</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2093.398</v>
+      </c>
+      <c r="G176" t="n">
+        <v>171484.0073090085</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13089.21664829887</v>
+      </c>
+      <c r="G177" t="n">
+        <v>184573.2239573074</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>129.1555</v>
+      </c>
+      <c r="G178" t="n">
+        <v>184573.2239573074</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2745.3932</v>
+      </c>
+      <c r="G179" t="n">
+        <v>184573.2239573074</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>150</v>
+      </c>
+      <c r="C180" t="n">
+        <v>150</v>
+      </c>
+      <c r="D180" t="n">
+        <v>150</v>
+      </c>
+      <c r="E180" t="n">
+        <v>150</v>
+      </c>
+      <c r="F180" t="n">
+        <v>14426</v>
+      </c>
+      <c r="G180" t="n">
+        <v>170147.2239573074</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>13025.687</v>
+      </c>
+      <c r="G181" t="n">
+        <v>183172.9109573074</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>150</v>
+      </c>
+      <c r="D182" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>150</v>
+      </c>
+      <c r="F182" t="n">
+        <v>16842.7527</v>
+      </c>
+      <c r="G182" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>150</v>
+      </c>
+      <c r="C183" t="n">
+        <v>150</v>
+      </c>
+      <c r="D183" t="n">
+        <v>150</v>
+      </c>
+      <c r="E183" t="n">
+        <v>150</v>
+      </c>
+      <c r="F183" t="n">
+        <v>14570.3079</v>
+      </c>
+      <c r="G183" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="C184" t="n">
+        <v>150</v>
+      </c>
+      <c r="D184" t="n">
+        <v>150</v>
+      </c>
+      <c r="E184" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6381.02</v>
+      </c>
+      <c r="G184" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>150</v>
+      </c>
+      <c r="C185" t="n">
+        <v>150</v>
+      </c>
+      <c r="D185" t="n">
+        <v>150</v>
+      </c>
+      <c r="E185" t="n">
+        <v>150</v>
+      </c>
+      <c r="F185" t="n">
+        <v>26344.3787</v>
+      </c>
+      <c r="G185" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>150</v>
+      </c>
+      <c r="C186" t="n">
+        <v>150</v>
+      </c>
+      <c r="D186" t="n">
+        <v>150</v>
+      </c>
+      <c r="E186" t="n">
+        <v>150</v>
+      </c>
+      <c r="F186" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>150</v>
+      </c>
+      <c r="C187" t="n">
+        <v>150</v>
+      </c>
+      <c r="D187" t="n">
+        <v>150</v>
+      </c>
+      <c r="E187" t="n">
+        <v>150</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4925.9267</v>
+      </c>
+      <c r="G187" t="n">
+        <v>166330.1582573074</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>493.3653</v>
+      </c>
+      <c r="G188" t="n">
+        <v>166823.5235573074</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>150</v>
+      </c>
+      <c r="C189" t="n">
+        <v>152</v>
+      </c>
+      <c r="D189" t="n">
+        <v>152</v>
+      </c>
+      <c r="E189" t="n">
+        <v>150</v>
+      </c>
+      <c r="F189" t="n">
+        <v>744.355</v>
+      </c>
+      <c r="G189" t="n">
+        <v>167567.8785573074</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>12425.3959</v>
+      </c>
+      <c r="G190" t="n">
+        <v>155142.4826573074</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>9696.203799999999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>155142.4826573074</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2612.1258</v>
+      </c>
+      <c r="G192" t="n">
+        <v>155142.4826573074</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>149</v>
+      </c>
+      <c r="C193" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>149</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6980.3445</v>
+      </c>
+      <c r="G193" t="n">
+        <v>162122.8271573074</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>149</v>
+      </c>
+      <c r="C194" t="n">
+        <v>149</v>
+      </c>
+      <c r="D194" t="n">
+        <v>149</v>
+      </c>
+      <c r="E194" t="n">
+        <v>149</v>
+      </c>
+      <c r="F194" t="n">
+        <v>209.2991</v>
+      </c>
+      <c r="G194" t="n">
+        <v>161913.5280573074</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>149</v>
+      </c>
+      <c r="C195" t="n">
+        <v>149</v>
+      </c>
+      <c r="D195" t="n">
+        <v>149</v>
+      </c>
+      <c r="E195" t="n">
+        <v>149</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1655.2312</v>
+      </c>
+      <c r="G195" t="n">
+        <v>161913.5280573074</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>149</v>
+      </c>
+      <c r="C196" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>149</v>
+      </c>
+      <c r="E196" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>21164.2736</v>
+      </c>
+      <c r="G196" t="n">
+        <v>140749.2544573074</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="E197" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1024.7936</v>
+      </c>
+      <c r="G197" t="n">
+        <v>141774.0480573074</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>183.0293</v>
+      </c>
+      <c r="G198" t="n">
+        <v>141591.0187573074</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="F199" t="n">
+        <v>56.7743</v>
+      </c>
+      <c r="G199" t="n">
+        <v>141647.7930573074</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3098.2996</v>
+      </c>
+      <c r="G200" t="n">
+        <v>144746.0926573074</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="C201" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D201" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E201" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>583.1176</v>
+      </c>
+      <c r="G201" t="n">
+        <v>144162.9750573074</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D202" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E202" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>7352.1748</v>
+      </c>
+      <c r="G202" t="n">
+        <v>151515.1498573074</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>219.5287</v>
+      </c>
+      <c r="G203" t="n">
+        <v>151734.6785573074</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="C204" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D204" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E204" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>83.6157</v>
+      </c>
+      <c r="G204" t="n">
+        <v>151818.2942573074</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>171.2966</v>
+      </c>
+      <c r="G205" t="n">
+        <v>151646.9976573074</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>8315.162399999999</v>
+      </c>
+      <c r="G206" t="n">
+        <v>143331.8352573074</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="C207" t="n">
+        <v>147</v>
+      </c>
+      <c r="D207" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>147</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3110.9409</v>
+      </c>
+      <c r="G207" t="n">
+        <v>140220.8943573074</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3098.2996</v>
+      </c>
+      <c r="G208" t="n">
+        <v>143319.1939573074</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="C209" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="D209" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="E209" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3849.0764</v>
+      </c>
+      <c r="G209" t="n">
+        <v>147168.2703573074</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>147</v>
+      </c>
+      <c r="C210" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D210" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E210" t="n">
+        <v>147</v>
+      </c>
+      <c r="F210" t="n">
+        <v>802.3385</v>
+      </c>
+      <c r="G210" t="n">
+        <v>147970.6088573074</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="C211" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="D211" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E211" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="F211" t="n">
+        <v>37.4856</v>
+      </c>
+      <c r="G211" t="n">
+        <v>147970.6088573074</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
         <v>146.9</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C212" t="n">
         <v>146.9</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D212" t="n">
         <v>146.9</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E212" t="n">
         <v>146.9</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F212" t="n">
         <v>68.626</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G212" t="n">
         <v>147901.9828573074</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J3" t="n">
         <v>139</v>
       </c>
-      <c r="K3" t="n">
-        <v>139</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J4" t="n">
         <v>139</v>
       </c>
-      <c r="K4" t="n">
-        <v>139</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J5" t="n">
         <v>139</v>
       </c>
-      <c r="K5" t="n">
-        <v>139</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J6" t="n">
         <v>139</v>
       </c>
-      <c r="K6" t="n">
-        <v>139</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J7" t="n">
         <v>139</v>
       </c>
-      <c r="K7" t="n">
-        <v>139</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>139</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>139</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +722,23 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="J9" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>139</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +763,23 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="J10" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>139</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +804,23 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="J11" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>139</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,26 +845,23 @@
         <v>49904.44905730742</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="J12" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>139</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,26 +886,23 @@
         <v>49904.44905730742</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J13" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>139</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,26 +927,23 @@
         <v>49904.44905730742</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J14" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>139</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1012,26 +968,23 @@
         <v>45904.44905730742</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J15" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>139</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1056,26 +1009,23 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="J16" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>139</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,26 +1050,23 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J17" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>139</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1144,26 +1091,23 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J18" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>139</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1188,26 +1132,23 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J19" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>139</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1232,26 +1173,23 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J20" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>139</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1276,26 +1214,23 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J21" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>139</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1320,26 +1255,23 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J22" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>139</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1364,26 +1296,23 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
-      </c>
-      <c r="K23" t="n">
-        <v>139</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1408,24 +1337,23 @@
         <v>42479.82625730742</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>139</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="J24" t="n">
+        <v>139</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1450,24 +1378,23 @@
         <v>42525.74885730742</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>139</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>138.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>139</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1492,26 +1419,23 @@
         <v>42732.20565730742</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J26" t="n">
         <v>139</v>
       </c>
-      <c r="K26" t="n">
-        <v>139</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1536,26 +1460,23 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>139.9</v>
       </c>
       <c r="J27" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>139</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1580,26 +1501,23 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>138.2</v>
       </c>
       <c r="J28" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>139</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1624,26 +1542,23 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>138.2</v>
       </c>
       <c r="J29" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>139</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1668,26 +1583,23 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>138.2</v>
       </c>
       <c r="J30" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>139</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1712,26 +1624,23 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J31" t="n">
         <v>139</v>
       </c>
-      <c r="K31" t="n">
-        <v>139</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1756,26 +1665,23 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J32" t="n">
         <v>139</v>
       </c>
-      <c r="K32" t="n">
-        <v>139</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1800,26 +1706,23 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J33" t="n">
         <v>139</v>
       </c>
-      <c r="K33" t="n">
-        <v>139</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1844,26 +1747,23 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J34" t="n">
         <v>139</v>
       </c>
-      <c r="K34" t="n">
-        <v>139</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1888,26 +1788,23 @@
         <v>47216.92265730742</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J35" t="n">
         <v>139</v>
       </c>
-      <c r="K35" t="n">
-        <v>139</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1932,26 +1829,23 @@
         <v>47078.25145730742</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>139.9</v>
       </c>
       <c r="J36" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K36" t="n">
-        <v>139</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1976,26 +1870,23 @@
         <v>52281.06585730743</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.1</v>
       </c>
       <c r="J37" t="n">
-        <v>139.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>139</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2020,26 +1911,23 @@
         <v>28285.69455730743</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>139.9</v>
       </c>
       <c r="J38" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K38" t="n">
-        <v>139</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2064,26 +1952,23 @@
         <v>28801.84935730743</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>139.7</v>
       </c>
       <c r="J39" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K39" t="n">
-        <v>139</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2108,26 +1993,23 @@
         <v>28801.84935730743</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J40" t="n">
-        <v>140</v>
-      </c>
-      <c r="K40" t="n">
-        <v>139</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2152,26 +2034,23 @@
         <v>28801.84935730743</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J41" t="n">
-        <v>140</v>
-      </c>
-      <c r="K41" t="n">
-        <v>139</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2196,26 +2075,23 @@
         <v>28805.84935730743</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J42" t="n">
-        <v>140</v>
-      </c>
-      <c r="K42" t="n">
-        <v>139</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2240,24 +2116,23 @@
         <v>23070.61825730743</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>139</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>140.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>139</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2282,26 +2157,23 @@
         <v>23070.61825730743</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>140.7</v>
       </c>
       <c r="J44" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>139</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2328,22 +2200,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>139</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>139</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2368,26 +2237,21 @@
         <v>23327.69535730742</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>139</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2414,22 +2278,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>139</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>139</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2454,24 +2315,23 @@
         <v>12806.10795730742</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>139</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>140.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>139</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2496,24 +2356,23 @@
         <v>12806.10795730742</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>139</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>140.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>139</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2538,26 +2397,23 @@
         <v>21353.53915730742</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>140.5</v>
       </c>
       <c r="J50" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>139</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2582,26 +2438,21 @@
         <v>21347.92515730742</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K51" t="n">
-        <v>139</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2626,26 +2477,23 @@
         <v>22412.88845730742</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J52" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="K52" t="n">
-        <v>139</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2670,26 +2518,21 @@
         <v>22152.81045730742</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K53" t="n">
-        <v>139</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2714,26 +2557,23 @@
         <v>21602.64545730742</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>140.7</v>
       </c>
       <c r="J54" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="K54" t="n">
-        <v>139</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2758,26 +2598,23 @@
         <v>21602.64545730742</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>140.6</v>
       </c>
       <c r="J55" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>139</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2802,24 +2639,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>139</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>140.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>139</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2844,26 +2680,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J57" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K57" t="n">
-        <v>139</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2888,26 +2721,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J58" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K58" t="n">
-        <v>139</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2932,26 +2762,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J59" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K59" t="n">
-        <v>139</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2976,26 +2803,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J60" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K60" t="n">
-        <v>139</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3020,26 +2844,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J61" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K61" t="n">
-        <v>139</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3064,26 +2885,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J62" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K62" t="n">
-        <v>139</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3108,26 +2926,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J63" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K63" t="n">
-        <v>139</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3152,26 +2967,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J64" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K64" t="n">
-        <v>139</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3196,24 +3008,23 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>139</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>140.9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>139</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3240,22 +3051,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>139</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>139</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3282,22 +3090,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>139</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>139</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3324,22 +3129,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>139</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>139</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3364,24 +3166,23 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>139</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J69" t="n">
+        <v>139</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3406,24 +3207,23 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>139</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J70" t="n">
+        <v>139</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3448,24 +3248,23 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>139</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J71" t="n">
+        <v>139</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3490,24 +3289,23 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>139</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J72" t="n">
+        <v>139</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3532,24 +3330,23 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>139</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J73" t="n">
+        <v>139</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3574,24 +3371,23 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>139</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J74" t="n">
+        <v>139</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3618,22 +3414,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>139</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>139</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3660,22 +3453,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>139</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>139</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3702,22 +3492,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>139</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>139</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3742,24 +3529,23 @@
         <v>35323.17765730742</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>139</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="J78" t="n">
+        <v>139</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3784,26 +3570,23 @@
         <v>35323.17765730742</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J79" t="n">
-        <v>142</v>
-      </c>
-      <c r="K79" t="n">
-        <v>139</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3828,24 +3611,23 @@
         <v>44331.96395730742</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>139</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="J80" t="n">
+        <v>139</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3870,26 +3652,23 @@
         <v>50331.96395730742</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>142.4</v>
       </c>
       <c r="J81" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>139</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3914,24 +3693,23 @@
         <v>50331.96395730742</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>139</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="J82" t="n">
+        <v>139</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3956,24 +3734,23 @@
         <v>60331.96395730742</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>139</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="J83" t="n">
+        <v>139</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3998,24 +3775,23 @@
         <v>49906.23925730742</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>139</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>144.5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>139</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4040,24 +3816,23 @@
         <v>59922.63345730743</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>139</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>142.3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>139</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4082,24 +3857,23 @@
         <v>59932.63345730743</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>139</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>142.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>139</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4126,22 +3900,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>139</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>139</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4168,22 +3939,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>139</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>139</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4208,24 +3976,23 @@
         <v>59560.48415730742</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>139</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>144.3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>139</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4250,24 +4017,23 @@
         <v>59886.23615730742</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>139</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>142.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>139</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4292,24 +4058,23 @@
         <v>60355.53465730742</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>139</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>142.6</v>
+      </c>
+      <c r="J91" t="n">
+        <v>139</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4334,24 +4099,23 @@
         <v>58355.53465730742</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>139</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>143</v>
+      </c>
+      <c r="J92" t="n">
+        <v>139</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4376,24 +4140,23 @@
         <v>24754.09715730742</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>139</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>142.4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>139</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4418,24 +4181,23 @@
         <v>25232.29425730742</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>139</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>141.7</v>
+      </c>
+      <c r="J94" t="n">
+        <v>139</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4462,22 +4224,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>139</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>139</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4502,24 +4261,23 @@
         <v>26802.21225730742</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>139</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>142.6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>139</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4544,24 +4302,23 @@
         <v>26036.53555730742</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>139</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>142.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>139</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4586,24 +4343,23 @@
         <v>24375.53075730742</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>139</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="J98" t="n">
+        <v>139</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4628,24 +4384,23 @@
         <v>24375.53075730742</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>139</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>141.9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>139</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4670,24 +4425,23 @@
         <v>29437.40915730743</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>139</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>141.9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>139</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4712,24 +4466,23 @@
         <v>22020.69685730743</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>139</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="J101" t="n">
+        <v>139</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4754,24 +4507,23 @@
         <v>26119.07625730742</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>139</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>141.9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>139</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4796,24 +4548,23 @@
         <v>26119.07625730742</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>139</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="J103" t="n">
+        <v>139</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4838,24 +4589,23 @@
         <v>20860.74985730743</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>139</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="J104" t="n">
+        <v>139</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4880,26 +4630,23 @@
         <v>21335.74985730743</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J105" t="n">
-        <v>141</v>
-      </c>
-      <c r="K105" t="n">
-        <v>139</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4924,26 +4671,23 @@
         <v>21972.04225730742</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J106" t="n">
-        <v>142</v>
-      </c>
-      <c r="K106" t="n">
-        <v>139</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4968,24 +4712,23 @@
         <v>21748.97535730742</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>139</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>142.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>139</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5010,24 +4753,23 @@
         <v>26155.81725730742</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>139</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>142.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>139</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5052,24 +4794,23 @@
         <v>31547.56825730742</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>139</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>142.4</v>
+      </c>
+      <c r="J109" t="n">
+        <v>139</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5094,24 +4835,23 @@
         <v>31547.56825730742</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>139</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>142.5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>139</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5138,22 +4878,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>139</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>139</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5180,22 +4917,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>139</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>139</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5222,22 +4956,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>139</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>139</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5264,22 +4995,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>139</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>139</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5306,22 +5034,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>139</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>139</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5346,24 +5071,23 @@
         <v>7631.226157307423</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>139</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>142.5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>139</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5388,24 +5112,23 @@
         <v>7631.226157307423</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>139</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>143.9</v>
+      </c>
+      <c r="J117" t="n">
+        <v>139</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5432,22 +5155,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>139</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>139</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5472,24 +5192,23 @@
         <v>6719.630957307423</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>139</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>143.8</v>
+      </c>
+      <c r="J119" t="n">
+        <v>139</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5516,22 +5235,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>139</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>139</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5558,22 +5274,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>139</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>139</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5600,22 +5313,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>139</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>139</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5642,22 +5352,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>139</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>139</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5684,22 +5391,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>139</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>139</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5726,22 +5430,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>139</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>139</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5768,22 +5469,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>139</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>139</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5810,22 +5508,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>139</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>139</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5852,22 +5547,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>139</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>139</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5894,22 +5586,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>139</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>139</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5936,22 +5625,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>139</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>139</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5978,22 +5664,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>139</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>139</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6020,22 +5703,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>139</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>139</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6062,22 +5742,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>139</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>139</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6104,22 +5781,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>139</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>139</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6146,22 +5820,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>139</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>139</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6188,22 +5859,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>139</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>139</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6230,22 +5898,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>139</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>139</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6272,22 +5937,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>139</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>139</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6314,22 +5976,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>139</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>139</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6356,22 +6015,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>139</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>139</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6398,22 +6054,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>139</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>139</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6440,22 +6093,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>139</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>139</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6482,22 +6132,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>139</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>139</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6524,22 +6171,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>139</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>139</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6566,22 +6210,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>139</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>139</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6608,22 +6249,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>139</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>139</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6650,22 +6288,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>139</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>139</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6692,22 +6327,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>139</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>139</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6734,22 +6366,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>139</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>139</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6776,22 +6405,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>139</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>139</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6818,22 +6444,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>139</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>139</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6860,22 +6483,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>139</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>139</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6902,22 +6522,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>139</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>139</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6944,22 +6561,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>139</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>139</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6986,22 +6600,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>139</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>139</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7028,22 +6639,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>139</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>139</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7070,22 +6678,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>139</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>139</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7110,24 +6715,23 @@
         <v>169015.9032090085</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>139</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>139</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1.072697841726619</v>
       </c>
       <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>1.003597122302158</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7152,24 +6756,15 @@
         <v>165265.9032090085</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>139</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7194,24 +6789,15 @@
         <v>167433.0658090085</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>139</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7238,22 +6824,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>139</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7280,22 +6857,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>139</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7322,22 +6890,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>139</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7364,24 +6923,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>139</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1.069820143884892</v>
-      </c>
-      <c r="N164" t="n">
-        <v>1.003597122302158</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7408,16 +6956,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7444,16 +6989,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7480,16 +7022,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7516,16 +7055,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7552,16 +7088,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7586,18 +7119,15 @@
         <v>169271.7292090085</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7624,16 +7154,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7658,18 +7185,15 @@
         <v>169271.7292090085</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7696,16 +7220,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7732,16 +7253,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7768,16 +7286,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7804,16 +7319,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7840,16 +7352,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7874,18 +7383,15 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7910,18 +7416,15 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7946,18 +7449,15 @@
         <v>170147.2239573074</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7982,18 +7482,15 @@
         <v>183172.9109573074</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8018,18 +7515,15 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8054,18 +7548,15 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8092,16 +7583,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8128,16 +7616,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8164,16 +7649,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8200,16 +7682,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8236,16 +7715,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8272,16 +7748,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8306,18 +7779,15 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8342,18 +7812,15 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8380,16 +7847,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8416,16 +7880,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8452,16 +7913,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8488,16 +7946,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8524,16 +7979,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8558,18 +8010,15 @@
         <v>141774.0480573074</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8596,16 +8045,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8632,16 +8078,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8668,16 +8111,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8704,16 +8144,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8738,18 +8175,15 @@
         <v>151515.1498573074</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8774,18 +8208,15 @@
         <v>151734.6785573074</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8810,18 +8241,15 @@
         <v>151818.2942573074</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8848,16 +8276,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8884,16 +8309,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8920,16 +8342,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8956,16 +8375,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8990,18 +8406,15 @@
         <v>147168.2703573074</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9028,16 +8441,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9064,16 +8474,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9098,20 +8505,17 @@
         <v>147901.9828573074</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>139</v>
@@ -521,7 +521,7 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>139</v>
@@ -562,7 +562,7 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>139</v>
@@ -603,7 +603,7 @@
         <v>43115.06125730742</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>139</v>
@@ -640,7 +640,7 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>139</v>
@@ -681,7 +681,7 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>139.5</v>
@@ -722,7 +722,7 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>139.5</v>
@@ -763,7 +763,7 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>139.5</v>
@@ -804,7 +804,7 @@
         <v>49474.66925730743</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>139.5</v>
@@ -845,7 +845,7 @@
         <v>49904.44905730742</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>139.5</v>
@@ -886,7 +886,7 @@
         <v>49904.44905730742</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>139.8</v>
@@ -927,7 +927,7 @@
         <v>49904.44905730742</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>139.8</v>
@@ -968,7 +968,7 @@
         <v>45904.44905730742</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>139.8</v>
@@ -1009,7 +1009,7 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>139.5</v>
@@ -1050,7 +1050,7 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>139.8</v>
@@ -1091,7 +1091,7 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>139.8</v>
@@ -1132,7 +1132,7 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>139.8</v>
@@ -1173,7 +1173,7 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>139.8</v>
@@ -1214,7 +1214,7 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>139.8</v>
@@ -1255,7 +1255,7 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>139.8</v>
@@ -1296,7 +1296,7 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>140</v>
@@ -1337,11 +1337,9 @@
         <v>42479.82625730742</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>139</v>
       </c>
@@ -1378,11 +1376,9 @@
         <v>42525.74885730742</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>138.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>139</v>
       </c>
@@ -1419,11 +1415,9 @@
         <v>42732.20565730742</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>139</v>
       </c>
@@ -1460,11 +1454,9 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>139</v>
       </c>
@@ -1501,7 +1493,7 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>138.2</v>
@@ -1542,7 +1534,7 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>138.2</v>
@@ -1583,7 +1575,7 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>138.2</v>
@@ -1624,7 +1616,7 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>139</v>
@@ -1665,7 +1657,7 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>139</v>
@@ -1706,7 +1698,7 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>139</v>
@@ -1747,7 +1739,7 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>139</v>
@@ -1788,7 +1780,7 @@
         <v>47216.92265730742</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>139</v>
@@ -1829,7 +1821,7 @@
         <v>47078.25145730742</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>139.9</v>
@@ -1870,7 +1862,7 @@
         <v>52281.06585730743</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>139.1</v>
@@ -1911,7 +1903,7 @@
         <v>28285.69455730743</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>139.9</v>
@@ -1952,11 +1944,9 @@
         <v>28801.84935730743</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>139.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>139</v>
       </c>
@@ -1993,11 +1983,9 @@
         <v>28801.84935730743</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>139</v>
       </c>
@@ -2034,11 +2022,9 @@
         <v>28801.84935730743</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>139</v>
       </c>
@@ -2075,11 +2061,9 @@
         <v>28805.84935730743</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>139</v>
       </c>
@@ -2116,11 +2100,9 @@
         <v>23070.61825730743</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>139</v>
       </c>
@@ -2157,11 +2139,9 @@
         <v>23070.61825730743</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>140.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>139</v>
       </c>
@@ -2315,7 +2295,7 @@
         <v>12806.10795730742</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>140.5</v>
@@ -2356,7 +2336,7 @@
         <v>12806.10795730742</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>140.5</v>
@@ -2397,7 +2377,7 @@
         <v>21353.53915730742</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>140.5</v>
@@ -2438,9 +2418,11 @@
         <v>21347.92515730742</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>140.9</v>
+      </c>
       <c r="J51" t="n">
         <v>139</v>
       </c>
@@ -2477,7 +2459,7 @@
         <v>22412.88845730742</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>139.8</v>
@@ -2557,7 +2539,7 @@
         <v>21602.64545730742</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>140.7</v>
@@ -2598,11 +2580,9 @@
         <v>21602.64545730742</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>140.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>139</v>
       </c>
@@ -2639,11 +2619,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>140.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>139</v>
       </c>
@@ -2680,11 +2658,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>139</v>
       </c>
@@ -2721,11 +2697,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>139</v>
       </c>
@@ -2762,11 +2736,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>139</v>
       </c>
@@ -2803,11 +2775,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>139</v>
       </c>
@@ -2844,11 +2814,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>139</v>
       </c>
@@ -2885,11 +2853,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>139</v>
       </c>
@@ -2926,11 +2892,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>139</v>
       </c>
@@ -2967,11 +2931,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>139</v>
       </c>
@@ -3008,11 +2970,9 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>139</v>
       </c>
@@ -3166,11 +3126,9 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>139</v>
       </c>
@@ -3207,11 +3165,9 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>139</v>
       </c>
@@ -3248,11 +3204,9 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>139</v>
       </c>
@@ -3289,11 +3243,9 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>139</v>
       </c>
@@ -3330,11 +3282,9 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>139</v>
       </c>
@@ -3371,11 +3321,9 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>139</v>
       </c>
@@ -3529,11 +3477,9 @@
         <v>35323.17765730742</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>139</v>
       </c>
@@ -3570,11 +3516,9 @@
         <v>35323.17765730742</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>139</v>
       </c>
@@ -3611,11 +3555,9 @@
         <v>44331.96395730742</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>139</v>
       </c>
@@ -3652,11 +3594,9 @@
         <v>50331.96395730742</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>142.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>139</v>
       </c>
@@ -3693,11 +3633,9 @@
         <v>50331.96395730742</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>139</v>
       </c>
@@ -3734,11 +3672,9 @@
         <v>60331.96395730742</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>139</v>
       </c>
@@ -3775,11 +3711,9 @@
         <v>49906.23925730742</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>144.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>139</v>
       </c>
@@ -3816,11 +3750,9 @@
         <v>59922.63345730743</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>142.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>139</v>
       </c>
@@ -3857,11 +3789,9 @@
         <v>59932.63345730743</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>142.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>139</v>
       </c>
@@ -3976,11 +3906,9 @@
         <v>59560.48415730742</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>144.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>139</v>
       </c>
@@ -4017,11 +3945,9 @@
         <v>59886.23615730742</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>142.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>139</v>
       </c>
@@ -4058,11 +3984,9 @@
         <v>60355.53465730742</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>142.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>139</v>
       </c>
@@ -4099,11 +4023,9 @@
         <v>58355.53465730742</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>139</v>
       </c>
@@ -4140,11 +4062,9 @@
         <v>24754.09715730742</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>142.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>139</v>
       </c>
@@ -4181,11 +4101,9 @@
         <v>25232.29425730742</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>141.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>139</v>
       </c>
@@ -4261,11 +4179,9 @@
         <v>26802.21225730742</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>142.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>139</v>
       </c>
@@ -4302,11 +4218,9 @@
         <v>26036.53555730742</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>142.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>139</v>
       </c>
@@ -4343,11 +4257,9 @@
         <v>24375.53075730742</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>139</v>
       </c>
@@ -4384,11 +4296,9 @@
         <v>24375.53075730742</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>141.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>139</v>
       </c>
@@ -4425,7 +4335,7 @@
         <v>29437.40915730743</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>141.9</v>
@@ -4466,7 +4376,7 @@
         <v>22020.69685730743</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>142</v>
@@ -4507,7 +4417,7 @@
         <v>26119.07625730742</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>141.9</v>
@@ -4548,7 +4458,7 @@
         <v>26119.07625730742</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>142</v>
@@ -4589,7 +4499,7 @@
         <v>20860.74985730743</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>142</v>
@@ -4630,7 +4540,7 @@
         <v>21335.74985730743</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>141</v>
@@ -4671,7 +4581,7 @@
         <v>21972.04225730742</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>142</v>
@@ -4712,7 +4622,7 @@
         <v>21748.97535730742</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>142.4</v>
@@ -4753,7 +4663,7 @@
         <v>26155.81725730742</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>142.3</v>
@@ -4794,11 +4704,9 @@
         <v>31547.56825730742</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>142.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>139</v>
       </c>
@@ -4835,11 +4743,9 @@
         <v>31547.56825730742</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>142.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>139</v>
       </c>
@@ -4876,9 +4782,11 @@
         <v>31672.56825730742</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>142.5</v>
+      </c>
       <c r="J111" t="n">
         <v>139</v>
       </c>
@@ -4915,9 +4823,11 @@
         <v>-8576.014442692576</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>144.6</v>
+      </c>
       <c r="J112" t="n">
         <v>139</v>
       </c>
@@ -5071,11 +4981,9 @@
         <v>7631.226157307423</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>142.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>139</v>
       </c>
@@ -5112,11 +5020,9 @@
         <v>7631.226157307423</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>139</v>
       </c>
@@ -5192,11 +5098,9 @@
         <v>6719.630957307423</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>143.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>139</v>
       </c>
@@ -5233,9 +5137,11 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>142.3</v>
+      </c>
       <c r="J120" t="n">
         <v>139</v>
       </c>
@@ -5272,9 +5178,11 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>144</v>
+      </c>
       <c r="J121" t="n">
         <v>139</v>
       </c>
@@ -5350,9 +5258,11 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>144</v>
+      </c>
       <c r="J123" t="n">
         <v>139</v>
       </c>
@@ -6715,7 +6625,7 @@
         <v>169015.9032090085</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
@@ -6723,15 +6633,13 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.072697841726619</v>
-      </c>
-      <c r="M158" t="n">
-        <v>1.003597122302158</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6756,11 +6664,17 @@
         <v>165265.9032090085</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>139</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6789,11 +6703,17 @@
         <v>167433.0658090085</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>139</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6825,8 +6745,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>139</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6858,8 +6784,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>139</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6891,8 +6823,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>139</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6924,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>139</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6957,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>139</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6990,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>139</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7023,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>139</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7056,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>139</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>139</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7119,11 +7093,17 @@
         <v>169271.7292090085</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>139</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7155,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>139</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7185,11 +7171,17 @@
         <v>169271.7292090085</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>139</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7221,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>139</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7254,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>139</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7287,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>139</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7320,8 +7330,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>139</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7353,8 +7369,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>139</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7383,15 +7405,23 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>139</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>1.074856115107914</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.003597122302158</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7416,7 +7446,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7449,7 +7479,7 @@
         <v>170147.2239573074</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7482,7 +7512,7 @@
         <v>183172.9109573074</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7515,7 +7545,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7548,7 +7578,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7581,7 +7611,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7614,7 +7644,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7779,7 +7809,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7812,7 +7842,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7845,7 +7875,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7878,7 +7908,7 @@
         <v>162122.8271573074</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7977,7 +8007,7 @@
         <v>140749.2544573074</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8010,7 +8040,7 @@
         <v>141774.0480573074</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8043,7 +8073,7 @@
         <v>141591.0187573074</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8076,7 +8106,7 @@
         <v>141647.7930573074</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8109,7 +8139,7 @@
         <v>144746.0926573074</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8175,7 +8205,7 @@
         <v>151515.1498573074</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8208,7 +8238,7 @@
         <v>151734.6785573074</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8241,7 +8271,7 @@
         <v>151818.2942573074</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8274,7 +8304,7 @@
         <v>151646.9976573074</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8373,7 +8403,7 @@
         <v>143319.1939573074</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8406,7 +8436,7 @@
         <v>147168.2703573074</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8439,7 +8469,7 @@
         <v>147970.6088573074</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8472,7 +8502,7 @@
         <v>147970.6088573074</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8505,7 +8535,7 @@
         <v>147901.9828573074</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8516,6 +8546,6 @@
       <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1214,11 +1214,9 @@
         <v>49707.24815730742</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>139.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>139</v>
       </c>
@@ -1255,11 +1253,9 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>139.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>139</v>
       </c>
@@ -1296,11 +1292,9 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>139</v>
       </c>
@@ -1493,11 +1487,9 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>138.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>139</v>
       </c>
@@ -1534,11 +1526,9 @@
         <v>42463.31555730742</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>138.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>139</v>
       </c>
@@ -1575,11 +1565,9 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>138.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>139</v>
       </c>
@@ -1616,11 +1604,9 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>139</v>
       </c>
@@ -1657,11 +1643,9 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>139</v>
       </c>
@@ -1698,11 +1682,9 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>139</v>
       </c>
@@ -1739,11 +1721,9 @@
         <v>44826.92265730742</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>139</v>
       </c>
@@ -1780,11 +1760,9 @@
         <v>47216.92265730742</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>139</v>
       </c>
@@ -1821,11 +1799,9 @@
         <v>47078.25145730742</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>139</v>
       </c>
@@ -1862,11 +1838,9 @@
         <v>52281.06585730743</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>139.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>139</v>
       </c>
@@ -1903,11 +1877,9 @@
         <v>28285.69455730743</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>139</v>
       </c>
@@ -2295,11 +2267,9 @@
         <v>12806.10795730742</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>140.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>139</v>
       </c>
@@ -2336,11 +2306,9 @@
         <v>12806.10795730742</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>140.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>139</v>
       </c>
@@ -2377,11 +2345,9 @@
         <v>21353.53915730742</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>140.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>139</v>
       </c>
@@ -2418,11 +2384,9 @@
         <v>21347.92515730742</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>139</v>
       </c>
@@ -2459,11 +2423,9 @@
         <v>22412.88845730742</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>139.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>139</v>
       </c>
@@ -2539,11 +2501,9 @@
         <v>21602.64545730742</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>140.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>139</v>
       </c>
@@ -3672,7 +3632,7 @@
         <v>60331.96395730742</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
@@ -3680,11 +3640,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>1.034568345323741</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3711,17 +3671,11 @@
         <v>49906.23925730742</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>139</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3750,17 +3704,11 @@
         <v>59922.63345730743</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>139</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3789,17 +3737,11 @@
         <v>59932.63345730743</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>139</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3828,17 +3770,11 @@
         <v>56601.09265730742</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>139</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3867,17 +3803,11 @@
         <v>61840.31685730742</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>139</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3906,17 +3836,11 @@
         <v>59560.48415730742</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>139</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3945,17 +3869,11 @@
         <v>59886.23615730742</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>139</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3984,17 +3902,11 @@
         <v>60355.53465730742</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>139</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4023,17 +3935,11 @@
         <v>58355.53465730742</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>139</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4065,14 +3971,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>139</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4104,14 +4004,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>139</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4143,14 +4037,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>139</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4182,14 +4070,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>139</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4221,14 +4103,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>139</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4260,14 +4136,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>139</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4299,14 +4169,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>139</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4335,19 +4199,11 @@
         <v>29437.40915730743</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>139</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4376,19 +4232,11 @@
         <v>22020.69685730743</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>142</v>
-      </c>
-      <c r="J101" t="n">
-        <v>139</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4417,19 +4265,11 @@
         <v>26119.07625730742</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="J102" t="n">
-        <v>139</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4458,19 +4298,11 @@
         <v>26119.07625730742</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>142</v>
-      </c>
-      <c r="J103" t="n">
-        <v>139</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4499,19 +4331,11 @@
         <v>20860.74985730743</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>142</v>
-      </c>
-      <c r="J104" t="n">
-        <v>139</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4540,19 +4364,11 @@
         <v>21335.74985730743</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>141</v>
-      </c>
-      <c r="J105" t="n">
-        <v>139</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4581,19 +4397,11 @@
         <v>21972.04225730742</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>142</v>
-      </c>
-      <c r="J106" t="n">
-        <v>139</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4622,19 +4430,11 @@
         <v>21748.97535730742</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="J107" t="n">
-        <v>139</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4663,19 +4463,11 @@
         <v>26155.81725730742</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>139</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4707,14 +4499,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>139</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4746,14 +4532,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>139</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4782,19 +4562,11 @@
         <v>31672.56825730742</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>139</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4823,19 +4595,11 @@
         <v>-8576.014442692576</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>144.6</v>
-      </c>
-      <c r="J112" t="n">
-        <v>139</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4864,17 +4628,11 @@
         <v>1349.726157307423</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>139</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4903,17 +4661,11 @@
         <v>1339.726157307423</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>139</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4697,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>139</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4984,14 +4730,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>139</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4763,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>139</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>139</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5098,17 +4826,11 @@
         <v>6719.630957307423</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>139</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5137,19 +4859,11 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>139</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5178,19 +4892,11 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>144</v>
-      </c>
-      <c r="J121" t="n">
-        <v>139</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5219,17 +4925,11 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>139</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5258,19 +4958,11 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>144</v>
-      </c>
-      <c r="J123" t="n">
-        <v>139</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5299,17 +4991,11 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>139</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5338,17 +5024,11 @@
         <v>24778.39885730742</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>139</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5377,17 +5057,11 @@
         <v>24778.39885730742</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>139</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5416,17 +5090,11 @@
         <v>59593.85225730742</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>139</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +5126,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>139</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5497,14 +5159,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>139</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5536,14 +5192,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>139</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5575,14 +5225,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>139</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +5258,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>139</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5653,14 +5291,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>139</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5692,14 +5324,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>139</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5731,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>139</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5770,14 +5390,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>139</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5809,14 +5423,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>139</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5848,14 +5456,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>139</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5887,14 +5489,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>139</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5926,14 +5522,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>139</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5965,14 +5555,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>139</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6004,14 +5588,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>139</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6043,14 +5621,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>139</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6082,14 +5654,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>139</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6118,17 +5684,11 @@
         <v>105429.8496573074</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>139</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6157,17 +5717,11 @@
         <v>110434.8496573074</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>139</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6199,14 +5753,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>139</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6238,14 +5786,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>139</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6277,14 +5819,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>139</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6316,14 +5852,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>139</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6355,14 +5885,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>139</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6394,14 +5918,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>139</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6433,14 +5951,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>139</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6472,14 +5984,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>139</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6511,14 +6017,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>139</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6550,14 +6050,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>139</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +6083,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>139</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6628,14 +6116,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>139</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +6149,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>139</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6706,14 +6182,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>139</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6745,14 +6215,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>139</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6784,14 +6248,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>139</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6823,14 +6281,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>139</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6862,14 +6314,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>139</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6901,14 +6347,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>139</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6940,14 +6380,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>139</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6413,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>139</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7018,14 +6446,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>139</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +6479,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>139</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>139</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7135,14 +6545,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>139</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7174,14 +6578,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>139</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7213,14 +6611,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>139</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7252,14 +6644,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>139</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7291,14 +6677,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>139</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7330,14 +6710,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>139</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +6743,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>139</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7405,23 +6773,15 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>139</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>1.074856115107914</v>
-      </c>
-      <c r="M178" t="n">
-        <v>1.003597122302158</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7446,7 +6806,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7479,7 +6839,7 @@
         <v>170147.2239573074</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7512,7 +6872,7 @@
         <v>183172.9109573074</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7545,7 +6905,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7578,7 +6938,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7611,7 +6971,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7644,7 +7004,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7875,7 +7235,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7908,7 +7268,7 @@
         <v>162122.8271573074</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -8007,7 +7367,7 @@
         <v>140749.2544573074</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8040,7 +7400,7 @@
         <v>141774.0480573074</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8073,7 +7433,7 @@
         <v>141591.0187573074</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8106,7 +7466,7 @@
         <v>141647.7930573074</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8139,7 +7499,7 @@
         <v>144746.0926573074</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8205,7 +7565,7 @@
         <v>151515.1498573074</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8238,7 +7598,7 @@
         <v>151734.6785573074</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8271,7 +7631,7 @@
         <v>151818.2942573074</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8304,7 +7664,7 @@
         <v>151646.9976573074</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8403,7 +7763,7 @@
         <v>143319.1939573074</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8436,7 +7796,7 @@
         <v>147168.2703573074</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8469,7 +7829,7 @@
         <v>147970.6088573074</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8502,7 +7862,7 @@
         <v>147970.6088573074</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8535,7 +7895,7 @@
         <v>147901.9828573074</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8546,6 +7906,6 @@
       <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -968,11 +968,9 @@
         <v>45904.44905730742</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>139.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>139</v>
       </c>
@@ -1253,9 +1251,11 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>139.8</v>
+      </c>
       <c r="J22" t="n">
         <v>139</v>
       </c>
@@ -1292,9 +1292,11 @@
         <v>65423.06685730742</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>140</v>
+      </c>
       <c r="J23" t="n">
         <v>139</v>
       </c>
@@ -2345,9 +2347,11 @@
         <v>21353.53915730742</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>140.5</v>
+      </c>
       <c r="J50" t="n">
         <v>139</v>
       </c>
@@ -2423,9 +2427,11 @@
         <v>22412.88845730742</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>139.8</v>
+      </c>
       <c r="J52" t="n">
         <v>139</v>
       </c>
@@ -2579,9 +2585,11 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>140.6</v>
+      </c>
       <c r="J56" t="n">
         <v>139</v>
       </c>
@@ -2657,9 +2665,11 @@
         <v>27189.34145730742</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>140.9</v>
+      </c>
       <c r="J58" t="n">
         <v>139</v>
       </c>
@@ -3125,9 +3135,11 @@
         <v>29249.34145730742</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>141</v>
+      </c>
       <c r="J70" t="n">
         <v>139</v>
       </c>
@@ -3515,9 +3527,11 @@
         <v>44331.96395730742</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>142</v>
+      </c>
       <c r="J80" t="n">
         <v>139</v>
       </c>
@@ -3632,7 +3646,7 @@
         <v>60331.96395730742</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
@@ -3640,11 +3654,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.034568345323741</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3671,11 +3685,17 @@
         <v>49906.23925730742</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>139</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3704,11 +3724,17 @@
         <v>59922.63345730743</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>139</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3737,11 +3763,17 @@
         <v>59932.63345730743</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>139</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3770,11 +3802,17 @@
         <v>56601.09265730742</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>139</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3841,17 @@
         <v>61840.31685730742</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>139</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3880,17 @@
         <v>59560.48415730742</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>139</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3869,11 +3919,17 @@
         <v>59886.23615730742</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>139</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +3958,17 @@
         <v>60355.53465730742</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>139</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3935,11 +3997,17 @@
         <v>58355.53465730742</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>139</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3971,8 +4039,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>139</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4004,8 +4078,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>139</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4037,8 +4117,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>139</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4070,8 +4156,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>139</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4103,8 +4195,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>139</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4136,8 +4234,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>139</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4169,8 +4273,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>139</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4202,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>139</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4235,8 +4351,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>139</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4268,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>139</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4301,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>139</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4334,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>139</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4367,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>139</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4400,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>139</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4433,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>139</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4466,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>139</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4499,8 +4663,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>139</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4532,8 +4702,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>139</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4565,8 +4741,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>139</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4598,8 +4780,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>139</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4628,11 +4816,17 @@
         <v>1349.726157307423</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>139</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4661,11 +4855,17 @@
         <v>1339.726157307423</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>139</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4697,8 +4897,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>139</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4730,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>139</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4763,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>139</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4796,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>139</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +5050,17 @@
         <v>6719.630957307423</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>139</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4859,11 +5089,17 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>139</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4892,11 +5128,17 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>139</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4925,11 +5167,17 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>139</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4958,11 +5206,17 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>139</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4991,11 +5245,17 @@
         <v>7114.399257307423</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>139</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +5284,17 @@
         <v>24778.39885730742</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>139</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5057,11 +5323,17 @@
         <v>24778.39885730742</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>139</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5090,11 +5362,17 @@
         <v>59593.85225730742</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>139</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5126,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>139</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5159,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>139</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5192,8 +5482,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>139</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5225,8 +5521,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>139</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5258,8 +5560,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>139</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5291,8 +5599,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>139</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5324,8 +5638,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>139</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +5677,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>139</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5390,8 +5716,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>139</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5423,8 +5755,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>139</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5456,8 +5794,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>139</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5489,8 +5833,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>139</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5522,8 +5872,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>139</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5555,8 +5911,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>139</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5588,8 +5950,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>139</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5621,8 +5989,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>139</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5654,8 +6028,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>139</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5684,11 +6064,17 @@
         <v>105429.8496573074</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>139</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5717,11 +6103,17 @@
         <v>110434.8496573074</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>139</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5753,8 +6145,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>139</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5786,8 +6184,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>139</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5819,8 +6223,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>139</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5852,8 +6262,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>139</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5885,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>139</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5918,8 +6340,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>139</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5951,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>139</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5984,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>139</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6017,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>139</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6050,8 +6496,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>139</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6083,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>139</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6116,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>139</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6149,8 +6613,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>139</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6182,8 +6652,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>139</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6215,8 +6691,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>139</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6248,8 +6730,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>139</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6281,8 +6769,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>139</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6314,8 +6808,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>139</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6347,8 +6847,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>139</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6380,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>139</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6413,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>139</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6446,8 +6964,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>139</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6479,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>139</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>139</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6545,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>139</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6578,8 +7120,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>139</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6611,8 +7159,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>139</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6644,8 +7198,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>139</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6677,8 +7237,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>139</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6707,15 +7273,23 @@
         <v>171484.0073090085</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>139</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>1.07341726618705</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.003597122302158</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6740,7 +7314,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6773,7 +7347,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6806,7 +7380,7 @@
         <v>184573.2239573074</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6839,7 +7413,7 @@
         <v>170147.2239573074</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6872,7 +7446,7 @@
         <v>183172.9109573074</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6905,7 +7479,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6938,7 +7512,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6971,7 +7545,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7004,7 +7578,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7037,7 +7611,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7070,7 +7644,7 @@
         <v>166330.1582573074</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7103,7 +7677,7 @@
         <v>166823.5235573074</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7136,7 +7710,7 @@
         <v>167567.8785573074</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7169,7 +7743,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7202,7 +7776,7 @@
         <v>155142.4826573074</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7301,7 +7875,7 @@
         <v>161913.5280573074</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7334,7 +7908,7 @@
         <v>161913.5280573074</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7367,7 +7941,7 @@
         <v>140749.2544573074</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7400,7 +7974,7 @@
         <v>141774.0480573074</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>

--- a/BackTest/2020-01-15 BackTest ICX.xlsx
+++ b/BackTest/2020-01-15 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2106.56</v>
       </c>
       <c r="G2" t="n">
-        <v>43115.06125730742</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>1346.4039</v>
       </c>
       <c r="G3" t="n">
-        <v>43115.06125730742</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I3" t="n">
         <v>139</v>
       </c>
-      <c r="J3" t="n">
-        <v>139</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>2109</v>
       </c>
       <c r="G4" t="n">
-        <v>43115.06125730742</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I4" t="n">
         <v>139</v>
       </c>
-      <c r="J4" t="n">
-        <v>139</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>810.0361</v>
       </c>
       <c r="G5" t="n">
-        <v>43115.06125730742</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I5" t="n">
         <v>139</v>
       </c>
-      <c r="J5" t="n">
-        <v>139</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>52.0333</v>
       </c>
       <c r="G6" t="n">
-        <v>43115.06125730742</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I6" t="n">
         <v>139</v>
       </c>
-      <c r="J6" t="n">
-        <v>139</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>6359.608</v>
       </c>
       <c r="G7" t="n">
-        <v>49474.66925730743</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I7" t="n">
         <v>139</v>
       </c>
-      <c r="J7" t="n">
-        <v>139</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>4975.8927</v>
       </c>
       <c r="G8" t="n">
-        <v>49474.66925730743</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>139.5</v>
       </c>
       <c r="I8" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>139</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>139</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,23 @@
         <v>6569.282</v>
       </c>
       <c r="G9" t="n">
-        <v>49474.66925730743</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>139.5</v>
       </c>
       <c r="I9" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>139</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +731,23 @@
         <v>632.3330999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>49474.66925730743</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>139.5</v>
       </c>
       <c r="I10" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>139</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +769,23 @@
         <v>1414.9223</v>
       </c>
       <c r="G11" t="n">
-        <v>49474.66925730743</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>139.5</v>
       </c>
       <c r="I11" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>139</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +807,23 @@
         <v>429.7798</v>
       </c>
       <c r="G12" t="n">
-        <v>49904.44905730742</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>139.5</v>
       </c>
       <c r="I12" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>139</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,26 +845,23 @@
         <v>244.0732</v>
       </c>
       <c r="G13" t="n">
-        <v>49904.44905730742</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>139.8</v>
       </c>
       <c r="I13" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>139</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,26 +883,23 @@
         <v>10669.4848</v>
       </c>
       <c r="G14" t="n">
-        <v>49904.44905730742</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>139.8</v>
       </c>
       <c r="I14" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>139</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -965,24 +921,23 @@
         <v>4000</v>
       </c>
       <c r="G15" t="n">
-        <v>45904.44905730742</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>139</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>139.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>139</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1004,26 +959,23 @@
         <v>3802.7991</v>
       </c>
       <c r="G16" t="n">
-        <v>49707.24815730742</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>139.5</v>
       </c>
       <c r="I16" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>139</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1045,26 +997,23 @@
         <v>7736.6134</v>
       </c>
       <c r="G17" t="n">
-        <v>49707.24815730742</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>139.8</v>
       </c>
       <c r="I17" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>139</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1086,26 +1035,23 @@
         <v>4964.5444</v>
       </c>
       <c r="G18" t="n">
-        <v>49707.24815730742</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>139.8</v>
       </c>
       <c r="I18" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>139</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1127,26 +1073,23 @@
         <v>1418.1481</v>
       </c>
       <c r="G19" t="n">
-        <v>49707.24815730742</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>139.8</v>
       </c>
       <c r="I19" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>139</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1168,26 +1111,23 @@
         <v>14591.9862</v>
       </c>
       <c r="G20" t="n">
-        <v>49707.24815730742</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>139.8</v>
       </c>
       <c r="I20" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>139</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1209,24 +1149,23 @@
         <v>3857.6306</v>
       </c>
       <c r="G21" t="n">
-        <v>49707.24815730742</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>139</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>139.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>139</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1248,26 +1187,23 @@
         <v>15715.8187</v>
       </c>
       <c r="G22" t="n">
-        <v>65423.06685730742</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>139.8</v>
       </c>
       <c r="I22" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>139</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1289,26 +1225,23 @@
         <v>39209.9985</v>
       </c>
       <c r="G23" t="n">
-        <v>65423.06685730742</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="I23" t="n">
-        <v>140</v>
-      </c>
-      <c r="J23" t="n">
-        <v>139</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1330,24 +1263,23 @@
         <v>22943.2406</v>
       </c>
       <c r="G24" t="n">
-        <v>42479.82625730742</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>139</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="I24" t="n">
+        <v>139</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1369,24 +1301,23 @@
         <v>45.9226</v>
       </c>
       <c r="G25" t="n">
-        <v>42525.74885730742</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>139</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>138.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>139</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1408,24 +1339,23 @@
         <v>206.4568</v>
       </c>
       <c r="G26" t="n">
-        <v>42732.20565730742</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>139</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="I26" t="n">
+        <v>139</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1447,24 +1377,23 @@
         <v>268.8901</v>
       </c>
       <c r="G27" t="n">
-        <v>42463.31555730742</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>139</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>139.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>139</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1486,24 +1415,23 @@
         <v>1492.4644</v>
       </c>
       <c r="G28" t="n">
-        <v>42463.31555730742</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>139</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>138.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>139</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1525,24 +1453,23 @@
         <v>13115.9762</v>
       </c>
       <c r="G29" t="n">
-        <v>42463.31555730742</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>139</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>138.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>139</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1564,24 +1491,23 @@
         <v>2363.6071</v>
       </c>
       <c r="G30" t="n">
-        <v>44826.92265730742</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>139</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>138.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>139</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1603,24 +1529,23 @@
         <v>427.96</v>
       </c>
       <c r="G31" t="n">
-        <v>44826.92265730742</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>139</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="I31" t="n">
+        <v>139</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1642,24 +1567,23 @@
         <v>1125.9063</v>
       </c>
       <c r="G32" t="n">
-        <v>44826.92265730742</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>139</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="I32" t="n">
+        <v>139</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1681,24 +1605,23 @@
         <v>3009</v>
       </c>
       <c r="G33" t="n">
-        <v>44826.92265730742</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>139</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="I33" t="n">
+        <v>139</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1720,24 +1643,23 @@
         <v>912.1224999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>44826.92265730742</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>139</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="I34" t="n">
+        <v>139</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1759,24 +1681,23 @@
         <v>2390</v>
       </c>
       <c r="G35" t="n">
-        <v>47216.92265730742</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>139</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="I35" t="n">
+        <v>139</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1798,24 +1719,23 @@
         <v>138.6712</v>
       </c>
       <c r="G36" t="n">
-        <v>47078.25145730742</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>139</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>139.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>139</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1837,24 +1757,23 @@
         <v>5202.8144</v>
       </c>
       <c r="G37" t="n">
-        <v>52281.06585730743</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>139</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>139.1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>139</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1876,24 +1795,23 @@
         <v>23995.3713</v>
       </c>
       <c r="G38" t="n">
-        <v>28285.69455730743</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>139</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>139.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>139</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1915,24 +1833,21 @@
         <v>516.1548</v>
       </c>
       <c r="G39" t="n">
-        <v>28801.84935730743</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>139</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>139</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1954,24 +1869,21 @@
         <v>4420.1676</v>
       </c>
       <c r="G40" t="n">
-        <v>28801.84935730743</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>139</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>139</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1993,24 +1905,21 @@
         <v>467.803</v>
       </c>
       <c r="G41" t="n">
-        <v>28801.84935730743</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>139</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>139</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2032,24 +1941,21 @@
         <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>28805.84935730743</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>139</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>139</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2071,24 +1977,21 @@
         <v>5735.2311</v>
       </c>
       <c r="G43" t="n">
-        <v>23070.61825730743</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>139</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>139</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2110,24 +2013,21 @@
         <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>23070.61825730743</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>139</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>139</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2149,24 +2049,21 @@
         <v>688.3672</v>
       </c>
       <c r="G45" t="n">
-        <v>23070.61825730743</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>139</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>139</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2188,24 +2085,21 @@
         <v>257.0771</v>
       </c>
       <c r="G46" t="n">
-        <v>23327.69535730742</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>139</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>139</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2227,24 +2121,21 @@
         <v>10521.5874</v>
       </c>
       <c r="G47" t="n">
-        <v>12806.10795730742</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>139</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>139</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2266,24 +2157,21 @@
         <v>1300.0916</v>
       </c>
       <c r="G48" t="n">
-        <v>12806.10795730742</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>139</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>139</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2305,24 +2193,21 @@
         <v>1336.5308</v>
       </c>
       <c r="G49" t="n">
-        <v>12806.10795730742</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>139</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>139</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2344,26 +2229,21 @@
         <v>8547.431200000001</v>
       </c>
       <c r="G50" t="n">
-        <v>21353.53915730742</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>139</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2385,24 +2265,21 @@
         <v>5.614</v>
       </c>
       <c r="G51" t="n">
-        <v>21347.92515730742</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>139</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>139</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2424,26 +2301,21 @@
         <v>1064.9633</v>
       </c>
       <c r="G52" t="n">
-        <v>22412.88845730742</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>139</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2465,24 +2337,21 @@
         <v>260.078</v>
       </c>
       <c r="G53" t="n">
-        <v>22152.81045730742</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>139</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>139</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2504,24 +2373,21 @@
         <v>550.165</v>
       </c>
       <c r="G54" t="n">
-        <v>21602.64545730742</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>139</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>139</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2543,24 +2409,21 @@
         <v>7272.5059</v>
       </c>
       <c r="G55" t="n">
-        <v>21602.64545730742</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>139</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>139</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2582,26 +2445,21 @@
         <v>5586.696</v>
       </c>
       <c r="G56" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>139</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2623,24 +2481,21 @@
         <v>1193.3236</v>
       </c>
       <c r="G57" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>139</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>139</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2662,26 +2517,21 @@
         <v>332.3021</v>
       </c>
       <c r="G58" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="J58" t="n">
-        <v>139</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2703,24 +2553,21 @@
         <v>7338.2011</v>
       </c>
       <c r="G59" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>139</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>139</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2742,24 +2589,21 @@
         <v>1212.3636</v>
       </c>
       <c r="G60" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>139</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>139</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2781,24 +2625,21 @@
         <v>1385.4156</v>
       </c>
       <c r="G61" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>139</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>139</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2820,24 +2661,21 @@
         <v>439.1317</v>
       </c>
       <c r="G62" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>139</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>139</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2859,24 +2697,21 @@
         <v>3381.6771</v>
       </c>
       <c r="G63" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>139</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>139</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2898,24 +2733,21 @@
         <v>5174.5519</v>
       </c>
       <c r="G64" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>139</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>139</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2937,24 +2769,21 @@
         <v>793.2379</v>
       </c>
       <c r="G65" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>139</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>139</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2976,24 +2805,21 @@
         <v>20883.2567</v>
       </c>
       <c r="G66" t="n">
-        <v>27189.34145730742</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>139</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>139</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3015,24 +2841,21 @@
         <v>2060</v>
       </c>
       <c r="G67" t="n">
-        <v>29249.34145730742</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>139</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>139</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3054,24 +2877,21 @@
         <v>4274</v>
       </c>
       <c r="G68" t="n">
-        <v>29249.34145730742</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>139</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>139</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3093,24 +2913,21 @@
         <v>2740</v>
       </c>
       <c r="G69" t="n">
-        <v>29249.34145730742</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>139</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>139</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3132,26 +2949,21 @@
         <v>4394.3514</v>
       </c>
       <c r="G70" t="n">
-        <v>29249.34145730742</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>141</v>
-      </c>
-      <c r="J70" t="n">
-        <v>139</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3173,24 +2985,21 @@
         <v>972.7784</v>
       </c>
       <c r="G71" t="n">
-        <v>29249.34145730742</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>139</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>139</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3212,24 +3021,21 @@
         <v>2403.45</v>
       </c>
       <c r="G72" t="n">
-        <v>29249.34145730742</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>139</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>139</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3251,24 +3057,21 @@
         <v>576.0251</v>
       </c>
       <c r="G73" t="n">
-        <v>29249.34145730742</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>139</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>139</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3290,24 +3093,21 @@
         <v>2382</v>
       </c>
       <c r="G74" t="n">
-        <v>29249.34145730742</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>139</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>139</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3329,24 +3129,21 @@
         <v>5482.4302</v>
       </c>
       <c r="G75" t="n">
-        <v>34731.77165730742</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>139</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>139</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3368,24 +3165,21 @@
         <v>591.4059999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>35323.17765730742</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>139</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>139</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3407,24 +3201,21 @@
         <v>1863.9359</v>
       </c>
       <c r="G77" t="n">
-        <v>35323.17765730742</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>139</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>139</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3446,24 +3237,21 @@
         <v>1446.9275</v>
       </c>
       <c r="G78" t="n">
-        <v>35323.17765730742</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>139</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>139</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3485,24 +3273,21 @@
         <v>1247.61</v>
       </c>
       <c r="G79" t="n">
-        <v>35323.17765730742</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>139</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>139</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3524,26 +3309,21 @@
         <v>9008.7863</v>
       </c>
       <c r="G80" t="n">
-        <v>44331.96395730742</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>142</v>
-      </c>
-      <c r="J80" t="n">
-        <v>139</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3565,24 +3345,21 @@
         <v>6000</v>
       </c>
       <c r="G81" t="n">
-        <v>50331.96395730742</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>139</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>139</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3604,24 +3381,21 @@
         <v>3331.5408</v>
       </c>
       <c r="G82" t="n">
-        <v>50331.96395730742</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>139</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>139</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3643,24 +3417,21 @@
         <v>10000</v>
       </c>
       <c r="G83" t="n">
-        <v>60331.96395730742</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>139</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>139</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3682,24 +3453,21 @@
         <v>10425.7247</v>
       </c>
       <c r="G84" t="n">
-        <v>49906.23925730742</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>139</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>139</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3721,24 +3489,21 @@
         <v>10016.3942</v>
       </c>
       <c r="G85" t="n">
-        <v>59922.63345730743</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>139</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>139</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3760,24 +3525,21 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>59932.63345730743</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>139</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>139</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3799,24 +3561,21 @@
         <v>3331.5408</v>
       </c>
       <c r="G87" t="n">
-        <v>56601.09265730742</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>139</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>139</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3838,24 +3597,21 @@
         <v>5239.2242</v>
       </c>
       <c r="G88" t="n">
-        <v>61840.31685730742</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>139</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>139</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3877,24 +3633,21 @@
         <v>2279.8327</v>
       </c>
       <c r="G89" t="n">
-        <v>59560.48415730742</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>139</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>139</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3916,24 +3669,21 @@
         <v>325.752</v>
       </c>
       <c r="G90" t="n">
-        <v>59886.23615730742</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>139</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>139</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3955,24 +3705,21 @@
         <v>469.2985</v>
       </c>
       <c r="G91" t="n">
-        <v>60355.53465730742</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>139</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>139</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3994,24 +3741,21 @@
         <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>58355.53465730742</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>139</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>139</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4033,24 +3777,21 @@
         <v>33601.4375</v>
       </c>
       <c r="G93" t="n">
-        <v>24754.09715730742</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>139</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>139</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4072,24 +3813,21 @@
         <v>478.1971</v>
       </c>
       <c r="G94" t="n">
-        <v>25232.29425730742</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>139</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>139</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4111,24 +3849,21 @@
         <v>2558.7255</v>
       </c>
       <c r="G95" t="n">
-        <v>27791.01975730742</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>139</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>139</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4150,24 +3885,21 @@
         <v>988.8075</v>
       </c>
       <c r="G96" t="n">
-        <v>26802.21225730742</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>139</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>139</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4189,24 +3921,21 @@
         <v>765.6767</v>
       </c>
       <c r="G97" t="n">
-        <v>26036.53555730742</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>139</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>139</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4228,24 +3957,21 @@
         <v>1661.0048</v>
       </c>
       <c r="G98" t="n">
-        <v>24375.53075730742</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>139</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>139</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4267,24 +3993,21 @@
         <v>7248.736</v>
       </c>
       <c r="G99" t="n">
-        <v>24375.53075730742</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>139</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>139</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4306,24 +4029,21 @@
         <v>5061.8784</v>
       </c>
       <c r="G100" t="n">
-        <v>29437.40915730743</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>139</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>139</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4345,24 +4065,21 @@
         <v>7416.7123</v>
       </c>
       <c r="G101" t="n">
-        <v>22020.69685730743</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>139</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>139</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4384,24 +4101,21 @@
         <v>4098.3794</v>
       </c>
       <c r="G102" t="n">
-        <v>26119.07625730742</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>139</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>139</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4423,24 +4137,21 @@
         <v>478.195</v>
       </c>
       <c r="G103" t="n">
-        <v>26119.07625730742</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>139</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>139</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4462,24 +4173,21 @@
         <v>5258.3264</v>
       </c>
       <c r="G104" t="n">
-        <v>20860.74985730743</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>139</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>139</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4501,24 +4209,21 @@
         <v>475</v>
       </c>
       <c r="G105" t="n">
-        <v>21335.74985730743</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>139</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>139</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4540,24 +4245,21 @@
         <v>636.2924</v>
       </c>
       <c r="G106" t="n">
-        <v>21972.04225730742</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>139</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>139</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4579,24 +4281,21 @@
         <v>223.0669</v>
       </c>
       <c r="G107" t="n">
-        <v>21748.97535730742</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>139</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>139</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4618,24 +4317,21 @@
         <v>4406.8419</v>
       </c>
       <c r="G108" t="n">
-        <v>26155.81725730742</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>139</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>139</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4657,24 +4353,21 @@
         <v>5391.751</v>
       </c>
       <c r="G109" t="n">
-        <v>31547.56825730742</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>139</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>139</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4696,24 +4389,21 @@
         <v>1250</v>
       </c>
       <c r="G110" t="n">
-        <v>31547.56825730742</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>139</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>139</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4735,24 +4425,21 @@
         <v>125</v>
       </c>
       <c r="G111" t="n">
-        <v>31672.56825730742</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>139</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>139</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4774,24 +4461,21 @@
         <v>40248.5827</v>
       </c>
       <c r="G112" t="n">
-        <v>-8576.014442692576</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>139</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>139</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4813,24 +4497,21 @@
         <v>9925.740599999999</v>
       </c>
       <c r="G113" t="n">
-        <v>1349.726157307423</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>139</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>139</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4852,24 +4533,21 @@
         <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>1339.726157307423</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>139</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>139</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4891,24 +4569,21 @@
         <v>6041.5</v>
       </c>
       <c r="G115" t="n">
-        <v>7381.226157307423</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>139</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>139</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4930,24 +4605,21 @@
         <v>250</v>
       </c>
       <c r="G116" t="n">
-        <v>7631.226157307423</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>139</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>139</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4969,24 +4641,21 @@
         <v>1310.4412</v>
       </c>
       <c r="G117" t="n">
-        <v>7631.226157307423</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>139</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>139</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5008,24 +4677,21 @@
         <v>411.7648</v>
       </c>
       <c r="G118" t="n">
-        <v>7219.461357307423</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>139</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>139</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5047,24 +4713,21 @@
         <v>499.8304</v>
       </c>
       <c r="G119" t="n">
-        <v>6719.630957307423</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>139</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>139</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5086,24 +4749,21 @@
         <v>394.7683</v>
       </c>
       <c r="G120" t="n">
-        <v>7114.399257307423</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>139</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>139</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5125,24 +4785,21 @@
         <v>11169.0644</v>
       </c>
       <c r="G121" t="n">
-        <v>7114.399257307423</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>139</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>139</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5164,24 +4821,21 @@
         <v>2131.7207</v>
       </c>
       <c r="G122" t="n">
-        <v>7114.399257307423</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>139</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>139</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5203,24 +4857,21 @@
         <v>240.7922</v>
       </c>
       <c r="G123" t="n">
-        <v>7114.399257307423</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>139</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>139</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5242,24 +4893,21 @@
         <v>46130.6752</v>
       </c>
       <c r="G124" t="n">
-        <v>7114.399257307423</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>139</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>139</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5281,24 +4929,21 @@
         <v>17663.9996</v>
       </c>
       <c r="G125" t="n">
-        <v>24778.39885730742</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>139</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>139</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5320,24 +4965,21 @@
         <v>3646.2116</v>
       </c>
       <c r="G126" t="n">
-        <v>24778.39885730742</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>139</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>139</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5359,24 +5001,21 @@
         <v>34815.4534</v>
       </c>
       <c r="G127" t="n">
-        <v>59593.85225730742</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>139</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>139</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5398,24 +5037,21 @@
         <v>334.8109</v>
       </c>
       <c r="G128" t="n">
-        <v>59928.66315730742</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>139</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>139</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5437,24 +5073,21 @@
         <v>15117.4719</v>
       </c>
       <c r="G129" t="n">
-        <v>75046.13505730742</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>139</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>139</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5476,24 +5109,21 @@
         <v>3377.0196</v>
       </c>
       <c r="G130" t="n">
-        <v>78423.15465730742</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>139</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>139</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5515,24 +5145,21 @@
         <v>395.6254</v>
       </c>
       <c r="G131" t="n">
-        <v>78818.78005730742</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>139</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>139</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5554,24 +5181,21 @@
         <v>1973.3198</v>
       </c>
       <c r="G132" t="n">
-        <v>80792.09985730742</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>139</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>139</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5593,24 +5217,21 @@
         <v>5594.5223</v>
       </c>
       <c r="G133" t="n">
-        <v>86386.62215730741</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>139</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>139</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5632,24 +5253,21 @@
         <v>12756.1987</v>
       </c>
       <c r="G134" t="n">
-        <v>99142.82085730741</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>139</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>139</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5671,24 +5289,21 @@
         <v>5757.98</v>
       </c>
       <c r="G135" t="n">
-        <v>93384.84085730741</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>139</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>139</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5710,24 +5325,21 @@
         <v>2610.8249</v>
       </c>
       <c r="G136" t="n">
-        <v>95995.66575730742</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>139</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>139</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5749,24 +5361,21 @@
         <v>6126.6878</v>
       </c>
       <c r="G137" t="n">
-        <v>95995.66575730742</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>139</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>139</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5788,24 +5397,21 @@
         <v>677.8582</v>
       </c>
       <c r="G138" t="n">
-        <v>96673.52395730742</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>139</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>139</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5827,24 +5433,21 @@
         <v>334.8109</v>
       </c>
       <c r="G139" t="n">
-        <v>97008.33485730742</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>139</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>139</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5866,24 +5469,21 @@
         <v>425.6266</v>
       </c>
       <c r="G140" t="n">
-        <v>97433.96145730742</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>139</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>139</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5905,24 +5505,21 @@
         <v>1909.5727</v>
       </c>
       <c r="G141" t="n">
-        <v>97433.96145730742</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>139</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>139</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5944,24 +5541,21 @@
         <v>423.4409</v>
       </c>
       <c r="G142" t="n">
-        <v>97433.96145730742</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>139</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>139</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5983,24 +5577,21 @@
         <v>7852.3207</v>
       </c>
       <c r="G143" t="n">
-        <v>105286.2821573074</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>139</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>139</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6022,24 +5613,21 @@
         <v>988</v>
       </c>
       <c r="G144" t="n">
-        <v>104298.2821573074</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>139</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>139</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6061,24 +5649,21 @@
         <v>1131.5675</v>
       </c>
       <c r="G145" t="n">
-        <v>105429.8496573074</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>139</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>139</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6100,24 +5685,21 @@
         <v>5005</v>
       </c>
       <c r="G146" t="n">
-        <v>110434.8496573074</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>139</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>139</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6139,24 +5721,21 @@
         <v>2052.8065</v>
       </c>
       <c r="G147" t="n">
-        <v>112487.6561573074</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>139</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>139</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6178,24 +5757,21 @@
         <v>7.25</v>
       </c>
       <c r="G148" t="n">
-        <v>112480.4061573074</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>139</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>139</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6217,24 +5793,21 @@
         <v>10124.9999</v>
       </c>
       <c r="G149" t="n">
-        <v>122605.4060573074</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>139</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>139</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6256,24 +5829,21 @@
         <v>933.1763999999999</v>
       </c>
       <c r="G150" t="n">
-        <v>122605.4060573074</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>139</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>139</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6295,24 +5865,21 @@
         <v>1864.6753</v>
       </c>
       <c r="G151" t="n">
-        <v>122605.4060573074</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>139</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>139</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6334,24 +5901,21 @@
         <v>14510.1403</v>
       </c>
       <c r="G152" t="n">
-        <v>137115.5463573074</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>139</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>139</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6373,24 +5937,21 @@
         <v>671.8295000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>137115.5463573074</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>139</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>139</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6412,24 +5973,21 @@
         <v>8626.5568</v>
       </c>
       <c r="G154" t="n">
-        <v>145742.1031573074</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>139</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>139</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6451,24 +6009,21 @@
         <v>431</v>
       </c>
       <c r="G155" t="n">
-        <v>145742.1031573074</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>139</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>139</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6490,24 +6045,21 @@
         <v>23398.80005170114</v>
       </c>
       <c r="G156" t="n">
-        <v>169140.9032090085</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>139</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>139</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6529,24 +6081,21 @@
         <v>1125</v>
       </c>
       <c r="G157" t="n">
-        <v>169140.9032090085</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>139</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>139</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6568,24 +6117,21 @@
         <v>125</v>
       </c>
       <c r="G158" t="n">
-        <v>169015.9032090085</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>139</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>139</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6607,24 +6153,23 @@
         <v>3750</v>
       </c>
       <c r="G159" t="n">
-        <v>165265.9032090085</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>139</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>139</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1.069820143884892</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>1.003597122302158</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6646,24 +6191,15 @@
         <v>2167.1626</v>
       </c>
       <c r="G160" t="n">
-        <v>167433.0658090085</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>139</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6685,24 +6221,15 @@
         <v>15000</v>
       </c>
       <c r="G161" t="n">
-        <v>152433.0658090085</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>139</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6724,24 +6251,15 @@
         <v>312.0936</v>
       </c>
       <c r="G162" t="n">
-        <v>152433.0658090085</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>139</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6763,24 +6281,15 @@
         <v>6685.8857</v>
       </c>
       <c r="G163" t="n">
-        <v>145747.1801090085</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>139</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6802,24 +6311,15 @@
         <v>20402.6437</v>
       </c>
       <c r="G164" t="n">
-        <v>166149.8238090085</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>139</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6841,24 +6341,15 @@
         <v>250</v>
       </c>
       <c r="G165" t="n">
-        <v>165899.8238090085</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>139</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6880,24 +6371,15 @@
         <v>375</v>
       </c>
       <c r="G166" t="n">
-        <v>166274.8238090085</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>139</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6919,24 +6401,15 @@
         <v>7.9533</v>
       </c>
       <c r="G167" t="n">
-        <v>166282.7771090085</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>139</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6958,24 +6431,15 @@
         <v>3013.7676</v>
       </c>
       <c r="G168" t="n">
-        <v>163269.0095090085</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>139</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6997,24 +6461,15 @@
         <v>8000</v>
       </c>
       <c r="G169" t="n">
-        <v>171269.0095090085</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>139</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7036,24 +6491,15 @@
         <v>1997.2803</v>
       </c>
       <c r="G170" t="n">
-        <v>169271.7292090085</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>139</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7075,24 +6521,15 @@
         <v>1425.1915</v>
       </c>
       <c r="G171" t="n">
-        <v>169271.7292090085</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>139</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7114,24 +6551,15 @@
         <v>2763.3426</v>
       </c>
       <c r="G172" t="n">
-        <v>169271.7292090085</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>139</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7153,24 +6581,15 @@
         <v>3013.7676</v>
       </c>
       <c r="G173" t="n">
-        <v>169271.7292090085</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>139</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7192,24 +6611,15 @@
         <v>1522.8197</v>
       </c>
       <c r="G174" t="n">
-        <v>170794.5489090085</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>139</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7231,24 +6641,15 @@
         <v>689.4584</v>
       </c>
       <c r="G175" t="n">
-        <v>171484.0073090085</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>139</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7270,26 +6671,15 @@
         <v>2093.398</v>
       </c>
       <c r="G176" t="n">
-        <v>171484.0073090085</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>139</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1.07341726618705</v>
-      </c>
-      <c r="M176" t="n">
-        <v>1.003597122302158</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7311,18 +6701,15 @@
         <v>13089.21664829887</v>
       </c>
       <c r="G177" t="n">
-        <v>184573.2239573074</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7344,18 +6731,15 @@
         <v>129.1555</v>
       </c>
       <c r="G178" t="n">
-        <v>184573.2239573074</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7377,18 +6761,15 @@
         <v>2745.3932</v>
       </c>
       <c r="G179" t="n">
-        <v>184573.2239573074</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7410,18 +6791,15 @@
         <v>14426</v>
       </c>
       <c r="G180" t="n">
-        <v>170147.2239573074</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7443,18 +6821,15 @@
         <v>13025.687</v>
       </c>
       <c r="G181" t="n">
-        <v>183172.9109573074</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7476,18 +6851,15 @@
         <v>16842.7527</v>
       </c>
       <c r="G182" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7509,18 +6881,15 @@
         <v>14570.3079</v>
       </c>
       <c r="G183" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7542,18 +6911,15 @@
         <v>6381.02</v>
       </c>
       <c r="G184" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7575,18 +6941,15 @@
         <v>26344.3787</v>
       </c>
       <c r="G185" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7608,18 +6971,15 @@
         <v>15000</v>
       </c>
       <c r="G186" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7641,18 +7001,15 @@
         <v>4925.9267</v>
       </c>
       <c r="G187" t="n">
-        <v>166330.1582573074</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7674,18 +7031,15 @@
         <v>493.3653</v>
       </c>
       <c r="G188" t="n">
-        <v>166823.5235573074</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7707,18 +7061,15 @@
         <v>744.355</v>
       </c>
       <c r="G189" t="n">
-        <v>167567.8785573074</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7740,18 +7091,15 @@
         <v>12425.3959</v>
       </c>
       <c r="G190" t="n">
-        <v>155142.4826573074</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7773,18 +7121,15 @@
         <v>9696.203799999999</v>
       </c>
       <c r="G191" t="n">
-        <v>155142.4826573074</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7806,18 +7151,15 @@
         <v>2612.1258</v>
       </c>
       <c r="G192" t="n">
-        <v>155142.4826573074</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7839,18 +7181,15 @@
         <v>6980.3445</v>
       </c>
       <c r="G193" t="n">
-        <v>162122.8271573074</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7872,18 +7211,15 @@
         <v>209.2991</v>
       </c>
       <c r="G194" t="n">
-        <v>161913.5280573074</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7905,18 +7241,15 @@
         <v>1655.2312</v>
       </c>
       <c r="G195" t="n">
-        <v>161913.5280573074</v>
-      </c>
-      <c r="H195" t="n">
         <v>2</v>
       </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7938,18 +7271,15 @@
         <v>21164.2736</v>
       </c>
       <c r="G196" t="n">
-        <v>140749.2544573074</v>
-      </c>
-      <c r="H196" t="n">
         <v>2</v>
       </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7971,18 +7301,15 @@
         <v>1024.7936</v>
       </c>
       <c r="G197" t="n">
-        <v>141774.0480573074</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8004,18 +7331,15 @@
         <v>183.0293</v>
       </c>
       <c r="G198" t="n">
-        <v>141591.0187573074</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8037,18 +7361,15 @@
         <v>56.7743</v>
       </c>
       <c r="G199" t="n">
-        <v>141647.7930573074</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8070,18 +7391,15 @@
         <v>3098.2996</v>
       </c>
       <c r="G200" t="n">
-        <v>144746.0926573074</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8103,18 +7421,15 @@
         <v>583.1176</v>
       </c>
       <c r="G201" t="n">
-        <v>144162.9750573074</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8136,18 +7451,15 @@
         <v>7352.1748</v>
       </c>
       <c r="G202" t="n">
-        <v>151515.1498573074</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8169,18 +7481,15 @@
         <v>219.5287</v>
       </c>
       <c r="G203" t="n">
-        <v>151734.6785573074</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8202,18 +7511,15 @@
         <v>83.6157</v>
       </c>
       <c r="G204" t="n">
-        <v>151818.2942573074</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8235,18 +7541,15 @@
         <v>171.2966</v>
       </c>
       <c r="G205" t="n">
-        <v>151646.9976573074</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8268,18 +7571,15 @@
         <v>8315.162399999999</v>
       </c>
       <c r="G206" t="n">
-        <v>143331.8352573074</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8301,18 +7601,15 @@
         <v>3110.9409</v>
       </c>
       <c r="G207" t="n">
-        <v>140220.8943573074</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8334,18 +7631,15 @@
         <v>3098.2996</v>
       </c>
       <c r="G208" t="n">
-        <v>143319.1939573074</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8367,18 +7661,15 @@
         <v>3849.0764</v>
       </c>
       <c r="G209" t="n">
-        <v>147168.2703573074</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8400,18 +7691,15 @@
         <v>802.3385</v>
       </c>
       <c r="G210" t="n">
-        <v>147970.6088573074</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8433,18 +7721,15 @@
         <v>37.4856</v>
       </c>
       <c r="G211" t="n">
-        <v>147970.6088573074</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8466,18 +7751,15 @@
         <v>68.626</v>
       </c>
       <c r="G212" t="n">
-        <v>147901.9828573074</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
